--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -126,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,12 +137,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -243,23 +237,23 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>673131</v>
       </c>
@@ -596,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7">
         <v>738919</v>
       </c>
@@ -605,7 +599,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="7">
         <v>847334</v>
       </c>
@@ -614,7 +608,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="7">
         <v>915334</v>
       </c>
@@ -623,7 +617,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7">
         <v>944006</v>
       </c>
@@ -632,7 +626,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="7">
         <v>957527</v>
       </c>
@@ -641,7 +635,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="7">
         <v>974191</v>
       </c>
@@ -650,7 +644,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="7">
         <v>1030366</v>
       </c>
@@ -659,7 +653,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="7">
         <v>2846689</v>
       </c>
@@ -668,7 +662,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="7">
         <v>2860522</v>
       </c>
@@ -677,7 +671,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="7">
         <v>2945331</v>
       </c>
@@ -686,7 +680,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="7">
         <v>2963137</v>
       </c>
@@ -695,7 +689,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="7">
         <v>2969347</v>
       </c>
@@ -704,7 +698,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="7">
         <v>3023771</v>
       </c>
@@ -713,7 +707,7 @@
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="7">
         <v>3075427</v>
       </c>
@@ -722,7 +716,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="7">
         <v>3078718</v>
       </c>
@@ -731,7 +725,7 @@
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="7">
         <v>3145143</v>
       </c>
@@ -740,7 +734,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="7">
         <v>3185555</v>
       </c>
@@ -749,7 +743,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="7">
         <v>3222314</v>
       </c>
@@ -758,7 +752,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="7">
         <v>3231351</v>
       </c>
@@ -767,7 +761,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="7">
         <v>3266945</v>
       </c>
@@ -776,7 +770,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="7">
         <v>3283744</v>
       </c>
@@ -785,7 +779,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="7">
         <v>3395159</v>
       </c>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -40,7 +40,13 @@
     <t>{"Prospecto": 915334, "monto_maximo_cliente": 396656.0, "cuota_externa_total": 25526.0, "capacidad_maxima_pago": 390950.0, "bursolnum": 7262001, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17032.558390112892, "monto_max": 396656.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.3813, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":7, "monto_otorgado":15300.0, "cuota":1116.0, "saldo":15358.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0038, "fecha_inicio":"2017-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":336000.0, "cuota":16556.0, "saldo":311616.0, "tasa_externa":0.5792, "tasa_kubo":0.0038, "numero_pagos_otorgado":144.0, "numero_pagos_restante":59.0, "frecuencia_externa":"S", "avance":0.0726, "fecha_inicio":"2023-02-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":22400.0, "cuota":1500, "saldo":22322.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0035, "fecha_inicio":"2014-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15300.0, "cuota":704, "saldo":14035.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0827, "fecha_inicio":"2017-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3282.0, "saldo":49566.0, "tasa_externa":0.6886, "tasa_kubo":0.0038, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.0087, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":70670.0, "cuota":2356.0, "saldo":47524.0, "tasa_externa":0.0001, "tasa_kubo":0.0038, "numero_pagos_otorgado":30.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3275, "fecha_inicio":"2023-05-04", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":6, "monto_otorgado":66472.0, "cuota":2216.0, "saldo":20676.0, "tasa_externa":0.0001, "tasa_kubo":0.0038, "numero_pagos_otorgado":30.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.689, "fecha_inicio":"2022-03-07", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
+    <t>Para deudas no consolidables, la tasa kubo viene como "tasa_kubo": 0.0038,</t>
+  </si>
+  <si>
     <t>{"Prospecto": 944006, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 43825.0, "capacidad_maxima_pago": 816653.0, "bursolnum": 7261004, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 32175.26206082056, "monto_max": 500000.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 18.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-04-11", "tipo_deuda":"O", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":2687140.0, "cuota":21291.0, "saldo":2121434.0, "tasa_externa":0.0738, "tasa_kubo":0.0016, "numero_pagos_otorgado":240.0, "numero_pagos_restante":163.0, "frecuencia_externa":"M", "avance":0.2105, "fecha_inicio":"2017-09-28", "tipo_deuda":"M", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":150000.0, "cuota":5533.0, "saldo":150756.0, "tasa_externa":0.1973, "tasa_kubo":0.0016, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":-0.005, "fecha_inicio":"2023-12-20", "tipo_deuda":"I", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":20000.0, "cuota":499.0, "saldo":499.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.975, "fecha_inicio":"2004-06-13", "tipo_deuda":"O", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":322400.0, "cuota":1620.0, "saldo":4854.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9849, "fecha_inicio":"1996-02-28", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":694000.0, "cuota":10981, "saldo":89846.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8705, "fecha_inicio":"2020-04-27", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":60000.0, "cuota":4192.0, "saldo":3433.0, "tasa_externa":0.3081, "tasa_kubo":0.0016, "numero_pagos_otorgado":18.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.9428, "fecha_inicio":"2023-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":250163.0, "cuota":9116, "saldo":40761.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8371, "fecha_inicio":"2009-04-29", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500000.0, "cuota":25000.0, "saldo":142230.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7155, "fecha_inicio":"2013-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":0.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2008-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Para deudas no consolidables, la tasa kubo viene como "tasa_kubo": 0.0016</t>
   </si>
   <si>
     <t>{"Prospecto": 957527, "monto_maximo_cliente": 360945.0, "cuota_externa_total": 35131.0, "capacidad_maxima_pago": 367456.0, "bursolnum": 7262364, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 21953.446212106446, "monto_max": 360945.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":10800.0, "cuota":1800, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2012-07-16", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":186600.0, "cuota":11788.0, "saldo":90098.0, "tasa_externa":0.7483, "tasa_kubo":0.006, "numero_pagos_otorgado":120.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.5172, "fecha_inicio":"2020-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":1110.0, "saldo":11978.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.1978, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":126300.0, "cuota":7995.0, "saldo":126264.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0003, "fecha_inicio":"2019-01-10", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":224000.0, "cuota":14238.0, "saldo":214947.0, "tasa_externa":0.6876, "tasa_kubo":0.006, "numero_pagos_otorgado":40.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0404, "fecha_inicio":"2023-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -565,7 +571,7 @@
   <cols>
     <col min="1" max="1" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="68.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -615,23 +621,27 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="7">
         <v>944006</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="7">
         <v>957527</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -640,7 +650,7 @@
         <v>974191</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -649,7 +659,7 @@
         <v>1030366</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -658,7 +668,7 @@
         <v>2846689</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -667,7 +677,7 @@
         <v>2860522</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -676,7 +686,7 @@
         <v>2945331</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -685,7 +695,7 @@
         <v>2963137</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
     </row>
@@ -694,7 +704,7 @@
         <v>2969347</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -703,7 +713,7 @@
         <v>3023771</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -712,7 +722,7 @@
         <v>3075427</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -721,7 +731,7 @@
         <v>3078718</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -730,7 +740,7 @@
         <v>3145143</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -739,7 +749,7 @@
         <v>3185555</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
     </row>
@@ -748,7 +758,7 @@
         <v>3222314</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -757,7 +767,7 @@
         <v>3231351</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
     </row>
@@ -766,7 +776,7 @@
         <v>3266945</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -775,7 +785,7 @@
         <v>3283744</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6"/>
     </row>
@@ -784,7 +794,7 @@
         <v>3395159</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -793,7 +803,7 @@
         <v>3398532</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -802,7 +812,7 @@
         <v>3429016</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6"/>
     </row>
@@ -811,7 +821,7 @@
         <v>3491079</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="6"/>
     </row>
@@ -820,7 +830,7 @@
         <v>3550281</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6"/>
     </row>
@@ -829,7 +839,7 @@
         <v>3563076</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -838,7 +848,7 @@
         <v>3565514</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6"/>
     </row>
@@ -847,7 +857,7 @@
         <v>3672001</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -856,7 +866,7 @@
         <v>3688011</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
     </row>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -22,109 +22,88 @@
     <t>Json</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 673131, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 49972.0, "capacidad_maxima_pago": 939723.0, "bursolnum": 7262204, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 31287.480213814375, "monto_max": 500000.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":85000.0, "cuota":4250.0, "saldo":68898.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1894, "fecha_inicio":"2021-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":2000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2005-12-12", "tipo_deuda":"O", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":3, "monto_otorgado":443416.0, "cuota":0.0, "saldo":307831.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.3058, "fecha_inicio":"2004-07-01", "tipo_deuda":"O", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":47000.0, "cuota":650, "saldo":31010.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3402, "fecha_inicio":"2007-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":116890.0, "cuota":5735.0, "saldo":104580.0, "tasa_externa":0.5561, "tasa_kubo":0.0062, "numero_pagos_otorgado":60.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.1053, "fecha_inicio":"2022-03-23", "tipo_deuda":"I", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":122650.0, "cuota":6132.0, "saldo":112776.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0805, "fecha_inicio":"2006-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":36900.0, "cuota":1845.0, "saldo":14242.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.614, "fecha_inicio":"1997-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":613600.0, "cuota":36184.0, "saldo":512510.0, "tasa_externa":0.6928, "tasa_kubo":0.0062, "numero_pagos_otorgado":120.0, "numero_pagos_restante":41.0, "frecuencia_externa":"S", "avance":0.1647, "fecha_inicio":"2022-08-15", "tipo_deuda":"I", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":36900.0, "cuota":1845.0, "saldo":14529.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6063, "fecha_inicio":"1997-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":18968.519786185625, "ahorro_total":1024300.0684540238, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>La cuota y plazo maximo no alcanzan para el monto</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 738919, "monto_maximo_cliente": 171813.0, "cuota_externa_total": 14510.0, "capacidad_maxima_pago": 187124.0, "bursolnum": 7261892, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8067.485326803379, "monto_max": 171813.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 53.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0439, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":160000.0, "cuota":8036.0, "saldo":104861.0, "tasa_externa":0.5355, "tasa_kubo":0.007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3446, "fecha_inicio":"2016-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":603.5146731966206, "ahorro_total":31986.27767942089, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":12700.0, "cuota":635.0, "saldo":7137.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.438, "fecha_inicio":"2022-06-28", "tipo_deuda":"R", "ahorro_cuota_mensual":603.5146731966206, "ahorro_total":31986.27767942089, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1700.0, "cuota":1287.0, "saldo":1287.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.2429, "fecha_inicio":"2022-11-20", "tipo_deuda":"O", "ahorro_cuota_mensual":603.5146731966206, "ahorro_total":31986.27767942089, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":65000.0, "cuota":4787.0, "saldo":64934.0, "tasa_externa":0.8073, "tasa_kubo":0.007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.001, "fecha_inicio":"2023-08-14", "tipo_deuda":"I", "ahorro_cuota_mensual":603.5146731966206, "ahorro_total":31986.27767942089, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 847334, "monto_maximo_cliente": 162857.0, "cuota_externa_total": 6390.0, "capacidad_maxima_pago": 166447.0, "bursolnum": 7262360, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9070.78268123288, "monto_max": 162857.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":42900.0, "cuota":1045, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-03-30", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-03-13", "tipo_deuda":"O", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":84000.0, "cuota":4359.0, "saldo":77642.0, "tasa_externa":0.558, "tasa_kubo":0.0054, "numero_pagos_otorgado":48.0, "numero_pagos_restante":35.0, "frecuencia_externa":"M", "avance":0.0757, "fecha_inicio":"2023-01-23", "tipo_deuda":"I", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":19, "monto_otorgado":13000.0, "cuota":-1, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-03-30", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":13900.0, "cuota":2299, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":13300.0, "cuota":665.0, "saldo":9680.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2722, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":16000.0, "cuota":800.0, "saldo":1514.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9054, "fecha_inicio":"2020-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":25000.0, "cuota":1250.0, "saldo":10852.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5659, "fecha_inicio":"2023-05-09", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":20300.0, "cuota":1172.0, "saldo":19162.0, "tasa_externa":0.6762, "tasa_kubo":0.0054, "numero_pagos_otorgado":120.0, "numero_pagos_restante":51.0, "frecuencia_externa":"S", "avance":0.0561, "fecha_inicio":"2023-06-12", "tipo_deuda":"I", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":90000.0, "cuota":119, "saldo":4775.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9469, "fecha_inicio":"2017-06-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":13000.0, "cuota":7033, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5311.21731876712, "ahorro_total":286805.7352134245, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 915334, "monto_maximo_cliente": 396656.0, "cuota_externa_total": 25526.0, "capacidad_maxima_pago": 390950.0, "bursolnum": 7262001, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17032.558390112892, "monto_max": 396656.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.3813, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":7, "monto_otorgado":15300.0, "cuota":1116.0, "saldo":15358.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0038, "fecha_inicio":"2017-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":336000.0, "cuota":16556.0, "saldo":311616.0, "tasa_externa":0.5792, "tasa_kubo":0.0038, "numero_pagos_otorgado":144.0, "numero_pagos_restante":59.0, "frecuencia_externa":"S", "avance":0.0726, "fecha_inicio":"2023-02-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":22400.0, "cuota":1500, "saldo":22322.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0035, "fecha_inicio":"2014-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15300.0, "cuota":704, "saldo":14035.0, "tasa_externa":-1.0, "tasa_kubo":0.0038, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0827, "fecha_inicio":"2017-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3282.0, "saldo":49566.0, "tasa_externa":0.6886, "tasa_kubo":0.0038, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.0087, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":70670.0, "cuota":2356.0, "saldo":47524.0, "tasa_externa":0.0001, "tasa_kubo":0.0038, "numero_pagos_otorgado":30.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3275, "fecha_inicio":"2023-05-04", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":6, "monto_otorgado":66472.0, "cuota":2216.0, "saldo":20676.0, "tasa_externa":0.0001, "tasa_kubo":0.0038, "numero_pagos_otorgado":30.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.689, "fecha_inicio":"2022-03-07", "tipo_deuda":"I", "ahorro_cuota_mensual":2843.441609887108, "ahorro_total":153545.8469339038, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Para deudas no consolidables, la tasa kubo viene como "tasa_kubo": 0.0038,</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 944006, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 43825.0, "capacidad_maxima_pago": 816653.0, "bursolnum": 7261004, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 32175.26206082056, "monto_max": 500000.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 18.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-04-11", "tipo_deuda":"O", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":2687140.0, "cuota":21291.0, "saldo":2121434.0, "tasa_externa":0.0738, "tasa_kubo":0.0016, "numero_pagos_otorgado":240.0, "numero_pagos_restante":163.0, "frecuencia_externa":"M", "avance":0.2105, "fecha_inicio":"2017-09-28", "tipo_deuda":"M", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":150000.0, "cuota":5533.0, "saldo":150756.0, "tasa_externa":0.1973, "tasa_kubo":0.0016, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":-0.005, "fecha_inicio":"2023-12-20", "tipo_deuda":"I", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":20000.0, "cuota":499.0, "saldo":499.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.975, "fecha_inicio":"2004-06-13", "tipo_deuda":"O", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":322400.0, "cuota":1620.0, "saldo":4854.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9849, "fecha_inicio":"1996-02-28", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":694000.0, "cuota":10981, "saldo":89846.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8705, "fecha_inicio":"2020-04-27", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":60000.0, "cuota":4192.0, "saldo":3433.0, "tasa_externa":0.3081, "tasa_kubo":0.0016, "numero_pagos_otorgado":18.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.9428, "fecha_inicio":"2023-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":250163.0, "cuota":9116, "saldo":40761.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8371, "fecha_inicio":"2009-04-29", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500000.0, "cuota":25000.0, "saldo":142230.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7155, "fecha_inicio":"2013-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":0.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0016, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2008-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":18733.73793917944, "ahorro_total":337207.2829052299, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Para deudas no consolidables, la tasa kubo viene como "tasa_kubo": 0.0016</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 957527, "monto_maximo_cliente": 360945.0, "cuota_externa_total": 35131.0, "capacidad_maxima_pago": 367456.0, "bursolnum": 7262364, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 21953.446212106446, "monto_max": 360945.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":10800.0, "cuota":1800, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2012-07-16", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":186600.0, "cuota":11788.0, "saldo":90098.0, "tasa_externa":0.7483, "tasa_kubo":0.006, "numero_pagos_otorgado":120.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.5172, "fecha_inicio":"2020-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":1110.0, "saldo":11978.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.1978, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":126300.0, "cuota":7995.0, "saldo":126264.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0003, "fecha_inicio":"2019-01-10", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":224000.0, "cuota":14238.0, "saldo":214947.0, "tasa_externa":0.6876, "tasa_kubo":0.006, "numero_pagos_otorgado":40.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0404, "fecha_inicio":"2023-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5537878935538, "ahorro_total":39935.904546251906, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 974191, "monto_maximo_cliente": 244477.0, "cuota_externa_total": 26396.0, "capacidad_maxima_pago": 252881.0, "bursolnum": 7261707, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13409.921957185652, "monto_max": 244477.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0471, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":583761.0, "cuota":5768.0, "saldo":511344.0, "tasa_externa":0.1163, "tasa_kubo":0.0055, "numero_pagos_otorgado":360.0, "numero_pagos_restante":279.0, "frecuencia_externa":"M", "avance":0.1241, "fecha_inicio":"2017-06-15", "tipo_deuda":"M", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2016-04-23", "tipo_deuda":"O", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":110000.0, "cuota":8094.0, "saldo":105125.0, "tasa_externa":0.6274, "tasa_kubo":0.0055, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0443, "fecha_inicio":"2023-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":20400.0, "cuota":1020.0, "saldo":19689.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0349, "fecha_inicio":"2020-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":168200.0, "cuota":10120.0, "saldo":167902.0, "tasa_externa":0.7087, "tasa_kubo":0.0055, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":0.0018, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":56825.0, "cuota":2841.0, "saldo":53900.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0515, "fecha_inicio":"2018-12-13", "tipo_deuda":"R", "ahorro_cuota_mensual":571.078042814348, "ahorro_total":33693.60452604653, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 1030366, "monto_maximo_cliente": 310750.0, "cuota_externa_total": 20210.0, "capacidad_maxima_pago": 331403.0, "bursolnum": 7261381, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 24063.811613104346, "monto_max": 310750.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 15.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":11915.0, "cuota":90.0, "saldo":270.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9773, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":30, "monto_otorgado":84043.0, "cuota":6197.0, "saldo":80228.0, "tasa_externa":0.8087, "tasa_kubo":0.007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0454, "fecha_inicio":"2023-05-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":29, "monto_otorgado":15000.0, "cuota":1266.0, "saldo":14726.0, "tasa_externa":0.807, "tasa_kubo":0.007, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0183, "fecha_inicio":"2023-09-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":20000.0, "cuota":1122.0, "saldo":1122.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9439, "fecha_inicio":"2014-02-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":20000.0, "cuota":398.0, "saldo":398.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9801, "fecha_inicio":"2014-02-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":28, "monto_otorgado":9000.0, "cuota":943.0, "saldo":8676.0, "tasa_externa":0.9416, "tasa_kubo":0.007, "numero_pagos_otorgado":18.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.036, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":25, "monto_otorgado":11115.0, "cuota":813.0, "saldo":4325.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6109, "fecha_inicio":"2024-01-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":24, "monto_otorgado":13031.0, "cuota":652.0, "saldo":754.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9421, "fecha_inicio":"2024-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":23, "monto_otorgado":13031.0, "cuota":-1, "saldo":4216.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6765, "fecha_inicio":"2023-12-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":12331.0, "cuota":-1, "saldo":2093.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8303, "fecha_inicio":"2023-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":13003.0, "cuota":650.0, "saldo":1074.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9174, "fecha_inicio":"2023-12-05", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":11915.0, "cuota":596.0, "saldo":630.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9471, "fecha_inicio":"2023-11-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":13044.0, "cuota":-1, "saldo":987.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9243, "fecha_inicio":"2023-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":13072.0, "cuota":776.0, "saldo":1552.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8813, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":53000.0, "cuota":2650.0, "saldo":49078.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.074, "fecha_inicio":"2015-01-07", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":70000.0, "cuota":4376.0, "saldo":69528.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0067, "fecha_inicio":"2021-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":20000.0, "cuota":2740.0, "saldo":6200.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.69, "fecha_inicio":"2023-10-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":11717.0, "cuota":-1, "saldo":262.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9776, "fecha_inicio":"2023-08-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":11992.0, "cuota":-1, "saldo":270.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9775, "fecha_inicio":"2023-09-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":11915.0, "cuota":150.0, "saldo":450.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9622, "fecha_inicio":"2023-11-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":13092.0, "cuota":-1, "saldo":160.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9878, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":13034.0, "cuota":-1, "saldo":194.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9851, "fecha_inicio":"2023-09-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":13034.0, "cuota":-1, "saldo":588.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9549, "fecha_inicio":"2023-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":13034.0, "cuota":-1, "saldo":717.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.945, "fecha_inicio":"2023-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":13092.0, "cuota":-1, "saldo":318.0, "tasa_externa":-1.0, "tasa_kubo":0.007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9757, "fecha_inicio":"2023-09-05", "tipo_deuda":"R", "ahorro_cuota_mensual":-9637.811613104346, "ahorro_total":-144567.1741965652, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2846689, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 36193.0, "capacidad_maxima_pago": 506562.0, "bursolnum": 7259973, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 36630.87431505915, "monto_max": 500000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":31, "monto_otorgado":999.0, "cuota":242.0, "saldo":485.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":925.0, "frecuencia_externa":"M", "avance":0.5145, "fecha_inicio":"2017-12-07", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":70055.0, "cuota":3697.0, "saldo":28107.0, "tasa_externa":0.4848, "tasa_kubo":0.0048, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5988, "fecha_inicio":"2021-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":205567.0, "cuota":13369.0, "saldo":49125.0, "tasa_externa":0.4766, "tasa_kubo":0.0048, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.761, "fecha_inicio":"2022-04-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-12-05", "tipo_deuda":"O", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":34000.0, "cuota":3635.0, "saldo":19020.0, "tasa_externa":0.4937, "tasa_kubo":0.0048, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4406, "fecha_inicio":"2023-06-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":12800.0, "cuota":500, "saldo":10479.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1813, "fecha_inicio":"2022-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":245299.0, "cuota":12265.0, "saldo":232363.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0527, "fecha_inicio":"2021-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":71300.0, "cuota":4088.0, "saldo":48372.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3216, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":6, "monto_otorgado":12466.0, "cuota":1344.0, "saldo":5376.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5687, "fecha_inicio":"2023-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":5, "monto_otorgado":6100.0, "cuota":1460.0, "saldo":4378.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2823, "fecha_inicio":"2023-09-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Falta número de pagos", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":31200.0, "cuota":1560.0, "saldo":30586.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0197, "fecha_inicio":"2022-06-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":7000.0, "cuota":1096.0, "saldo":6314.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.098, "fecha_inicio":"2023-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":26000.0, "cuota":1457.0, "saldo":8823.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6607, "fecha_inicio":"2016-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":50500.0, "cuota":2525.0, "saldo":49032.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0291, "fecha_inicio":"2017-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-6700.874315059147, "ahorro_total":-107213.98904094636, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2860522, "monto_maximo_cliente": 139633.0, "cuota_externa_total": 13319.0, "capacidad_maxima_pago": 146314.0, "bursolnum": 7261350, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9083.761360923598, "monto_max": 139633.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 56.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":1921.0, "cuota":1146.0, "saldo":1146.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.4034, "fecha_inicio":"2021-04-07", "tipo_deuda":"O", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":41000.0, "cuota":2736.0, "saldo":37097.0, "tasa_externa":0.7051, "tasa_kubo":0.0065, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0952, "fecha_inicio":"2023-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":10000.0, "cuota":698.0, "saldo":9388.0, "tasa_externa":0.7509, "tasa_kubo":0.0065, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0612, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":3400.0, "cuota":514.0, "saldo":2179.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3591, "fecha_inicio":"2022-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":23100.0, "cuota":2150, "saldo":19283.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1652, "fecha_inicio":"2018-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":84700.0, "cuota":6264.0, "saldo":58505.0, "tasa_externa":0.8832, "tasa_kubo":0.0065, "numero_pagos_otorgado":112.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.3093, "fecha_inicio":"2022-01-18", "tipo_deuda":"I", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":7500.0, "cuota":1224, "saldo":5566.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2579, "fecha_inicio":"2023-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":18300.0, "cuota":1961.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":3029.2386390764023, "ahorro_total":169637.36378827854, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2945331, "monto_maximo_cliente": 157320.0, "cuota_externa_total": 17947.0, "capacidad_maxima_pago": 155534.0, "bursolnum": 7261715, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 11529.668643626112, "monto_max": 157320.0, "cuota_min": 269.2747621622814, "monto_min": 5000, "plazo_max": 24.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2018-09-28", "tipo_deuda":"O", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":12, "monto_otorgado":104071.0, "cuota":1046.0, "saldo":102281.0, "tasa_externa":0.1186, "tasa_kubo":0.0053, "numero_pagos_otorgado":360.0, "numero_pagos_restante":351.0, "frecuencia_externa":"M", "avance":0.0172, "fecha_inicio":"2023-05-30", "tipo_deuda":"M", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":24000.0, "cuota":1445.0, "saldo":23837.0, "tasa_externa":0.6048, "tasa_kubo":0.0053, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0068, "fecha_inicio":"2023-09-11", "tipo_deuda":"I", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":731491.0, "cuota":7438.0, "saldo":734382.0, "tasa_externa":0.1166, "tasa_kubo":0.0053, "numero_pagos_otorgado":300.0, "numero_pagos_restante":291.0, "frecuencia_externa":"M", "avance":-0.004, "fecha_inicio":"2023-05-24", "tipo_deuda":"M", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":49400.0, "cuota":2470.0, "saldo":2527.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9488, "fecha_inicio":"2022-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":15024.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4222, "fecha_inicio":"2020-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":10719.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-30", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":84435.0, "cuota":4222.0, "saldo":36964.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5622, "fecha_inicio":"2019-06-17", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":16900.0, "cuota":845.0, "saldo":6051.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.642, "fecha_inicio":"2022-07-22", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":15000.0, "cuota":750.0, "saldo":3253.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7831, "fecha_inicio":"2018-07-29", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":13000.0, "cuota":3660, "saldo":1349.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8962, "fecha_inicio":"2023-08-30", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":47500.0, "cuota":5864.0, "saldo":47585.0, "tasa_externa":1.3994, "tasa_kubo":0.0053, "numero_pagos_otorgado":48.0, "numero_pagos_restante":22.0, "frecuencia_externa":"S", "avance":-0.0018, "fecha_inicio":"2023-12-28", "tipo_deuda":"I", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":1100.0, "cuota":289, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-06-09", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":17000.0, "cuota":2654, "saldo":5166.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6961, "fecha_inicio":"2020-10-04", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11000.0, "cuota":173, "saldo":4632.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5789, "fecha_inicio":"2022-10-20", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":16100.0, "cuota":97, "saldo":6447.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5996, "fecha_inicio":"2018-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":10794.331356373888, "ahorro_total":259063.95255297332, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2963137, "monto_maximo_cliente": 185627.0, "cuota_externa_total": 18734.0, "capacidad_maxima_pago": 185998.0, "bursolnum": 7261276, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 15192.081622048185, "monto_max": 185627.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 24.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":50000.0, "cuota":3048.0, "saldo":47669.0, "tasa_externa":0.1212, "tasa_kubo":0.0065, "numero_pagos_otorgado":18.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.0466, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":24000.0, "cuota":10545, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":20000.0, "cuota":7980.0, "saldo":7980.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.601, "fecha_inicio":"2021-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":19000.0, "cuota":7000, "saldo":7895.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5845, "fecha_inicio":"2023-04-21", "tipo_deuda":"R", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":300.0, "cuota":184.0, "saldo":172.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4267, "fecha_inicio":"2014-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":50000.0, "cuota":6176.0, "saldo":43216.0, "tasa_externa":1.4004, "tasa_kubo":0.0065, "numero_pagos_otorgado":48.0, "numero_pagos_restante":18.0, "frecuencia_externa":"S", "avance":0.1357, "fecha_inicio":"2023-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":107640.0, "cuota":5382.0, "saldo":86690.0, "tasa_externa":-1.0, "tasa_kubo":0.0065, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1946, "fecha_inicio":"2022-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":22074.918377951813, "ahorro_total":529798.0410708436, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2969347, "monto_maximo_cliente": 49851.0, "cuota_externa_total": 13222.0, "capacidad_maxima_pago": 65779.0, "bursolnum": 7260395, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2846.3680528252366, "monto_max": 49851.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":1997.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-05-11", "tipo_deuda":"O", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":100000.0, "cuota":6274.0, "saldo":101347.0, "tasa_externa":0.6442, "tasa_kubo":0.0054, "numero_pagos_otorgado":36.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":-0.0135, "fecha_inicio":"2023-12-22", "tipo_deuda":"I", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":25000.0, "cuota":1823.0, "saldo":23424.0, "tasa_externa":0.6161, "tasa_kubo":0.0054, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.063, "fecha_inicio":"2023-09-25", "tipo_deuda":"I", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":3, "monto_otorgado":46221.0, "cuota":3873.0, "saldo":19309.0, "tasa_externa":0.0103, "tasa_kubo":0.0054, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5822, "fecha_inicio":"2023-06-27", "tipo_deuda":"I", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":837.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-06-14", "tipo_deuda":"O", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":77600.0, "cuota":0, "saldo":30888.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.602, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":6000.0, "cuota":350.0, "saldo":3000.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5, "fecha_inicio":"2018-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":18480.0, "cuota":902.0, "saldo":17948.0, "tasa_externa":0.5116, "tasa_kubo":0.0054, "numero_pagos_otorgado":48.0, "numero_pagos_restante":43.0, "frecuencia_externa":"M", "avance":0.0288, "fecha_inicio":"2023-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":10000.0, "cuota":9370, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":7425.631947174763, "ahorro_total":356430.3334643886, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3023771, "monto_maximo_cliente": 225176.0, "cuota_externa_total": 19699.0, "capacidad_maxima_pago": 240477.0, "bursolnum": 7260392, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17287.485366041812, "monto_max": 225176.0, "cuota_min": 269.2747621622814, "monto_min": 5000, "plazo_max": 22.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":64800.0, "cuota":3225.0, "saldo":36459.0, "tasa_externa":0.4341, "tasa_kubo":0.0053, "numero_pagos_otorgado":36.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.4374, "fecha_inicio":"2021-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":88000.0, "cuota":4502.0, "saldo":82904.0, "tasa_externa":0.5471, "tasa_kubo":0.0053, "numero_pagos_otorgado":48.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0579, "fecha_inicio":"2022-10-07", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":15000.0, "cuota":1282.0, "saldo":14311.0, "tasa_externa":0.6069, "tasa_kubo":0.0053, "numero_pagos_otorgado":18.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.0459, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":0.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2018-12-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":39000.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":34400.0, "cuota":1720.0, "saldo":31147.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0946, "fecha_inicio":"2014-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":84000.0, "cuota":3513.0, "saldo":73855.0, "tasa_externa":0.4517, "tasa_kubo":0.0053, "numero_pagos_otorgado":60.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":0.1208, "fecha_inicio":"2022-02-23", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":185000.0, "cuota":9250.0, "saldo":20995.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8865, "fecha_inicio":"2011-11-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":60900.0, "cuota":2403, "saldo":49714.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1837, "fecha_inicio":"2010-09-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":27000.0, "cuota":50.0, "saldo":453.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9832, "fecha_inicio":"2014-03-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":30000.0, "cuota":2312.0, "saldo":27192.0, "tasa_externa":0.6196, "tasa_kubo":0.0053, "numero_pagos_otorgado":43.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0936, "fecha_inicio":"2022-04-29", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":750.0, "saldo":1555.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8963, "fecha_inicio":"2016-05-09", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":37000.0, "cuota":2010.0, "saldo":32789.0, "tasa_externa":-1.0, "tasa_kubo":0.0053, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1138, "fecha_inicio":"2013-09-01", "tipo_deuda":"R", "ahorro_cuota_mensual":1207.514633958188, "ahorro_total":26565.321947080134, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3075427, "monto_maximo_cliente": 12207.0, "cuota_externa_total": 11509.0, "capacidad_maxima_pago": 18698.0, "bursolnum": 7261399, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 849.3697701344475, "monto_max": 12207.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 17.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":38000.0, "cuota":2554.0, "saldo":36785.0, "tasa_externa":0.7123, "tasa_kubo":0.0062, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.032, "fecha_inicio":"2023-07-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":50000.0, "cuota":3454.0, "saldo":50086.0, "tasa_externa":0.7402, "tasa_kubo":0.0062, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":-0.0017, "fecha_inicio":"2023-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":3, "monto_otorgado":208800.0, "cuota":5085.0, "saldo":137583.0, "tasa_externa":0.2098, "tasa_kubo":0.0062, "numero_pagos_otorgado":72.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.3411, "fecha_inicio":"2021-07-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2600.0, "cuota":0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":6300.0, "cuota":300, "saldo":4321.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3141, "fecha_inicio":"2022-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":5600.0, "cuota":416.0, "saldo":4989.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1091, "fecha_inicio":"2019-09-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-133.36977013444755, "ahorro_total":-2267.2860922856084, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3078718, "monto_maximo_cliente": 163582.0, "cuota_externa_total": 12406.0, "capacidad_maxima_pago": 168642.07, "bursolnum": 7262386, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7646.916427076751, "monto_max": 163582.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0444, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":24000.0, "cuota":456, "saldo":22169.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0763, "fecha_inicio":"2023-06-09", "tipo_deuda":"R", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":33000.0, "cuota":2000, "saldo":30220.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0842, "fecha_inicio":"2022-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":26900.0, "cuota":2088.0, "saldo":26625.0, "tasa_externa":0.9341, "tasa_kubo":0.0054, "numero_pagos_otorgado":120.0, "numero_pagos_restante":54.0, "frecuencia_externa":"S", "avance":0.0102, "fecha_inicio":"2023-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":60000.0, "cuota":3609.0, "saldo":60462.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0077, "fecha_inicio":"2021-02-02", "tipo_deuda":"R", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":15000.0, "cuota":100, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0054, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":120000.0, "cuota":6709.0, "saldo":114609.0, "tasa_externa":0.6169, "tasa_kubo":0.0054, "numero_pagos_otorgado":48.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.0449, "fecha_inicio":"2023-03-29", "tipo_deuda":"I", "ahorro_cuota_mensual":606.0835729232494, "ahorro_total":35758.93080247172, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3145143, "monto_maximo_cliente": 57904.0, "cuota_externa_total": 6085.0, "capacidad_maxima_pago": 66607.0, "bursolnum": 7261819, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1755.8865377496682, "monto_max": 57904.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 53.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":80000.0, "cuota":4940.0, "saldo":80469.0, "tasa_externa":0.6289, "tasa_kubo":0.0055, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0059, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":15400.0, "cuota":401, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":3, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2014-08-29", "tipo_deuda":"O", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":23500.0, "cuota":1000.0, "saldo":11990.0, "tasa_externa":0.416, "tasa_kubo":0.0055, "numero_pagos_otorgado":96.0, "numero_pagos_restante":29.0, "frecuencia_externa":"S", "avance":0.4898, "fecha_inicio":"2022-08-15", "tipo_deuda":"I", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":13000.0, "cuota":200, "saldo":8196.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3695, "fecha_inicio":"2023-12-07", "tipo_deuda":"R", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":14500.0, "cuota":725.0, "saldo":5586.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6148, "fecha_inicio":"2023-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":570.1134622503318, "ahorro_total":30216.01349926759, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3185555, "monto_maximo_cliente": 68444.0, "cuota_externa_total": 5189.0, "capacidad_maxima_pago": 73255.0, "bursolnum": 7261481, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4762.371143367095, "monto_max": 68444.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 17.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":9000.0, "cuota":1876.0, "saldo":7064.0, "tasa_externa":2.2257, "tasa_kubo":0.006, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"S", "avance":0.2151, "fecha_inicio":"2023-10-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":25400.0, "cuota":1270.0, "saldo":14369.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4343, "fecha_inicio":"2020-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":17000.0, "cuota":850.0, "saldo":16082.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.054, "fecha_inicio":"2023-05-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":11300.0, "cuota":565.0, "saldo":7547.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3321, "fecha_inicio":"2022-06-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":10000.0, "cuota":1170.0, "saldo":9761.0, "tasa_externa":0.6874, "tasa_kubo":0.006, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.0239, "fecha_inicio":"2023-11-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":5000.0, "cuota":1006.0, "saldo":3674.0, "tasa_externa":0.6887, "tasa_kubo":0.006, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2652, "fecha_inicio":"2023-09-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-201.3711433670951, "ahorro_total":-3423.3094372406167, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3222314, "monto_maximo_cliente": 251084.0, "cuota_externa_total": 15464.0, "capacidad_maxima_pago": 253202.0, "bursolnum": 7262297, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 12549.44265003766, "monto_max": 251084.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.046, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":180000.0, "cuota":9776.0, "saldo":159274.0, "tasa_externa":0.63, "tasa_kubo":0.0062, "numero_pagos_otorgado":120.0, "numero_pagos_restante":47.0, "frecuencia_externa":"S", "avance":0.1151, "fecha_inicio":"2023-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":946.5573499623406, "ahorro_total":55846.88364777809, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":74400.0, "cuota":3720.0, "saldo":59682.0, "tasa_externa":-1.0, "tasa_kubo":0.0062, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1978, "fecha_inicio":"2019-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":946.5573499623406, "ahorro_total":55846.88364777809, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":25000.0, "cuota":1679.0, "saldo":23393.0, "tasa_externa":0.7115, "tasa_kubo":0.0062, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0643, "fecha_inicio":"2023-04-17", "tipo_deuda":"I", "ahorro_cuota_mensual":946.5573499623406, "ahorro_total":55846.88364777809, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":30500.0, "cuota":1873.0, "saldo":27940.0, "tasa_externa":0.668, "tasa_kubo":0.0062, "numero_pagos_otorgado":42.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0839, "fecha_inicio":"2022-11-04", "tipo_deuda":"I", "ahorro_cuota_mensual":946.5573499623406, "ahorro_total":55846.88364777809, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3231351, "monto_maximo_cliente": 119000.0, "cuota_externa_total": 12575.0, "capacidad_maxima_pago": 126425.0, "bursolnum": 7261471, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6061.0734423787935, "monto_max": 119000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":60000.0, "cuota":4936.0, "saldo":56916.0, "tasa_externa":0.5481, "tasa_kubo":0.0048, "numero_pagos_otorgado":18.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.0514, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":6500.0, "cuota":1770.0, "saldo":354.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9455, "fecha_inicio":"2015-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1757.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-12-16", "tipo_deuda":"O", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":3544.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8228, "fecha_inicio":"2023-07-03", "tipo_deuda":"R", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":73200.0, "cuota":4604.0, "saldo":73754.0, "tasa_externa":0.7447, "tasa_kubo":0.0048, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0076, "fecha_inicio":"2023-12-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":32500.0, "cuota":1625.0, "saldo":11352.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6507, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":2937.9265576212065, "ahorro_total":158648.03411154516, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3266945, "monto_maximo_cliente": 177061.0, "cuota_externa_total": 11802.0, "capacidad_maxima_pago": 177259.0, "bursolnum": 7260904, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6165.4360994556955, "monto_max": 177061.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0384, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":10000.0, "cuota":500.0, "saldo":4434.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5566, "fecha_inicio":"2020-09-03", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":172.0, "saldo":2278.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":43.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.9715, "fecha_inicio":"2023-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":617.0, "saldo":8845.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1155, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":80000.0, "cuota":5616.0, "saldo":80985.0, "tasa_externa":0.8479, "tasa_kubo":0.0048, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.0123, "fecha_inicio":"2023-12-19", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":2288.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0048, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-12-04", "tipo_deuda":"O", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":90000.0, "cuota":5094.0, "saldo":90111.0, "tasa_externa":0.5474, "tasa_kubo":0.0048, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":-0.0012, "fecha_inicio":"2023-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":739.5639005443045, "ahorro_total":38457.32282830383, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3283744, "monto_maximo_cliente": 26089.0, "cuota_externa_total": 3381.0, "capacidad_maxima_pago": 32708.0, "bursolnum": 7260314, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4089.0003342644163, "monto_max": 26089.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 8.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":10000.0, "cuota":883.0, "saldo":10076.0, "tasa_externa":0.6581, "tasa_kubo":0.0055, "numero_pagos_otorgado":18.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":-0.0076, "fecha_inicio":"2023-12-26", "tipo_deuda":"I", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-03-02", "tipo_deuda":"O", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":12115.0, "cuota":130.0, "saldo":2792.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.7695, "fecha_inicio":"2021-07-09", "tipo_deuda":"O", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":4500.0, "cuota":2236, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6500.0, "cuota":198, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":5000.0, "cuota":2008.0, "saldo":2889.0, "tasa_externa":4.1467, "tasa_kubo":0.0055, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4222, "fecha_inicio":"2023-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":3000.0, "cuota":360.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-02-15", "tipo_deuda":"R", "ahorro_cuota_mensual":712.9996657355837, "ahorro_total":5703.997325884669, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3395159, "monto_maximo_cliente": 406174.0, "cuota_externa_total": 30235.0, "capacidad_maxima_pago": 389939.0, "bursolnum": 7262226, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20301.004121873142, "monto_max": 406174.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.046, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":2067.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-03-16", "tipo_deuda":"O", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":109000.0, "cuota":6615.0, "saldo":97906.0, "tasa_externa":0.6448, "tasa_kubo":0.006, "numero_pagos_otorgado":40.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.1018, "fecha_inicio":"2022-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":39000.0, "cuota":2915.0, "saldo":14306.0, "tasa_externa":0.6473, "tasa_kubo":0.006, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.6332, "fecha_inicio":"2023-03-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":15000.0, "cuota":1895.0, "saldo":14828.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0115, "fecha_inicio":"2021-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":350000.0, "cuota":18680.0, "saldo":343846.0, "tasa_externa":0.6172, "tasa_kubo":0.006, "numero_pagos_otorgado":120.0, "numero_pagos_restante":59.0, "frecuencia_externa":"S", "avance":0.0176, "fecha_inicio":"2024-01-22", "tipo_deuda":"I", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":9000.0, "cuota":450.0, "saldo":3914.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5651, "fecha_inicio":"2018-03-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":22000.0, "cuota":253, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-04-18", "tipo_deuda":"R", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":5000.0, "cuota":413, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":1389.9958781268579, "ahorro_total":82009.75680948462, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3398532, "monto_maximo_cliente": 318457.0, "cuota_externa_total": 24912.0, "capacidad_maxima_pago": 309143.0, "bursolnum": 7261661, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20039.26894829211, "monto_max": 318457.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0481, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":47274.0, "cuota":3699.0, "saldo":47508.0, "tasa_externa":0.8735, "tasa_kubo":0.0076, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":-0.0049, "fecha_inicio":"2023-07-10", "tipo_deuda":"I", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":19000.0, "cuota":1682.0, "saldo":19379.0, "tasa_externa":0.8729, "tasa_kubo":0.0076, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":-0.0199, "fecha_inicio":"2023-10-03", "tipo_deuda":"I", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":9700.0, "cuota":-1, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-12-23", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":600.0, "saldo":3000.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.75, "fecha_inicio":"2021-05-07", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":6400.0, "cuota":837.0, "saldo":2294.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6416, "fecha_inicio":"2021-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":3500.0, "cuota":175.0, "saldo":401.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8854, "fecha_inicio":"2021-08-09", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":23, "monto_otorgado":9700.0, "cuota":1628.0, "saldo":4696.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5159, "fecha_inicio":"2023-05-17", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":49000.0, "cuota":2450.0, "saldo":24497.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5001, "fecha_inicio":"2023-02-21", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":2000.0, "cuota":109.0, "saldo":1093.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4535, "fecha_inicio":"2016-03-05", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":6000.0, "cuota":488.0, "saldo":4880.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":7.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1867, "fecha_inicio":"2023-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":251000.0, "cuota":13980.0, "saldo":155247.0, "tasa_externa":0.6162, "tasa_kubo":0.0076, "numero_pagos_otorgado":96.0, "numero_pagos_restante":34.0, "frecuencia_externa":"S", "avance":0.3815, "fecha_inicio":"2023-01-04", "tipo_deuda":"I", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":2000.0, "cuota":200, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":12900.0, "cuota":344, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0076, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":770.7310517078913, "ahorro_total":40078.01468881035, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3429016, "monto_maximo_cliente": 169774.0, "cuota_externa_total": 10911.0, "capacidad_maxima_pago": 172117.0, "bursolnum": 7260643, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9854.9683492849, "monto_max": 169774.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":22000.0, "cuota":1386.0, "saldo":22113.0, "tasa_externa":0.6482, "tasa_kubo":0.0057, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0051, "fecha_inicio":"2023-09-06", "tipo_deuda":"I", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":892.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-10-30", "tipo_deuda":"O", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":1498.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-10-05", "tipo_deuda":"O", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":107100.0, "cuota":6620.0, "saldo":108186.0, "tasa_externa":0.7421, "tasa_kubo":0.0057, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.0101, "fecha_inicio":"2023-12-01", "tipo_deuda":"I", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":24600.0, "cuota":1230.0, "saldo":11719.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5236, "fecha_inicio":"2015-11-19", "tipo_deuda":"R", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":7100.0, "cuota":7359, "saldo":4363.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3855, "fecha_inicio":"2019-11-07", "tipo_deuda":"R", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":9500.0, "cuota":808.0, "saldo":7101.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2525, "fecha_inicio":"2023-05-04", "tipo_deuda":"R", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":38000.0, "cuota":1900.0, "saldo":28419.0, "tasa_externa":-1.0, "tasa_kubo":0.0057, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2521, "fecha_inicio":"2019-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":8062.0316507151, "ahorro_total":435349.7091386154, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3491079, "monto_maximo_cliente": 130815.0, "cuota_externa_total": 15485.0, "capacidad_maxima_pago": 170963.0, "bursolnum": 7259927, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8088.540840427807, "monto_max": 130815.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 49.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":923.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-10-06", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":23000.0, "cuota":1776.0, "saldo":19233.0, "tasa_externa":0.689, "tasa_kubo":0.006, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1638, "fecha_inicio":"2023-05-26", "tipo_deuda":"I", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":171750.0, "cuota":6010.0, "saldo":115965.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3248, "fecha_inicio":"2022-03-30", "tipo_deuda":"I", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":3814.0, "cuota":191.0, "saldo":1941.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4911, "fecha_inicio":"2018-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-05-30", "tipo_deuda":"O", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":5500.0, "cuota":600, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-20", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":31633.0, "cuota":1587.0, "saldo":23902.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2444, "fecha_inicio":"2017-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":51900.0, "cuota":3900.0, "saldo":36101.0, "tasa_externa":0.8869, "tasa_kubo":0.006, "numero_pagos_otorgado":98.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.3044, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":41400.0, "cuota":2070.0, "saldo":24668.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4042, "fecha_inicio":"2022-06-03", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":12300.0, "cuota":615.0, "saldo":5111.0, "tasa_externa":-1.0, "tasa_kubo":0.006, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5845, "fecha_inicio":"2020-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":874.4591595721931, "ahorro_total":42848.498819037464, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3550281, "monto_maximo_cliente": 133031.0, "cuota_externa_total": 14674.0, "capacidad_maxima_pago": 148357.0, "bursolnum": 7262139, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9299.09670686331, "monto_max": 133031.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 53.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":58000.0, "cuota":5710.0, "saldo":57991.0, "tasa_externa":1.1853, "tasa_kubo":0.0082, "numero_pagos_otorgado":96.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0002, "fecha_inicio":"2022-11-08", "tipo_deuda":"I", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36000.0, "cuota":2530.0, "saldo":35423.0, "tasa_externa":-1.0, "tasa_kubo":0.0082, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.016, "fecha_inicio":"2022-04-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":23000.0, "cuota":1150.0, "saldo":11641.0, "tasa_externa":-1.0, "tasa_kubo":0.0082, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4939, "fecha_inicio":"2023-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":10100.0, "cuota":505.0, "saldo":6794.0, "tasa_externa":-1.0, "tasa_kubo":0.0082, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3273, "fecha_inicio":"2023-06-06", "tipo_deuda":"R", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":9000.0, "cuota":450.0, "saldo":2196.0, "tasa_externa":-1.0, "tasa_kubo":0.0082, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.756, "fecha_inicio":"2021-04-27", "tipo_deuda":"R", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1308.0, "cuota":799.0, "saldo":799.0, "tasa_externa":-1.0, "tasa_kubo":0.0082, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3891, "fecha_inicio":"2022-04-23", "tipo_deuda":"O", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":52570.0, "cuota":4399.0, "saldo":50249.0, "tasa_externa":0.9502, "tasa_kubo":0.0082, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0442, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":1045.9032931366892, "ahorro_total":55432.874536244526, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3563076, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 29680.0, "capacidad_maxima_pago": 657173.0, "bursolnum": 7262478, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20899.34870365278, "monto_max": 500000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0433, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "AUTOMOTRIZ", "registro":6, "monto_otorgado":123977.0, "cuota":3600.0, "saldo":123977.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":30.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-12-15", "tipo_deuda":"I", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":175000.0, "cuota":8975.0, "saldo":169356.0, "tasa_externa":0.5871, "tasa_kubo":0.0055, "numero_pagos_otorgado":60.0, "numero_pagos_restante":43.0, "frecuencia_externa":"M", "avance":0.0323, "fecha_inicio":"2022-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":39000.0, "cuota":2300.0, "saldo":29891.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2336, "fecha_inicio":"2010-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":140500.0, "cuota":5250, "saldo":78544.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.441, "fecha_inicio":"2019-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":274400.0, "cuota":7506.0, "saldo":256096.0, "tasa_externa":0.2183, "tasa_kubo":0.0055, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0667, "fecha_inicio":"2023-04-14", "tipo_deuda":"I", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":158850.0, "cuota":7942.0, "saldo":93048.0, "tasa_externa":-1.0, "tasa_kubo":0.0055, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4142, "fecha_inicio":"2006-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":2098.6512963472196, "ahorro_total":123820.42648448596, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3565514, "monto_maximo_cliente": 57073.0, "cuota_externa_total": 7097.0, "capacidad_maxima_pago": 64376.0, "bursolnum": 7259677, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2888.688086908608, "monto_max": 57073.0, "cuota_min": 239.2245207516586, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4582, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":49000.0, "cuota":4742.0, "saldo":44919.0, "tasa_externa":1.1642, "tasa_kubo":0.0046, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0833, "fecha_inicio":"2018-01-23", "tipo_deuda":"I", "ahorro_cuota_mensual":1900.311913091392, "ahorro_total":91214.97182838681, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3000.0, "cuota":47, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0046, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":1900.311913091392, "ahorro_total":91214.97182838681, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":2293.0, "cuota":1411.0, "saldo":1411.0, "tasa_externa":-1.0, "tasa_kubo":0.0046, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.3846, "fecha_inicio":"2023-11-12", "tipo_deuda":"O", "ahorro_cuota_mensual":1900.311913091392, "ahorro_total":91214.97182838681, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":5000.0, "cuota":944.0, "saldo":4266.0, "tasa_externa":0.5332, "tasa_kubo":0.0046, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.1468, "fecha_inicio":"2023-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":1900.311913091392, "ahorro_total":91214.97182838681, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3672001, "monto_maximo_cliente": 357579.0, "cuota_externa_total": 13514.0, "capacidad_maxima_pago": 362580.0, "bursolnum": 7261687, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13708.811775036475, "monto_max": 357579.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 58.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0423, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":444.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.0067, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-04", "tipo_deuda":"O", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Falta Pago_periodico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":15000.0, "cuota":1235.0, "saldo":14670.0, "tasa_externa":0.7735, "tasa_kubo":0.0067, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.022, "fecha_inicio":"2023-09-08", "tipo_deuda":"I", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":239900.0, "cuota":8498.0, "saldo":221866.0, "tasa_externa":0.3538, "tasa_kubo":0.0067, "numero_pagos_otorgado":60.0, "numero_pagos_restante":50.0, "frecuencia_externa":"M", "avance":0.0752, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":2, "monto_otorgado":40000.0, "cuota":2000.0, "saldo":22238.0, "tasa_externa":-1.0, "tasa_kubo":0.0067, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.444, "fecha_inicio":"2022-12-15", "tipo_deuda":"R", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Tasa negativa", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":54000.0, "cuota":2700.0, "saldo":27957.0, "tasa_externa":-1.0, "tasa_kubo":0.0067, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4823, "fecha_inicio":"2023-04-21", "tipo_deuda":"R", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":22700.0, "cuota":1364.0, "saldo":21406.0, "tasa_externa":-1.0, "tasa_kubo":0.0067, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.057, "fecha_inicio":"2022-05-17", "tipo_deuda":"R", "ahorro_cuota_mensual":853.1882249635255, "ahorro_total":49484.917047884475, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3688011, "monto_maximo_cliente": 191946.0, "cuota_externa_total": 28092.0, "capacidad_maxima_pago": 183930.0, "bursolnum": 7261156, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13111.176195154834, "monto_max": 191946.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":172654.0, "cuota":11129.0, "saldo":168721.0, "tasa_externa":0.6942, "tasa_kubo":0.0067, "numero_pagos_otorgado":39.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0228, "fecha_inicio":"2023-08-25", "tipo_deuda":"I", "ahorro_cuota_mensual":3306.823804845166, "ahorro_total":158727.54263256796, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":172000.0, "cuota":14818.0, "saldo":157925.0, "tasa_externa":1.0285, "tasa_kubo":0.0067, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0818, "fecha_inicio":"2018-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":3306.823804845166, "ahorro_total":158727.54263256796, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":32000.0, "cuota":1600.0, "saldo":10769.0, "tasa_externa":-1.0, "tasa_kubo":0.0067, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6635, "fecha_inicio":"2017-02-07", "tipo_deuda":"R", "ahorro_cuota_mensual":3306.823804845166, "ahorro_total":158727.54263256796, "estatus_tasa":"Desbordamiento numérico", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":10000.0, "cuota":1095.0, "saldo":4694.0, "tasa_externa":0.7648, "tasa_kubo":0.0067, "numero_pagos_otorgado":14.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5306, "fecha_inicio":"2023-03-16", "tipo_deuda":"I", "ahorro_cuota_mensual":3306.823804845166, "ahorro_total":158727.54263256796, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>Commentarios</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1013929, "monto_maximo_cliente": 5624.0, "cuota_externa_total": 1495.0, "capacidad_maxima_pago": 17755.0, "bursolnum": 7355264, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 548.1123444443695, "monto_max": 5624.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 17.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":25000.0, "cuota":390.0, "saldo":5624.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.775, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-158.11234444436946, "ahorro_total":-2687.9098555542805, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":3000.0, "cuota":672.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-02-15", "tipo_deuda":"R", "ahorro_cuota_mensual":672.0, "ahorro_total":11424.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":10000.0, "cuota":1495.0, "saldo":10253.0, "tasa_externa":0.7769, "tasa_kubo":0.6509, "numero_pagos_otorgado":9.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":-0.0253, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":520.4047929509788, "ahorro_total":8846.881480166641, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1051311, "monto_maximo_cliente": 294826.0, "cuota_externa_total": 16857.0, "capacidad_maxima_pago": 306886.0, "bursolnum": 7353550, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 14459.773067682083, "monto_max": 294826.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0455, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":3, "monto_otorgado":27400.0, "cuota":1504.0, "saldo":21751.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2062, "fecha_inicio":"2022-05-30", "tipo_deuda":"R", "ahorro_cuota_mensual":289.7073517376068, "ahorro_total":17092.7337525188, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":68492.0, "cuota":3412.0, "saldo":52220.0, "tasa_externa":0.4349, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.2376, "fecha_inicio":"2022-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-411.70153394270756, "ahorro_total":-24290.390502619746, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":45800.0, "cuota":3830.0, "saldo":44282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0331, "fecha_inicio":"2019-10-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1357.8696588499242, "ahorro_total":80114.30987214553, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":155000.0, "cuota":4973.0, "saldo":59926.0, "tasa_externa":0.2997, "tasa_kubo":0.5504, "numero_pagos_otorgado":60.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.6134, "fecha_inicio":"2020-03-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-3680.1819447690195, "ahorro_total":-217130.73474137214, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":6349.0, "cuota":181.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1998-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":181.0, "ahorro_total":10679.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":1959.0, "cuota":979.0, "saldo":1959.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":2.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":869.6349456141774, "ahorro_total":51308.46179123646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":36, "monto_otorgado":3900.0, "cuota":210.0, "saldo":3342.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1431, "fecha_inicio":"1998-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":23.426231874722163, "ahorro_total":1382.1476806086075, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":795.0, "cuota":795.0, "saldo":795.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2001-01-26", "tipo_deuda":"O", "ahorro_cuota_mensual":750.6175506703783, "ahorro_total":44286.435489552314, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2009-10-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":10000.0, "cuota":1154.0, "saldo":10107.0, "tasa_externa":0.6573, "tasa_kubo":0.5504, "numero_pagos_otorgado":12.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":-0.0107, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":595.7301971116761, "ahorro_total":35148.081629588894, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>Tasa inicial kubo más cara que la deuda externa del cliente</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2020266, "monto_maximo_cliente": 105808.0, "cuota_externa_total": 22205.0, "capacidad_maxima_pago": 114505.0, "bursolnum": 7355166, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 11373.617295322296, "monto_max": 105808.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4295, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":30000.0, "cuota":4494.0, "saldo":30250.0, "tasa_externa":0.5119, "tasa_kubo":0.4295, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0083, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":1269.2105808665806, "ahorro_total":15230.526970398967, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":2000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-09-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":106500.0, "cuota":10300.0, "saldo":70118.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3416, "fecha_inicio":"2018-10-09", "tipo_deuda":"R", "ahorro_cuota_mensual":2762.8071836400977, "ahorro_total":33153.68620368117, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":231120.0, "cuota":6659.0, "saldo":168279.0, "tasa_externa":0.2441, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.2719, "fecha_inicio":"2022-01-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-18184.77768500386, "ahorro_total":-218217.33222004632, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":60000.0, "cuota":3000.0, "saldo":22423.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6263, "fecha_inicio":"2023-03-23", "tipo_deuda":"R", "ahorro_cuota_mensual":589.6848951590446, "ahorro_total":7076.218741908535, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":1960.0, "cuota":932.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-06-18", "tipo_deuda":"R", "ahorro_cuota_mensual":932.0, "ahorro_total":11184.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":45400.0, "cuota":2270.0, "saldo":13267.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7078, "fecha_inicio":"2023-08-07", "tipo_deuda":"R", "ahorro_cuota_mensual":843.8906258785642, "ahorro_total":10126.68751054277, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Oferta en CEROS, solo tiene Revolventes</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2830088, "monto_maximo_cliente": 5820.0, "cuota_externa_total": 7076.0, "capacidad_maxima_pago": 11966.95, "bursolnum": 7354695, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 548.0861021019805, "monto_max": 5820.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":294205.0, "cuota":2904.0, "saldo":242971.0, "tasa_externa":0.1162, "tasa_kubo":0.8317, "numero_pagos_otorgado":360.0, "numero_pagos_restante":284.0, "frecuencia_externa":"M", "avance":0.1741, "fecha_inicio":"2017-12-06", "tipo_deuda":"M", "ahorro_cuota_mensual":-29403.501932382227, "ahorro_total":-352842.0231885867, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":7, "monto_otorgado":30134.0, "cuota":1004.0, "saldo":4831.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":25.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-3002.874331629725, "ahorro_total":-36034.4919795567, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":10000.0, "cuota":1268.0, "saldo":8845.0, "tasa_externa":0.9714, "tasa_kubo":0.8317, "numero_pagos_otorgado":48.0, "numero_pagos_restante":8.0, "frecuencia_externa":"W", "avance":0.1155, "fecha_inicio":"2023-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-61.68551524182817, "ahorro_total":-740.226182901938, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2018-01-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":2, "monto_otorgado":42327.0, "cuota":1411.0, "saldo":33102.0, "tasa_externa":0.0001, "tasa_kubo":0.8317, "numero_pagos_otorgado":30.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.2179, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-4217.159880364086, "ahorro_total":-50605.918564369036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":1000.0, "cuota":81.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":81.0, "ahorro_total":972.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":300.0, "saldo":5820.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.03, "fecha_inicio":"2023-08-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-473.876969870744, "ahorro_total":-5686.523638448928, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "GUBERNAMENTALES", "registro":3, "monto_otorgado":8540.0, "cuota":285.0, "saldo":6679.0, "tasa_externa":0.0009, "tasa_kubo":0.8317, "numero_pagos_otorgado":30.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.2179, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-850.5514300165214, "ahorro_total":-10206.617160198257, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>Solo Revolventes. Uno viene con saldo CERO.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2842882, "monto_maximo_cliente": 6159.0, "cuota_externa_total": 2044.0, "capacidad_maxima_pago": 13058.34, "bursolnum": 7354665, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 334.2560915117266, "monto_max": 6159.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":12000.0, "cuota":600.0, "saldo":6159.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4868, "fecha_inicio":"2024-01-05", "tipo_deuda":"R", "ahorro_cuota_mensual":173.85398729925168, "ahorro_total":3998.641707882789, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":36700.0, "cuota":1742.0, "saldo":29921.0, "tasa_externa":0.4911, "tasa_kubo":0.4428, "numero_pagos_otorgado":48.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1847, "fecha_inicio":"2022-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-797.3016181388966, "ahorro_total":-18337.937217194623, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>Oferta en CEROS, solo tiene Revolventes. SIN Ahorros actuales y restantes</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3002070, "monto_maximo_cliente": 254110.0, "cuota_externa_total": 15301.0, "capacidad_maxima_pago": 270251.0, "bursolnum": 7352944, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 12294.89073969788, "monto_max": 254110.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4295, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":25000.0, "cuota":1504.0, "saldo":20455.0, "tasa_externa":0.4893, "tasa_kubo":0.4295, "numero_pagos_otorgado":28.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.1818, "fecha_inicio":"2023-05-29", "tipo_deuda":"I", "ahorro_cuota_mensual":294.39680259554143, "ahorro_total":14131.046524585989, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":846.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":1035.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":36630.0, "cuota":1695.0, "saldo":14124.0, "tasa_externa":0.4165, "tasa_kubo":0.4295, "numero_pagos_otorgado":40.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.6144, "fecha_inicio":"2021-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-77.31060483701253, "ahorro_total":-3710.9090321766016, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2021-09-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1308.0, "cuota":937.0, "saldo":937.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2836, "fecha_inicio":"2021-12-18", "tipo_deuda":"O", "ahorro_cuota_mensual":891.6640721612808, "ahorro_total":42799.87546374148, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":50700.0, "cuota":1536.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-04-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1536.0, "ahorro_total":73728.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":10000.0, "cuota":8000.0, "saldo":12826.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.2826, "fecha_inicio":"2021-12-03", "tipo_deuda":"R", "ahorro_cuota_mensual":7379.4251756036165, "ahorro_total":354212.4084289736, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":109800.0, "cuota":3451.0, "saldo":64162.0, "tasa_externa":0.2888, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.4156, "fecha_inicio":"2021-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1861.5772430003826, "ahorro_total":-89355.70766401837, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":43000.0, "cuota":2954.0, "saldo":33825.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2134, "fecha_inicio":"2021-08-14", "tipo_deuda":"R", "ahorro_cuota_mensual":1317.4068739117674, "ahorro_total":63235.52994776484, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":26000.0, "cuota":1961.0, "saldo":23920.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.08, "fecha_inicio":"2023-08-10", "tipo_deuda":"R", "ahorro_cuota_mensual":803.6516607234141, "ahorro_total":38575.279714723874, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":15000.0, "cuota":750.0, "saldo":2525.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8317, "fecha_inicio":"2021-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":627.8300770621497, "ahorro_total":30135.843698983186, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":9000.0, "cuota":371.0, "saldo":4278.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5247, "fecha_inicio":"2018-06-13", "tipo_deuda":"R", "ahorro_cuota_mensual":164.01270086014907, "ahorro_total":7872.609641287156, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":395.0, "saldo":5762.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0397, "fecha_inicio":"2019-07-12", "tipo_deuda":"R", "ahorro_cuota_mensual":116.21065506222038, "ahorro_total":5578.111442986578, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":74000.0, "cuota":2340.0, "saldo":26961.0, "tasa_externa":0.292, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6357, "fecha_inicio":"2019-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-1240.425464317197, "ahorro_total":-59540.42228722546, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3596293, "monto_maximo_cliente": 5194.0, "cuota_externa_total": 4847.0, "capacidad_maxima_pago": 20347.0, "bursolnum": 7353027, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 567.3037437527083, "monto_max": 5194.0, "cuota_min": 239.2245207516586, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4582, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":23200.0, "cuota":2321.0, "saldo":5194.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7761, "fecha_inicio":"2020-06-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1753.6962562472918, "ahorro_total":21044.3550749675, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2500.0, "cuota":1297.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-05-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1297.0, "ahorro_total":15564.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":38000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":842.0, "cuota":319.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-29", "tipo_deuda":"O", "ahorro_cuota_mensual":319.0, "ahorro_total":3828.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":87000.0, "cuota":4528.0, "saldo":37134.0, "tasa_externa":0.4726, "tasa_kubo":0.4582, "numero_pagos_otorgado":36.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.5732, "fecha_inicio":"2021-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-4974.392319307974, "ahorro_total":-59692.70783169568, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3662253, "monto_maximo_cliente": 5748.0, "cuota_externa_total": 3999.0, "capacidad_maxima_pago": 11749.0, "bursolnum": 7352858, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 565.8380666806834, "monto_max": 5748.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 15.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":339346.0, "cuota":2619.0, "saldo":278683.0, "tasa_externa":0.0866, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":319.0, "frecuencia_externa":"M", "avance":0.1788, "fecha_inicio":"2020-11-01", "tipo_deuda":"M", "ahorro_cuota_mensual":-24814.794352256944, "ahorro_total":-372221.9152838542, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":10627.0, "cuota":944.0, "saldo":4180.0, "tasa_externa":0.6676, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6067, "fecha_inicio":"2022-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-102.13102550724125, "ahorro_total":-1531.9653826086187, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2006-07-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2023-05-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":5000.0, "cuota":250.0, "saldo":658.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2021-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":185.22591373070813, "ahorro_total":2778.388705960622, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":4600.0, "cuota":877.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2009-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":877.0, "ahorro_total":13155.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":29900.0, "cuota":1495.0, "saldo":5090.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":15.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.8298, "fecha_inicio":"2023-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":993.9360195886084, "ahorro_total":14909.040293829126, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":37050.0, "cuota":632.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":632.0, "ahorro_total":9480.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4132832, "monto_maximo_cliente": 296200.0, "cuota_externa_total": 21612.0, "capacidad_maxima_pago": 287928.0, "bursolnum": 7353206, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 16535.951561552152, "monto_max": 296200.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":1068.0, "saldo":12901.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1399, "fecha_inicio":"2023-03-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-150.68410433412168, "ahorro_total":-8890.36215571318, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":281200.0, "cuota":16284.0, "saldo":283006.0, "tasa_externa":0.6921, "tasa_kubo":0.8317, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.0064, "fecha_inicio":"2023-12-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-6562.264675916998, "ahorro_total":-387173.6158791029, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":50000.0, "cuota":4260.0, "saldo":25296.0, "tasa_externa":0.9014, "tasa_kubo":0.8317, "numero_pagos_otorgado":56.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4941, "fecha_inicio":"2022-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":197.71965221959408, "ahorro_total":11665.459480956051, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2000-02-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":5, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-12-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4455355, "monto_maximo_cliente": 373167.0, "cuota_externa_total": 77736.0, "capacidad_maxima_pago": 395431.0, "bursolnum": 7354491, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 28317.764122928013, "monto_max": 373167.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 24.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":6, "monto_otorgado":94442.0, "cuota":0.0, "saldo":85555.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.0941, "fecha_inicio":"2022-08-09", "tipo_deuda":"O", "ahorro_cuota_mensual":-6492.3380404406225, "ahorro_total":-155816.11297057493, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":287567.0, "cuota":0.0, "saldo":157826.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.4512, "fecha_inicio":"2022-11-08", "tipo_deuda":"O", "ahorro_cuota_mensual":-11976.620227579708, "ahorro_total":-287438.88546191296, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3918690.0, "cuota":36527.0, "saldo":3867553.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":40.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.013, "fecha_inicio":"2023-05-26", "tipo_deuda":"M", "ahorro_cuota_mensual":-256962.11770580627, "ahorro_total":-6167090.824939351, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":90000.0, "cuota":13200.0, "saldo":23005.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7444, "fecha_inicio":"2019-10-14", "tipo_deuda":"R", "ahorro_cuota_mensual":11454.266417855923, "ahorro_total":274902.39402854216, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":60000.0, "cuota":3000.0, "saldo":65426.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0904, "fecha_inicio":"2022-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1964.8496129258165, "ahorro_total":-47156.390710219595, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":255321.0, "cuota":17924.0, "saldo":255321.0, "tasa_externa":0.5689, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1451.0247305632693, "ahorro_total":-34824.59353351846, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":11700.0, "cuota":6500.0, "saldo":6346.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4576, "fecha_inicio":"2017-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":6018.434022504398, "ahorro_total":144442.41654010554, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":173571.0, "cuota":8679.0, "saldo":46074.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7346, "fecha_inicio":"2019-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":5182.6761980566735, "ahorro_total":124384.22875336016, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "AUTOMOTRIZ", "registro":7, "monto_otorgado":432371.0, "cuota":11381.0, "saldo":429086.0, "tasa_externa":0.2433, "tasa_kubo":0.5668, "numero_pagos_otorgado":72.0, "numero_pagos_restante":68.0, "frecuencia_externa":"M", "avance":0.0076, "fecha_inicio":"2023-11-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-21429.45749381512, "ahorro_total":-514306.9798515629, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":35000.0, "cuota":65.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":65.0, "ahorro_total":1560.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":90000.0, "cuota":6007.0, "saldo":71391.0, "tasa_externa":0.7052, "tasa_kubo":0.5668, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.2068, "fecha_inicio":"2022-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-822.6467025849579, "ahorro_total":-19743.52086203899, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4539704, "monto_maximo_cliente": 419195.0, "cuota_externa_total": 21247.0, "capacidad_maxima_pago": 416988.0, "bursolnum": 7355231, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 18386.536241682767, "monto_max": 419195.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 37.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":10000.0, "cuota":1419.0, "saldo":10205.0, "tasa_externa":0.6318, "tasa_kubo":0.5292, "numero_pagos_otorgado":9.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":-0.0205, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":811.5364193138869, "ahorro_total":30026.847514613815, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-12-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2022-08-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":60000.0, "cuota":3932.0, "saldo":60079.0, "tasa_externa":0.7549, "tasa_kubo":0.5292, "numero_pagos_otorgado":96.0, "numero_pagos_restante":46.0, "frecuencia_externa":"S", "avance":-0.0013, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":287.21851588332083, "ahorro_total":10627.08508768287, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":200000.0, "cuota":12452.0, "saldo":191745.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0413, "fecha_inicio":"2023-11-06", "tipo_deuda":"I", "ahorro_cuota_mensual":302.7283862777367, "ahorro_total":11200.950292276259, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":140988.0, "cuota":2938.0, "saldo":69517.0, "tasa_externa":0.0001, "tasa_kubo":0.5292, "numero_pagos_otorgado":96.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.5069, "fecha_inicio":"2023-11-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-5626.507531377372, "ahorro_total":-208180.77866096277, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":18207.0, "cuota":506.0, "saldo":9354.0, "tasa_externa":0.0003, "tasa_kubo":0.5292, "numero_pagos_otorgado":72.0, "numero_pagos_restante":27.0, "frecuencia_externa":"S", "avance":0.4862, "fecha_inicio":"2023-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-600.0089413552062, "ahorro_total":-22200.33083014263, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Tasa externa de deudas consolidables mal reportadas, p.ej.: "tasa_externa": 0.0003,</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4606694, "monto_maximo_cliente": 102071.0, "cuota_externa_total": 19385.0, "capacidad_maxima_pago": 131688.0, "bursolnum": 7353978, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6314.992394796616, "monto_max": 102071.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":82000.0, "cuota":4100.0, "saldo":68609.0, "tasa_externa":0.0124, "tasa_kubo":0.7554, "numero_pagos_otorgado":900.0, "numero_pagos_restante":877.0, "frecuencia_externa":"Z", "avance":0.1633, "fecha_inicio":"2022-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-989.5401044568471, "ahorro_total":-58382.86616295398, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":8500.0, "cuota":425.0, "saldo":8432.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.008, "fecha_inicio":"2021-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-200.50105905610258, "ahorro_total":-11829.562484310052, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":18000.0, "cuota":900.0, "saldo":17864.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0076, "fecha_inicio":"2020-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-425.1839325163917, "ahorro_total":-25085.85201846711, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":8000.0, "cuota":1432.0, "saldo":7166.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1042, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":900.4131179795979, "ahorro_total":53124.37396079628, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":347900.0, "cuota":12658.0, "saldo":225451.0, "tasa_externa":0.4005, "tasa_kubo":0.7554, "numero_pagos_otorgado":144.0, "numero_pagos_restante":35.0, "frecuencia_externa":"S", "avance":0.352, "fecha_inicio":"2021-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-13149.853231216566, "ahorro_total":-775841.3406417774, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1738.0, "saldo":11240.0, "tasa_externa":0.8996, "tasa_kubo":0.7554, "numero_pagos_otorgado":28.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2507, "fecha_inicio":"2023-07-26", "tipo_deuda":"I", "ahorro_cuota_mensual":625.2727839371989, "ahorro_total":36891.09425229474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":9000.0, "cuota":1305.0, "saldo":9396.0, "tasa_externa":0.8999, "tasa_kubo":0.7554, "numero_pagos_otorgado":10.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":-0.044, "fecha_inicio":"2024-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":637.3636703623195, "ahorro_total":37604.45655137685, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4688988, "monto_maximo_cliente": 52860.0, "cuota_externa_total": 13586.0, "capacidad_maxima_pago": 55274.0, "bursolnum": 7352817, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6126.168016794589, "monto_max": 52860.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":8, "monto_otorgado":243530.0, "cuota":7430.0, "saldo":228721.0, "tasa_externa":0.2733, "tasa_kubo":0.5668, "numero_pagos_otorgado":60.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0608, "fecha_inicio":"2022-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-20793.717312334207, "ahorro_total":-249524.6077480105, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":40000.0, "cuota":4728.0, "saldo":15835.0, "tasa_externa":0.7099, "tasa_kubo":0.5668, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6041, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":92.23154234234698, "ahorro_total":1106.7785081081638, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":500.0, "cuota":1765.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-13", "tipo_deuda":"R", "ahorro_cuota_mensual":1765.0, "ahorro_total":21180.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":7000.0, "cuota":717.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":717.0, "ahorro_total":8604.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":114260.0, "cuota":5713.0, "saldo":21872.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8086, "fecha_inicio":"2019-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":3178.161807352795, "ahorro_total":38137.94168823354, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":25100.0, "cuota":2221.0, "saldo":9456.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6233, "fecha_inicio":"2020-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1125.1043366097308, "ahorro_total":13501.252039316769, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":37000.0, "cuota":2805.0, "saldo":21532.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4181, "fecha_inicio":"2020-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":309.565839242885, "ahorro_total":3714.7900709146197, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":12.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4699870, "monto_maximo_cliente": 5233.0, "cuota_externa_total": 5659.0, "capacidad_maxima_pago": 9574.0, "bursolnum": 7354566, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1063.747520887488, "monto_max": 5233.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 6.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":400.0, "cuota":84.0, "saldo":158.0, "tasa_externa":0.8555, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.605, "fecha_inicio":"2022-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2.689277975349654, "ahorro_total":16.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":12410.0, "cuota":3584.0, "saldo":12431.0, "tasa_externa":0.7338, "tasa_kubo":0.6193, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0017, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":1061.3348491852234, "ahorro_total":6368.009095111341, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":400.0, "cuota":101.0, "saldo":257.0, "tasa_externa":1.6226, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3575, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":19.689277975349654, "ahorro_total":118.13566785209792, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":16500.0, "cuota":750.0, "saldo":82.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.995, "fecha_inicio":"2022-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":733.3313019849467, "ahorro_total":4399.98781190968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":6000.0, "cuota":1057.0, "saldo":3951.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3415, "fecha_inicio":"2021-02-25", "tipo_deuda":"R", "ahorro_cuota_mensual":253.85334320151617, "ahorro_total":1523.120059209097, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":400.0, "cuota":83.0, "saldo":155.0, "tasa_externa":0.8084, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6125, "fecha_inicio":"2022-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":1.689277975349654, "ahorro_total":10.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4742252, "monto_maximo_cliente": 5078.0, "cuota_externa_total": 1935.0, "capacidad_maxima_pago": 35143.0, "bursolnum": 7353080, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 275.58896455537393, "monto_max": 5078.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":7699.0, "cuota":608.0, "saldo":5078.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3404, "fecha_inicio":"2019-07-08", "tipo_deuda":"R", "ahorro_cuota_mensual":166.19043565531155, "ahorro_total":3822.3800200721657, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":13000.0, "cuota":1327.0, "saldo":6402.0, "tasa_externa":0.8966, "tasa_kubo":0.7007, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5075, "fecha_inicio":"2023-01-20", "tipo_deuda":"I", "ahorro_cuota_mensual":195.93967379264473, "ahorro_total":4506.612497230829, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4836047, "monto_maximo_cliente": 112150.0, "cuota_externa_total": 18317.0, "capacidad_maxima_pago": 105845.0, "bursolnum": 7354921, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8583.550887731646, "monto_max": 112150.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":15000.0, "cuota":1760.0, "saldo":15136.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0091, "fecha_inicio":"2023-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":601.5459096147463, "ahorro_total":19851.015017286627, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":19000.0, "cuota":1430.0, "saldo":14614.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2308, "fecha_inicio":"2021-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":311.49788075514675, "ahorro_total":10279.430064919843, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9900.0, "cuota":712.0, "saldo":8681.0, "tasa_externa":0.8625, "tasa_kubo":0.7007, "numero_pagos_otorgado":122.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1231, "fecha_inicio":"2022-10-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-45.70979749035496, "ahorro_total":-1508.4233171817136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":12981.0, "cuota":1219.0, "saldo":10987.0, "tasa_externa":0.2296, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.1536, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":225.48172916946487, "ahorro_total":7440.897062592341, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":28000.0, "cuota":1400.0, "saldo":26294.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0609, "fecha_inicio":"2019-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-612.4466075971102, "ahorro_total":-20210.738050704636, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":17800.0, "cuota":890.0, "saldo":930.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9478, "fecha_inicio":"2023-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":818.8212008418152, "ahorro_total":27021.099627779902, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":10000.0, "cuota":500.0, "saldo":7851.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2149, "fecha_inicio":"2022-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-100.88683031280561, "ahorro_total":-3329.2654003225853, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":28000.0, "cuota":1400.0, "saldo":24444.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.127, "fecha_inicio":"2019-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-470.8543727125491, "ahorro_total":-15538.19429951412, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":204765.0, "cuota":5417.0, "saldo":49073.0, "tasa_externa":0.2021, "tasa_kubo":0.7007, "numero_pagos_otorgado":60.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.7603, "fecha_inicio":"2019-11-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-10254.964311425507, "ahorro_total":-338413.82227704173, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":27000.0, "cuota":1723.0, "saldo":23480.0, "tasa_externa":0.6607, "tasa_kubo":0.7007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.1304, "fecha_inicio":"2023-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-343.4812658827859, "ahorro_total":-11334.881774131936, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":140500.0, "cuota":3164.0, "saldo":92565.0, "tasa_externa":0.1272, "tasa_kubo":0.7007, "numero_pagos_otorgado":60.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.3412, "fecha_inicio":"2021-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-7589.356216908571, "ahorro_total":-250448.75515798284, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4882834, "monto_maximo_cliente": 5284.0, "cuota_externa_total": 6273.0, "capacidad_maxima_pago": 9890.0, "bursolnum": 7354241, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 606.9951703618921, "monto_max": 5284.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":340828.0, "cuota":1680.0, "saldo":309330.0, "tasa_externa":0.0433, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":329.0, "frecuencia_externa":"M", "avance":0.0924, "fecha_inicio":"2021-09-01", "tipo_deuda":"M", "ahorro_cuota_mensual":-33854.0302891832, "ahorro_total":-406248.36347019847, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":48000.0, "cuota":3673.0, "saldo":35332.0, "tasa_externa":0.6773, "tasa_kubo":0.5504, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2639, "fecha_inicio":"2023-03-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1840.960669449436, "ahorro_total":-22091.52803339323, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":21000.0, "cuota":370.0, "saldo":553.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9737, "fecha_inicio":"2022-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":306.474578120718, "ahorro_total":3677.6949374486157, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":26000.0, "cuota":150.0, "saldo":531.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9796, "fecha_inicio":"2020-09-25", "tipo_deuda":"R", "ahorro_cuota_mensual":89.00181009421561, "ahorro_total":1068.0217211305874, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15500.0, "cuota":775.0, "saldo":4200.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.729, "fecha_inicio":"2020-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":292.52844142317434, "ahorro_total":3510.341297078092, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4915388, "monto_maximo_cliente": 84538.0, "cuota_externa_total": 32718.0, "capacidad_maxima_pago": 111820.0, "bursolnum": 7354265, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8357.500949471312, "monto_max": 84538.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":28, "monto_otorgado":5000.0, "cuota":575.0, "saldo":574.0, "tasa_externa":0.6497, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8852, "fecha_inicio":"2022-02-25", "tipo_deuda":"I", "ahorro_cuota_mensual":80.69560733212796, "ahorro_total":1291.1297173140474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":20000.0, "cuota":2415.0, "saldo":19286.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0357, "fecha_inicio":"2019-07-24", "tipo_deuda":"R", "ahorro_cuota_mensual":508.3690966014842, "ahorro_total":8133.9055456237475, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":12258.0, "cuota":1626.0, "saldo":10100.0, "tasa_externa":0.9725, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.176, "fecha_inicio":"2023-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":414.1633509354449, "ahorro_total":6626.613614967118, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3150.0, "cuota":464.0, "saldo":463.0, "tasa_externa":0.7353, "tasa_kubo":0.6193, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.853, "fecha_inicio":"2023-05-07", "tipo_deuda":"I", "ahorro_cuota_mensual":152.5882326192406, "ahorro_total":2441.41172190785, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":2799.0, "cuota":607.0, "saldo":605.0, "tasa_externa":0.9835, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7839, "fecha_inicio":"2023-07-31", "tipo_deuda":"I", "ahorro_cuota_mensual":330.28840098452525, "ahorro_total":5284.614415752404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":2759.0, "cuota":597.0, "saldo":595.0, "tasa_externa":0.9746, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7843, "fecha_inicio":"2023-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":324.2428361258682, "ahorro_total":5187.885378013892, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":40000.0, "cuota":2677.0, "saldo":38286.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0429, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-1107.9875955364296, "ahorro_total":-17727.801528582873, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":29, "monto_otorgado":1000.0, "cuota":204.0, "saldo":204.0, "tasa_externa":0.7421, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.796, "fecha_inicio":"2022-08-26", "tipo_deuda":"I", "ahorro_cuota_mensual":105.13912146642559, "ahorro_total":1682.2259434628095, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":370983.0, "cuota":11842.0, "saldo":163762.0, "tasa_externa":0.2308, "tasa_kubo":0.6193, "numero_pagos_otorgado":48.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.5586, "fecha_inicio":"2021-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-24833.70530102103, "ahorro_total":-397339.28481633647, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":185678.0, "cuota":0.0, "saldo":4498.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9758, "fecha_inicio":"2019-10-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-444.67623164401766, "ahorro_total":-7114.819706304283, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":84000.0, "cuota":6740.0, "saldo":83691.0, "tasa_externa":0.7392, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0037, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-1564.31379682025, "ahorro_total":-25029.020749124, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":63200.0, "cuota":4971.0, "saldo":46970.0, "tasa_externa":0.713, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2568, "fecha_inicio":"2023-03-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1277.0075233219022, "ahorro_total":-20432.120373150436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":690.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-03-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5063684, "monto_maximo_cliente": 5414.0, "cuota_externa_total": 5184.0, "capacidad_maxima_pago": 31230.0, "bursolnum": 7354046, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 293.82407524671015, "monto_max": 5414.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2017-06-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":521.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":1, "monto_otorgado":53000.0, "cuota":4454.0, "saldo":36940.0, "tasa_externa":0.6316, "tasa_kubo":0.5292, "numero_pagos_otorgado":19.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.303, "fecha_inicio":"2023-05-26", "tipo_deuda":"I", "ahorro_cuota_mensual":481.8236171535241, "ahorro_total":11081.943194531053, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":16000.0, "cuota":800.0, "saldo":5414.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6616, "fecha_inicio":"2021-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":394.23843515602226, "ahorro_total":9067.484008588512, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5137408, "monto_maximo_cliente": 256464.0, "cuota_externa_total": 15256.0, "capacidad_maxima_pago": 266208.0, "bursolnum": 7354891, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 15920.047227749696, "monto_max": 256464.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":35000.0, "cuota":2772.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-08-12", "tipo_deuda":"R", "ahorro_cuota_mensual":2772.0, "ahorro_total":133056.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":18000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":72.0, "numero_pagos_restante":8.0, "frecuencia_externa":"S", "avance":1.0, "fecha_inicio":"2021-11-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-1117.3531181744593, "ahorro_total":-53632.949672374045, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":29000.0, "cuota":1450.0, "saldo":11141.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6158, "fecha_inicio":"2015-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":758.4204950232416, "ahorro_total":36404.1837611156, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":63300.0, "cuota":3165.0, "saldo":32748.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4827, "fecha_inicio":"2020-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1132.1622270012672, "ahorro_total":54343.786896060825, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":15000.0, "cuota":750.0, "saldo":975.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.935, "fecha_inicio":"2007-07-04", "tipo_deuda":"R", "ahorro_cuota_mensual":689.4767060988835, "ahorro_total":33094.88189274641, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":190600.0, "cuota":9844.0, "saldo":188860.0, "tasa_externa":0.6107, "tasa_kubo":0.5991, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":0.0091, "fecha_inicio":"2023-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-1987.5280180028858, "ahorro_total":-95401.34486413852, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":13520.0, "cuota":489.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-02-04", "tipo_deuda":"R", "ahorro_cuota_mensual":489.0, "ahorro_total":23472.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":3000.0, "cuota":610.0, "saldo":2109.0, "tasa_externa":0.7294, "tasa_kubo":0.5991, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.297, "fecha_inicio":"2023-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":423.7744803042568, "ahorro_total":20341.175054604326, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":36700.0, "cuota":2994.0, "saldo":31711.0, "tasa_externa":0.8128, "tasa_kubo":0.5991, "numero_pagos_otorgado":52.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.1359, "fecha_inicio":"2023-06-23", "tipo_deuda":"I", "ahorro_cuota_mensual":715.8411423887414, "ahorro_total":34360.37483465959, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5345402, "monto_maximo_cliente": 5693.0, "cuota_externa_total": 2706.0, "capacidad_maxima_pago": 20787.0, "bursolnum": 7354976, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 671.2963113231049, "monto_max": 5693.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":300.0, "saldo":3589.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4018, "fecha_inicio":"2018-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-123.20085391509281, "ahorro_total":-1478.4102469811137, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":6500.0, "cuota":104.0, "saldo":104.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.984, "fecha_inicio":"2024-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":91.73672643990815, "ahorro_total":1100.840717278898, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":2000.0, "cuota":809.0, "saldo":805.0, "tasa_externa":1.2576, "tasa_kubo":0.5991, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5975, "fecha_inicio":"2022-12-15", "tipo_deuda":"I", "ahorro_cuota_mensual":573.1678161520798, "ahorro_total":6878.013793824957, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":20000.0, "cuota":1543.0, "saldo":17705.0, "tasa_externa":0.6879, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1148, "fecha_inicio":"2023-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-815.3218384792021, "ahorro_total":-9783.862061750426, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-11-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5696494, "monto_maximo_cliente": 5253.0, "cuota_externa_total": 2420.0, "capacidad_maxima_pago": 13438.0, "bursolnum": 7353547, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 494.690084938437, "monto_max": 5253.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":4, "monto_otorgado":16000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-19", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":21000.0, "cuota":2420.0, "saldo":21512.0, "tasa_externa":0.6542, "tasa_kubo":0.5486, "numero_pagos_otorgado":12.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":-0.0244, "fecha_inicio":"2024-01-15", "tipo_deuda":"I", "ahorro_cuota_mensual":9.987577987535587, "ahorro_total":119.85093585042705, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":23800.0, "cuota":0.0, "saldo":5253.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7793, "fecha_inicio":"2024-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-602.847392991975, "ahorro_total":-7234.168715903699, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":7800.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-02-17", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":957.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-12.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
 </sst>
 </file>
@@ -132,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,26 +120,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -184,82 +165,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFff0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFff0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFff0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFff0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,10 +220,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -563,312 +497,235 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="68.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="72.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="104.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>673131</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3">
+        <v>1013929</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>1051311</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7">
-        <v>738919</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7">
-        <v>847334</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>2020266</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7">
-        <v>915334</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3">
+        <v>2830088</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="7">
-        <v>944006</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3">
+        <v>2842882</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7">
-        <v>957527</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="7">
-        <v>974191</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
+        <v>3002070</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7">
-        <v>1030366</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3">
+        <v>3596293</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7">
-        <v>2846689</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3">
+        <v>3662253</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7">
-        <v>2860522</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3">
+        <v>4132832</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="7">
-        <v>2945331</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3">
+        <v>4455355</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="7">
-        <v>2963137</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3">
+        <v>4539704</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="7">
-        <v>2969347</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="7">
-        <v>3023771</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3">
+        <v>4606694</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="7">
-        <v>3075427</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="3">
+        <v>4688988</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="7">
-        <v>3078718</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3">
+        <v>4699870</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="7">
-        <v>3145143</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="3">
+        <v>4742252</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="7">
-        <v>3185555</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3">
+        <v>4836047</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="7">
-        <v>3222314</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3">
+        <v>4882834</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="7">
-        <v>3231351</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="C18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="3">
+        <v>4915388</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="7">
-        <v>3266945</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="3">
+        <v>5063684</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="7">
-        <v>3283744</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="3">
+        <v>5137408</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="7">
-        <v>3395159</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="3">
+        <v>5345402</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="7">
-        <v>3398532</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="3">
+        <v>5696494</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="7">
-        <v>3429016</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="7">
-        <v>3491079</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="7">
-        <v>3550281</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="7">
-        <v>3563076</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="7">
-        <v>3565514</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="7">
-        <v>3672001</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="7">
-        <v>3688011</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6"/>
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -76,10 +76,19 @@
     <t>{"Prospecto": 4606694, "monto_maximo_cliente": 102071.0, "cuota_externa_total": 19385.0, "capacidad_maxima_pago": 131688.0, "bursolnum": 7353978, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6314.992394796616, "monto_max": 102071.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":82000.0, "cuota":4100.0, "saldo":68609.0, "tasa_externa":0.0124, "tasa_kubo":0.7554, "numero_pagos_otorgado":900.0, "numero_pagos_restante":877.0, "frecuencia_externa":"Z", "avance":0.1633, "fecha_inicio":"2022-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-989.5401044568471, "ahorro_total":-58382.86616295398, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":8500.0, "cuota":425.0, "saldo":8432.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.008, "fecha_inicio":"2021-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-200.50105905610258, "ahorro_total":-11829.562484310052, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":18000.0, "cuota":900.0, "saldo":17864.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0076, "fecha_inicio":"2020-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-425.1839325163917, "ahorro_total":-25085.85201846711, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":8000.0, "cuota":1432.0, "saldo":7166.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1042, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":900.4131179795979, "ahorro_total":53124.37396079628, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":347900.0, "cuota":12658.0, "saldo":225451.0, "tasa_externa":0.4005, "tasa_kubo":0.7554, "numero_pagos_otorgado":144.0, "numero_pagos_restante":35.0, "frecuencia_externa":"S", "avance":0.352, "fecha_inicio":"2021-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-13149.853231216566, "ahorro_total":-775841.3406417774, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1738.0, "saldo":11240.0, "tasa_externa":0.8996, "tasa_kubo":0.7554, "numero_pagos_otorgado":28.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2507, "fecha_inicio":"2023-07-26", "tipo_deuda":"I", "ahorro_cuota_mensual":625.2727839371989, "ahorro_total":36891.09425229474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":9000.0, "cuota":1305.0, "saldo":9396.0, "tasa_externa":0.8999, "tasa_kubo":0.7554, "numero_pagos_otorgado":10.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":-0.044, "fecha_inicio":"2024-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":637.3636703623195, "ahorro_total":37604.45655137685, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
+    <t>Revolvente con tasa reportada ¿es correcto? Trae una tasa del "tasa_externa": 0.0124</t>
+  </si>
+  <si>
     <t>{"Prospecto": 4688988, "monto_maximo_cliente": 52860.0, "cuota_externa_total": 13586.0, "capacidad_maxima_pago": 55274.0, "bursolnum": 7352817, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6126.168016794589, "monto_max": 52860.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":8, "monto_otorgado":243530.0, "cuota":7430.0, "saldo":228721.0, "tasa_externa":0.2733, "tasa_kubo":0.5668, "numero_pagos_otorgado":60.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0608, "fecha_inicio":"2022-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-20793.717312334207, "ahorro_total":-249524.6077480105, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":40000.0, "cuota":4728.0, "saldo":15835.0, "tasa_externa":0.7099, "tasa_kubo":0.5668, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6041, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":92.23154234234698, "ahorro_total":1106.7785081081638, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":500.0, "cuota":1765.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-13", "tipo_deuda":"R", "ahorro_cuota_mensual":1765.0, "ahorro_total":21180.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":7000.0, "cuota":717.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":717.0, "ahorro_total":8604.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":114260.0, "cuota":5713.0, "saldo":21872.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8086, "fecha_inicio":"2019-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":3178.161807352795, "ahorro_total":38137.94168823354, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":25100.0, "cuota":2221.0, "saldo":9456.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6233, "fecha_inicio":"2020-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1125.1043366097308, "ahorro_total":13501.252039316769, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":37000.0, "cuota":2805.0, "saldo":21532.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4181, "fecha_inicio":"2020-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":309.565839242885, "ahorro_total":3714.7900709146197, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":12.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
+    <t>Revolvente con saldo cero</t>
+  </si>
+  <si>
     <t>{"Prospecto": 4699870, "monto_maximo_cliente": 5233.0, "cuota_externa_total": 5659.0, "capacidad_maxima_pago": 9574.0, "bursolnum": 7354566, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1063.747520887488, "monto_max": 5233.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 6.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":400.0, "cuota":84.0, "saldo":158.0, "tasa_externa":0.8555, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.605, "fecha_inicio":"2022-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2.689277975349654, "ahorro_total":16.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":12410.0, "cuota":3584.0, "saldo":12431.0, "tasa_externa":0.7338, "tasa_kubo":0.6193, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0017, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":1061.3348491852234, "ahorro_total":6368.009095111341, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":400.0, "cuota":101.0, "saldo":257.0, "tasa_externa":1.6226, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3575, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":19.689277975349654, "ahorro_total":118.13566785209792, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":16500.0, "cuota":750.0, "saldo":82.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.995, "fecha_inicio":"2022-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":733.3313019849467, "ahorro_total":4399.98781190968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":6000.0, "cuota":1057.0, "saldo":3951.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3415, "fecha_inicio":"2021-02-25", "tipo_deuda":"R", "ahorro_cuota_mensual":253.85334320151617, "ahorro_total":1523.120059209097, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":400.0, "cuota":83.0, "saldo":155.0, "tasa_externa":0.8084, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6125, "fecha_inicio":"2022-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":1.689277975349654, "ahorro_total":10.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Creditos Revolventes con saldo cero</t>
   </si>
   <si>
     <t>{"Prospecto": 4742252, "monto_maximo_cliente": 5078.0, "cuota_externa_total": 1935.0, "capacidad_maxima_pago": 35143.0, "bursolnum": 7353080, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 275.58896455537393, "monto_max": 5078.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":7699.0, "cuota":608.0, "saldo":5078.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3404, "fecha_inicio":"2019-07-08", "tipo_deuda":"R", "ahorro_cuota_mensual":166.19043565531155, "ahorro_total":3822.3800200721657, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":13000.0, "cuota":1327.0, "saldo":6402.0, "tasa_externa":0.8966, "tasa_kubo":0.7007, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5075, "fecha_inicio":"2023-01-20", "tipo_deuda":"I", "ahorro_cuota_mensual":195.93967379264473, "ahorro_total":4506.612497230829, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -504,7 +513,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="72.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="73.7192857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="104.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -615,7 +624,9 @@
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
@@ -635,32 +646,38 @@
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>4688988</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>4699870</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>4742252</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -669,7 +686,7 @@
         <v>4836047</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -678,7 +695,7 @@
         <v>4882834</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -687,7 +704,7 @@
         <v>4915388</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -696,7 +713,7 @@
         <v>5063684</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -705,7 +722,7 @@
         <v>5137408</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -714,7 +731,7 @@
         <v>5345402</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -723,7 +740,7 @@
         <v>5696494</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4"/>
     </row>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -22,97 +22,61 @@
     <t>Json</t>
   </si>
   <si>
-    <t>Commentarios</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 1013929, "monto_maximo_cliente": 5624.0, "cuota_externa_total": 1495.0, "capacidad_maxima_pago": 17755.0, "bursolnum": 7355264, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 548.1123444443695, "monto_max": 5624.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 17.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":25000.0, "cuota":390.0, "saldo":5624.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.775, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-158.11234444436946, "ahorro_total":-2687.9098555542805, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":3000.0, "cuota":672.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-02-15", "tipo_deuda":"R", "ahorro_cuota_mensual":672.0, "ahorro_total":11424.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":10000.0, "cuota":1495.0, "saldo":10253.0, "tasa_externa":0.7769, "tasa_kubo":0.6509, "numero_pagos_otorgado":9.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":-0.0253, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":520.4047929509788, "ahorro_total":8846.881480166641, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 1051311, "monto_maximo_cliente": 294826.0, "cuota_externa_total": 16857.0, "capacidad_maxima_pago": 306886.0, "bursolnum": 7353550, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 14459.773067682083, "monto_max": 294826.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0455, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":3, "monto_otorgado":27400.0, "cuota":1504.0, "saldo":21751.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2062, "fecha_inicio":"2022-05-30", "tipo_deuda":"R", "ahorro_cuota_mensual":289.7073517376068, "ahorro_total":17092.7337525188, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":68492.0, "cuota":3412.0, "saldo":52220.0, "tasa_externa":0.4349, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.2376, "fecha_inicio":"2022-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-411.70153394270756, "ahorro_total":-24290.390502619746, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":45800.0, "cuota":3830.0, "saldo":44282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0331, "fecha_inicio":"2019-10-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1357.8696588499242, "ahorro_total":80114.30987214553, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":155000.0, "cuota":4973.0, "saldo":59926.0, "tasa_externa":0.2997, "tasa_kubo":0.5504, "numero_pagos_otorgado":60.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.6134, "fecha_inicio":"2020-03-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-3680.1819447690195, "ahorro_total":-217130.73474137214, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":6349.0, "cuota":181.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1998-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":181.0, "ahorro_total":10679.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":1959.0, "cuota":979.0, "saldo":1959.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":2.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":869.6349456141774, "ahorro_total":51308.46179123646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":36, "monto_otorgado":3900.0, "cuota":210.0, "saldo":3342.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1431, "fecha_inicio":"1998-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":23.426231874722163, "ahorro_total":1382.1476806086075, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":795.0, "cuota":795.0, "saldo":795.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2001-01-26", "tipo_deuda":"O", "ahorro_cuota_mensual":750.6175506703783, "ahorro_total":44286.435489552314, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2009-10-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":10000.0, "cuota":1154.0, "saldo":10107.0, "tasa_externa":0.6573, "tasa_kubo":0.5504, "numero_pagos_otorgado":12.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":-0.0107, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":595.7301971116761, "ahorro_total":35148.081629588894, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Tasa inicial kubo más cara que la deuda externa del cliente</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2020266, "monto_maximo_cliente": 105808.0, "cuota_externa_total": 22205.0, "capacidad_maxima_pago": 114505.0, "bursolnum": 7355166, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 11373.617295322296, "monto_max": 105808.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4295, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":30000.0, "cuota":4494.0, "saldo":30250.0, "tasa_externa":0.5119, "tasa_kubo":0.4295, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0083, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":1269.2105808665806, "ahorro_total":15230.526970398967, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":2000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-09-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":106500.0, "cuota":10300.0, "saldo":70118.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3416, "fecha_inicio":"2018-10-09", "tipo_deuda":"R", "ahorro_cuota_mensual":2762.8071836400977, "ahorro_total":33153.68620368117, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":231120.0, "cuota":6659.0, "saldo":168279.0, "tasa_externa":0.2441, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.2719, "fecha_inicio":"2022-01-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-18184.77768500386, "ahorro_total":-218217.33222004632, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":60000.0, "cuota":3000.0, "saldo":22423.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6263, "fecha_inicio":"2023-03-23", "tipo_deuda":"R", "ahorro_cuota_mensual":589.6848951590446, "ahorro_total":7076.218741908535, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":1960.0, "cuota":932.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-06-18", "tipo_deuda":"R", "ahorro_cuota_mensual":932.0, "ahorro_total":11184.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":45400.0, "cuota":2270.0, "saldo":13267.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7078, "fecha_inicio":"2023-08-07", "tipo_deuda":"R", "ahorro_cuota_mensual":843.8906258785642, "ahorro_total":10126.68751054277, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Oferta en CEROS, solo tiene Revolventes</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2830088, "monto_maximo_cliente": 5820.0, "cuota_externa_total": 7076.0, "capacidad_maxima_pago": 11966.95, "bursolnum": 7354695, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 548.0861021019805, "monto_max": 5820.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":294205.0, "cuota":2904.0, "saldo":242971.0, "tasa_externa":0.1162, "tasa_kubo":0.8317, "numero_pagos_otorgado":360.0, "numero_pagos_restante":284.0, "frecuencia_externa":"M", "avance":0.1741, "fecha_inicio":"2017-12-06", "tipo_deuda":"M", "ahorro_cuota_mensual":-29403.501932382227, "ahorro_total":-352842.0231885867, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":7, "monto_otorgado":30134.0, "cuota":1004.0, "saldo":4831.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":25.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-3002.874331629725, "ahorro_total":-36034.4919795567, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":10000.0, "cuota":1268.0, "saldo":8845.0, "tasa_externa":0.9714, "tasa_kubo":0.8317, "numero_pagos_otorgado":48.0, "numero_pagos_restante":8.0, "frecuencia_externa":"W", "avance":0.1155, "fecha_inicio":"2023-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-61.68551524182817, "ahorro_total":-740.226182901938, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2018-01-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":2, "monto_otorgado":42327.0, "cuota":1411.0, "saldo":33102.0, "tasa_externa":0.0001, "tasa_kubo":0.8317, "numero_pagos_otorgado":30.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.2179, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-4217.159880364086, "ahorro_total":-50605.918564369036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":1000.0, "cuota":81.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":81.0, "ahorro_total":972.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":300.0, "saldo":5820.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.03, "fecha_inicio":"2023-08-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-473.876969870744, "ahorro_total":-5686.523638448928, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "GUBERNAMENTALES", "registro":3, "monto_otorgado":8540.0, "cuota":285.0, "saldo":6679.0, "tasa_externa":0.0009, "tasa_kubo":0.8317, "numero_pagos_otorgado":30.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.2179, "fecha_inicio":"2024-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-850.5514300165214, "ahorro_total":-10206.617160198257, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Solo Revolventes. Uno viene con saldo CERO.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 2842882, "monto_maximo_cliente": 6159.0, "cuota_externa_total": 2044.0, "capacidad_maxima_pago": 13058.34, "bursolnum": 7354665, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 334.2560915117266, "monto_max": 6159.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":12000.0, "cuota":600.0, "saldo":6159.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4868, "fecha_inicio":"2024-01-05", "tipo_deuda":"R", "ahorro_cuota_mensual":173.85398729925168, "ahorro_total":3998.641707882789, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":36700.0, "cuota":1742.0, "saldo":29921.0, "tasa_externa":0.4911, "tasa_kubo":0.4428, "numero_pagos_otorgado":48.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1847, "fecha_inicio":"2022-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-797.3016181388966, "ahorro_total":-18337.937217194623, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Oferta en CEROS, solo tiene Revolventes. SIN Ahorros actuales y restantes</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3002070, "monto_maximo_cliente": 254110.0, "cuota_externa_total": 15301.0, "capacidad_maxima_pago": 270251.0, "bursolnum": 7352944, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 12294.89073969788, "monto_max": 254110.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4295, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":25000.0, "cuota":1504.0, "saldo":20455.0, "tasa_externa":0.4893, "tasa_kubo":0.4295, "numero_pagos_otorgado":28.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.1818, "fecha_inicio":"2023-05-29", "tipo_deuda":"I", "ahorro_cuota_mensual":294.39680259554143, "ahorro_total":14131.046524585989, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":846.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":1035.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":36630.0, "cuota":1695.0, "saldo":14124.0, "tasa_externa":0.4165, "tasa_kubo":0.4295, "numero_pagos_otorgado":40.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.6144, "fecha_inicio":"2021-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-77.31060483701253, "ahorro_total":-3710.9090321766016, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2021-09-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1308.0, "cuota":937.0, "saldo":937.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2836, "fecha_inicio":"2021-12-18", "tipo_deuda":"O", "ahorro_cuota_mensual":891.6640721612808, "ahorro_total":42799.87546374148, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":50700.0, "cuota":1536.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-04-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1536.0, "ahorro_total":73728.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":10000.0, "cuota":8000.0, "saldo":12826.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.2826, "fecha_inicio":"2021-12-03", "tipo_deuda":"R", "ahorro_cuota_mensual":7379.4251756036165, "ahorro_total":354212.4084289736, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":109800.0, "cuota":3451.0, "saldo":64162.0, "tasa_externa":0.2888, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.4156, "fecha_inicio":"2021-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1861.5772430003826, "ahorro_total":-89355.70766401837, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":43000.0, "cuota":2954.0, "saldo":33825.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2134, "fecha_inicio":"2021-08-14", "tipo_deuda":"R", "ahorro_cuota_mensual":1317.4068739117674, "ahorro_total":63235.52994776484, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":26000.0, "cuota":1961.0, "saldo":23920.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.08, "fecha_inicio":"2023-08-10", "tipo_deuda":"R", "ahorro_cuota_mensual":803.6516607234141, "ahorro_total":38575.279714723874, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":15000.0, "cuota":750.0, "saldo":2525.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8317, "fecha_inicio":"2021-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":627.8300770621497, "ahorro_total":30135.843698983186, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":9000.0, "cuota":371.0, "saldo":4278.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5247, "fecha_inicio":"2018-06-13", "tipo_deuda":"R", "ahorro_cuota_mensual":164.01270086014907, "ahorro_total":7872.609641287156, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":395.0, "saldo":5762.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0397, "fecha_inicio":"2019-07-12", "tipo_deuda":"R", "ahorro_cuota_mensual":116.21065506222038, "ahorro_total":5578.111442986578, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":74000.0, "cuota":2340.0, "saldo":26961.0, "tasa_externa":0.292, "tasa_kubo":0.4295, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6357, "fecha_inicio":"2019-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-1240.425464317197, "ahorro_total":-59540.42228722546, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3596293, "monto_maximo_cliente": 5194.0, "cuota_externa_total": 4847.0, "capacidad_maxima_pago": 20347.0, "bursolnum": 7353027, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 567.3037437527083, "monto_max": 5194.0, "cuota_min": 239.2245207516586, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4582, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":23200.0, "cuota":2321.0, "saldo":5194.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7761, "fecha_inicio":"2020-06-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1753.6962562472918, "ahorro_total":21044.3550749675, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2500.0, "cuota":1297.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-05-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1297.0, "ahorro_total":15564.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":38000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":842.0, "cuota":319.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-29", "tipo_deuda":"O", "ahorro_cuota_mensual":319.0, "ahorro_total":3828.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":87000.0, "cuota":4528.0, "saldo":37134.0, "tasa_externa":0.4726, "tasa_kubo":0.4582, "numero_pagos_otorgado":36.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.5732, "fecha_inicio":"2021-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-4974.392319307974, "ahorro_total":-59692.70783169568, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3662253, "monto_maximo_cliente": 5748.0, "cuota_externa_total": 3999.0, "capacidad_maxima_pago": 11749.0, "bursolnum": 7352858, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 565.8380666806834, "monto_max": 5748.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 15.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":339346.0, "cuota":2619.0, "saldo":278683.0, "tasa_externa":0.0866, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":319.0, "frecuencia_externa":"M", "avance":0.1788, "fecha_inicio":"2020-11-01", "tipo_deuda":"M", "ahorro_cuota_mensual":-24814.794352256944, "ahorro_total":-372221.9152838542, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":10627.0, "cuota":944.0, "saldo":4180.0, "tasa_externa":0.6676, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6067, "fecha_inicio":"2022-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-102.13102550724125, "ahorro_total":-1531.9653826086187, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2006-07-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2023-05-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":5000.0, "cuota":250.0, "saldo":658.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2021-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":185.22591373070813, "ahorro_total":2778.388705960622, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":4600.0, "cuota":877.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2009-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":877.0, "ahorro_total":13155.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":29900.0, "cuota":1495.0, "saldo":5090.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":15.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.8298, "fecha_inicio":"2023-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":993.9360195886084, "ahorro_total":14909.040293829126, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":37050.0, "cuota":632.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":632.0, "ahorro_total":9480.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4132832, "monto_maximo_cliente": 296200.0, "cuota_externa_total": 21612.0, "capacidad_maxima_pago": 287928.0, "bursolnum": 7353206, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 16535.951561552152, "monto_max": 296200.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":1068.0, "saldo":12901.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1399, "fecha_inicio":"2023-03-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-150.68410433412168, "ahorro_total":-8890.36215571318, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":281200.0, "cuota":16284.0, "saldo":283006.0, "tasa_externa":0.6921, "tasa_kubo":0.8317, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.0064, "fecha_inicio":"2023-12-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-6562.264675916998, "ahorro_total":-387173.6158791029, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":50000.0, "cuota":4260.0, "saldo":25296.0, "tasa_externa":0.9014, "tasa_kubo":0.8317, "numero_pagos_otorgado":56.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4941, "fecha_inicio":"2022-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":197.71965221959408, "ahorro_total":11665.459480956051, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2000-02-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":5, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.8317, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-12-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4455355, "monto_maximo_cliente": 373167.0, "cuota_externa_total": 77736.0, "capacidad_maxima_pago": 395431.0, "bursolnum": 7354491, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 28317.764122928013, "monto_max": 373167.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 24.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":6, "monto_otorgado":94442.0, "cuota":0.0, "saldo":85555.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.0941, "fecha_inicio":"2022-08-09", "tipo_deuda":"O", "ahorro_cuota_mensual":-6492.3380404406225, "ahorro_total":-155816.11297057493, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":287567.0, "cuota":0.0, "saldo":157826.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.4512, "fecha_inicio":"2022-11-08", "tipo_deuda":"O", "ahorro_cuota_mensual":-11976.620227579708, "ahorro_total":-287438.88546191296, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3918690.0, "cuota":36527.0, "saldo":3867553.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":40.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.013, "fecha_inicio":"2023-05-26", "tipo_deuda":"M", "ahorro_cuota_mensual":-256962.11770580627, "ahorro_total":-6167090.824939351, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":90000.0, "cuota":13200.0, "saldo":23005.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7444, "fecha_inicio":"2019-10-14", "tipo_deuda":"R", "ahorro_cuota_mensual":11454.266417855923, "ahorro_total":274902.39402854216, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":60000.0, "cuota":3000.0, "saldo":65426.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0904, "fecha_inicio":"2022-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1964.8496129258165, "ahorro_total":-47156.390710219595, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":255321.0, "cuota":17924.0, "saldo":255321.0, "tasa_externa":0.5689, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1451.0247305632693, "ahorro_total":-34824.59353351846, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":11700.0, "cuota":6500.0, "saldo":6346.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4576, "fecha_inicio":"2017-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":6018.434022504398, "ahorro_total":144442.41654010554, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":173571.0, "cuota":8679.0, "saldo":46074.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7346, "fecha_inicio":"2019-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":5182.6761980566735, "ahorro_total":124384.22875336016, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "AUTOMOTRIZ", "registro":7, "monto_otorgado":432371.0, "cuota":11381.0, "saldo":429086.0, "tasa_externa":0.2433, "tasa_kubo":0.5668, "numero_pagos_otorgado":72.0, "numero_pagos_restante":68.0, "frecuencia_externa":"M", "avance":0.0076, "fecha_inicio":"2023-11-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-21429.45749381512, "ahorro_total":-514306.9798515629, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":35000.0, "cuota":65.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":65.0, "ahorro_total":1560.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":90000.0, "cuota":6007.0, "saldo":71391.0, "tasa_externa":0.7052, "tasa_kubo":0.5668, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.2068, "fecha_inicio":"2022-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-822.6467025849579, "ahorro_total":-19743.52086203899, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4539704, "monto_maximo_cliente": 419195.0, "cuota_externa_total": 21247.0, "capacidad_maxima_pago": 416988.0, "bursolnum": 7355231, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 18386.536241682767, "monto_max": 419195.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 37.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":10000.0, "cuota":1419.0, "saldo":10205.0, "tasa_externa":0.6318, "tasa_kubo":0.5292, "numero_pagos_otorgado":9.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":-0.0205, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":811.5364193138869, "ahorro_total":30026.847514613815, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-12-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2022-08-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":60000.0, "cuota":3932.0, "saldo":60079.0, "tasa_externa":0.7549, "tasa_kubo":0.5292, "numero_pagos_otorgado":96.0, "numero_pagos_restante":46.0, "frecuencia_externa":"S", "avance":-0.0013, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":287.21851588332083, "ahorro_total":10627.08508768287, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":200000.0, "cuota":12452.0, "saldo":191745.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0413, "fecha_inicio":"2023-11-06", "tipo_deuda":"I", "ahorro_cuota_mensual":302.7283862777367, "ahorro_total":11200.950292276259, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":140988.0, "cuota":2938.0, "saldo":69517.0, "tasa_externa":0.0001, "tasa_kubo":0.5292, "numero_pagos_otorgado":96.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.5069, "fecha_inicio":"2023-11-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-5626.507531377372, "ahorro_total":-208180.77866096277, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":18207.0, "cuota":506.0, "saldo":9354.0, "tasa_externa":0.0003, "tasa_kubo":0.5292, "numero_pagos_otorgado":72.0, "numero_pagos_restante":27.0, "frecuencia_externa":"S", "avance":0.4862, "fecha_inicio":"2023-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-600.0089413552062, "ahorro_total":-22200.33083014263, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Tasa externa de deudas consolidables mal reportadas, p.ej.: "tasa_externa": 0.0003,</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4606694, "monto_maximo_cliente": 102071.0, "cuota_externa_total": 19385.0, "capacidad_maxima_pago": 131688.0, "bursolnum": 7353978, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6314.992394796616, "monto_max": 102071.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":82000.0, "cuota":4100.0, "saldo":68609.0, "tasa_externa":0.0124, "tasa_kubo":0.7554, "numero_pagos_otorgado":900.0, "numero_pagos_restante":877.0, "frecuencia_externa":"Z", "avance":0.1633, "fecha_inicio":"2022-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-989.5401044568471, "ahorro_total":-58382.86616295398, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":8500.0, "cuota":425.0, "saldo":8432.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.008, "fecha_inicio":"2021-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-200.50105905610258, "ahorro_total":-11829.562484310052, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":18000.0, "cuota":900.0, "saldo":17864.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0076, "fecha_inicio":"2020-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-425.1839325163917, "ahorro_total":-25085.85201846711, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":8000.0, "cuota":1432.0, "saldo":7166.0, "tasa_externa":-1.0, "tasa_kubo":0.7554, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1042, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":900.4131179795979, "ahorro_total":53124.37396079628, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":347900.0, "cuota":12658.0, "saldo":225451.0, "tasa_externa":0.4005, "tasa_kubo":0.7554, "numero_pagos_otorgado":144.0, "numero_pagos_restante":35.0, "frecuencia_externa":"S", "avance":0.352, "fecha_inicio":"2021-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-13149.853231216566, "ahorro_total":-775841.3406417774, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1738.0, "saldo":11240.0, "tasa_externa":0.8996, "tasa_kubo":0.7554, "numero_pagos_otorgado":28.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2507, "fecha_inicio":"2023-07-26", "tipo_deuda":"I", "ahorro_cuota_mensual":625.2727839371989, "ahorro_total":36891.09425229474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":9000.0, "cuota":1305.0, "saldo":9396.0, "tasa_externa":0.8999, "tasa_kubo":0.7554, "numero_pagos_otorgado":10.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":-0.044, "fecha_inicio":"2024-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":637.3636703623195, "ahorro_total":37604.45655137685, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Revolvente con tasa reportada ¿es correcto? Trae una tasa del "tasa_externa": 0.0124</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4688988, "monto_maximo_cliente": 52860.0, "cuota_externa_total": 13586.0, "capacidad_maxima_pago": 55274.0, "bursolnum": 7352817, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6126.168016794589, "monto_max": 52860.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":8, "monto_otorgado":243530.0, "cuota":7430.0, "saldo":228721.0, "tasa_externa":0.2733, "tasa_kubo":0.5668, "numero_pagos_otorgado":60.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0608, "fecha_inicio":"2022-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-20793.717312334207, "ahorro_total":-249524.6077480105, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":40000.0, "cuota":4728.0, "saldo":15835.0, "tasa_externa":0.7099, "tasa_kubo":0.5668, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6041, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":92.23154234234698, "ahorro_total":1106.7785081081638, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":500.0, "cuota":1765.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-13", "tipo_deuda":"R", "ahorro_cuota_mensual":1765.0, "ahorro_total":21180.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":7000.0, "cuota":717.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":717.0, "ahorro_total":8604.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":114260.0, "cuota":5713.0, "saldo":21872.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8086, "fecha_inicio":"2019-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":3178.161807352795, "ahorro_total":38137.94168823354, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":25100.0, "cuota":2221.0, "saldo":9456.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6233, "fecha_inicio":"2020-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1125.1043366097308, "ahorro_total":13501.252039316769, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":37000.0, "cuota":2805.0, "saldo":21532.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4181, "fecha_inicio":"2020-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":309.565839242885, "ahorro_total":3714.7900709146197, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":12.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Revolvente con saldo cero</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4699870, "monto_maximo_cliente": 5233.0, "cuota_externa_total": 5659.0, "capacidad_maxima_pago": 9574.0, "bursolnum": 7354566, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1063.747520887488, "monto_max": 5233.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 6.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":400.0, "cuota":84.0, "saldo":158.0, "tasa_externa":0.8555, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.605, "fecha_inicio":"2022-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2.689277975349654, "ahorro_total":16.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":12410.0, "cuota":3584.0, "saldo":12431.0, "tasa_externa":0.7338, "tasa_kubo":0.6193, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0017, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":1061.3348491852234, "ahorro_total":6368.009095111341, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":400.0, "cuota":101.0, "saldo":257.0, "tasa_externa":1.6226, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3575, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":19.689277975349654, "ahorro_total":118.13566785209792, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":16500.0, "cuota":750.0, "saldo":82.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.995, "fecha_inicio":"2022-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":733.3313019849467, "ahorro_total":4399.98781190968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":6000.0, "cuota":1057.0, "saldo":3951.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3415, "fecha_inicio":"2021-02-25", "tipo_deuda":"R", "ahorro_cuota_mensual":253.85334320151617, "ahorro_total":1523.120059209097, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":400.0, "cuota":83.0, "saldo":155.0, "tasa_externa":0.8084, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6125, "fecha_inicio":"2022-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":1.689277975349654, "ahorro_total":10.135667852097924, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Creditos Revolventes con saldo cero</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4742252, "monto_maximo_cliente": 5078.0, "cuota_externa_total": 1935.0, "capacidad_maxima_pago": 35143.0, "bursolnum": 7353080, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 275.58896455537393, "monto_max": 5078.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":7699.0, "cuota":608.0, "saldo":5078.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3404, "fecha_inicio":"2019-07-08", "tipo_deuda":"R", "ahorro_cuota_mensual":166.19043565531155, "ahorro_total":3822.3800200721657, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":13000.0, "cuota":1327.0, "saldo":6402.0, "tasa_externa":0.8966, "tasa_kubo":0.7007, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5075, "fecha_inicio":"2023-01-20", "tipo_deuda":"I", "ahorro_cuota_mensual":195.93967379264473, "ahorro_total":4506.612497230829, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4836047, "monto_maximo_cliente": 112150.0, "cuota_externa_total": 18317.0, "capacidad_maxima_pago": 105845.0, "bursolnum": 7354921, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8583.550887731646, "monto_max": 112150.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":15000.0, "cuota":1760.0, "saldo":15136.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0091, "fecha_inicio":"2023-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":601.5459096147463, "ahorro_total":19851.015017286627, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":19000.0, "cuota":1430.0, "saldo":14614.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2308, "fecha_inicio":"2021-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":311.49788075514675, "ahorro_total":10279.430064919843, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9900.0, "cuota":712.0, "saldo":8681.0, "tasa_externa":0.8625, "tasa_kubo":0.7007, "numero_pagos_otorgado":122.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1231, "fecha_inicio":"2022-10-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-45.70979749035496, "ahorro_total":-1508.4233171817136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":12981.0, "cuota":1219.0, "saldo":10987.0, "tasa_externa":0.2296, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.1536, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":225.48172916946487, "ahorro_total":7440.897062592341, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":28000.0, "cuota":1400.0, "saldo":26294.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0609, "fecha_inicio":"2019-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-612.4466075971102, "ahorro_total":-20210.738050704636, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":17800.0, "cuota":890.0, "saldo":930.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9478, "fecha_inicio":"2023-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":818.8212008418152, "ahorro_total":27021.099627779902, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":10000.0, "cuota":500.0, "saldo":7851.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2149, "fecha_inicio":"2022-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-100.88683031280561, "ahorro_total":-3329.2654003225853, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":28000.0, "cuota":1400.0, "saldo":24444.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.127, "fecha_inicio":"2019-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-470.8543727125491, "ahorro_total":-15538.19429951412, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":204765.0, "cuota":5417.0, "saldo":49073.0, "tasa_externa":0.2021, "tasa_kubo":0.7007, "numero_pagos_otorgado":60.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.7603, "fecha_inicio":"2019-11-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-10254.964311425507, "ahorro_total":-338413.82227704173, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":27000.0, "cuota":1723.0, "saldo":23480.0, "tasa_externa":0.6607, "tasa_kubo":0.7007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.1304, "fecha_inicio":"2023-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-343.4812658827859, "ahorro_total":-11334.881774131936, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":140500.0, "cuota":3164.0, "saldo":92565.0, "tasa_externa":0.1272, "tasa_kubo":0.7007, "numero_pagos_otorgado":60.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.3412, "fecha_inicio":"2021-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-7589.356216908571, "ahorro_total":-250448.75515798284, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4882834, "monto_maximo_cliente": 5284.0, "cuota_externa_total": 6273.0, "capacidad_maxima_pago": 9890.0, "bursolnum": 7354241, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 606.9951703618921, "monto_max": 5284.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":340828.0, "cuota":1680.0, "saldo":309330.0, "tasa_externa":0.0433, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":329.0, "frecuencia_externa":"M", "avance":0.0924, "fecha_inicio":"2021-09-01", "tipo_deuda":"M", "ahorro_cuota_mensual":-33854.0302891832, "ahorro_total":-406248.36347019847, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":48000.0, "cuota":3673.0, "saldo":35332.0, "tasa_externa":0.6773, "tasa_kubo":0.5504, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2639, "fecha_inicio":"2023-03-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1840.960669449436, "ahorro_total":-22091.52803339323, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":21000.0, "cuota":370.0, "saldo":553.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9737, "fecha_inicio":"2022-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":306.474578120718, "ahorro_total":3677.6949374486157, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":26000.0, "cuota":150.0, "saldo":531.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9796, "fecha_inicio":"2020-09-25", "tipo_deuda":"R", "ahorro_cuota_mensual":89.00181009421561, "ahorro_total":1068.0217211305874, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15500.0, "cuota":775.0, "saldo":4200.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.729, "fecha_inicio":"2020-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":292.52844142317434, "ahorro_total":3510.341297078092, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4915388, "monto_maximo_cliente": 84538.0, "cuota_externa_total": 32718.0, "capacidad_maxima_pago": 111820.0, "bursolnum": 7354265, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8357.500949471312, "monto_max": 84538.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":28, "monto_otorgado":5000.0, "cuota":575.0, "saldo":574.0, "tasa_externa":0.6497, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8852, "fecha_inicio":"2022-02-25", "tipo_deuda":"I", "ahorro_cuota_mensual":80.69560733212796, "ahorro_total":1291.1297173140474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":20000.0, "cuota":2415.0, "saldo":19286.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0357, "fecha_inicio":"2019-07-24", "tipo_deuda":"R", "ahorro_cuota_mensual":508.3690966014842, "ahorro_total":8133.9055456237475, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":12258.0, "cuota":1626.0, "saldo":10100.0, "tasa_externa":0.9725, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.176, "fecha_inicio":"2023-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":414.1633509354449, "ahorro_total":6626.613614967118, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3150.0, "cuota":464.0, "saldo":463.0, "tasa_externa":0.7353, "tasa_kubo":0.6193, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.853, "fecha_inicio":"2023-05-07", "tipo_deuda":"I", "ahorro_cuota_mensual":152.5882326192406, "ahorro_total":2441.41172190785, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":2799.0, "cuota":607.0, "saldo":605.0, "tasa_externa":0.9835, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7839, "fecha_inicio":"2023-07-31", "tipo_deuda":"I", "ahorro_cuota_mensual":330.28840098452525, "ahorro_total":5284.614415752404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":2759.0, "cuota":597.0, "saldo":595.0, "tasa_externa":0.9746, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7843, "fecha_inicio":"2023-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":324.2428361258682, "ahorro_total":5187.885378013892, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":40000.0, "cuota":2677.0, "saldo":38286.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0429, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-1107.9875955364296, "ahorro_total":-17727.801528582873, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":29, "monto_otorgado":1000.0, "cuota":204.0, "saldo":204.0, "tasa_externa":0.7421, "tasa_kubo":0.6193, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.796, "fecha_inicio":"2022-08-26", "tipo_deuda":"I", "ahorro_cuota_mensual":105.13912146642559, "ahorro_total":1682.2259434628095, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":370983.0, "cuota":11842.0, "saldo":163762.0, "tasa_externa":0.2308, "tasa_kubo":0.6193, "numero_pagos_otorgado":48.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.5586, "fecha_inicio":"2021-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-24833.70530102103, "ahorro_total":-397339.28481633647, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":185678.0, "cuota":0.0, "saldo":4498.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9758, "fecha_inicio":"2019-10-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-444.67623164401766, "ahorro_total":-7114.819706304283, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":84000.0, "cuota":6740.0, "saldo":83691.0, "tasa_externa":0.7392, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0037, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-1564.31379682025, "ahorro_total":-25029.020749124, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":63200.0, "cuota":4971.0, "saldo":46970.0, "tasa_externa":0.713, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2568, "fecha_inicio":"2023-03-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1277.0075233219022, "ahorro_total":-20432.120373150436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":690.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-03-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5063684, "monto_maximo_cliente": 5414.0, "cuota_externa_total": 5184.0, "capacidad_maxima_pago": 31230.0, "bursolnum": 7354046, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 293.82407524671015, "monto_max": 5414.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 23.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2017-06-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":521.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":1, "monto_otorgado":53000.0, "cuota":4454.0, "saldo":36940.0, "tasa_externa":0.6316, "tasa_kubo":0.5292, "numero_pagos_otorgado":19.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.303, "fecha_inicio":"2023-05-26", "tipo_deuda":"I", "ahorro_cuota_mensual":481.8236171535241, "ahorro_total":11081.943194531053, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":16000.0, "cuota":800.0, "saldo":5414.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6616, "fecha_inicio":"2021-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":394.23843515602226, "ahorro_total":9067.484008588512, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5137408, "monto_maximo_cliente": 256464.0, "cuota_externa_total": 15256.0, "capacidad_maxima_pago": 266208.0, "bursolnum": 7354891, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 15920.047227749696, "monto_max": 256464.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":35000.0, "cuota":2772.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-08-12", "tipo_deuda":"R", "ahorro_cuota_mensual":2772.0, "ahorro_total":133056.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":18000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":72.0, "numero_pagos_restante":8.0, "frecuencia_externa":"S", "avance":1.0, "fecha_inicio":"2021-11-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-1117.3531181744593, "ahorro_total":-53632.949672374045, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":29000.0, "cuota":1450.0, "saldo":11141.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6158, "fecha_inicio":"2015-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":758.4204950232416, "ahorro_total":36404.1837611156, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":63300.0, "cuota":3165.0, "saldo":32748.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4827, "fecha_inicio":"2020-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1132.1622270012672, "ahorro_total":54343.786896060825, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":15000.0, "cuota":750.0, "saldo":975.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.935, "fecha_inicio":"2007-07-04", "tipo_deuda":"R", "ahorro_cuota_mensual":689.4767060988835, "ahorro_total":33094.88189274641, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":190600.0, "cuota":9844.0, "saldo":188860.0, "tasa_externa":0.6107, "tasa_kubo":0.5991, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":0.0091, "fecha_inicio":"2023-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-1987.5280180028858, "ahorro_total":-95401.34486413852, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":13520.0, "cuota":489.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-02-04", "tipo_deuda":"R", "ahorro_cuota_mensual":489.0, "ahorro_total":23472.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":3000.0, "cuota":610.0, "saldo":2109.0, "tasa_externa":0.7294, "tasa_kubo":0.5991, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.297, "fecha_inicio":"2023-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":423.7744803042568, "ahorro_total":20341.175054604326, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":36700.0, "cuota":2994.0, "saldo":31711.0, "tasa_externa":0.8128, "tasa_kubo":0.5991, "numero_pagos_otorgado":52.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.1359, "fecha_inicio":"2023-06-23", "tipo_deuda":"I", "ahorro_cuota_mensual":715.8411423887414, "ahorro_total":34360.37483465959, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5345402, "monto_maximo_cliente": 5693.0, "cuota_externa_total": 2706.0, "capacidad_maxima_pago": 20787.0, "bursolnum": 7354976, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 671.2963113231049, "monto_max": 5693.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":6000.0, "cuota":300.0, "saldo":3589.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4018, "fecha_inicio":"2018-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-123.20085391509281, "ahorro_total":-1478.4102469811137, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":6500.0, "cuota":104.0, "saldo":104.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.984, "fecha_inicio":"2024-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":91.73672643990815, "ahorro_total":1100.840717278898, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":2000.0, "cuota":809.0, "saldo":805.0, "tasa_externa":1.2576, "tasa_kubo":0.5991, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5975, "fecha_inicio":"2022-12-15", "tipo_deuda":"I", "ahorro_cuota_mensual":573.1678161520798, "ahorro_total":6878.013793824957, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":20000.0, "cuota":1543.0, "saldo":17705.0, "tasa_externa":0.6879, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1148, "fecha_inicio":"2023-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-815.3218384792021, "ahorro_total":-9783.862061750426, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-11-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5696494, "monto_maximo_cliente": 5253.0, "cuota_externa_total": 2420.0, "capacidad_maxima_pago": 13438.0, "bursolnum": 7353547, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 494.690084938437, "monto_max": 5253.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":4, "monto_otorgado":16000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-19", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":21000.0, "cuota":2420.0, "saldo":21512.0, "tasa_externa":0.6542, "tasa_kubo":0.5486, "numero_pagos_otorgado":12.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":-0.0244, "fecha_inicio":"2024-01-15", "tipo_deuda":"I", "ahorro_cuota_mensual":9.987577987535587, "ahorro_total":119.85093585042705, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":23800.0, "cuota":0.0, "saldo":5253.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7793, "fecha_inicio":"2024-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-602.847392991975, "ahorro_total":-7234.168715903699, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":7800.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-02-17", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":957.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-12.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 767837, "monto_maximo_cliente": 63600.0, "cuota_externa_total": 18367.0, "capacidad_maxima_pago": 71902.0, "bursolnum": 7397504, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3691.82552696243, "monto_max": 63600.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":5400.0, "cuota":654.0, "saldo":4535.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1602, "fecha_inicio":"2021-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":357.6729940454351, "ahorro_total":19314.341678453493, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":35000.0, "cuota":1352.0, "saldo":23011.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3425, "fecha_inicio":"2023-05-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-151.59001852712117, "ahorro_total":-8185.861000464543, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":118100.0, "cuota":43182.0, "saldo":48530.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5891, "fecha_inicio":"2021-02-22", "tipo_deuda":"R", "ahorro_cuota_mensual":40010.94165402976, "ahorro_total":2160590.849317607, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":28800.0, "cuota":2216.0, "saldo":23819.0, "tasa_externa":0.6174, "tasa_kubo":0.6509, "numero_pagos_otorgado":43.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.173, "fecha_inicio":"2021-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":334.1438210603153, "ahorro_total":18043.766337257028, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":21200.0, "cuota":3500.0, "saldo":12934.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3899, "fecha_inicio":"2021-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":2654.863617416462, "ahorro_total":143362.63534048895, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":11000.0, "cuota":434.0, "saldo":23875.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":-1.1705, "fecha_inicio":"2023-09-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-284.76451278946286, "ahorro_total":-15377.283690630995, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":34800.0, "cuota":2092.0, "saldo":29981.0, "tasa_externa":0.708, "tasa_kubo":0.6509, "numero_pagos_otorgado":120.0, "numero_pagos_restante":43.0, "frecuencia_externa":"S", "avance":0.1385, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-181.9095495521192, "ahorro_total":-9823.115675814435, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":582462.0, "cuota":9708.0, "saldo":475679.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":60.0, "numero_pagos_restante":47.0, "frecuencia_externa":"M", "avance":0.1833, "fecha_inicio":"2023-02-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-28351.365058943287, "ahorro_total":-1530973.7131829376, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":30000.0, "cuota":12280.0, "saldo":14741.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5086, "fecha_inicio":"2019-01-16", "tipo_deuda":"R", "ahorro_cuota_mensual":11316.790210633684, "ahorro_total":611106.671374219, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":45000.0, "cuota":3223.0, "saldo":45670.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0149, "fecha_inicio":"2023-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":282.59972040674256, "ahorro_total":15260.384901964098, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":745.0, "cuota":694.0, "saldo":694.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0685, "fecha_inicio":"2023-08-18", "tipo_deuda":"O", "ahorro_cuota_mensual":648.6524934658285, "ahorro_total":35027.234647154735, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2009-10-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>Dos deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3279161, "monto_maximo_cliente": 164850.0, "cuota_externa_total": 38203.0, "capacidad_maxima_pago": 192319.0, "bursolnum": 7397495, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8455.164289868235, "monto_max": 164850.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 49.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":17000.0, "cuota":2899.0, "saldo":13000.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":7.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2353, "fecha_inicio":"2023-12-11", "tipo_deuda":"I", "ahorro_cuota_mensual":2027.0691966772217, "ahorro_total":99326.39063718387, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-06-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":237690.0, "cuota":6319.0, "saldo":55025.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7685, "fecha_inicio":"2019-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-5872.131331870069, "ahorro_total":-287734.43526163336, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":22000.0, "cuota":1434.0, "saldo":15956.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2747, "fecha_inicio":"2022-02-08", "tipo_deuda":"R", "ahorro_cuota_mensual":615.6160060106912, "ahorro_total":30165.184294523868, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":104300.0, "cuota":5271.0, "saldo":102538.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0169, "fecha_inicio":"2019-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":11.821134640526907, "ahorro_total":579.2355973858184, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":52100.0, "cuota":3840.0, "saldo":50214.0, "tasa_externa":0.8917, "tasa_kubo":0.4706, "numero_pagos_otorgado":144.0, "numero_pagos_restante":62.0, "frecuencia_externa":"S", "avance":0.0362, "fecha_inicio":"2023-06-01", "tipo_deuda":"I", "ahorro_cuota_mensual":1167.7885380519565, "ahorro_total":57221.63836454587, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":47000.0, "cuota":3480.0, "saldo":43709.0, "tasa_externa":0.8896, "tasa_kubo":0.4706, "numero_pagos_otorgado":122.0, "numero_pagos_restante":52.0, "frecuencia_externa":"S", "avance":0.07, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":1069.3677790487895, "ahorro_total":52399.02117339069, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":65750.0, "cuota":4848.0, "saldo":63955.0, "tasa_externa":0.5597, "tasa_kubo":0.4706, "numero_pagos_otorgado":43.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.0273, "fecha_inicio":"2023-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":1475.67939303102, "ahorro_total":72308.29025851998, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":120000.0, "cuota":10112.0, "saldo":103536.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1372, "fecha_inicio":"2023-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":3957.1943294862713, "ahorro_total":193902.5221448273, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3388929, "monto_maximo_cliente": 168000.0, "cuota_externa_total": 15380.666666666666, "capacidad_maxima_pago": 160983.33333333334, "bursolnum": 7397421, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9215.046359400638, "monto_max": 168000.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0471, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":8, "monto_otorgado":15000.0, "cuota":1785.0, "saldo":14021.0, "tasa_externa":0.7248, "tasa_kubo":0.6722, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0653, "fecha_inicio":"2020-12-15", "tipo_deuda":"I", "ahorro_cuota_mensual":785.9626268957896, "ahorro_total":46371.794986851586, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":20200.0, "cuota":1088.0, "saldo":19486.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0353, "fecha_inicio":"2023-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-257.3703291136701, "ahorro_total":-15184.849417706535, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":10000.0, "cuota":119.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":119.0, "ahorro_total":7021.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":11000.0, "cuota":232.66666666666666, "saldo":32145.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":143.0, "frecuencia_externa":"Q", "avance":-1.9223, "fecha_inicio":"2024-02-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.960740276421, "ahorro_total":-29497.68367630884, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":153000.0, "cuota":8052.0, "saldo":153272.0, "tasa_externa":0.607, "tasa_kubo":0.6722, "numero_pagos_otorgado":120.0, "numero_pagos_restante":58.0, "frecuencia_externa":"S", "avance":-0.0018, "fecha_inicio":"2024-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-2138.181205662946, "ahorro_total":-126152.69113411382, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":30600.0, "cuota":1530.0, "saldo":32535.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0632, "fecha_inicio":"2022-02-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-636.9120622630326, "ahorro_total":-37577.811673518925, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":9000.0, "cuota":192.0, "saldo":12597.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":129.0, "frecuencia_externa":"Q", "avance":-0.3997, "fecha_inicio":"2023-01-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-407.42242386252633, "ahorro_total":-24037.923007889054, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":11000.0, "cuota":945.0, "saldo":3271.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7026, "fecha_inicio":"2022-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":212.37259305691236, "ahorro_total":12529.98299035783, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":212123.0, "cuota":2053.0, "saldo":248301.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":360.0, "numero_pagos_restante":259.0, "frecuencia_externa":"M", "avance":-0.1706, "fecha_inicio":"2015-11-10", "tipo_deuda":"M", "ahorro_cuota_mensual":-14484.465251943235, "ahorro_total":-854583.4498646508, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-07-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.  Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3399666, "monto_maximo_cliente": 6000.0, "cuota_externa_total": 8493.0, "capacidad_maxima_pago": 16145.0, "bursolnum": 7397449, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 220.48146707186646, "monto_max": 6000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 39.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "GUBERNAMENTALES", "registro":6, "monto_otorgado":3259.0, "cuota":272.0, "saldo":1496.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.541, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":46.023940789014915, "ahorro_total":1794.9336907715817, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":21664.0, "cuota":1805.0, "saldo":20062.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.0739, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":302.83818755852076, "ahorro_total":11810.68931478231, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":7000.0, "cuota":854.0, "saldo":5311.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2413, "fecha_inicio":"2023-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":368.6264453891085, "ahorro_total":14376.43137017523, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":5300.0, "cuota":646.0, "saldo":5242.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.0109, "fecha_inicio":"2024-01-02", "tipo_deuda":"I", "ahorro_cuota_mensual":278.502880080325, "ahorro_total":10861.612323132675, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":2193.0, "cuota":1000.0, "saldo":1000.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.544, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":847.9393992483307, "ahorro_total":33069.636570684896, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":27000.0, "cuota":1356.0, "saldo":17281.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.36, "fecha_inicio":"2021-11-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-516.1551392134388, "ahorro_total":-20130.050429324114, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":3000.0, "cuota":212.0, "saldo":3030.0, "tasa_externa":0.8538, "tasa_kubo":0.6509, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.01, "fecha_inicio":"2024-01-02", "tipo_deuda":"I", "ahorro_cuota_mensual":3.982762309617925, "ahorro_total":155.32773007509908, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":17543.0, "cuota":1263.0, "saldo":15309.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1273, "fecha_inicio":"2023-09-18", "tipo_deuda":"I", "ahorro_cuota_mensual":46.5845330658758, "ahorro_total":1816.7967895691563, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3000.0, "cuota":212.0, "saldo":2956.0, "tasa_externa":0.5032, "tasa_kubo":0.6509, "numero_pagos_otorgado":43.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.0147, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":3.982762309617925, "ahorro_total":155.32773007509908, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11200.0, "cuota":873.0, "saldo":9979.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.109, "fecha_inicio":"2019-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":181.06532836255906, "ahorro_total":7061.5478061398035, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3590341, "monto_maximo_cliente": 100000.0, "cuota_externa_total": 24466.0, "capacidad_maxima_pago": 95534.0, "bursolnum": 6203346, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6310.318696733804, "monto_max": 100000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 38.0, "plazo_min": 4, "tasa": 0.5951, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":761.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-08-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":21011.0, "cuota":1352.0, "saldo":20237.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0368, "fecha_inicio":"2022-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-20.540927919924115, "ahorro_total":-780.5552609571164, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":104, "monto_otorgado":11000.0, "cuota":620.0, "saldo":311.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.9717, "fecha_inicio":"2018-10-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-98.57361416016204, "ahorro_total":-3745.7973380861577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":1816.0, "cuota":908.0, "saldo":1135.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.375, "fecha_inicio":"2023-03-26", "tipo_deuda":"I", "ahorro_cuota_mensual":789.3700287895587, "ahorro_total":29996.061094003227, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":19500.0, "cuota":975.0, "saldo":19436.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0033, "fecha_inicio":"2023-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-294.6542513469917, "ahorro_total":-11196.861551185684, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":55000.0, "cuota":4185.0, "saldo":55513.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":24.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":-0.0093, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":592.1319291991899, "ahorro_total":22501.013309569218, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":19900.0, "cuota":995.0, "saldo":19246.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0329, "fecha_inicio":"2019-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-262.24252528422517, "ahorro_total":-9965.215960800557, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":70000.0, "cuota":8748.0, "saldo":39263.0, "tasa_externa":1.4207, "tasa_kubo":0.5951, "numero_pagos_otorgado":48.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4391, "fecha_inicio":"2022-03-08", "tipo_deuda":"I", "ahorro_cuota_mensual":4175.258818980787, "ahorro_total":158659.8351212699, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":196497.0, "cuota":4093.0, "saldo":151466.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":37.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.2292, "fecha_inicio":"2022-05-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-8743.141769239031, "ahorro_total":-332239.3872310832, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":30000.0, "cuota":2212.0, "saldo":30399.0, "tasa_externa":0.8921, "tasa_kubo":0.5951, "numero_pagos_otorgado":144.0, "numero_pagos_restante":60.0, "frecuencia_externa":"S", "avance":-0.0133, "fecha_inicio":"2023-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":252.25377956319448, "ahorro_total":9585.64362340139, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":21164.0, "cuota":1628.0, "saldo":10435.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":52.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.5069, "fecha_inicio":"2022-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":245.46436635584814, "ahorro_total":9327.64592152223, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa. Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3591168, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 34930.0, "capacidad_maxima_pago": 105070.0, "bursolnum": 7397507, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3754.7617693354077, "monto_max": 80000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":136718.0, "cuota":8696.0, "saldo":130380.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0464, "fecha_inicio":"2023-09-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-685.32732122366, "ahorro_total":-22615.80160038078, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":11000.0, "cuota":1073.0, "saldo":12826.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.166, "fecha_inicio":"2022-03-29", "tipo_deuda":"R", "ahorro_cuota_mensual":192.9044440233571, "ahorro_total":6365.846652770784, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":685.0, "saldo":8565.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0706, "fecha_inicio":"2022-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":97.28610346640062, "ahorro_total":3210.4414143912204, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":50000.0, "cuota":4887.0, "saldo":23062.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5388, "fecha_inicio":"2023-02-15", "tipo_deuda":"I", "ahorro_cuota_mensual":1456.0957587063663, "ahorro_total":48051.16003731009, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":132779.0, "cuota":9590.0, "saldo":131774.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0076, "fecha_inicio":"2024-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":478.95931490545263, "ahorro_total":15805.657391879937, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":11000.0, "cuota":982.0, "saldo":11966.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0878, "fecha_inicio":"2023-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":160.91599697360755, "ahorro_total":5310.227900129049, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":74800.0, "tasa_externa":0.1989, "tasa_kubo":0.5991, "numero_pagos_otorgado":43.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.065, "fecha_inicio":"2023-05-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1061.4467860698132, "ahorro_total":-35027.74394030384, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":31500.0, "cuota":3062.0, "saldo":18303.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.419, "fecha_inicio":"2018-09-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1806.0831934320524, "ahorro_total":59600.74538325773, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1527.0, "saldo":10258.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0258, "fecha_inicio":"2024-02-05", "tipo_deuda":"R", "ahorro_cuota_mensual":823.1156858561981, "ahorro_total":27162.817633254537, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3622744, "monto_maximo_cliente": 144000.0, "cuota_externa_total": 21565.0, "capacidad_maxima_pago": 143435.0, "bursolnum": 7397505, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6492.298010995873, "monto_max": 144000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":8000.0, "cuota":1078.0, "saldo":5214.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3482, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":618.9316754626756, "ahorro_total":29089.78874674575, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":33000.0, "cuota":1987.0, "saldo":28059.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1497, "fecha_inicio":"2023-03-31", "tipo_deuda":"I", "ahorro_cuota_mensual":93.3431612835368, "ahorro_total":4387.12858032623, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":41500.0, "cuota":3030.0, "saldo":31587.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.2389, "fecha_inicio":"2023-05-24", "tipo_deuda":"I", "ahorro_cuota_mensual":648.5830664626296, "ahorro_total":30483.404123743592, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":1979.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.8021, "fecha_inicio":"2023-09-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-113.56202678242065, "ahorro_total":-5337.41525877377, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":5000.0, "cuota":1222.0, "saldo":3115.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.377, "fecha_inicio":"2022-11-19", "tipo_deuda":"I", "ahorro_cuota_mensual":935.0822971641722, "ahorro_total":43948.8679667161, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":25000.0, "cuota":4055.0, "saldo":3769.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8492, "fecha_inicio":"2023-06-05", "tipo_deuda":"I", "ahorro_cuota_mensual":2620.4114858208613, "ahorro_total":123159.33983358048, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":3240.0, "cuota":2821.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2012-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":2821.0, "ahorro_total":132587.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":1949.0, "saldo":4545.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4319, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":1489.9316754626757, "ahorro_total":70026.78874674576, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":1100.0, "cuota":1585.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2011-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":1585.0, "ahorro_total":74495.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":8700.0, "cuota":435.0, "saldo":7155.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1776, "fecha_inicio":"2021-07-16", "tipo_deuda":"R", "ahorro_cuota_mensual":24.42076724193049, "ahorro_total":1147.7760603707331, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":144000.0, "cuota":7474.0, "saldo":143574.0, "tasa_externa":0.4702, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.003, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-789.2298416718404, "ahorro_total":-37093.8025585765, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9600.0, "cuota":480.0, "saldo":7160.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2542, "fecha_inicio":"2019-01-04", "tipo_deuda":"R", "ahorro_cuota_mensual":69.13384953909463, "ahorro_total":3249.2909283374474, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa. </t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4387308, "monto_maximo_cliente": 230100.0, "cuota_externa_total": 84375.0, "capacidad_maxima_pago": 250529.0, "bursolnum": 7397474, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13824.793747864333, "monto_max": 230100.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":11, "monto_otorgado":118523.0, "cuota":32791.0, "saldo":81911.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.3089, "fecha_inicio":"2018-11-23", "tipo_deuda":"O", "ahorro_cuota_mensual":27124.234515192915, "ahorro_total":1600329.836396382, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-11-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":107666.0, "cuota":0.0, "saldo":93191.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.1344, "fecha_inicio":"2023-02-11", "tipo_deuda":"O", "ahorro_cuota_mensual":-6447.138263415868, "ahorro_total":-380381.1575415362, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":80000.0, "cuota":4944.0, "saldo":80675.0, "tasa_externa":0.742, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0084, "fecha_inicio":"2024-02-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-590.5587135374599, "ahorro_total":-34842.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":12500.0, "cuota":12149.0, "saldo":12149.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0281, "fecha_inicio":"2021-05-01", "tipo_deuda":"R", "ahorro_cuota_mensual":11308.508077365417, "ahorro_total":667201.9765645596, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":65000.0, "cuota":5026.0, "saldo":67788.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":33.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0429, "fecha_inicio":"2024-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":529.1710452508141, "ahorro_total":31221.091669798036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":150100.0, "cuota":9396.0, "saldo":145433.0, "tasa_externa":0.7408, "tasa_kubo":0.7007, "numero_pagos_otorgado":120.0, "numero_pagos_restante":53.0, "frecuencia_externa":"S", "avance":0.0311, "fecha_inicio":"2023-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-988.215786274659, "ahorro_total":-58304.73139020488, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":58600.0, "cuota":3668.0, "saldo":55409.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0545, "fecha_inicio":"2023-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-386.06425766618895, "ahorro_total":-22777.791202305147, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":159300.0, "cuota":9972.0, "saldo":153427.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0369, "fecha_inicio":"2023-10-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-1048.6900383314678, "ahorro_total":-61872.712261556604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":11900.0, "cuota":595.0, "saldo":1581.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8671, "fecha_inicio":"2018-12-28", "tipo_deuda":"R", "ahorro_cuota_mensual":485.623283423716, "ahorro_total":28651.77372199924, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":32600.0, "cuota":2112.0, "saldo":21812.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3309, "fecha_inicio":"2021-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":603.0025667540115, "ahorro_total":35577.151438486675, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":144165.0, "cuota":7208.0, "saldo":146709.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0176, "fecha_inicio":"2018-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-2941.619678804591, "ahorro_total":-173555.56104947085, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4871715, "monto_maximo_cliente": 121598.0, "cuota_externa_total": 18983.0, "capacidad_maxima_pago": 121065.0, "bursolnum": 7397513, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6077.59605295152, "monto_max": 121598.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":1222.0, "saldo":1222.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9389, "fecha_inicio":"2011-12-26", "tipo_deuda":"O", "ahorro_cuota_mensual":1156.0111473531722, "ahorro_total":68204.65769383716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":120000.0, "cuota":6830.0, "saldo":119103.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":48.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0075, "fecha_inicio":"2023-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":349.9162703606162, "ahorro_total":20645.059951276355, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":27000.0, "cuota":1350.0, "saldo":4314.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8402, "fecha_inicio":"2018-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":1117.0409899194642, "ahorro_total":65905.41840524839, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":69999.0, "cuota":3804.0, "saldo":63616.0, "tasa_externa":0.6305, "tasa_kubo":0.5292, "numero_pagos_otorgado":120.0, "numero_pagos_restante":49.0, "frecuencia_externa":"S", "avance":0.0912, "fecha_inicio":"2023-04-26", "tipo_deuda":"I", "ahorro_cuota_mensual":24.00515840810658, "ahorro_total":1416.3043460782883, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":29200.0, "cuota":1688.0, "saldo":26833.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0811, "fecha_inicio":"2023-06-13", "tipo_deuda":"I", "ahorro_cuota_mensual":111.17962578774996, "ahorro_total":6559.597921477247, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":67750.0, "cuota":3388.0, "saldo":66459.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0191, "fecha_inicio":"2018-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-200.8323715675324, "ahorro_total":-11849.109922484411, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":51599.0, "cuota":2804.0, "saldo":47195.0, "tasa_externa":0.6305, "tasa_kubo":0.5292, "numero_pagos_otorgado":120.0, "numero_pagos_restante":49.0, "frecuencia_externa":"S", "avance":0.0854, "fecha_inicio":"2023-05-09", "tipo_deuda":"I", "ahorro_cuota_mensual":17.617996952812064, "ahorro_total":1039.4618202159118, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5112695, "monto_maximo_cliente": 400000.0, "cuota_externa_total": 91724.0, "capacidad_maxima_pago": 375333.0, "bursolnum": 7397412, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20462.560395566783, "monto_max": 400000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 53.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":9, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":79840.0, "tasa_externa":0.6591, "tasa_kubo":0.6722, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":0.002, "fecha_inicio":"2023-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":290744.0, "cuota":7761.0, "saldo":232753.0, "tasa_externa":0.2064, "tasa_kubo":0.6722, "numero_pagos_otorgado":60.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.1995, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-11827.860112047209, "ahorro_total":-626876.5859385021, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":7335.0, "saldo":103325.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0332, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":597.5058085301134, "ahorro_total":31667.80785209601, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":2189.0, "cuota":309.0, "saldo":1360.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3787, "fecha_inicio":"2023-09-24", "tipo_deuda":"I", "ahorro_cuota_mensual":161.51625214872416, "ahorro_total":8560.36136388238, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":699.0, "cuota":266.0, "saldo":502.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2818, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":218.90491560162548, "ahorro_total":11601.96052688615, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":105800.0, "cuota":1090.0, "saldo":93929.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1122, "fecha_inicio":"2021-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-5238.46091910575, "ahorro_total":-277638.42871260474, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":80493.0, "tasa_externa":0.6591, "tasa_kubo":0.6722, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0062, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":150000.0, "cuota":9024.0, "saldo":127065.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1529, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-1082.2412872048299, "ahorro_total":-57358.78822185598, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":605000.0, "cuota":35676.0, "saldo":457349.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2441, "fecha_inicio":"2022-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-5085.839858392814, "ahorro_total":-269549.5124948191, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":74795.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.0651, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":76955.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":15.0, "frecuencia_externa":"S", "avance":0.0381, "fecha_inicio":"2023-08-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":77783.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":0.0277, "fecha_inicio":"2023-10-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":116300.0, "cuota":9213.0, "saldo":111906.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0378, "fecha_inicio":"2023-04-10", "tipo_deuda":"R", "ahorro_cuota_mensual":1673.339750093708, "ahorro_total":88687.00675496653, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":49000.0, "cuota":8860.0, "saldo":27390.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.441, "fecha_inicio":"2021-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":7014.600340956398, "ahorro_total":371773.8180706891, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5188639, "monto_maximo_cliente": 251000.0, "cuota_externa_total": 19935.0, "capacidad_maxima_pago": 261757.0, "bursolnum": 7397453, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10598.105539669648, "monto_max": 251000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 57.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-01-31", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":10000.0, "cuota":392.0, "saldo":392.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9608, "fecha_inicio":"2023-07-16", "tipo_deuda":"O", "ahorro_cuota_mensual":364.799240725407, "ahorro_total":20793.5567213482, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":41200.0, "cuota":5152.0, "saldo":35116.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.1477, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2293.1446884866573, "ahorro_total":130709.24724373946, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1571.0, "cuota":0.0, "saldo":926.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.4106, "fecha_inicio":"2020-02-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-64.25485481702319, "ahorro_total":-3662.5267245703217, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":71500.0, "cuota":3575.0, "saldo":56923.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2039, "fecha_inicio":"2011-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-374.86943925422383, "ahorro_total":-21367.55803749076, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":150.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2006-06-13", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":41000.0, "cuota":2050.0, "saldo":31820.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2239, "fecha_inicio":"2021-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-157.98000029986815, "ahorro_total":-9004.860017092484, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33000.0, "cuota":1650.0, "saldo":19135.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4202, "fecha_inicio":"2023-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":322.2282430629173, "ahorro_total":18367.009854586286, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":4800.0, "cuota":0.0, "saldo":220.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9542, "fecha_inicio":"2024-01-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-15.265732245945035, "ahorro_total":-870.146738018867, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":72000.0, "cuota":50.0, "saldo":2416.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9664, "fecha_inicio":"2023-07-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-117.64549593728728, "ahorro_total":-6705.793268425375, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":36000.0, "cuota":2132.0, "saldo":33091.0, "tasa_externa":0.5934, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0808, "fecha_inicio":"2023-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-366.0289129728235, "ahorro_total":-20863.648039450938, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":3594.0, "saldo":32203.0, "tasa_externa":0.4539, "tasa_kubo":0.7007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.5975, "fecha_inicio":"2021-10-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-1957.175362161831, "ahorro_total":-111558.99564322436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":3000.0, "cuota":2011.0, "saldo":2665.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1117, "fecha_inicio":"2007-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1826.076470747984, "ahorro_total":104086.35883263509, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":9360.0, "cuota":496.0, "saldo":1881.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.799, "fecha_inicio":"2013-03-11", "tipo_deuda":"R", "ahorro_cuota_mensual":365.47798929717, "ahorro_total":20832.24538993869, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":135000.0, "cuota":5889.0, "saldo":115479.0, "tasa_externa":0.4309, "tasa_kubo":0.7007, "numero_pagos_otorgado":48.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.1446, "fecha_inicio":"2023-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-3478.6084236480892, "ahorro_total":-198280.68014794108, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5272657, "monto_maximo_cliente": 174000.0, "cuota_externa_total": 19494.0, "capacidad_maxima_pago": 174801.0, "bursolnum": 7397434, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9961.65206988942, "monto_max": 174000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":6, "monto_otorgado":80000.0, "cuota":4232.0, "saldo":79706.0, "tasa_externa":0.6271, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":0.0037, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1302.5587135374599, "ahorro_total":-76850.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-13", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":28400.0, "cuota":1420.0, "saldo":28395.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0002, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-544.4224333862021, "ahorro_total":-32120.923569785926, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":12285.0, "cuota":614.0, "saldo":10963.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1076, "fecha_inicio":"2021-03-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-144.44208970638965, "ahorro_total":-8522.083292676989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":18, "monto_otorgado":10000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-02-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-59.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":4228.0, "saldo":80418.0, "tasa_externa":0.6265, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0052, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-1306.5587135374599, "ahorro_total":-77086.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":14000.0, "cuota":2098.0, "saldo":7708.0, "tasa_externa":1.7593, "tasa_kubo":0.7007, "numero_pagos_otorgado":48.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":0.4494, "fecha_inicio":"2023-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":1129.4522251309445, "ahorro_total":66637.68128272572, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":816.0, "saldo":14167.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0555, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-221.72975878827378, "ahorro_total":-13082.055768508153, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10100.0, "cuota":4900.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4900.0, "ahorro_total":289100.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":97368.0, "cuota":7196.0, "saldo":97384.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":40.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":-0.0002, "fecha_inicio":"2023-11-21", "tipo_deuda":"I", "ahorro_cuota_mensual":459.8885897535574, "ahorro_total":27133.426795459887, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
 </sst>
 </file>
@@ -120,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,28 +93,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,35 +136,85 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFff0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFff0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFff0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFff0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFff0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFff0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFff0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFff0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,10 +241,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -506,243 +518,159 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="73.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="104.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="49.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="71.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
-        <v>1013929</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>767837</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>1051311</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="7">
+        <v>3279161</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
-        <v>2020266</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7">
+        <v>3388929</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7">
+        <v>3399666</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="7">
+        <v>3590341</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="7">
+        <v>3591168</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7">
+        <v>3622744</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7">
+        <v>4387308</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3">
-        <v>2830088</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
-        <v>2842882</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3">
-        <v>3002070</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7">
+        <v>4871715</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="7">
+        <v>5112695</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
-        <v>3596293</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3">
-        <v>3662253</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3">
-        <v>4132832</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3">
-        <v>4455355</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3">
-        <v>4539704</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3">
-        <v>4606694</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A12" s="7">
+        <v>5188639</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="7">
+        <v>5272657</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3">
-        <v>4688988</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3">
-        <v>4699870</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3">
-        <v>4742252</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3">
-        <v>4836047</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3">
-        <v>4882834</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="3">
-        <v>4915388</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3">
-        <v>5063684</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="3">
-        <v>5137408</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3">
-        <v>5345402</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="3">
-        <v>5696494</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -22,61 +22,433 @@
     <t>Json</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 767837, "monto_maximo_cliente": 63600.0, "cuota_externa_total": 18367.0, "capacidad_maxima_pago": 71902.0, "bursolnum": 7397504, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3691.82552696243, "monto_max": 63600.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":5400.0, "cuota":654.0, "saldo":4535.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1602, "fecha_inicio":"2021-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":357.6729940454351, "ahorro_total":19314.341678453493, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":35000.0, "cuota":1352.0, "saldo":23011.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3425, "fecha_inicio":"2023-05-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-151.59001852712117, "ahorro_total":-8185.861000464543, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":118100.0, "cuota":43182.0, "saldo":48530.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5891, "fecha_inicio":"2021-02-22", "tipo_deuda":"R", "ahorro_cuota_mensual":40010.94165402976, "ahorro_total":2160590.849317607, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":28800.0, "cuota":2216.0, "saldo":23819.0, "tasa_externa":0.6174, "tasa_kubo":0.6509, "numero_pagos_otorgado":43.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.173, "fecha_inicio":"2021-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":334.1438210603153, "ahorro_total":18043.766337257028, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":21200.0, "cuota":3500.0, "saldo":12934.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3899, "fecha_inicio":"2021-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":2654.863617416462, "ahorro_total":143362.63534048895, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":11000.0, "cuota":434.0, "saldo":23875.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":-1.1705, "fecha_inicio":"2023-09-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-284.76451278946286, "ahorro_total":-15377.283690630995, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":34800.0, "cuota":2092.0, "saldo":29981.0, "tasa_externa":0.708, "tasa_kubo":0.6509, "numero_pagos_otorgado":120.0, "numero_pagos_restante":43.0, "frecuencia_externa":"S", "avance":0.1385, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-181.9095495521192, "ahorro_total":-9823.115675814435, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":582462.0, "cuota":9708.0, "saldo":475679.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":60.0, "numero_pagos_restante":47.0, "frecuencia_externa":"M", "avance":0.1833, "fecha_inicio":"2023-02-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-28351.365058943287, "ahorro_total":-1530973.7131829376, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":30000.0, "cuota":12280.0, "saldo":14741.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5086, "fecha_inicio":"2019-01-16", "tipo_deuda":"R", "ahorro_cuota_mensual":11316.790210633684, "ahorro_total":611106.671374219, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":45000.0, "cuota":3223.0, "saldo":45670.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0149, "fecha_inicio":"2023-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":282.59972040674256, "ahorro_total":15260.384901964098, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":745.0, "cuota":694.0, "saldo":694.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0685, "fecha_inicio":"2023-08-18", "tipo_deuda":"O", "ahorro_cuota_mensual":648.6524934658285, "ahorro_total":35027.234647154735, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2009-10-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Dos deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3279161, "monto_maximo_cliente": 164850.0, "cuota_externa_total": 38203.0, "capacidad_maxima_pago": 192319.0, "bursolnum": 7397495, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8455.164289868235, "monto_max": 164850.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 49.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":17000.0, "cuota":2899.0, "saldo":13000.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":7.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2353, "fecha_inicio":"2023-12-11", "tipo_deuda":"I", "ahorro_cuota_mensual":2027.0691966772217, "ahorro_total":99326.39063718387, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-06-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":237690.0, "cuota":6319.0, "saldo":55025.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7685, "fecha_inicio":"2019-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-5872.131331870069, "ahorro_total":-287734.43526163336, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":22000.0, "cuota":1434.0, "saldo":15956.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2747, "fecha_inicio":"2022-02-08", "tipo_deuda":"R", "ahorro_cuota_mensual":615.6160060106912, "ahorro_total":30165.184294523868, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":104300.0, "cuota":5271.0, "saldo":102538.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0169, "fecha_inicio":"2019-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":11.821134640526907, "ahorro_total":579.2355973858184, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":52100.0, "cuota":3840.0, "saldo":50214.0, "tasa_externa":0.8917, "tasa_kubo":0.4706, "numero_pagos_otorgado":144.0, "numero_pagos_restante":62.0, "frecuencia_externa":"S", "avance":0.0362, "fecha_inicio":"2023-06-01", "tipo_deuda":"I", "ahorro_cuota_mensual":1167.7885380519565, "ahorro_total":57221.63836454587, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":47000.0, "cuota":3480.0, "saldo":43709.0, "tasa_externa":0.8896, "tasa_kubo":0.4706, "numero_pagos_otorgado":122.0, "numero_pagos_restante":52.0, "frecuencia_externa":"S", "avance":0.07, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":1069.3677790487895, "ahorro_total":52399.02117339069, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":65750.0, "cuota":4848.0, "saldo":63955.0, "tasa_externa":0.5597, "tasa_kubo":0.4706, "numero_pagos_otorgado":43.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.0273, "fecha_inicio":"2023-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":1475.67939303102, "ahorro_total":72308.29025851998, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":120000.0, "cuota":10112.0, "saldo":103536.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1372, "fecha_inicio":"2023-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":3957.1943294862713, "ahorro_total":193902.5221448273, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3388929, "monto_maximo_cliente": 168000.0, "cuota_externa_total": 15380.666666666666, "capacidad_maxima_pago": 160983.33333333334, "bursolnum": 7397421, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9215.046359400638, "monto_max": 168000.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0471, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":8, "monto_otorgado":15000.0, "cuota":1785.0, "saldo":14021.0, "tasa_externa":0.7248, "tasa_kubo":0.6722, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0653, "fecha_inicio":"2020-12-15", "tipo_deuda":"I", "ahorro_cuota_mensual":785.9626268957896, "ahorro_total":46371.794986851586, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":20200.0, "cuota":1088.0, "saldo":19486.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0353, "fecha_inicio":"2023-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-257.3703291136701, "ahorro_total":-15184.849417706535, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":10000.0, "cuota":119.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":119.0, "ahorro_total":7021.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":11000.0, "cuota":232.66666666666666, "saldo":32145.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":143.0, "frecuencia_externa":"Q", "avance":-1.9223, "fecha_inicio":"2024-02-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.960740276421, "ahorro_total":-29497.68367630884, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":153000.0, "cuota":8052.0, "saldo":153272.0, "tasa_externa":0.607, "tasa_kubo":0.6722, "numero_pagos_otorgado":120.0, "numero_pagos_restante":58.0, "frecuencia_externa":"S", "avance":-0.0018, "fecha_inicio":"2024-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-2138.181205662946, "ahorro_total":-126152.69113411382, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":30600.0, "cuota":1530.0, "saldo":32535.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0632, "fecha_inicio":"2022-02-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-636.9120622630326, "ahorro_total":-37577.811673518925, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":9000.0, "cuota":192.0, "saldo":12597.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":129.0, "frecuencia_externa":"Q", "avance":-0.3997, "fecha_inicio":"2023-01-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-407.42242386252633, "ahorro_total":-24037.923007889054, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":11000.0, "cuota":945.0, "saldo":3271.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7026, "fecha_inicio":"2022-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":212.37259305691236, "ahorro_total":12529.98299035783, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":212123.0, "cuota":2053.0, "saldo":248301.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":360.0, "numero_pagos_restante":259.0, "frecuencia_externa":"M", "avance":-0.1706, "fecha_inicio":"2015-11-10", "tipo_deuda":"M", "ahorro_cuota_mensual":-14484.465251943235, "ahorro_total":-854583.4498646508, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-07-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.  Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3399666, "monto_maximo_cliente": 6000.0, "cuota_externa_total": 8493.0, "capacidad_maxima_pago": 16145.0, "bursolnum": 7397449, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 220.48146707186646, "monto_max": 6000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 39.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "GUBERNAMENTALES", "registro":6, "monto_otorgado":3259.0, "cuota":272.0, "saldo":1496.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.541, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":46.023940789014915, "ahorro_total":1794.9336907715817, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":21664.0, "cuota":1805.0, "saldo":20062.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.0739, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":302.83818755852076, "ahorro_total":11810.68931478231, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":7000.0, "cuota":854.0, "saldo":5311.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2413, "fecha_inicio":"2023-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":368.6264453891085, "ahorro_total":14376.43137017523, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":5300.0, "cuota":646.0, "saldo":5242.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.0109, "fecha_inicio":"2024-01-02", "tipo_deuda":"I", "ahorro_cuota_mensual":278.502880080325, "ahorro_total":10861.612323132675, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":2193.0, "cuota":1000.0, "saldo":1000.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.544, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":847.9393992483307, "ahorro_total":33069.636570684896, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":27000.0, "cuota":1356.0, "saldo":17281.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.36, "fecha_inicio":"2021-11-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-516.1551392134388, "ahorro_total":-20130.050429324114, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":3000.0, "cuota":212.0, "saldo":3030.0, "tasa_externa":0.8538, "tasa_kubo":0.6509, "numero_pagos_otorgado":144.0, "numero_pagos_restante":69.0, "frecuencia_externa":"S", "avance":-0.01, "fecha_inicio":"2024-01-02", "tipo_deuda":"I", "ahorro_cuota_mensual":3.982762309617925, "ahorro_total":155.32773007509908, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":17543.0, "cuota":1263.0, "saldo":15309.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1273, "fecha_inicio":"2023-09-18", "tipo_deuda":"I", "ahorro_cuota_mensual":46.5845330658758, "ahorro_total":1816.7967895691563, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3000.0, "cuota":212.0, "saldo":2956.0, "tasa_externa":0.5032, "tasa_kubo":0.6509, "numero_pagos_otorgado":43.0, "numero_pagos_restante":17.0, "frecuencia_externa":"S", "avance":0.0147, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":3.982762309617925, "ahorro_total":155.32773007509908, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11200.0, "cuota":873.0, "saldo":9979.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.109, "fecha_inicio":"2019-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":181.06532836255906, "ahorro_total":7061.5478061398035, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3590341, "monto_maximo_cliente": 100000.0, "cuota_externa_total": 24466.0, "capacidad_maxima_pago": 95534.0, "bursolnum": 6203346, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6310.318696733804, "monto_max": 100000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 38.0, "plazo_min": 4, "tasa": 0.5951, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":761.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-08-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":21011.0, "cuota":1352.0, "saldo":20237.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0368, "fecha_inicio":"2022-08-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-20.540927919924115, "ahorro_total":-780.5552609571164, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":104, "monto_otorgado":11000.0, "cuota":620.0, "saldo":311.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.9717, "fecha_inicio":"2018-10-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-98.57361416016204, "ahorro_total":-3745.7973380861577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":1816.0, "cuota":908.0, "saldo":1135.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.375, "fecha_inicio":"2023-03-26", "tipo_deuda":"I", "ahorro_cuota_mensual":789.3700287895587, "ahorro_total":29996.061094003227, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":19500.0, "cuota":975.0, "saldo":19436.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0033, "fecha_inicio":"2023-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-294.6542513469917, "ahorro_total":-11196.861551185684, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":55000.0, "cuota":4185.0, "saldo":55513.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":24.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":-0.0093, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":592.1319291991899, "ahorro_total":22501.013309569218, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":19900.0, "cuota":995.0, "saldo":19246.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0329, "fecha_inicio":"2019-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-262.24252528422517, "ahorro_total":-9965.215960800557, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":70000.0, "cuota":8748.0, "saldo":39263.0, "tasa_externa":1.4207, "tasa_kubo":0.5951, "numero_pagos_otorgado":48.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4391, "fecha_inicio":"2022-03-08", "tipo_deuda":"I", "ahorro_cuota_mensual":4175.258818980787, "ahorro_total":158659.8351212699, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":196497.0, "cuota":4093.0, "saldo":151466.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":37.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.2292, "fecha_inicio":"2022-05-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-8743.141769239031, "ahorro_total":-332239.3872310832, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":30000.0, "cuota":2212.0, "saldo":30399.0, "tasa_externa":0.8921, "tasa_kubo":0.5951, "numero_pagos_otorgado":144.0, "numero_pagos_restante":60.0, "frecuencia_externa":"S", "avance":-0.0133, "fecha_inicio":"2023-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":252.25377956319448, "ahorro_total":9585.64362340139, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":21164.0, "cuota":1628.0, "saldo":10435.0, "tasa_externa":-1.0, "tasa_kubo":0.5951, "numero_pagos_otorgado":52.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.5069, "fecha_inicio":"2022-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":245.46436635584814, "ahorro_total":9327.64592152223, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa. Ahorros de pagos fijos mucho más elevaodos que el monto otorgado.</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3591168, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 34930.0, "capacidad_maxima_pago": 105070.0, "bursolnum": 7397507, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3754.7617693354077, "monto_max": 80000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":136718.0, "cuota":8696.0, "saldo":130380.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0464, "fecha_inicio":"2023-09-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-685.32732122366, "ahorro_total":-22615.80160038078, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":11000.0, "cuota":1073.0, "saldo":12826.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.166, "fecha_inicio":"2022-03-29", "tipo_deuda":"R", "ahorro_cuota_mensual":192.9044440233571, "ahorro_total":6365.846652770784, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":685.0, "saldo":8565.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0706, "fecha_inicio":"2022-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":97.28610346640062, "ahorro_total":3210.4414143912204, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":50000.0, "cuota":4887.0, "saldo":23062.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5388, "fecha_inicio":"2023-02-15", "tipo_deuda":"I", "ahorro_cuota_mensual":1456.0957587063663, "ahorro_total":48051.16003731009, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":132779.0, "cuota":9590.0, "saldo":131774.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0076, "fecha_inicio":"2024-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":478.95931490545263, "ahorro_total":15805.657391879937, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":11000.0, "cuota":982.0, "saldo":11966.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0878, "fecha_inicio":"2023-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":160.91599697360755, "ahorro_total":5310.227900129049, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":74800.0, "tasa_externa":0.1989, "tasa_kubo":0.5991, "numero_pagos_otorgado":43.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.065, "fecha_inicio":"2023-05-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1061.4467860698132, "ahorro_total":-35027.74394030384, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":31500.0, "cuota":3062.0, "saldo":18303.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.419, "fecha_inicio":"2018-09-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1806.0831934320524, "ahorro_total":59600.74538325773, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1527.0, "saldo":10258.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0258, "fecha_inicio":"2024-02-05", "tipo_deuda":"R", "ahorro_cuota_mensual":823.1156858561981, "ahorro_total":27162.817633254537, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3622744, "monto_maximo_cliente": 144000.0, "cuota_externa_total": 21565.0, "capacidad_maxima_pago": 143435.0, "bursolnum": 7397505, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6492.298010995873, "monto_max": 144000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":8000.0, "cuota":1078.0, "saldo":5214.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3482, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":618.9316754626756, "ahorro_total":29089.78874674575, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":33000.0, "cuota":1987.0, "saldo":28059.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1497, "fecha_inicio":"2023-03-31", "tipo_deuda":"I", "ahorro_cuota_mensual":93.3431612835368, "ahorro_total":4387.12858032623, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":41500.0, "cuota":3030.0, "saldo":31587.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.2389, "fecha_inicio":"2023-05-24", "tipo_deuda":"I", "ahorro_cuota_mensual":648.5830664626296, "ahorro_total":30483.404123743592, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":1979.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.8021, "fecha_inicio":"2023-09-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-113.56202678242065, "ahorro_total":-5337.41525877377, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":5000.0, "cuota":1222.0, "saldo":3115.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.377, "fecha_inicio":"2022-11-19", "tipo_deuda":"I", "ahorro_cuota_mensual":935.0822971641722, "ahorro_total":43948.8679667161, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":25000.0, "cuota":4055.0, "saldo":3769.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8492, "fecha_inicio":"2023-06-05", "tipo_deuda":"I", "ahorro_cuota_mensual":2620.4114858208613, "ahorro_total":123159.33983358048, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":3240.0, "cuota":2821.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2012-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":2821.0, "ahorro_total":132587.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":1949.0, "saldo":4545.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4319, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":1489.9316754626757, "ahorro_total":70026.78874674576, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":1100.0, "cuota":1585.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2011-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":1585.0, "ahorro_total":74495.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":8700.0, "cuota":435.0, "saldo":7155.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1776, "fecha_inicio":"2021-07-16", "tipo_deuda":"R", "ahorro_cuota_mensual":24.42076724193049, "ahorro_total":1147.7760603707331, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":144000.0, "cuota":7474.0, "saldo":143574.0, "tasa_externa":0.4702, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.003, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-789.2298416718404, "ahorro_total":-37093.8025585765, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9600.0, "cuota":480.0, "saldo":7160.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2542, "fecha_inicio":"2019-01-04", "tipo_deuda":"R", "ahorro_cuota_mensual":69.13384953909463, "ahorro_total":3249.2909283374474, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deudas a pagos fijos con estatus_tasa = Calculable pero NO tienen tasa. </t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4387308, "monto_maximo_cliente": 230100.0, "cuota_externa_total": 84375.0, "capacidad_maxima_pago": 250529.0, "bursolnum": 7397474, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13824.793747864333, "monto_max": 230100.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":11, "monto_otorgado":118523.0, "cuota":32791.0, "saldo":81911.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.3089, "fecha_inicio":"2018-11-23", "tipo_deuda":"O", "ahorro_cuota_mensual":27124.234515192915, "ahorro_total":1600329.836396382, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-11-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":107666.0, "cuota":0.0, "saldo":93191.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.1344, "fecha_inicio":"2023-02-11", "tipo_deuda":"O", "ahorro_cuota_mensual":-6447.138263415868, "ahorro_total":-380381.1575415362, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":80000.0, "cuota":4944.0, "saldo":80675.0, "tasa_externa":0.742, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0084, "fecha_inicio":"2024-02-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-590.5587135374599, "ahorro_total":-34842.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":12500.0, "cuota":12149.0, "saldo":12149.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0281, "fecha_inicio":"2021-05-01", "tipo_deuda":"R", "ahorro_cuota_mensual":11308.508077365417, "ahorro_total":667201.9765645596, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":65000.0, "cuota":5026.0, "saldo":67788.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":33.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0429, "fecha_inicio":"2024-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":529.1710452508141, "ahorro_total":31221.091669798036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":150100.0, "cuota":9396.0, "saldo":145433.0, "tasa_externa":0.7408, "tasa_kubo":0.7007, "numero_pagos_otorgado":120.0, "numero_pagos_restante":53.0, "frecuencia_externa":"S", "avance":0.0311, "fecha_inicio":"2023-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-988.215786274659, "ahorro_total":-58304.73139020488, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":58600.0, "cuota":3668.0, "saldo":55409.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0545, "fecha_inicio":"2023-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-386.06425766618895, "ahorro_total":-22777.791202305147, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":159300.0, "cuota":9972.0, "saldo":153427.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0369, "fecha_inicio":"2023-10-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-1048.6900383314678, "ahorro_total":-61872.712261556604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":11900.0, "cuota":595.0, "saldo":1581.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8671, "fecha_inicio":"2018-12-28", "tipo_deuda":"R", "ahorro_cuota_mensual":485.623283423716, "ahorro_total":28651.77372199924, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":32600.0, "cuota":2112.0, "saldo":21812.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3309, "fecha_inicio":"2021-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":603.0025667540115, "ahorro_total":35577.151438486675, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":144165.0, "cuota":7208.0, "saldo":146709.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0176, "fecha_inicio":"2018-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-2941.619678804591, "ahorro_total":-173555.56104947085, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 4871715, "monto_maximo_cliente": 121598.0, "cuota_externa_total": 18983.0, "capacidad_maxima_pago": 121065.0, "bursolnum": 7397513, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6077.59605295152, "monto_max": 121598.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":1222.0, "saldo":1222.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9389, "fecha_inicio":"2011-12-26", "tipo_deuda":"O", "ahorro_cuota_mensual":1156.0111473531722, "ahorro_total":68204.65769383716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":120000.0, "cuota":6830.0, "saldo":119103.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":48.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0075, "fecha_inicio":"2023-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":349.9162703606162, "ahorro_total":20645.059951276355, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":27000.0, "cuota":1350.0, "saldo":4314.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8402, "fecha_inicio":"2018-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":1117.0409899194642, "ahorro_total":65905.41840524839, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":69999.0, "cuota":3804.0, "saldo":63616.0, "tasa_externa":0.6305, "tasa_kubo":0.5292, "numero_pagos_otorgado":120.0, "numero_pagos_restante":49.0, "frecuencia_externa":"S", "avance":0.0912, "fecha_inicio":"2023-04-26", "tipo_deuda":"I", "ahorro_cuota_mensual":24.00515840810658, "ahorro_total":1416.3043460782883, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":29200.0, "cuota":1688.0, "saldo":26833.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0811, "fecha_inicio":"2023-06-13", "tipo_deuda":"I", "ahorro_cuota_mensual":111.17962578774996, "ahorro_total":6559.597921477247, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":67750.0, "cuota":3388.0, "saldo":66459.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0191, "fecha_inicio":"2018-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-200.8323715675324, "ahorro_total":-11849.109922484411, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":51599.0, "cuota":2804.0, "saldo":47195.0, "tasa_externa":0.6305, "tasa_kubo":0.5292, "numero_pagos_otorgado":120.0, "numero_pagos_restante":49.0, "frecuencia_externa":"S", "avance":0.0854, "fecha_inicio":"2023-05-09", "tipo_deuda":"I", "ahorro_cuota_mensual":17.617996952812064, "ahorro_total":1039.4618202159118, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5112695, "monto_maximo_cliente": 400000.0, "cuota_externa_total": 91724.0, "capacidad_maxima_pago": 375333.0, "bursolnum": 7397412, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20462.560395566783, "monto_max": 400000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 53.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":9, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":79840.0, "tasa_externa":0.6591, "tasa_kubo":0.6722, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":0.002, "fecha_inicio":"2023-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":290744.0, "cuota":7761.0, "saldo":232753.0, "tasa_externa":0.2064, "tasa_kubo":0.6722, "numero_pagos_otorgado":60.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.1995, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-11827.860112047209, "ahorro_total":-626876.5859385021, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":7335.0, "saldo":103325.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0332, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":597.5058085301134, "ahorro_total":31667.80785209601, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":2189.0, "cuota":309.0, "saldo":1360.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3787, "fecha_inicio":"2023-09-24", "tipo_deuda":"I", "ahorro_cuota_mensual":161.51625214872416, "ahorro_total":8560.36136388238, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":699.0, "cuota":266.0, "saldo":502.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2818, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":218.90491560162548, "ahorro_total":11601.96052688615, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":105800.0, "cuota":1090.0, "saldo":93929.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1122, "fecha_inicio":"2021-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-5238.46091910575, "ahorro_total":-277638.42871260474, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":80493.0, "tasa_externa":0.6591, "tasa_kubo":0.6722, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0062, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":150000.0, "cuota":9024.0, "saldo":127065.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1529, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-1082.2412872048299, "ahorro_total":-57358.78822185598, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":605000.0, "cuota":35676.0, "saldo":457349.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2441, "fecha_inicio":"2022-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-5085.839858392814, "ahorro_total":-269549.5124948191, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":74795.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.0651, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":76955.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":15.0, "frecuencia_externa":"S", "avance":0.0381, "fecha_inicio":"2023-08-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":77783.0, "tasa_externa":0.1989, "tasa_kubo":0.6722, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":0.0277, "fecha_inicio":"2023-10-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-961.9953531759093, "ahorro_total":-50985.75371832319, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":116300.0, "cuota":9213.0, "saldo":111906.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0378, "fecha_inicio":"2023-04-10", "tipo_deuda":"R", "ahorro_cuota_mensual":1673.339750093708, "ahorro_total":88687.00675496653, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":49000.0, "cuota":8860.0, "saldo":27390.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.441, "fecha_inicio":"2021-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":7014.600340956398, "ahorro_total":371773.8180706891, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5188639, "monto_maximo_cliente": 251000.0, "cuota_externa_total": 19935.0, "capacidad_maxima_pago": 261757.0, "bursolnum": 7397453, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10598.105539669648, "monto_max": 251000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 57.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-01-31", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":10000.0, "cuota":392.0, "saldo":392.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.9608, "fecha_inicio":"2023-07-16", "tipo_deuda":"O", "ahorro_cuota_mensual":364.799240725407, "ahorro_total":20793.5567213482, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":41200.0, "cuota":5152.0, "saldo":35116.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.1477, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2293.1446884866573, "ahorro_total":130709.24724373946, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1571.0, "cuota":0.0, "saldo":926.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.4106, "fecha_inicio":"2020-02-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-64.25485481702319, "ahorro_total":-3662.5267245703217, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":71500.0, "cuota":3575.0, "saldo":56923.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2039, "fecha_inicio":"2011-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-374.86943925422383, "ahorro_total":-21367.55803749076, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":150.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2006-06-13", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":41000.0, "cuota":2050.0, "saldo":31820.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2239, "fecha_inicio":"2021-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-157.98000029986815, "ahorro_total":-9004.860017092484, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33000.0, "cuota":1650.0, "saldo":19135.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4202, "fecha_inicio":"2023-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":322.2282430629173, "ahorro_total":18367.009854586286, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":4800.0, "cuota":0.0, "saldo":220.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9542, "fecha_inicio":"2024-01-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-15.265732245945035, "ahorro_total":-870.146738018867, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":72000.0, "cuota":50.0, "saldo":2416.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9664, "fecha_inicio":"2023-07-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-117.64549593728728, "ahorro_total":-6705.793268425375, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":36000.0, "cuota":2132.0, "saldo":33091.0, "tasa_externa":0.5934, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0808, "fecha_inicio":"2023-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-366.0289129728235, "ahorro_total":-20863.648039450938, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":3594.0, "saldo":32203.0, "tasa_externa":0.4539, "tasa_kubo":0.7007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.5975, "fecha_inicio":"2021-10-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-1957.175362161831, "ahorro_total":-111558.99564322436, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":3000.0, "cuota":2011.0, "saldo":2665.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1117, "fecha_inicio":"2007-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":1826.076470747984, "ahorro_total":104086.35883263509, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":9360.0, "cuota":496.0, "saldo":1881.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.799, "fecha_inicio":"2013-03-11", "tipo_deuda":"R", "ahorro_cuota_mensual":365.47798929717, "ahorro_total":20832.24538993869, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":135000.0, "cuota":5889.0, "saldo":115479.0, "tasa_externa":0.4309, "tasa_kubo":0.7007, "numero_pagos_otorgado":48.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.1446, "fecha_inicio":"2023-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-3478.6084236480892, "ahorro_total":-198280.68014794108, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5272657, "monto_maximo_cliente": 174000.0, "cuota_externa_total": 19494.0, "capacidad_maxima_pago": 174801.0, "bursolnum": 7397434, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9961.65206988942, "monto_max": 174000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":6, "monto_otorgado":80000.0, "cuota":4232.0, "saldo":79706.0, "tasa_externa":0.6271, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":0.0037, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1302.5587135374599, "ahorro_total":-76850.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-13", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":28400.0, "cuota":1420.0, "saldo":28395.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0002, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-544.4224333862021, "ahorro_total":-32120.923569785926, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":12285.0, "cuota":614.0, "saldo":10963.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1076, "fecha_inicio":"2021-03-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-144.44208970638965, "ahorro_total":-8522.083292676989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":18, "monto_otorgado":10000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-02-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-59.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":4228.0, "saldo":80418.0, "tasa_externa":0.6265, "tasa_kubo":0.7007, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0052, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-1306.5587135374599, "ahorro_total":-77086.96409871013, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":14000.0, "cuota":2098.0, "saldo":7708.0, "tasa_externa":1.7593, "tasa_kubo":0.7007, "numero_pagos_otorgado":48.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":0.4494, "fecha_inicio":"2023-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":1129.4522251309445, "ahorro_total":66637.68128272572, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":816.0, "saldo":14167.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0555, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-221.72975878827378, "ahorro_total":-13082.055768508153, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10100.0, "cuota":4900.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4900.0, "ahorro_total":289100.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":97368.0, "cuota":7196.0, "saldo":97384.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":40.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":-0.0002, "fecha_inicio":"2023-11-21", "tipo_deuda":"I", "ahorro_cuota_mensual":459.8885897535574, "ahorro_total":27133.426795459887, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 28837, "monto_maximo_cliente": 160000.0, "cuota_externa_total": 26582.0, "capacidad_maxima_pago": 151418.0, "bursolnum": 7317484, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4795.847147179248, "monto_max": 160000.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":12900.0, "cuota":808.0, "saldo":10588.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1792, "fecha_inicio":"2022-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-597.8502317941084, "ahorro_total":-5978.502317941084, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2019-02-24", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":350000.0, "cuota":1011.0, "saldo":81278.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":40.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7678, "fecha_inicio":"2015-06-04", "tipo_deuda":"M", "ahorro_cuota_mensual":-1753.2323454138273, "ahorro_total":-70129.2938165531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":858.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":923.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-07-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":17000.0, "cuota":862.0, "saldo":15404.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0939, "fecha_inicio":"2023-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":3.896736049547485, "ahorro_total":93.52166518913964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":20000.0, "cuota":1305.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2010-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":1305.0, "ahorro_total":-1305.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":259150.0, "cuota":7238.0, "saldo":231420.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":54.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.107, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":43.21710984879246, "ahorro_total":2333.723931834793, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":30000.0, "cuota":3007.0, "saldo":28876.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0375, "fecha_inicio":"2022-04-20", "tipo_deuda":"R", "ahorro_cuota_mensual":31883.00000000014, "ahorro_total":-31883.00000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":80000.0, "cuota":5160.0, "saldo":80762.0, "tasa_externa":0.7762, "tasa_kubo":0.165, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":-0.0095, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":3283.444156192121, "ahorro_total":236407.9792458327, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":39500.0, "cuota":4500.0, "saldo":77318.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.9574, "fecha_inicio":"2009-01-06", "tipo_deuda":"R", "ahorro_cuota_mensual":81818.00000000036, "ahorro_total":-81818.00000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":69600.0, "cuota":2596.0, "saldo":39767.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4286, "fecha_inicio":"2023-09-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-4989.05241340077, "ahorro_total":-49890.524134007705, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":1.0, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-4340.230522526159, "ahorro_total":-95485.0714955755, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11900.0, "cuota":744.0, "saldo":9704.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1845, "fecha_inicio":"2022-07-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-552.869593670534, "ahorro_total":-5528.69593670534, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":80000.0, "cuota":5156.0, "saldo":80073.0, "tasa_externa":0.7756, "tasa_kubo":0.165, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0009, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":3279.444156192121, "ahorro_total":236119.9792458327, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 39500, "monto_maximo_cliente": 71900.0, "cuota_externa_total": 27925.0, "capacidad_maxima_pago": 81060.0, "bursolnum": 7317209, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2965.3458995878814, "monto_max": 71900.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":137585.0, "cuota":4665.0, "saldo":82503.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.4003, "fecha_inicio":"2022-11-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-1850.9934737731373, "ahorro_total":-66635.76505583295, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":4632.0, "saldo":94959.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0504, "fecha_inicio":"2023-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-103.97664990597605, "ahorro_total":-3743.1593966151377, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":65000.0, "cuota":3101.0, "saldo":65669.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0103, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":22.615177561115615, "ahorro_total":814.1463922001622, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":71900.0, "cuota":4588.0, "saldo":72761.0, "tasa_externa":0.7567, "tasa_kubo":0.3337, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.012, "fecha_inicio":"2024-01-04", "tipo_deuda":"I", "ahorro_cuota_mensual":1863.1069267607159, "ahorro_total":111786.41560564295, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":4500.0, "cuota":29.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":900.0, "numero_pagos_restante":767.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":29.0, "ahorro_total":26100.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":2718.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8641, "fecha_inicio":"2019-08-11", "tipo_deuda":"R", "ahorro_cuota_mensual":3717.999999999993, "ahorro_total":-3717.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":500.0, "cuota":6336.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-03", "tipo_deuda":"R", "ahorro_cuota_mensual":6336.0, "ahorro_total":-6336.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":100000.0, "cuota":3589.0, "saldo":82549.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":48.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.1745, "fecha_inicio":"2022-11-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-535.2641162557456, "ahorro_total":-25692.67758027579, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":102000.0, "cuota":344.0, "saldo":2161.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9788, "fecha_inicio":"2019-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":2504.9999999999945, "ahorro_total":-2504.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":30000.0, "cuota":1435.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-09", "tipo_deuda":"R", "ahorro_cuota_mensual":1435.0, "ahorro_total":-1435.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":37800.0, "cuota":3000.0, "saldo":6242.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8349, "fecha_inicio":"2021-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":9241.999999999985, "ahorro_total":-9241.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":45800.0, "cuota":2290.0, "saldo":5848.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8723, "fecha_inicio":"2023-08-25", "tipo_deuda":"R", "ahorro_cuota_mensual":8137.999999999985, "ahorro_total":-8137.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":20000.0, "cuota":96.0, "saldo":127.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9936, "fecha_inicio":"2022-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":222.99999999999966, "ahorro_total":-222.99999999999966, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":117200.0, "cuota":6776.0, "saldo":111852.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0456, "fecha_inicio":"2023-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-7122.1843719153785, "ahorro_total":-71221.84371915378, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":2000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>ahorro_cuota_mensual -inf</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 240179, "monto_maximo_cliente": 28000.0, "cuota_externa_total": 7716.0, "capacidad_maxima_pago": 36100.0, "bursolnum": 7316960, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 912.2138553629048, "monto_max": 28000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":55000.0, "cuota":3654.0, "saldo":49283.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1039, "fecha_inicio":"2023-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":1519.227833189288, "ahorro_total":54692.20199481437, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":37772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.1364, "fecha_inicio":"2023-05-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":36636.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":27.0, "frecuencia_externa":"W", "avance":0.1623, "fecha_inicio":"2023-04-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":-1.0, "saldo":637.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9204, "fecha_inicio":"2023-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":5600.0, "cuota":-1.0, "saldo":1090.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8054, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":35000.0, "cuota":980.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":980.0, "ahorro_total":-980.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6000.0, "cuota":300.0, "saldo":4674.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":23.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.221, "fecha_inicio":"2022-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":46.33658520444712, "ahorro_total":1065.7414597022837, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":12500.0, "cuota":625.0, "saldo":4046.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6763, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":4670.999999999993, "ahorro_total":-4670.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28000.0, "cuota":1389.0, "saldo":26826.0, "tasa_externa":0.4314, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0419, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":302.2068968963647, "ahorro_total":10879.44828826913, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":3000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 380930, "monto_maximo_cliente": 41100.0, "cuota_externa_total": 9644.0, "capacidad_maxima_pago": 42113.0, "bursolnum": 7317848, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1921.2888041034741, "monto_max": 41100.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":12, "monto_otorgado":9000.0, "cuota":450.0, "saldo":2754.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.694, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1300.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-03-21", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":40000.0, "cuota":2856.0, "saldo":37674.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0582, "fecha_inicio":"2023-06-27", "tipo_deuda":"I", "ahorro_cuota_mensual":657.6585748048092, "ahorro_total":23675.70869297313, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":9000.0, "cuota":450.0, "saldo":4919.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4534, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":1, "monto_otorgado":41223.0, "cuota":2425.0, "saldo":40647.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":49.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.014, "fecha_inicio":"2023-11-03", "tipo_deuda":"I", "ahorro_cuota_mensual":400.892394629843, "ahorro_total":19643.727336862306, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":28000.0, "cuota":21042.0, "saldo":6100.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7821, "fecha_inicio":"2020-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":27141.99999999999, "ahorro_total":-27141.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":20000.0, "cuota":1666.0, "saldo":16133.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1934, "fecha_inicio":"2023-02-17", "tipo_deuda":"R", "ahorro_cuota_mensual":17798.999999999967, "ahorro_total":-17798.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41100.0, "cuota":2424.0, "saldo":41524.0, "tasa_externa":0.6929, "tasa_kubo":0.4428, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0103, "fecha_inicio":"2024-01-09", "tipo_deuda":"I", "ahorro_cuota_mensual":509.94794095986595, "ahorro_total":30596.876457591956, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 405226, "monto_maximo_cliente": 205500.0, "cuota_externa_total": 239493.0, "capacidad_maxima_pago": 126007.0, "bursolnum": 7316530, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7183.5577919854995, "monto_max": 205500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":39, "monto_otorgado":495000.0, "cuota":31259.0, "saldo":228125.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5391, "fecha_inicio":"2021-01-20", "tipo_deuda":"O", "ahorro_cuota_mensual":16183.860777170179, "ahorro_total":323677.2155434036, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":21, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2019-06-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-07-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":17, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-11-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-05-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":350900.0, "cuota":16622.0, "saldo":206760.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.4108, "fecha_inicio":"2021-07-14", "tipo_deuda":"I", "ahorro_cuota_mensual":3063.1080061094963, "ahorro_total":143966.07628714634, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":138700.0, "cuota":6388.0, "saldo":107088.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":52.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.2279, "fecha_inicio":"2021-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":1275.0749096445152, "ahorro_total":66303.89530151479, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":233160.0, "cuota":5691.0, "saldo":146279.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":0.3726, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-2405.9989825443863, "ahorro_total":-144359.9389526632, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":226020.0, "cuota":4566.0, "saldo":134253.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.406, "fecha_inicio":"2021-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-2797.0599259490555, "ahorro_total":-201388.314668332, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-06-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":23, "monto_otorgado":300000.0, "cuota":1.0, "saldo":254513.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1516, "fecha_inicio":"2023-07-03", "tipo_deuda":"O", "ahorro_cuota_mensual":-11340.308568610357, "ahorro_total":-408251.10846997285, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":300000.0, "cuota":1.0, "saldo":241667.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1944, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-13367.246693029854, "ahorro_total":-481220.88094907475, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":45000.0, "cuota":2250.0, "saldo":24201.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4622, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":900000.0, "cuota":53621.0, "saldo":816040.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0933, "fecha_inicio":"2023-09-15", "tipo_deuda":"O", "ahorro_cuota_mensual":6381.533609186947, "ahorro_total":153156.80662048672, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":59003.0, "cuota":722.0, "saldo":50966.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":144.0, "numero_pagos_restante":67.0, "frecuencia_externa":"S", "avance":0.1362, "fecha_inicio":"2023-10-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1200.1423980655345, "ahorro_total":-86410.25266071848, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":132552.0, "cuota":3894.0, "saldo":108273.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":36.0, "frecuencia_externa":"S", "avance":0.1832, "fecha_inicio":"2023-04-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-1176.214119532745, "ahorro_total":-56458.277737571756, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":205500.0, "cuota":7809.0, "saldo":76789.0, "tasa_externa":0.394, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":11.0, "frecuencia_externa":"M", "avance":0.6263, "fecha_inicio":"2020-03-04", "tipo_deuda":"I", "ahorro_cuota_mensual":672.5559662340393, "ahorro_total":40353.35797404236, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":155300.0, "cuota":8000.0, "saldo":40529.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.739, "fecha_inicio":"2012-03-20", "tipo_deuda":"R", "ahorro_cuota_mensual":48528.99999999988, "ahorro_total":-48528.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":135000.0, "cuota":6750.0, "saldo":91545.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3219, "fecha_inicio":"2016-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":98294.99999999975, "ahorro_total":-98294.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":1174.0, "saldo":11184.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2011, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":12357.99999999997, "ahorro_total":-12357.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":106205.0, "cuota":9827.0, "saldo":170436.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":-0.6048, "fecha_inicio":"2023-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":3678.9343070973237, "ahorro_total":88294.42337033577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":418548.0, "cuota":85856.0, "saldo":220008.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":78.0, "numero_pagos_restante":9.0, "frecuencia_externa":"W", "avance":0.4744, "fecha_inicio":"2023-05-10", "tipo_deuda":"I", "ahorro_cuota_mensual":58197.17535808449, "ahorro_total":1163943.5071616897, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":19, "monto_otorgado":136814.0, "cuota":6520.0, "saldo":106713.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.22, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":1233.4618146134635, "ahorro_total":57972.70528683279, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 458697, "monto_maximo_cliente": 175800.0, "cuota_externa_total": 60240.0, "capacidad_maxima_pago": 146606.0, "bursolnum": 7340616, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 11065.485474797928, "monto_max": 175800.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03",</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 557483, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 80099.0, "capacidad_maxima_pago": 99901.0, "bursolnum": 7317897, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3754.7617693354077, "monto_max": 80000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":527075.0, "cuota":0.0, "saldo":71506.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.8643, "fecha_inicio":"2011-01-01", "tipo_deuda":"O", "ahorro_cuota_mensual":71505.99999999981, "ahorro_total":-71505.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":13, "monto_otorgado":100000.0, "cuota":6738.0, "saldo":100832.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":-0.0083, "fecha_inicio":"2024-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":2281.917768990049, "ahorro_total":82149.03968364176, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":300000.0, "cuota":17975.0, "saldo":287819.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":0.0406, "fecha_inicio":"2023-03-22", "tipo_deuda":"I", "ahorro_cuota_mensual":6499.77340319404, "ahorro_total":311989.1233533139, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2009-12-22", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":1174.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-02-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":7, "monto_otorgado":162000.0, "cuota":5282.0, "saldo":11919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9264, "fecha_inicio":"2019-03-06", "tipo_deuda":"R", "ahorro_cuota_mensual":17200.999999999967, "ahorro_total":-17200.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":149900.0, "cuota":9878.0, "saldo":143774.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0409, "fecha_inicio":"2018-04-24", "tipo_deuda":"R", "ahorro_cuota_mensual":153651.9999999996, "ahorro_total":-153651.9999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":143400.0, "cuota":7170.0, "saldo":126128.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1204, "fecha_inicio":"2007-10-09", "tipo_deuda":"R", "ahorro_cuota_mensual":133297.99999999965, "ahorro_total":-133297.99999999965, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":338700.0, "cuota":20376.0, "saldo":173497.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4878, "fecha_inicio":"2020-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-18959.769630065777, "ahorro_total":-189597.69630065776, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":100000.0, "cuota":5000.0, "saldo":78415.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2158, "fecha_inicio":"2023-05-26", "tipo_deuda":"R", "ahorro_cuota_mensual":83414.9999999998, "ahorro_total":-83414.9999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":80000.0, "cuota":4428.0, "saldo":77837.0, "tasa_externa":0.1989, "tasa_kubo":0.2914, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":0.027, "fecha_inicio":"2023-09-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-500.14803651204693, "ahorro_total":-11003.256803265032, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":376598.0, "cuota":12827.0, "saldo":355341.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0564, "fecha_inicio":"2024-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-3954.5165603388596, "ahorro_total":-142362.59617219894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 659364, "monto_maximo_cliente": 280000.0, "cuota_externa_total": 38744.0, "capacidad_maxima_pago": 334877.01, "bursolnum": 7317521, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10710.211490352229, "monto_max": 280000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":6, "monto_otorgado":21000.0, "cuota":14700.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":156.0, "numero_pagos_restante":71.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-02-25", "tipo_deuda":"R", "ahorro_cuota_mensual":14700.0, "ahorro_total":2293200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":471453.0, "cuota":0.0, "saldo":340733.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.2773, "fecha_inicio":"2019-07-17", "tipo_deuda":"O", "ahorro_cuota_mensual":340732.99999999907, "ahorro_total":-340732.99999999907, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":99000.0, "cuota":7984.0, "saldo":88365.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":86.0, "numero_pagos_restante":16.0, "frecuencia_externa":"W", "avance":0.1074, "fecha_inicio":"2023-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":1885.4168048163428, "ahorro_total":41479.169705959546, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":142869.0, "cuota":4920.0, "saldo":76471.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.4647, "fecha_inicio":"2022-08-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-1446.3601226216078, "ahorro_total":-52068.964414377886, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":11000.0, "cuota":1000.0, "saldo":8625.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2159, "fecha_inicio":"2018-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":9624.999999999976, "ahorro_total":-9624.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":280000.0, "cuota":25840.0, "saldo":283578.0, "tasa_externa":1.1071, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":34.0, "frecuencia_externa":"S", "avance":-0.0128, "fecha_inicio":"2023-02-03", "tipo_deuda":"I", "ahorro_cuota_mensual":15129.788509647771, "ahorro_total":726229.848463093, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 829025, "monto_maximo_cliente": 41500.0, "cuota_externa_total": 18809.0, "capacidad_maxima_pago": 29272.0, "bursolnum": 7315979, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2576.1196891244476, "monto_max": 41500.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":41000.0, "cuota":4500.0, "saldo":32052.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2182, "fecha_inicio":"2015-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":36551.99999999996, "ahorro_total":-36551.99999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":20000.0, "cuota":1662.0, "saldo":18641.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0679, "fecha_inicio":"2022-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":20302.999999999978, "ahorro_total":-20302.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41500.0, "cuota":3098.0, "saldo":41305.0, "tasa_externa":0.878, "tasa_kubo":0.5991, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0047, "fecha_inicio":"2017-06-23", "tipo_deuda":"I", "ahorro_cuota_mensual":521.8803108755524, "ahorro_total":25050.254922026514, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":93000.0, "cuota":4650.0, "saldo":47601.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4882, "fecha_inicio":"2016-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":52250.99999999995, "ahorro_total":-52250.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":61400.0, "cuota":3551.0, "saldo":55589.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0946, "fecha_inicio":"2022-09-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-260.4156364395444, "ahorro_total":-12499.950549098132, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":63500.0, "cuota":3497.0, "saldo":15468.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7564, "fecha_inicio":"2021-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-738.5785545343406, "ahorro_total":-26588.82796323626, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":57000.0, "cuota":3141.0, "saldo":11601.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7965, "fecha_inicio":"2021-05-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-661.0153954087777, "ahorro_total":-23796.554234716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":1921.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-08-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 847726, "monto_maximo_cliente": 32000.0, "cuota_externa_total": 36466.0, "capacidad_maxima_pago": 53219.0, "bursolnum": 7317031, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1051.1186804354086, "monto_max": 32000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":6674.0, "saldo":79335.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.2066, "fecha_inicio":"2022-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":2406.0690643921444, "ahorro_total":86618.4863181172, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":12500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":66000.0, "cuota":4580.0, "saldo":47026.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2875, "fecha_inicio":"2011-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":51605.99999999975, "ahorro_total":-51605.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":32000.0, "cuota":1592.0, "saldo":23221.0, "tasa_externa":0.5283, "tasa_kubo":0.2622, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2743, "fecha_inicio":"2010-01-16", "tipo_deuda":"I", "ahorro_cuota_mensual":432.0678158723124, "ahorro_total":20739.255161870995, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":36956.0, "cuota":2490.0, "saldo":23353.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3681, "fecha_inicio":"2013-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":25842.999999999876, "ahorro_total":-25842.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":70000.0, "cuota":4386.0, "saldo":67927.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0296, "fecha_inicio":"2019-12-16", "tipo_deuda":"R", "ahorro_cuota_mensual":72312.99999999964, "ahorro_total":-72312.99999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":84700.0, "cuota":2200.0, "saldo":63909.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.2455, "fecha_inicio":"2023-06-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-1298.12868860034, "ahorro_total":-49328.89016681292, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":3080.0, "cuota":80.0, "saldo":2400.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.2208, "fecha_inicio":"2023-06-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-47.20467958546689, "ahorro_total":-1793.7778242477418, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":12200.0, "cuota":1000.0, "saldo":9962.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1834, "fecha_inicio":"2019-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":10961.999999999947, "ahorro_total":-10961.999999999947, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":5000.0, "cuota":304.0, "saldo":4168.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1664, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-268.3156992274363, "ahorro_total":-2683.156992274363, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":120400.0, "cuota":8912.0, "saldo":114960.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0452, "fecha_inicio":"2023-10-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-53586.291222243504, "ahorro_total":-107172.58244448701, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":78400.0, "cuota":5248.0, "saldo":70388.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1022, "fecha_inicio":"2015-08-10", "tipo_deuda":"R", "ahorro_cuota_mensual":75635.99999999964, "ahorro_total":-75635.99999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 920002, "monto_maximo_cliente": 261305.0, "cuota_externa_total": 22714.0, "capacidad_maxima_pago": 264709.0, "bursolnum": 7316888, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13060.298990250636, "monto_max": 261305.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":12, "monto_otorgado":101305.0, "cuota":2970.0, "saldo":97266.0, "tasa_externa":0.3382, "tasa_kubo":0.4818, "numero_pagos_otorgado":108.0, "numero_pagos_restante":85.0, "frecuencia_externa":"M", "avance":0.0399, "fecha_inicio":"2022-05-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-1782.997882248499, "ahorro_total":-192563.7712828379, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":26000.0, "cuota":1607.0, "saldo":19530.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.2488, "fecha_inicio":"2023-07-21", "tipo_deuda":"I", "ahorro_cuota_mensual":104.21258482491635, "ahorro_total":3751.6530536969885, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":33000.0, "cuota":2096.0, "saldo":32760.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0073, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":188.61597304700945, "ahorro_total":6790.17502969234, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-06-26", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":23, "monto_otorgado":2670.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-06-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":28000.0, "cuota":1747.0, "saldo":27977.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0008, "fecha_inicio":"2023-11-09", "tipo_deuda":"R", "ahorro_cuota_mensual":29724.00000000006, "ahorro_total":-29724.00000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":5148.0, "saldo":67104.0, "tasa_externa":0.3827, "tasa_kubo":0.4818, "numero_pagos_otorgado":43.0, "numero_pagos_restante":10.0, "frecuencia_externa":"S", "avance":0.1612, "fecha_inicio":"2023-04-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-741.2382484712107, "ahorro_total":-16307.241466366635, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":47900.0, "cuota":300.0, "saldo":47049.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0178, "fecha_inicio":"2016-10-07", "tipo_deuda":"R", "ahorro_cuota_mensual":47349.000000000095, "ahorro_total":-47349.000000000095, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":10500.0, "cuota":525.0, "saldo":9159.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1277, "fecha_inicio":"2021-09-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9684.00000000002, "ahorro_total":-9684.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":80000.0, "cuota":5900.0, "saldo":78280.0, "tasa_externa":0.56, "tasa_kubo":0.4818, "numero_pagos_otorgado":43.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.0215, "fecha_inicio":"2023-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":10.761751528789318, "ahorro_total":236.758533633365, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":365.0, "cuota":364.0, "saldo":182.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":2.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.5014, "fecha_inicio":"2024-02-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.99951000000084, "ahorro_total":-17.99951000000084, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":1270.0, "cuota":1270.0, "saldo":1270.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-02-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-59.148980000002894, "ahorro_total":-59.148980000002894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":15000.0, "cuota":1163.0, "saldo":14113.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0591, "fecha_inicio":"2018-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":15276.00000000003, "ahorro_total":-15276.00000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 976655, "monto_maximo_cliente": 451600.0, "cuota_externa_total": 84071.0, "capacidad_maxima_pago": 428235.0, "bursolnum": 7317647, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 18599.192074356895, "monto_max": 451600.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 55.0, "plazo_min": 4, "tasa": 0.3617, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":10, "monto_otorgado":80000.0, "cuota":5896.0, "saldo":80000.0, "tasa_externa":0.8916, "tasa_kubo":0.3617, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":0.0, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":2841.640560551676, "ahorro_total":204598.1203597207, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":141600.0, "cuota":9636.0, "saldo":129583.0, "tasa_externa":0.821, "tasa_kubo":0.3617, "numero_pagos_otorgado":144.0, "numero_pagos_restante":55.0, "frecuencia_externa":"S", "avance":0.0849, "fecha_inicio":"2022-10-31", "tipo_deuda":"I", "ahorro_cuota_mensual":4229.783792176467, "ahorro_total":304544.4330367056, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":51000.0, "cuota":3177.0, "saldo":53440.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0478, "fecha_inicio":"2004-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":56616.999999999876, "ahorro_total":-56616.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":6, "monto_otorgado":49575.0, "cuota":49094.0, "saldo":47658.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.0387, "fecha_inicio":"2023-07-15", "tipo_deuda":"I", "ahorro_cuota_mensual":46948.427167075766, "ahorro_total":2253524.5040196367, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":58200.0, "cuota":1000.0, "saldo":4685.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9195, "fecha_inicio":"2020-02-22", "tipo_deuda":"R", "ahorro_cuota_mensual":5684.999999999989, "ahorro_total":-5684.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":70000.0, "cuota":4856.0, "saldo":68197.0, "tasa_externa":0.479, "tasa_kubo":0.3617, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":0.0258, "fecha_inicio":"2023-10-18", "tipo_deuda":"I", "ahorro_cuota_mensual":242.36552176499117, "ahorro_total":5332.041478829806, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":80000.0, "cuota":5620.0, "saldo":77000.0, "tasa_externa":0.4955, "tasa_kubo":0.3617, "numero_pagos_otorgado":43.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.0375, "fecha_inicio":"2023-05-08", "tipo_deuda":"I", "ahorro_cuota_mensual":347.27488201713277, "ahorro_total":7640.047404376921, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":80000.0, "cuota":5792.0, "saldo":78181.0, "tasa_externa":0.8754, "tasa_kubo":0.3617, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":0.0227, "fecha_inicio":"2023-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":2737.640560551676, "ahorro_total":197110.1203597207, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1177743, "monto_maximo_cliente": 68965.0, "cuota_externa_total": 41754.0, "capacidad_maxima_pago": 75849.0, "bursolnum": 7316705, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2753.8007966509053, "monto_max": 68965.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 44.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":16, "monto_otorgado":129200.0, "cuota":6460.0, "saldo":76690.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4064, "fecha_inicio":"2014-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":83149.9999999998, "ahorro_total":-83149.9999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":17, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2010-12-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":15, "monto_otorgado":34935.0, "cuota":199.0, "saldo":25172.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":200.0, "frecuencia_externa":"M", "avance":0.2795, "fecha_inicio":"2010-12-07", "tipo_deuda":"M", "ahorro_cuota_mensual":-510.09385336239825, "ahorro_total":-183633.78721046337, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":799965.0, "cuota":3871.0, "saldo":250781.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":40.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6865, "fecha_inicio":"2010-11-30", "tipo_deuda":"M", "ahorro_cuota_mensual":-6659.548173637908, "ahorro_total":-266381.9269455163, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":150000.0, "cuota":6033.0, "saldo":102760.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.3149, "fecha_inicio":"2022-01-13", "tipo_deuda":"I", "ahorro_cuota_mensual":295.38670159701996, "ahorro_total":14178.561676656958, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":343200.0, "cuota":15796.0, "saldo":272149.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":42.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.207, "fecha_inicio":"2022-10-31", "tipo_deuda":"I", "ahorro_cuota_mensual":1756.985020738046, "ahorro_total":73793.37087099793, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2008-03-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":49600.0, "cuota":3942.0, "saldo":42554.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1421, "fecha_inicio":"2009-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":46495.99999999988, "ahorro_total":-46495.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":89000.0, "cuota":5352.0, "saldo":8706.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.9022, "fecha_inicio":"2019-02-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-4984.237074330835, "ahorro_total":-49842.37074330835, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":20900.0, "cuota":1045.0, "saldo":4156.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8011, "fecha_inicio":"2008-11-27", "tipo_deuda":"R", "ahorro_cuota_mensual":5200.999999999989, "ahorro_total":-5200.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":103000.0, "cuota":2500.0, "saldo":9871.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9042, "fecha_inicio":"2012-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":12370.999999999973, "ahorro_total":-12370.999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":52000.0, "cuota":2020.0, "saldo":19025.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6341, "fecha_inicio":"2016-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":21044.99999999995, "ahorro_total":-21044.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":36000.0, "cuota":3000.0, "saldo":10159.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7178, "fecha_inicio":"2007-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":13158.999999999973, "ahorro_total":-13158.999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":243900.0, "cuota":5683.0, "saldo":246542.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":57.0, "frecuencia_externa":"M", "avance":-0.0108, "fecha_inicio":"2024-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-2786.9693422652945, "ahorro_total":-167218.16053591768, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":36900.0, "cuota":1845.0, "saldo":4857.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2008-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":6701.999999999987, "ahorro_total":-6701.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":68965.0, "cuota":3269.0, "saldo":60008.0, "tasa_externa":0.405, "tasa_kubo":0.2914, "numero_pagos_otorgado":37.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.1299, "fecha_inicio":"2023-04-05", "tipo_deuda":"I", "ahorro_cuota_mensual":244.08922599827747, "ahorro_total":9031.301361936266, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":96000.0, "cuota":3378.0, "saldo":62081.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3533, "fecha_inicio":"2009-02-26", "tipo_deuda":"R", "ahorro_cuota_mensual":65458.99999999983, "ahorro_total":-65458.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1302408, "monto_maximo_cliente": 65500.0, "cuota_externa_total": 29047.0, "capacidad_maxima_pago": 68678.56, "bursolnum": 7315927, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4636.731423829417, "monto_max": 65500.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":551551.0, "cuota":5697.0, "saldo":318256.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":360.0, "numero_pagos_restante":272.0, "frecuencia_externa":"M", "avance":0.423, "fecha_inicio":"2016-12-21", "tipo_deuda":"M", "ahorro_cuota_mensual":-14327.773611105116, "ahorro_total":-5157998.499997842, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":60000.0, "cuota":5454.0, "saldo":10201.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.83, "fecha_inicio":"2022-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-209.53679273514263, "ahorro_total":-3771.6622692325673, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":55000.0, "cuota":3670.0, "saldo":47803.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1309, "fecha_inicio":"2023-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-223.438600162106, "ahorro_total":-8043.7896058358165, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":5000.0, "cuota":290.0, "saldo":4283.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1434, "fecha_inicio":"2022-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":4573.0000000000055, "ahorro_total":-4573.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "AUTOMOTRIZ", "registro":8, "monto_otorgado":258991.0, "cuota":4983.0, "saldo":19930.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":48.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.923, "fecha_inicio":"2020-05-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-12233.035204088563, "ahorro_total":-587185.689796251, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":10000.0, "cuota":956.0, "saldo":10202.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0202, "fecha_inicio":"2022-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":11158.000000000011, "ahorro_total":-11158.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":8500.0, "cuota":610.0, "saldo":7951.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0646, "fecha_inicio":"2023-04-25", "tipo_deuda":"R", "ahorro_cuota_mensual":8561.00000000001, "ahorro_total":-8561.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":65500.0, "cuota":6488.0, "saldo":64287.0, "tasa_externa":1.1634, "tasa_kubo":0.6509, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0185, "fecha_inicio":"2011-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1851.2685761705834, "ahorro_total":66645.668742141, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":12600.0, "cuota":899.0, "saldo":12943.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0272, "fecha_inicio":"2021-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":13842.000000000016, "ahorro_total":-13842.000000000016, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1448462, "monto_maximo_cliente": 65732.0, "cuota_externa_total": 22639.0, "capacidad_maxima_pago": 73593.0, "bursolnum": 7316321, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3373.0577857593826, "monto_max": 65732.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":120500.0, "cuota":7728.0, "saldo":53878.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.5529, "fecha_inicio":"2021-10-29", "tipo_deuda":"I", "ahorro_cuota_mensual":1629.5327548087116, "ahorro_total":58663.17917311362, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":10388.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6005, "fecha_inicio":"2018-11-20", "tipo_deuda":"R", "ahorro_cuota_mensual":11688.000000000024, "ahorro_total":-11688.000000000024, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":40000.0, "cuota":2000.0, "saldo":63399.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.585, "fecha_inicio":"2018-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":65399.000000000146, "ahorro_total":-65399.000000000146, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":12910.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-05-04", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":197000.0, "cuota":9850.0, "saldo":175624.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1085, "fecha_inicio":"2017-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":185474.0000000004, "ahorro_total":-185474.0000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":44460.0, "cuota":4227.0, "saldo":28597.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3568, "fecha_inicio":"2020-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":32824.00000000006, "ahorro_total":-32824.00000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":16790.0, "cuota":586.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":586.0, "ahorro_total":-586.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":51300.0, "cuota":641.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":641.0, "ahorro_total":-641.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":132800.0, "cuota":6640.0, "saldo":97614.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.265, "fecha_inicio":"2015-12-29", "tipo_deuda":"R", "ahorro_cuota_mensual":104254.0000000002, "ahorro_total":-104254.0000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":65732.0, "cuota":3956.0, "saldo":21702.0, "tasa_externa":0.3866, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6698, "fecha_inicio":"2022-07-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-217.63722742588106, "ahorro_total":-5223.293458221146, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1496214, "monto_maximo_cliente": 20327.0, "cuota_externa_total": 8901.0, "capacidad_maxima_pago": 26574.0, "bursolnum": 7316121, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 804.6480917740274, "monto_max": 20327.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":287091.0, "cuota":2925.0, "saldo":243627.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":360.0, "numero_pagos_restante":284.0, "frecuencia_externa":"M", "avance":0.1514, "fecha_inicio":"2017-11-30", "tipo_deuda":"M", "ahorro_cuota_mensual":-1789.9042402263085, "ahorro_total":-644365.526481471, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":13800.0, "cuota":5500.0, "saldo":6102.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5578, "fecha_inicio":"2015-11-27", "tipo_deuda":"R", "ahorro_cuota_mensual":11601.999999999989, "ahorro_total":-11601.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":19000.0, "cuota":1951.0, "saldo":7041.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":14.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6294, "fecha_inicio":"2023-03-15", "tipo_deuda":"I", "ahorro_cuota_mensual":388.9167775213107, "ahorro_total":5444.834885298349, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":33800.0, "cuota":567.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-07-07", "tipo_deuda":"R", "ahorro_cuota_mensual":567.0, "ahorro_total":-567.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":20000.0, "cuota":250.0, "saldo":731.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9634, "fecha_inicio":"2020-11-09", "tipo_deuda":"R", "ahorro_cuota_mensual":980.9999999999985, "ahorro_total":-980.9999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":9000.0, "cuota":450.0, "saldo":6417.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.287, "fecha_inicio":"2016-10-15", "tipo_deuda":"R", "ahorro_cuota_mensual":6866.999999999988, "ahorro_total":-6866.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":9000.0, "cuota":450.0, "saldo":6721.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":900.0, "numero_pagos_restante":878.0, "frecuencia_externa":"Z", "avance":0.2532, "fecha_inicio":"2022-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":320.06066240934047, "ahorro_total":288054.5961684064, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":105000.0, "cuota":5250.0, "saldo":47847.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5443, "fecha_inicio":"2019-04-26", "tipo_deuda":"R", "ahorro_cuota_mensual":53096.99999999991, "ahorro_total":-53096.99999999991, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":20327.0, "cuota":1288.0, "saldo":18096.0, "tasa_externa":0.446, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1098, "fecha_inicio":"2023-09-18", "tipo_deuda":"I", "ahorro_cuota_mensual":221.38837552688506, "ahorro_total":5313.321012645241, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":7400.0, "cuota":650.0, "saldo":2790.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.623, "fecha_inicio":"2014-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":3439.999999999995, "ahorro_total":-3439.999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1550610, "monto_maximo_cliente": 255300.0, "cuota_externa_total": 44422.0, "capacidad_maxima_pago": 243529.0, "bursolnum": 7316405, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9765.417833881871, "monto_max": 255300.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":244500.0, "cuota":11984.0, "saldo":129600.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":119.0, "numero_pagos_restante":12.0, "frecuencia_externa":"W", "avance":0.4699, "fecha_inicio":"2022-10-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-196.7342688905228, "ahorro_total":-5902.028066715684, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVS. GRALES.", "registro":5, "monto_otorgado":92000.0, "cuota":1582.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-01", "tipo_deuda":"R", "ahorro_cuota_mensual":1582.0, "ahorro_total":-1582.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":234100.0, "cuota":11705.0, "saldo":26021.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8888, "fecha_inicio":"2018-05-07", "tipo_deuda":"R", "ahorro_cuota_mensual":37725.99999999993, "ahorro_total":-37725.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":400102.0, "cuota":9300.0, "saldo":158278.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6044, "fecha_inicio":"2021-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":167577.99999999956, "ahorro_total":-167577.99999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":255300.0, "cuota":29512.0, "saldo":184073.0, "tasa_externa":1.506, "tasa_kubo":0.2914, "numero_pagos_otorgado":260.0, "numero_pagos_restante":37.0, "frecuencia_externa":"W", "avance":0.279, "fecha_inicio":"2021-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":20905.98990222656, "ahorro_total":1358889.3436447263, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":22.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":22.0, "ahorro_total":-22.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1630602, "monto_maximo_cliente": 50000.0, "cuota_externa_total": 19892.0, "capacidad_maxima_pago": 65108.0, "bursolnum": 7317903, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2265.172170279368, "monto_max": 50000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":65520.0, "cuota":489.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-04-27", "tipo_deuda":"R", "ahorro_cuota_mensual":489.0, "ahorro_total":-489.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":2191.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-06-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":48900.0, "cuota":3494.0, "saldo":46585.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.0473, "fecha_inicio":"2023-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":1314.9757890361334, "ahorro_total":47339.1284053008, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":4, "monto_otorgado":26000.0, "cuota":2500.0, "saldo":7693.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7041, "fecha_inicio":"2019-07-30", "tipo_deuda":"R", "ahorro_cuota_mensual":10192.999999999978, "ahorro_total":-10192.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":38000.0, "cuota":1522.0, "saldo":5762.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8484, "fecha_inicio":"2021-05-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-171.3112477837817, "ahorro_total":-6167.2049202161415, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2017-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":16000.0, "cuota":975.0, "saldo":5771.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6393, "fecha_inicio":"2016-06-26", "tipo_deuda":"R", "ahorro_cuota_mensual":6745.9999999999845, "ahorro_total":-6745.9999999999845, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":74200.0, "cuota":3421.0, "saldo":18790.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7468, "fecha_inicio":"2021-07-30", "tipo_deuda":"I", "ahorro_cuota_mensual":114.58698459061588, "ahorro_total":4125.131445262172, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":24300.0, "cuota":528.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-07-29", "tipo_deuda":"R", "ahorro_cuota_mensual":528.0, "ahorro_total":-528.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":28000.0, "cuota":1907.0, "saldo":13037.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5344, "fecha_inicio":"2022-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":14943.999999999964, "ahorro_total":-14943.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":6600.0, "cuota":330.0, "saldo":3956.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4006, "fecha_inicio":"2022-03-22", "tipo_deuda":"R", "ahorro_cuota_mensual":4285.999999999989, "ahorro_total":-4285.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":60500.0, "cuota":3000.0, "saldo":51236.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1531, "fecha_inicio":"2023-01-03", "tipo_deuda":"R", "ahorro_cuota_mensual":54235.999999999854, "ahorro_total":-54235.999999999854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":47200.0, "cuota":2360.0, "saldo":41784.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1147, "fecha_inicio":"2017-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":44143.99999999988, "ahorro_total":-44143.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":19500.0, "cuota":975.0, "saldo":9368.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5196, "fecha_inicio":"2018-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":10342.999999999975, "ahorro_total":-10342.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":15000.0, "cuota":750.0, "saldo":8594.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4271, "fecha_inicio":"2019-06-05", "tipo_deuda":"R", "ahorro_cuota_mensual":9343.999999999976, "ahorro_total":-9343.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":50000.0, "cuota":2841.0, "saldo":16277.0, "tasa_externa":0.322, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6745, "fecha_inicio":"2022-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-53.433262512441615, "ahorro_total":-1282.3983002985988, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":61806.0, "cuota":2157.0, "saldo":24054.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":11.0, "frecuencia_externa":"M", "avance":0.6108, "fecha_inicio":"2022-03-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-597.1261836980107, "ahorro_total":-21496.542613128382, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1784380, "monto_maximo_cliente": 135500.0, "cuota_externa_total": 48521.0, "capacidad_maxima_pago": 123950.0, "bursolnum": 7315995, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4450.830662468684, "monto_max": 135500.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":137906.0, "cuota":8126.0, "saldo":29289.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7876, "fecha_inicio":"2021-05-20", "tipo_deuda":"I", "ahorro_cuota_mensual":2240.267163940631, "ahorro_total":80649.61790186272, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":157600.0, "cuota":9936.0, "saldo":145417.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0773, "fecha_inicio":"2023-06-30", "tipo_deuda":"I", "ahorro_cuota_mensual":3209.7408454820197, "ahorro_total":115550.6704373527, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":23, "monto_otorgado":20300.0, "cuota":17955.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":17955.0, "ahorro_total":-17955.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":100000.0, "cuota":10771.0, "saldo":258512.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":-1.5851, "fecha_inicio":"2024-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":5158.323412724972, "ahorro_total":123799.76190539933, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":135500.0, "cuota":5185.0, "saldo":135500.0, "tasa_externa":0.343, "tasa_kubo":0.2622, "numero_pagos_otorgado":48.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2022-04-11", "tipo_deuda":"I", "ahorro_cuota_mensual":273.412157834322, "ahorro_total":13123.783576047455, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":5, "monto_otorgado":100000.0, "cuota":10771.0, "saldo":258512.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":-1.5851, "fecha_inicio":"2024-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":5158.323412724972, "ahorro_total":123799.76190539933, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":37000.0, "cuota":3732.0, "saldo":20780.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4384, "fecha_inicio":"2007-07-03", "tipo_deuda":"R", "ahorro_cuota_mensual":24511.999999999894, "ahorro_total":-24511.999999999894, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":30420.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-06-28", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 1848246, "monto_maximo_cliente": 50000.0, "cuota_externa_total": 11224.0, "capacidad_maxima_pago": 53376.0, "bursolnum": 7316308, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2968.9480312849914, "monto_max": 50000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":20000.0, "cuota":1520.0, "saldo":9963.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5018, "fecha_inicio":"2022-09-06", "tipo_deuda":"I", "ahorro_cuota_mensual":2.3007327588982207, "ahorro_total":55.2175862135573, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":35000.0, "cuota":2256.0, "saldo":32035.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0847, "fecha_inicio":"2023-03-06", "tipo_deuda":"I", "ahorro_cuota_mensual":9.008746461227929, "ahorro_total":324.31487260420545, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":20000.0, "cuota":1480.0, "saldo":7913.0, "tasa_externa":0.8881, "tasa_kubo":0.5668, "numero_pagos_otorgado":120.0, "numero_pagos_restante":11.0, "frecuencia_externa":"S", "avance":0.6043, "fecha_inicio":"2020-03-17", "tipo_deuda":"I", "ahorro_cuota_mensual":337.6469596056768, "ahorro_total":20258.817576340607, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":5000.0, "cuota":829.0, "saldo":2854.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4292, "fecha_inicio":"2023-08-13", "tipo_deuda":"I", "ahorro_cuota_mensual":110.46533973837256, "ahorro_total":994.1880576453531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":6000.0, "cuota":963.0, "saldo":939.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8435, "fecha_inicio":"2023-05-09", "tipo_deuda":"I", "ahorro_cuota_mensual":100.75840768604724, "ahorro_total":906.8256691744251, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":5000.0, "cuota":785.0, "saldo":3313.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3374, "fecha_inicio":"2023-09-17", "tipo_deuda":"I", "ahorro_cuota_mensual":66.46533973837256, "ahorro_total":598.1880576453531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":30000.0, "cuota":2000.0, "saldo":26699.0, "tasa_externa":0.4276, "tasa_kubo":0.5668, "numero_pagos_otorgado":43.0, "numero_pagos_restante":13.0, "frecuencia_externa":"S", "avance":0.11, "fecha_inicio":"2023-07-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-379.69527917908636, "ahorro_total":-8353.2961419399, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":41900.0, "cuota":2095.0, "saldo":2548.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9392, "fecha_inicio":"2018-11-21", "tipo_deuda":"R", "ahorro_cuota_mensual":4643.000000000001, "ahorro_total":-4643.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":4000.0, "cuota":867.0, "saldo":2360.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.41, "fecha_inicio":"2023-10-09", "tipo_deuda":"I", "ahorro_cuota_mensual":66.81543862571061, "ahorro_total":400.8926317542637, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2009039, "monto_maximo_cliente": 72000.0, "cuota_externa_total": 12397.0, "capacidad_maxima_pago": 66147.0, "bursolnum": 7316351, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4177.775394046039, "monto_max": 72000.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-11-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2016-12-08", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":11, "monto_otorgado":199463.0, "cuota":2390.0, "saldo":121801.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":264.0, "frecuencia_externa":"M", "avance":0.3894, "fecha_inicio":"2016-04-12", "tipo_deuda":"M", "ahorro_cuota_mensual":-4090.462856255649, "ahorro_total":-1472566.6282520336, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":68900.0, "cuota":3665.0, "saldo":35006.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.4919, "fecha_inicio":"2022-01-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-671.8142731147746, "ahorro_total":-24185.313832131884, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":20000.0, "cuota":1222.0, "saldo":17965.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.1018, "fecha_inicio":"2023-03-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-36.87206766756867, "ahorro_total":-1327.3944360324722, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":11000.0, "cuota":166.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-10-14", "tipo_deuda":"R", "ahorro_cuota_mensual":166.0, "ahorro_total":-166.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":72000.0, "cuota":4814.0, "saldo":29624.0, "tasa_externa":0.7976, "tasa_kubo":0.5504, "numero_pagos_otorgado":122.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.5886, "fecha_inicio":"2020-05-11", "tipo_deuda":"I", "ahorro_cuota_mensual":813.868724293472, "ahorro_total":49645.99218190179, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":12200.0, "cuota":610.0, "saldo":2421.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8016, "fecha_inicio":"2015-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":3030.999999999998, "ahorro_total":-3030.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":5400.0, "cuota":168.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2007-10-31", "tipo_deuda":"R", "ahorro_cuota_mensual":168.0, "ahorro_total":-168.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":36000.0, "cuota":120.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":120.0, "ahorro_total":-120.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":12200.0, "cuota":610.0, "saldo":2000.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8361, "fecha_inicio":"2015-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":2609.999999999998, "ahorro_total":-2609.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":7800.0, "cuota":500.0, "saldo":1490.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.809, "fecha_inicio":"2020-03-13", "tipo_deuda":"R", "ahorro_cuota_mensual":1989.9999999999989, "ahorro_total":-1989.9999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":8700.0, "cuota":5826.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5826.0, "ahorro_total":-5826.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2090977, "monto_maximo_cliente": 58300.0, "cuota_externa_total": 12003.0, "capacidad_maxima_pago": 57593.86, "bursolnum": 7316152, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3618.98259942061, "monto_max": 58300.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":30000.0, "cuota":2392.0, "saldo":16462.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.4513, "fecha_inicio":"2022-10-24", "tipo_deuda":"I", "ahorro_cuota_mensual":47.53026370028374, "ahorro_total":1140.7263288068098, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":5000.0, "cuota":218.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":900.0, "numero_pagos_restante":871.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":218.0, "ahorro_total":196200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":47000.0, "cuota":2841.0, "saldo":16747.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6437, "fecha_inicio":"2021-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-293.9951506002203, "ahorro_total":-10583.825421607931, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":10800.0, "cuota":540.0, "saldo":10458.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0317, "fecha_inicio":"2023-07-06", "tipo_deuda":"R", "ahorro_cuota_mensual":10997.999999999989, "ahorro_total":-10997.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":58300.0, "cuota":6532.0, "saldo":54256.0, "tasa_externa":1.4595, "tasa_kubo":0.5991, "numero_pagos_otorgado":261.0, "numero_pagos_restante":55.0, "frecuencia_externa":"W", "avance":0.0694, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":3066.438881547675, "ahorro_total":199318.5273005989, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":8000.0, "cuota":400.0, "saldo":3851.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5186, "fecha_inicio":"2019-06-24", "tipo_deuda":"R", "ahorro_cuota_mensual":4250.999999999996, "ahorro_total":-4250.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2162754, "monto_maximo_cliente": 54000.0, "cuota_externa_total": 11791.0, "capacidad_maxima_pago": 64709.0, "bursolnum": 7317537, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5451.090349008467, "monto_max": 54000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":17200.0, "cuota":1589.0, "saldo":12415.0, "tasa_externa":0.7305, "tasa_kubo":0.6509, "numero_pagos_otorgado":18.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.2782, "fecha_inicio":"2023-06-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-34.54721391740736, "ahorro_total":-621.8498505133325, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":36800.0, "cuota":4431.0, "saldo":21148.0, "tasa_externa":0.751, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4253, "fecha_inicio":"2022-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-28.941040968760717, "ahorro_total":-347.2924916251286, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":8500.0, "cuota":425.0, "saldo":4988.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4132, "fecha_inicio":"2021-10-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":8563.0, "cuota":428.0, "saldo":2893.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6622, "fecha_inicio":"2014-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":625.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-11-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":52527.0, "cuota":3401.0, "saldo":48417.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":40.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0782, "fecha_inicio":"2023-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-219.31153671878928, "ahorro_total":-8772.461468751571, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":21020.0, "cuota":1736.0, "saldo":21248.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":-0.0108, "fecha_inicio":"2024-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":15.681535038260336, "ahorro_total":376.35684091824805, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-10-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2298632, "monto_maximo_cliente": 102436.0, "cuota_externa_total": 27186.0, "capacidad_maxima_pago": 99249.0, "bursolnum": 7317447, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3713.0879129157443, "monto_max": 102436.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":10, "monto_otorgado":1242826.0, "cuota":9082.0, "saldo":1055485.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":720.0, "numero_pagos_restante":256.0, "frecuencia_externa":"S", "avance":0.1507, "fecha_inicio":"2015-07-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-22422.513836329126, "ahorro_total":-8072104.981078485, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":9, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-11-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":1116.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-10-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":7, "monto_otorgado":2169.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1989-08-14", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":100000.0, "cuota":5441.0, "saldo":89582.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":51.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.1042, "fecha_inicio":"2022-06-03", "tipo_deuda":"I", "ahorro_cuota_mensual":1925.5944447306283, "ahorro_total":98205.31668126205, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7800.0, "cuota":5702.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2003-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":5702.0, "ahorro_total":-5702.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":54000.0, "cuota":3046.0, "saldo":46577.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1375, "fecha_inicio":"2020-03-21", "tipo_deuda":"R", "ahorro_cuota_mensual":49622.99999999976, "ahorro_total":-49622.99999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":102436.0, "cuota":4407.0, "saldo":66155.0, "tasa_externa":0.3276, "tasa_kubo":0.2622, "numero_pagos_otorgado":37.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.3542, "fecha_inicio":"2022-07-05", "tipo_deuda":"I", "ahorro_cuota_mensual":107.77989184105809, "ahorro_total":3987.8559981191493, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":94365.0, "cuota":5210.0, "saldo":82966.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1208, "fecha_inicio":"2022-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":1789.468732649711, "ahorro_total":85894.49916718612, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2311104, "monto_maximo_cliente": 7500.0, "cuota_externa_total": 5923.0, "capacidad_maxima_pago": 17140.370000000003, "bursolnum": 7316730, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 327.31661920377553, "monto_max": 7500.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2019-02-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":15850.0, "cuota":1364.0, "saldo":11593.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":18.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.2686, "fecha_inicio":"2023-06-12", "tipo_deuda":"I", "ahorro_cuota_mensual":162.65834922774548, "ahorro_total":2927.8502860994186, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":4, "monto_otorgado":354717.0, "cuota":3329.0, "saldo":323449.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":360.0, "numero_pagos_restante":292.0, "frecuencia_externa":"M", "avance":0.0881, "fecha_inicio":"2018-08-16", "tipo_deuda":"M", "ahorro_cuota_mensual":-7980.226547847584, "ahorro_total":-2872881.55722513, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":3900.0, "cuota":400.0, "saldo":462.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8815, "fecha_inicio":"2023-04-05", "tipo_deuda":"R", "ahorro_cuota_mensual":861.9999999999989, "ahorro_total":-861.9999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":7500.0, "cuota":830.0, "saldo":6595.0, "tasa_externa":1.3161, "tasa_kubo":0.3617, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1207, "fecha_inicio":"2008-05-08", "tipo_deuda":"I", "ahorro_cuota_mensual":460.55828178956676, "ahorro_total":16580.098144424403, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2372071, "monto_maximo_cliente": 105000.0, "cuota_externa_total": 6068.0, "capacidad_maxima_pago": 106340.0, "bursolnum": 7316315, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3466.802995049543, "monto_max": 105000.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":105000.0, "cuota":4172.0, "saldo":47807.0, "tasa_externa":0.3049, "tasa_kubo":0.2306, "numero_pagos_otorgado":80.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.5447, "fecha_inicio":"2020-01-07", "tipo_deuda":"I", "ahorro_cuota_mensual":177.73789762994056, "ahorro_total":7109.5159051976225, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":26300.0, "cuota":1896.0, "saldo":13039.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5042, "fecha_inicio":"2021-10-08", "tipo_deuda":"I", "ahorro_cuota_mensual":825.8267736533828, "ahorro_total":29729.76385152178, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2612016, "monto_maximo_cliente": 131063.0, "cuota_externa_total": 22698.0, "capacidad_maxima_pago": 129865.0, "bursolnum": 7316431, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8359.18198712964, "monto_max": 131063.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":12, "monto_otorgado":34000.0, "cuota":1700.0, "saldo":25248.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2574, "fecha_inicio":"2018-06-20", "tipo_deuda":"R", "ahorro_cuota_mensual":26948.000000000004, "ahorro_total":-26948.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-03-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":11000.0, "cuota":1325.0, "saldo":6794.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3824, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":13.91877316291766, "ahorro_total":167.02527795501192, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":4, "monto_otorgado":570818.0, "cuota":4239.0, "saldo":572975.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":360.0, "numero_pagos_restante":355.0, "frecuencia_externa":"M", "avance":-0.0038, "fecha_inicio":"2023-11-14", "tipo_deuda":"M", "ahorro_cuota_mensual":-30062.530386195627, "ahorro_total":-10822510.939030426, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":4700.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":10200.0, "cuota":4481.0, "saldo":4652.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5439, "fecha_inicio":"2019-04-23", "tipo_deuda":"R", "ahorro_cuota_mensual":9133.0, "ahorro_total":-9133.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":130900.0, "cuota":11888.0, "saldo":130539.0, "tasa_externa":1.0891, "tasa_kubo":0.6193, "numero_pagos_otorgado":97.0, "numero_pagos_restante":46.0, "frecuencia_externa":"S", "avance":0.0028, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":3539.2141327814134, "ahorro_total":169882.27837350784, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":14000.0, "cuota":700.0, "saldo":4992.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6434, "fecha_inicio":"2022-12-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5692.000000000001, "ahorro_total":-5692.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":25000.0, "cuota":2650.0, "saldo":14162.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4335, "fecha_inicio":"2023-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":16812.000000000004, "ahorro_total":-16812.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":75000.0, "cuota":11835.0, "saldo":6866.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9085, "fecha_inicio":"2018-06-28", "tipo_deuda":"R", "ahorro_cuota_mensual":18701.0, "ahorro_total":-18701.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":36000.0, "cuota":450.0, "saldo":1487.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9587, "fecha_inicio":"2022-04-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1937.0000000000005, "ahorro_total":-1937.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":112000.0, "cuota":5600.0, "saldo":42092.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6242, "fecha_inicio":"2021-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":47692.00000000001, "ahorro_total":-47692.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":124000.0, "cuota":6200.0, "saldo":68859.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4447, "fecha_inicio":"2023-01-05", "tipo_deuda":"R", "ahorro_cuota_mensual":75059.00000000001, "ahorro_total":-75059.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2687735, "monto_maximo_cliente": 90000.0, "cuota_externa_total": 15609.0, "capacidad_maxima_pago": 105064.0, "bursolnum": 7316666, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2757.042788185569, "monto_max": 90000.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":90000.0, "cuota":3418.0, "saldo":86903.0, "tasa_externa":0.3937, "tasa_kubo":0.2306, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0344, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":683.2741215729652, "ahorro_total":40996.44729437791, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":41990.0, "cuota":3500.0, "saldo":38435.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0847, "fecha_inicio":"2016-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":41934.99999999983, "ahorro_total":-41934.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":60000.0, "cuota":3665.0, "saldo":38258.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.3624, "fecha_inicio":"2022-04-22", "tipo_deuda":"I", "ahorro_cuota_mensual":1223.5401680305313, "ahorro_total":44047.446049099126, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":152600.0, "cuota":8526.0, "saldo":117442.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":48.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2304, "fecha_inicio":"2022-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":3316.175786938158, "ahorro_total":159176.4377730316, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2710338, "monto_maximo_cliente": 67158.0, "cuota_externa_total": 9897.0, "capacidad_maxima_pago": 73379.0, "bursolnum": 7317075, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4311.526817290196, "monto_max": 67158.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COOPERATIVA", "registro":48, "monto_otorgado":5000.0, "cuota":868.0, "saldo":378.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":26.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.9244, "fecha_inicio":"2012-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-132.23070171786173, "ahorro_total":-793.3842103071704, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":33, "monto_otorgado":999.0, "cuota":462.0, "saldo":462.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":929.0, "frecuencia_externa":"M", "avance":0.5375, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":436.686712, "ahorro_total":436686.712, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":22, "monto_otorgado":483.0, "cuota":175.0, "saldo":172.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6439, "fecha_inicio":"2023-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.9561450096482247, "ahorro_total":-11.868435028944674, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":178.0, "cuota":67.0, "saldo":65.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6348, "fecha_inicio":"2023-06-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1.0492881744981588, "ahorro_total":3.1478645234944764, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":12000.0, "cuota":600.0, "saldo":2596.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7837, "fecha_inicio":"2010-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":3196.0000000000005, "ahorro_total":-3196.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5400.0, "cuota":270.0, "saldo":1401.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7406, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":4000.0, "cuota":352.0, "saldo":3350.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":18.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.1625, "fecha_inicio":"2023-08-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.1095943541449174, "ahorro_total":-55.97269837460851, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":2600.0, "cuota":243.0, "saldo":731.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7188, "fecha_inicio":"2023-12-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":8100.0, "cuota":837.0, "saldo":2236.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.724, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3073.0000000000005, "ahorro_total":-3073.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":11000.0, "cuota":725.0, "saldo":5546.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4958, "fecha_inicio":"2022-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":6271.000000000001, "ahorro_total":-6271.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":2300.0, "cuota":550.0, "saldo":1448.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3704, "fecha_inicio":"2023-11-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1998.0000000000002, "ahorro_total":-1998.0000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":19000.0, "cuota":950.0, "saldo":10157.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4654, "fecha_inicio":"2020-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":11107.000000000004, "ahorro_total":-11107.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":25000.0, "cuota":800.0, "saldo":3321.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8672, "fecha_inicio":"2020-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4121.000000000001, "ahorro_total":-4121.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":67158.0, "cuota":5064.0, "saldo":48544.0, "tasa_externa":0.8371, "tasa_kubo":0.5668, "numero_pagos_otorgado":72.0, "numero_pagos_restante":20.0, "frecuencia_externa":"S", "avance":0.2772, "fecha_inicio":"2022-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":752.473182709804, "ahorro_total":27089.034577552942, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":2600.0, "cuota":338.0, "saldo":1688.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3508, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2790904, "monto_maximo_cliente": 231000.0, "cuota_externa_total": 50312.0, "capacidad_maxima_pago": 227250.0, "bursolnum": 7316902, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 15778.821653385676, "monto_max": 231000.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":229000.0, "cuota":12732.0, "saldo":177201.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.2262, "fecha_inicio":"2021-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-2910.208478897486, "ahorro_total":-139690.00698707934, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":94100.0, "cuota":1499.0, "saldo":3838.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9592, "fecha_inicio":"1996-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":5337.000000000005, "ahorro_total":-5337.000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":206000.0, "cuota":13274.0, "saldo":201548.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":120.0, "numero_pagos_restante":47.0, "frecuencia_externa":"S", "avance":0.0216, "fecha_inicio":"2023-03-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-425.23395633006476, "ahorro_total":-25514.037379803885, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":46500.0, "cuota":2830.0, "saldo":46284.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0046, "fecha_inicio":"2019-08-01", "tipo_deuda":"R", "ahorro_cuota_mensual":49114.00000000006, "ahorro_total":-49114.00000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":231000.0, "cuota":21476.0, "saldo":230588.0, "tasa_externa":1.1158, "tasa_kubo":0.6722, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0018, "fecha_inicio":"2019-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":5697.178346614324, "ahorro_total":273464.56063748756, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2878373, "monto_maximo_cliente": 125000.0, "cuota_externa_total": 81336.0, "capacidad_maxima_pago": 101704.0, "bursolnum": 7374699, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4369.560700721107, "monto_max": 125000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":15000.0, "cuota":-1.0, "saldo":13698.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0868, "fecha_inicio":"2023-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":2459.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":13, "monto_otorgado":261238.0, "cuota":8972.0, "saldo":264919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":46.0, "frecuencia_externa":"M", "avance":-0.0141, "fecha_inicio":"2024-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-1020.5508189879838, "ahorro_total":-48986.43931142322, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":11, "monto_otorgado":68100.0, "cuota":49049.0, "saldo":19427.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7147, "fecha_inicio":"2017-02-21", "tipo_deuda":"R", "ahorro_cuota_mensual":68475.99999999994, "ahorro_total":-68475.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":166000.0, "cuota":11561.0, "saldo":165222.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0047, "fecha_inicio":"2023-10-12", "tipo_deuda":"I", "ahorro_cuota_mensual":4163.90349652348, "ahorro_total":149900.52587484528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":33, "monto_otorgado":1700.0, "cuota":586.0, "saldo":1138.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3306, "fecha_inicio":"2023-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-12.886730074731418, "ahorro_total":-38.66019022419425, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":32, "monto_otorgado":9900.0, "cuota":935.0, "saldo":6855.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3076, "fecha_inicio":"2022-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-48.733156271222015, "ahorro_total":-584.7978752546642, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":31, "monto_otorgado":6800.0, "cuota":6945.0, "saldo":6804.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0006, "fecha_inicio":"2023-02-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-46.5469333333167, "ahorro_total":-46.5469333333167, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":30, "monto_otorgado":5500.0, "cuota":675.0, "saldo":3784.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.312, "fecha_inicio":"2022-11-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-25.366658169637276, "ahorro_total":-228.29992352673548, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":15000.0, "cuota":1910.0, "saldo":9214.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3857, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":35100.0, "cuota":3235.0, "saldo":22032.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3723, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":25266.999999999938, "ahorro_total":-25266.999999999938, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":6800.0, "saldo":79624.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":34.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.2038, "fecha_inicio":"2022-12-27", "tipo_deuda":"I", "ahorro_cuota_mensual":2190.6759204203354, "ahorro_total":74482.9812942914, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":63000.0, "cuota":3540.0, "saldo":58338.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.074, "fecha_inicio":"2017-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":61877.99999999984, "ahorro_total":-61877.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":125000.0, "cuota":5006.0, "saldo":123369.0, "tasa_externa":0.3728, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.013, "fecha_inicio":"2023-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":224.65558466418315, "ahorro_total":10783.468063880791, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":28000.0, "cuota":230.0, "saldo":22751.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1875, "fecha_inicio":"2018-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":22980.999999999935, "ahorro_total":-22980.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":25000.0, "cuota":20454.0, "saldo":15822.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3671, "fecha_inicio":"2023-06-26", "tipo_deuda":"R", "ahorro_cuota_mensual":36275.999999999956, "ahorro_total":-36275.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":20000.0, "cuota":1003.0, "saldo":19424.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0288, "fecha_inicio":"2018-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":20426.999999999945, "ahorro_total":-20426.999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":63000.0, "cuota":5000.0, "saldo":57266.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.091, "fecha_inicio":"2017-03-15", "tipo_deuda":"R", "ahorro_cuota_mensual":62265.99999999985, "ahorro_total":-62265.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":10569.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4716, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":11568.99999999997, "ahorro_total":-11568.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":55000.0, "cuota":3406.0, "saldo":53546.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0264, "fecha_inicio":"2022-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":56951.999999999854, "ahorro_total":-56951.999999999854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":3000.0, "cuota":449.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":449.0, "ahorro_total":-449.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":35100.0, "cuota":3730.0, "saldo":31369.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1063, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":44000.0, "cuota":2200.0, "saldo":43387.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0139, "fecha_inicio":"2017-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":45586.999999999876, "ahorro_total":-45586.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2901882, "monto_maximo_cliente": 328500.0, "cuota_externa_total": 42978.0, "capacidad_maxima_pago": 330366.0, "bursolnum": 7316468, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10187.569080969615, "monto_max": 328500.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "BANCO", "registro":16, "monto_otorgado":209000.0, "cuota":11732.0, "saldo":209130.0, "tasa_externa":0.6547, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0006, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":5816.151024556162, "ahorro_total":348969.0614733697, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":50, "monto_otorgado":1000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2009-05-09", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":17, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2011-03-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":79100.0, "cuota":4982.0, "saldo":43011.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":10.0, "frecuencia_externa":"S", "avance":0.4562, "fecha_inicio":"2023-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":831.4131206856209, "ahorro_total":19953.914896454902, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1921.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-06-13", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2005-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":37930.0, "cuota":2675.0, "saldo":27513.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":17.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2746, "fecha_inicio":"2020-07-18", "tipo_deuda":"I", "ahorro_cuota_mensual":35.809750045089004, "ahorro_total":608.7657507665131, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":101600.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":42500.0, "cuota":231.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":231.0, "ahorro_total":-231.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":119500.0, "cuota":9010.0, "saldo":90105.0, "tasa_externa":0.837, "tasa_kubo":0.2, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.246, "fecha_inicio":"2011-04-06", "tipo_deuda":"I", "ahorro_cuota_mensual":4371.722292111271, "ahorro_total":157382.00251600574, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":211500.0, "cuota":10575.0, "saldo":68445.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6764, "fecha_inicio":"2017-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":79019.99999999985, "ahorro_total":-79019.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":110000.0, "cuota":177.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":177.0, "ahorro_total":-177.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":51500.0, "cuota":120.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":120.0, "ahorro_total":-120.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":114510.0, "cuota":5726.0, "saldo":46021.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5981, "fecha_inicio":"2003-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":51746.999999999905, "ahorro_total":-51746.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":95778.0, "cuota":5681.0, "saldo":64169.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.33, "fecha_inicio":"2023-05-09", "tipo_deuda":"I", "ahorro_cuota_mensual":655.2742082557188, "ahorro_total":15726.580998137251, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 2937559, "monto_maximo_cliente": 85395.0, "cuota_externa_total": 36859.0, "capacidad_maxima_pago": 67665.0, "bursolnum": 7317560, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5991.637935690177, "monto_max": 85395.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 31.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":8000.0, "cuota":6430.0, "saldo":6430.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1963, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":12859.999999999993, "ahorro_total":-12859.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":18, "monto_otorgado":6543.0, "cuota":124.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-02-08", "tipo_deuda":"R", "ahorro_cuota_mensual":124.0, "ahorro_total":-124.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":20, "monto_otorgado":12000.0, "cuota":600.0, "saldo":8960.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2533, "fecha_inicio":"2020-12-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":8400.0, "cuota":420.0, "saldo":6099.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2739, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":8100.0, "cuota":-1.0, "saldo":339.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9581, "fecha_inicio":"2023-12-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":23, "monto_otorgado":4100.0, "cuota":-1.0, "saldo":6066.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.4795, "fecha_inicio":"2024-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1075.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-11-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":38, "monto_otorgado":14040.0, "cuota":468.0, "saldo":14040.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":120.0, "numero_pagos_restante":22.0, "frecuencia_externa":"W", "avance":0.0, "fecha_inicio":"2023-07-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-529.3177334154271, "ahorro_total":-15879.532002462814, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":65, "monto_otorgado":8000.0, "cuota":2476.0, "saldo":7231.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0961, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":19, "monto_otorgado":28500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":13700.0, "cuota":1625.0, "saldo":13152.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.04, "fecha_inicio":"2023-12-19", "tipo_deuda":"I", "ahorro_cuota_mensual":9.549540641746717, "ahorro_total":114.5944877009606, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":24, "monto_otorgado":7354.0, "cuota":504.0, "saldo":4752.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3538, "fecha_inicio":"2024-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":8000.0, "cuota":1294.0, "saldo":4426.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4468, "fecha_inicio":"2023-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":5719.9999999999945, "ahorro_total":-5719.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2300.0, "cuota":300.0, "saldo":986.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5713, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1285.999999999999, "ahorro_total":-1285.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":13600.0, "cuota":883.0, "saldo":479.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9648, "fecha_inicio":"2023-06-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1361.9999999999995, "ahorro_total":-1361.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":20000.0, "cuota":1922.0, "saldo":16204.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1898, "fecha_inicio":"2023-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":18125.999999999985, "ahorro_total":-18125.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":19900.0, "cuota":1352.0, "saldo":13332.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3301, "fecha_inicio":"2022-05-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-9470.459608264802, "ahorro_total":-18940.919216529604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":84800.0, "cuota":5944.0, "saldo":76307.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1002, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-40173.81782818367, "ahorro_total":-80347.63565636735, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33700.0, "cuota":2364.0, "saldo":31661.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0605, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-15963.48184917205, "ahorro_total":-31926.9636983441, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":12000.0, "cuota":2390.0, "saldo":1962.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8365, "fecha_inicio":"2019-02-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4351.999999999998, "ahorro_total":-4351.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":22815.0, "cuota":1141.0, "saldo":22770.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.002, "fecha_inicio":"2021-02-02", "tipo_deuda":"R", "ahorro_cuota_mensual":23910.999999999975, "ahorro_total":-23910.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":16000.0, "cuota":1437.0, "saldo":1727.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8921, "fecha_inicio":"2020-02-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3163.999999999998, "ahorro_total":-3163.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48476.0, "cuota":3650.0, "saldo":47164.0, "tasa_externa":0.8355, "tasa_kubo":0.5991, "numero_pagos_otorgado":72.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.0271, "fecha_inicio":"2023-10-18", "tipo_deuda":"I", "ahorro_cuota_mensual":416.5526612660369, "ahorro_total":14995.89580557733, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36919.0, "cuota":3416.0, "saldo":33775.0, "tasa_externa":0.9449, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.0852, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":530.817393518359, "ahorro_total":12739.617444440617, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":4749.0, "cuota":3284.0, "saldo":1642.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.6542, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":1514.2084581612366, "ahorro_total":4542.62537448371, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":2000.0, "cuota":1302.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":1302.0, "ahorro_total":-1302.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3073017, "monto_maximo_cliente": 21000.0, "cuota_externa_total": 16679.0, "capacidad_maxima_pago": 23321.0, "bursolnum": 7317317, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1150.271580551952, "monto_max": 21000.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 28.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":27000.0, "cuota":47.0, "saldo":932.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9655, "fecha_inicio":"2018-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":978.9999999999977, "ahorro_total":-978.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":90000.0, "cuota":6011.0, "saldo":78841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.124, "fecha_inicio":"2022-12-02", "tipo_deuda":"I", "ahorro_cuota_mensual":1748.6210150846218, "ahorro_total":62950.356543046386, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":21000.0, "cuota":1670.0, "saldo":8844.0, "tasa_externa":0.7274, "tasa_kubo":0.3337, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5789, "fecha_inicio":"2022-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":399.65367432061726, "ahorro_total":9591.688183694814, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-04-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":28100.0, "cuota":584.0, "saldo":20572.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2679, "fecha_inicio":"2016-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":21155.999999999945, "ahorro_total":-21155.999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":23446.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0982, "fecha_inicio":"2019-03-04", "tipo_deuda":"R", "ahorro_cuota_mensual":24745.999999999938, "ahorro_total":-24745.999999999938, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":3, "monto_otorgado":200000.0, "cuota":7741.0, "saldo":188085.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0596, "fecha_inicio":"2023-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":161.32524829128215, "ahorro_total":9679.514897476929, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3159500, "monto_maximo_cliente": 123800.0, "cuota_externa_total": 12422.0, "capacidad_maxima_pago": 139378.0, "bursolnum": 7317341, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3535.945674321685, "monto_max": 123800.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":756217.0, "cuota":4977.0, "saldo":1191850.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":720.0, "numero_pagos_restante":610.0, "frecuencia_externa":"M", "avance":-0.5761, "fecha_inicio":"2015-01-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-9643.21037412324, "ahorro_total":-6943111.4693687335, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":22200.0, "cuota":1287.0, "saldo":19214.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1345, "fecha_inicio":"2023-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":425.32832539640344, "ahorro_total":15311.819714270525, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":3, "monto_otorgado":310.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2005-12-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":27, "monto_otorgado":6734.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2000-05-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":1950.0, "cuota":8.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2000-08-11", "tipo_deuda":"R", "ahorro_cuota_mensual":8.0, "ahorro_total":-8.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":21000.0, "cuota":1086.0, "saldo":17224.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1798, "fecha_inicio":"2021-03-29", "tipo_deuda":"R", "ahorro_cuota_mensual":18309.999999999967, "ahorro_total":-18309.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":12000.0, "cuota":1502.0, "saldo":7777.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3519, "fecha_inicio":"2021-09-14", "tipo_deuda":"R", "ahorro_cuota_mensual":9278.999999999985, "ahorro_total":-9278.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":123800.0, "cuota":3600.0, "saldo":126250.0, "tasa_externa":0.2488, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":56.0, "frecuencia_externa":"M", "avance":-0.0198, "fecha_inicio":"2023-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":95.77941071795658, "ahorro_total":5746.764643077395, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":27000.0, "cuota":1350.0, "saldo":24006.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1109, "fecha_inicio":"2019-07-29", "tipo_deuda":"R", "ahorro_cuota_mensual":25355.999999999953, "ahorro_total":-25355.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":41700.0, "cuota":2162.0, "saldo":35358.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1521, "fecha_inicio":"2018-07-19", "tipo_deuda":"R", "ahorro_cuota_mensual":37519.99999999993, "ahorro_total":-37519.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3284861, "monto_maximo_cliente": 110867.0, "cuota_externa_total": 17188.0, "capacidad_maxima_pago": 113367.0, "bursolnum": 7316589, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6416.609353060798, "monto_max": 110867.0, "cuota_min": 277.6602976125524, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-06-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":20000.0, "cuota":1728.0, "saldo":12314.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":36.0, "numero_pagos_restante":7.0, "frecuencia_externa":"S", "avance":0.3843, "fecha_inicio":"2023-04-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-23.67977344565338, "ahorro_total":-426.23592202176087, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":10000.0, "cuota":888.0, "saldo":9028.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":36.0, "numero_pagos_restante":13.0, "frecuencia_externa":"S", "avance":0.0972, "fecha_inicio":"2023-10-24", "tipo_deuda":"I", "ahorro_cuota_mensual":12.16011327717331, "ahorro_total":218.88203898911956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":67200.0, "cuota":3360.0, "saldo":54655.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1867, "fecha_inicio":"2015-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":58014.999999999876, "ahorro_total":-58014.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":8000.0, "cuota":593.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-11-09", "tipo_deuda":"R", "ahorro_cuota_mensual":593.0, "ahorro_total":-593.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":40000.0, "cuota":2682.0, "saldo":39272.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0182, "fecha_inicio":"2023-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":41953.999999999905, "ahorro_total":-41953.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":8000.0, "cuota":480.0, "saldo":4944.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.382, "fecha_inicio":"2016-07-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5423.999999999989, "ahorro_total":-5423.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":10000.0, "cuota":500.0, "saldo":4279.0, "tasa_externa":-1.0, "tasa_kubo":0.5486, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5721, "fecha_inicio":"2016-07-04", "tipo_deuda":"R", "ahorro_cuota_mensual":4778.99999999999, "ahorro_total":-4778.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":109800.0, "cuota":8328.0, "saldo":105121.0, "tasa_externa":0.9121, "tasa_kubo":0.5486, "numero_pagos_otorgado":121.0, "numero_pagos_restante":52.0, "frecuencia_externa":"S", "avance":0.0426, "fecha_inicio":"2023-08-21", "tipo_deuda":"I", "ahorro_cuota_mensual":2230.5798644283495, "ahorro_total":133834.79186570097, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3312894, "monto_maximo_cliente": 27480.0, "cuota_externa_total": 10384.0, "capacidad_maxima_pago": 24022.15, "bursolnum": 7317894, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 792.1877626764048, "monto_max": 27480.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 58.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":72815.0, "cuota":5172.0, "saldo":69368.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.0473, "fecha_inicio":"2023-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":2830.1860056349915, "ahorro_total":135848.9282704796, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":22, "monto_otorgado":7500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":42400.0, "cuota":2120.0, "saldo":40331.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0488, "fecha_inicio":"2015-04-21", "tipo_deuda":"R", "ahorro_cuota_mensual":42450.99999999993, "ahorro_total":-42450.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":276972.0, "cuota":2171.0, "saldo":241693.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":360.0, "numero_pagos_restante":339.0, "frecuencia_externa":"M", "avance":0.1274, "fecha_inicio":"2022-07-05", "tipo_deuda":"M", "ahorro_cuota_mensual":-2506.4756103921864, "ahorro_total":-902331.2197411871, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":16000.0, "cuota":800.0, "saldo":15267.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0458, "fecha_inicio":"2022-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":16066.99999999997, "ahorro_total":-16066.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":8000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":27480.0, "cuota":1070.0, "saldo":15127.0, "tasa_externa":0.3478, "tasa_kubo":0.2, "numero_pagos_otorgado":47.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.4495, "fecha_inicio":"2021-11-01", "tipo_deuda":"I", "ahorro_cuota_mensual":174.72725909383485, "ahorro_total":8212.181177410237, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":15000.0, "cuota":750.0, "saldo":14581.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0279, "fecha_inicio":"2021-10-06", "tipo_deuda":"R", "ahorro_cuota_mensual":15330.999999999973, "ahorro_total":-15330.999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3341344, "monto_maximo_cliente": 15000.0, "cuota_externa_total": 8974.0, "capacidad_maxima_pago": 19009.42, "bursolnum": 7317694, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 428.4263741100588, "monto_max": 15000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":51900.0, "cuota":2595.0, "saldo":12921.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.751, "fecha_inicio":"2020-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":15515.999999999976, "ahorro_total":-15515.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":15000.0, "cuota":200.0, "saldo":302.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9799, "fecha_inicio":"2023-11-20", "tipo_deuda":"R", "ahorro_cuota_mensual":501.99999999999943, "ahorro_total":-501.99999999999943, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15000.0, "cuota":783.0, "saldo":14616.0, "tasa_externa":0.5626, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.0256, "fecha_inicio":"2023-10-03", "tipo_deuda":"I", "ahorro_cuota_mensual":300.5827794345241, "ahorro_total":14427.973412857158, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":3000.0, "cuota":150.0, "saldo":380.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8733, "fecha_inicio":"2023-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":529.9999999999993, "ahorro_total":-529.9999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":45000.0, "cuota":40.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-03-26", "tipo_deuda":"R", "ahorro_cuota_mensual":40.0, "ahorro_total":-40.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":21500.0, "cuota":1505.0, "saldo":20219.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":30.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0596, "fecha_inicio":"2023-08-21", "tipo_deuda":"I", "ahorro_cuota_mensual":553.804111352079, "ahorro_total":16614.123340562368, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":7, "monto_otorgado":390223.0, "cuota":5730.0, "saldo":118151.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.6972, "fecha_inicio":"2020-06-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-5315.4561471034485, "ahorro_total":-318927.3688262069, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3463619, "monto_maximo_cliente": 134009.0, "cuota_externa_total": 55481.0, "capacidad_maxima_pago": 108080.0, "bursolnum": 7316773, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8087.579821053957, "monto_max": 134009.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 57.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":11, "monto_otorgado":200530.0, "cuota":2744.0, "saldo":421187.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":720.0, "numero_pagos_restante":92.0, "frecuencia_externa":"S", "avance":-1.1004, "fecha_inicio":"2001-12-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-8869.293908321963, "ahorro_total":-3192945.8069959064, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":105100.0, "cuota":5222.0, "saldo":73278.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":50.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3028, "fecha_inicio":"2021-09-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1252.5492084058378, "ahorro_total":-62627.46042029189, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":21000.0, "cuota":1607.0, "saldo":15433.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2651, "fecha_inicio":"2023-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-34.12881540980129, "ahorro_total":-819.091569835231, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":120000.0, "cuota":7302.0, "saldo":117482.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.021, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-147.02078782972876, "ahorro_total":-7056.9978158269805, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":3, "monto_otorgado":173453.0, "cuota":9636.0, "saldo":151271.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":18.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1279, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.399055862965, "ahorro_total":-110401.18300553337, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":132500.0, "cuota":21476.0, "saldo":9220.0, "tasa_externa":2.1126, "tasa_kubo":0.5991, "numero_pagos_otorgado":227.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.9304, "fecha_inicio":"2019-12-02", "tipo_deuda":"I", "ahorro_cuota_mensual":13479.489867921935, "ahorro_total":768330.9224715503, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":30500.0, "cuota":1990.0, "saldo":30658.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0052, "fecha_inicio":"2019-06-07", "tipo_deuda":"R", "ahorro_cuota_mensual":32647.999999999967, "ahorro_total":-32647.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":44000.0, "cuota":3177.0, "saldo":41724.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0517, "fecha_inicio":"2018-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":44900.999999999956, "ahorro_total":-44900.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":19800.0, "cuota":112.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-06-24", "tipo_deuda":"R", "ahorro_cuota_mensual":112.0, "ahorro_total":-112.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33400.0, "cuota":2327.0, "saldo":30156.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0971, "fecha_inicio":"2018-02-02", "tipo_deuda":"R", "ahorro_cuota_mensual":32482.999999999967, "ahorro_total":-32482.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3473842, "monto_maximo_cliente": 5800.0, "cuota_externa_total": 2951.0, "capacidad_maxima_pago": 9849.0, "bursolnum": 7316387, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 628.0988813440744, "monto_max": 5800.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":13100.0, "cuota":655.0, "saldo":1329.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8985, "fecha_inicio":"2023-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-730.886515999998, "ahorro_total":-730.886515999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":12000.0, "cuota":1651.0, "saldo":7430.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3808, "fecha_inicio":"2023-09-11", "tipo_deuda":"I", "ahorro_cuota_mensual":16.397674972638697, "ahorro_total":147.57907475374827, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":13100.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":17, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2017-05-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":4530.0, "cuota":524.0, "saldo":250.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9448, "fecha_inicio":"2013-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":773.9999999999995, "ahorro_total":-773.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":5800.0, "cuota":1145.0, "saldo":4886.0, "tasa_externa":0.616, "tasa_kubo":0.4428, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1576, "fecha_inicio":"2024-01-22", "tipo_deuda":"I", "ahorro_cuota_mensual":28.460368362937515, "ahorro_total":170.7622101776251, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":2000.0, "cuota":3580.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-05-13", "tipo_deuda":"R", "ahorro_cuota_mensual":3580.0, "ahorro_total":-3580.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":4500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":36000.0, "cuota":1450.0, "saldo":4228.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8826, "fecha_inicio":"2018-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":5677.999999999992, "ahorro_total":-5677.999999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3549605, "monto_maximo_cliente": 163300.0, "cuota_externa_total": 55494.0, "capacidad_maxima_pago": 143773.0, "bursolnum": 7317920, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8244.36739815244, "monto_max": 163300.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":16, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2015-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":56000.0, "cuota":3904.0, "saldo":56000.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":21.760060625548704, "ahorro_total":522.2414550131689, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":13, "monto_otorgado":1436320.0, "cuota":12683.0, "saldo":1228340.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":360.0, "numero_pagos_restante":256.0, "frecuencia_externa":"M", "avance":0.1448, "fecha_inicio":"2015-07-24", "tipo_deuda":"M", "ahorro_cuota_mensual":-43195.83057950822, "ahorro_total":-15550499.00862296, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":10, "monto_otorgado":315700.0, "cuota":5410.0, "saldo":32456.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8972, "fecha_inicio":"2019-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-10021.088176126632, "ahorro_total":-601265.290567598, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2095.0, "saldo":28849.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0384, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":15.228603906543867, "ahorro_total":365.4864937570528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":7, "monto_otorgado":80000.0, "cuota":4000.0, "saldo":52724.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3409, "fecha_inicio":"2019-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":56724.00000000002, "ahorro_total":-56724.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-02-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":26, "monto_otorgado":23400.0, "cuota":1250.0, "saldo":10949.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5321, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":17, "monto_otorgado":78000.0, "cuota":3900.0, "saldo":8885.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8861, "fecha_inicio":"2013-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":12785.000000000004, "ahorro_total":-12785.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":97963.0, "cuota":4898.0, "saldo":54845.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4401, "fecha_inicio":"2002-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":59743.00000000002, "ahorro_total":-59743.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":100000.0, "cuota":5000.0, "saldo":70192.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":900.0, "numero_pagos_restante":830.0, "frecuencia_externa":"Z", "avance":0.2981, "fecha_inicio":"2018-06-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1806.8723306666661, "ahorro_total":1626185.0975999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":96000.0, "cuota":5660.0, "saldo":82134.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1444, "fecha_inicio":"2023-11-07", "tipo_deuda":"R", "ahorro_cuota_mensual":87794.00000000004, "ahorro_total":-87794.00000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":258500.0, "cuota":12925.0, "saldo":51012.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8027, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":63937.00000000002, "ahorro_total":-63937.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":102000.0, "cuota":800.0, "saldo":3291.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9677, "fecha_inicio":"2023-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4091.0000000000014, "ahorro_total":-4091.0000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":254000.0, "cuota":4000.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4000.0, "ahorro_total":-4000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":23400.0, "cuota":40.0, "saldo":53.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9977, "fecha_inicio":"2012-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":93.00000000000003, "ahorro_total":-93.00000000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":163300.0, "cuota":20572.0, "saldo":148413.0, "tasa_externa":1.6396, "tasa_kubo":0.4706, "numero_pagos_otorgado":208.0, "numero_pagos_restante":43.0, "frecuencia_externa":"W", "avance":0.0912, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":12327.63260184756, "ahorro_total":641036.895296073, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":79430.0, "cuota":3972.0, "saldo":5365.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9325, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9337.000000000004, "ahorro_total":-9337.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3553967, "monto_maximo_cliente": 18500.0, "cuota_externa_total": 6464.0, "capacidad_maxima_pago": 24836.0, "bursolnum": 7316324, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1420.8663578375517, "monto_max": 18500.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 26.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":35500.0, "cuota":2277.0, "saldo":15899.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":36.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.5521, "fecha_inicio":"2021-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-147.13159246341274, "ahorro_total":-5296.737328682859, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":1, "monto_otorgado":15000.0, "cuota":1553.0, "saldo":14197.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":15.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.0535, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":9.913850674547348, "ahorro_total":148.70776011821022, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":15800.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-05-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-16745.87753333335, "ahorro_total":-16745.87753333335, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7000.0, "cuota":558.0, "saldo":6186.0, "tasa_externa":0.7306, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.1163, "fecha_inicio":"2023-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":0.9391266801566189, "ahorro_total":22.539040323758854, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11500.0, "cuota":1376.0, "saldo":10053.0, "tasa_externa":0.737, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1258, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":5.32417194305026, "ahorro_total":63.89006331660312, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":9800.0, "cuota":700.0, "saldo":9232.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.058, "fecha_inicio":"2023-05-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9932.000000000004, "ahorro_total":-9932.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3567378, "monto_maximo_cliente": 72000.0, "cuota_externa_total": 4926.0, "capacidad_maxima_pago": 82074.0, "bursolnum": 7316393, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2516.8669636153577, "monto_max": 72000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":30000.0, "cuota":1500.0, "saldo":1829.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.939, "fecha_inicio":"2023-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3328.999999999995, "ahorro_total":-3328.999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":10800.0, "cuota":1500.0, "saldo":2727.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7475, "fecha_inicio":"2012-06-26", "tipo_deuda":"R", "ahorro_cuota_mensual":4226.999999999993, "ahorro_total":-4226.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":9000.0, "cuota":1500.0, "saldo":1702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8109, "fecha_inicio":"2016-06-22", "tipo_deuda":"R", "ahorro_cuota_mensual":3201.9999999999955, "ahorro_total":-3201.9999999999955, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":72000.0, "cuota":3140.0, "saldo":40654.0, "tasa_externa":0.4307, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.4354, "fecha_inicio":"2021-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":385.94561676656986, "ahorro_total":18525.389604795353, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30986.0, "cuota":1411.0, "saldo":16700.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":41.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.461, "fecha_inicio":"2021-11-05", "tipo_deuda":"I", "ahorro_cuota_mensual":127.12643316731055, "ahorro_total":5212.183759859732, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3589493, "monto_maximo_cliente": 164500.0, "cuota_externa_total": 17330.0, "capacidad_maxima_pago": 171031.0, "bursolnum": 7316249, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8221.883178263828, "monto_max": 164500.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2008-03-17", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2014-04-22", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":45000.0, "cuota":2375.0, "saldo":19678.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.5627, "fecha_inicio":"2021-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-225.97821857226018, "ahorro_total":-8135.215868601366, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":214181.0, "cuota":6019.0, "saldo":11919.0, "tasa_externa":0.2316, "tasa_kubo":0.4818, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9444, "fecha_inicio":"2019-03-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-4651.255545756132, "ahorro_total":-279075.3327453679, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":164500.0, "cuota":8936.0, "saldo":165638.0, "tasa_externa":0.6302, "tasa_kubo":0.4818, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0069, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":740.7957695739424, "ahorro_total":44447.74617443654, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":39000.0, "cuota":711.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-04-08", "tipo_deuda":"R", "ahorro_cuota_mensual":711.0, "ahorro_total":-711.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":36000.0, "cuota":2201.0, "saldo":9546.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7348, "fecha_inicio":"2021-04-30", "tipo_deuda":"R", "ahorro_cuota_mensual":11747.00000000002, "ahorro_total":-11747.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":52000.0, "cuota":3380.0, "saldo":15729.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6975, "fecha_inicio":"1993-12-31", "tipo_deuda":"R", "ahorro_cuota_mensual":19109.000000000033, "ahorro_total":-19109.000000000033, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":44600.0, "cuota":3784.0, "saldo":22874.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4871, "fecha_inicio":"2021-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":26658.00000000005, "ahorro_total":-26658.00000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":29123.0, "cuota":2110.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2005-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":2110.0, "ahorro_total":-2110.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3632363, "monto_maximo_cliente": 80800.0, "cuota_externa_total": 13106.0, "capacidad_maxima_pago": 88972.0, "bursolnum": 7316482, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4998.984878168791, "monto_max": 80800.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":80800.0, "cuota":5566.0, "saldo":71453.0, "tasa_externa":0.8237, "tasa_kubo":0.6193, "numero_pagos_otorgado":122.0, "numero_pagos_restante":45.0, "frecuencia_externa":"S", "avance":0.1157, "fecha_inicio":"2022-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":585.3087030408651, "ahorro_total":35703.830885492775, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":73000.0, "cuota":3650.0, "saldo":37941.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":900.0, "numero_pagos_restante":879.0, "frecuencia_externa":"Z", "avance":0.4803, "fecha_inicio":"2022-07-16", "tipo_deuda":"R", "ahorro_cuota_mensual":1378.6367410000003, "ahorro_total":1240773.0669000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":47700.0, "cuota":1734.0, "saldo":2307.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9516, "fecha_inicio":"2021-09-14", "tipo_deuda":"R", "ahorro_cuota_mensual":4041.0000000000005, "ahorro_total":-4041.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":10000.0, "cuota":195.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-10-07", "tipo_deuda":"R", "ahorro_cuota_mensual":195.0, "ahorro_total":-195.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":10000.0, "cuota":970.0, "saldo":5977.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4023, "fecha_inicio":"2023-03-21", "tipo_deuda":"I", "ahorro_cuota_mensual":47.36600063880633, "ahorro_total":852.5880114985139, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":30000.0, "cuota":2120.0, "saldo":26433.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1189, "fecha_inicio":"2023-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":71.43809087598902, "ahorro_total":2571.7712715356047, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3728149, "monto_maximo_cliente": 45000.0, "cuota_externa_total": 9853.0, "capacidad_maxima_pago": 43983.0, "bursolnum": 7316890, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3026.1208343727026, "monto_max": 45000.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 38.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":60000.0, "cuota":4715.0, "saldo":47266.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.2122, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-59.80748559865697, "ahorro_total":-1435.3796543677672, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":10000.0, "cuota":914.0, "saldo":7991.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":18.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.2009, "fecha_inicio":"2023-07-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-8.633999361193673, "ahorro_total":-155.41198850148612, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":10791.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2011-05-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":45000.0, "cuota":3812.0, "saldo":40265.0, "tasa_externa":0.9793, "tasa_kubo":0.6193, "numero_pagos_otorgado":76.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1052, "fecha_inicio":"2013-02-11", "tipo_deuda":"I", "ahorro_cuota_mensual":785.8791656272974, "ahorro_total":29863.408293837303, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":3000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":5500.0, "cuota":412.0, "saldo":4789.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1293, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-334.79825028217806, "ahorro_total":-3347.9825028217806, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3730883, "monto_maximo_cliente": 101097.0, "cuota_externa_total": 25987.0, "capacidad_maxima_pago": 118168.97, "bursolnum": 7316357, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3096.9861639688493, "monto_max": 101097.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-12-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-04-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":29000.0, "cuota":1577.0, "saldo":14953.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.4844, "fecha_inicio":"2022-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":396.96108121475663, "ahorro_total":14290.598923731239, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":7, "monto_otorgado":69181.0, "cuota":127.0, "saldo":13306.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":360.0, "numero_pagos_restante":345.0, "frecuencia_externa":"M", "avance":0.8077, "fecha_inicio":"2023-01-01", "tipo_deuda":"M", "ahorro_cuota_mensual":-169.71451758248622, "ahorro_total":-61097.22632969504, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":150000.0, "cuota":9149.0, "saldo":142557.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0496, "fecha_inicio":"2023-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":3045.3504200763273, "ahorro_total":109632.61512274778, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":12, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-02-22", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":12000.0, "cuota":1758.0, "saldo":4313.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6406, "fecha_inicio":"2021-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":6070.999999999982, "ahorro_total":-6070.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":100000.0, "cuota":3606.0, "saldo":98339.0, "tasa_externa":0.3639, "tasa_kubo":0.2306, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0166, "fecha_inicio":"2023-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":567.4156906366279, "ahorro_total":34044.941438197675, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":43000.0, "cuota":1583.0, "saldo":5527.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8715, "fecha_inicio":"2012-06-30", "tipo_deuda":"R", "ahorro_cuota_mensual":7109.999999999977, "ahorro_total":-7109.999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":64500.0, "cuota":3225.0, "saldo":5871.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.909, "fecha_inicio":"2023-07-04", "tipo_deuda":"R", "ahorro_cuota_mensual":9095.999999999975, "ahorro_total":-9095.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":131400.0, "cuota":6570.0, "saldo":20492.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.844, "fecha_inicio":"2022-02-03", "tipo_deuda":"R", "ahorro_cuota_mensual":27061.999999999913, "ahorro_total":-27061.999999999913, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":812000.0, "cuota":7321.0, "saldo":775115.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":240.0, "numero_pagos_restante":154.0, "frecuencia_externa":"M", "avance":0.0454, "fecha_inicio":"2017-02-14", "tipo_deuda":"M", "ahorro_cuota_mensual":-10044.799253676498, "ahorro_total":-2410751.8208823595, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3741894, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 60296.0, "capacidad_maxima_pago": 550392.0, "bursolnum": 7316999, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 16080.574018849196, "monto_max": 500000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2005-07-28", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":60000.0, "cuota":4541.0, "saldo":48082.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":25.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.1986, "fecha_inicio":"2023-04-17", "tipo_deuda":"I", "ahorro_cuota_mensual":1491.7735253942992, "ahorro_total":37294.33813485748, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":100000.0, "cuota":6557.0, "saldo":101427.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0143, "fecha_inicio":"2023-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":2675.59606034416, "ahorro_total":96321.45817238976, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":550000.0, "cuota":36676.0, "saldo":555672.0, "tasa_externa":0.7706, "tasa_kubo":0.2, "numero_pagos_otorgado":96.0, "numero_pagos_restante":45.0, "frecuencia_externa":"S", "avance":-0.0103, "fecha_inicio":"2024-01-15", "tipo_deuda":"I", "ahorro_cuota_mensual":18987.368579265883, "ahorro_total":911393.6918047625, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":47000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2005-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":8000.0, "cuota":1231.0, "saldo":5945.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2569, "fecha_inicio":"2023-05-11", "tipo_deuda":"R", "ahorro_cuota_mensual":7175.999999999989, "ahorro_total":-7175.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":100000.0, "cuota":6780.0, "saldo":92368.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0763, "fecha_inicio":"2023-08-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-44674.627489820494, "ahorro_total":-89349.25497964099, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":71565.0, "cuota":4511.0, "saldo":34601.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5165, "fecha_inicio":"2022-02-18", "tipo_deuda":"R", "ahorro_cuota_mensual":39111.999999999935, "ahorro_total":-39111.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3748714, "monto_maximo_cliente": 141000.0, "cuota_externa_total": 24887.0, "capacidad_maxima_pago": 203113.0, "bursolnum": 7317533, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4027.207916634553, "monto_max": 141000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":122000.0, "cuota":7736.0, "saldo":119796.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":0.0181, "fecha_inicio":"2023-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":3000.687193619875, "ahorro_total":108024.73897031549, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":2041.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-11-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2021-08-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":62000.0, "cuota":3238.0, "saldo":30934.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.5011, "fecha_inicio":"2022-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":831.5295574133793, "ahorro_total":29935.064066881656, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":147000.0, "cuota":8967.0, "saldo":128689.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1246, "fecha_inicio":"2023-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":3261.336208705915, "ahorro_total":117408.10351341293, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-09-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":200000.0, "cuota":3198.0, "saldo":72949.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6353, "fecha_inicio":"2018-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":76146.99999999985, "ahorro_total":-76146.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":140000.0, "cuota":6961.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-06-11", "tipo_deuda":"R", "ahorro_cuota_mensual":6961.0, "ahorro_total":-6961.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":71861.0, "cuota":2081.0, "saldo":48406.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3264, "fecha_inicio":"2021-02-23", "tipo_deuda":"R", "ahorro_cuota_mensual":50486.999999999905, "ahorro_total":-50486.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":28000.0, "cuota":400.0, "saldo":1000.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9643, "fecha_inicio":"2017-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1399.9999999999982, "ahorro_total":-1399.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":141000.0, "cuota":4546.0, "saldo":83020.0, "tasa_externa":0.3023, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.4112, "fecha_inicio":"2021-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":554.924853887172, "ahorro_total":33295.49123323032, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":41000.0, "cuota":150.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-02-12", "tipo_deuda":"R", "ahorro_cuota_mensual":150.0, "ahorro_total":-150.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3786062, "monto_maximo_cliente": 55212.0, "cuota_externa_total": 3639.0, "capacidad_maxima_pago": 106578.0, "bursolnum": 7316543, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1930.01748326571, "monto_max": 55212.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":55100.0, "cuota":2587.0, "saldo":27383.0, "tasa_externa":0.4831, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.503, "fecha_inicio":"2021-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":479.383381719972, "ahorro_total":23010.402322558657, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":6390.0, "cuota":1100.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-11-28", "tipo_deuda":"R", "ahorro_cuota_mensual":1100.0, "ahorro_total":-1100.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":4300.0, "cuota":150.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":150.0, "ahorro_total":-150.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":11000.0, "cuota":382.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2015-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":382.0, "ahorro_total":-382.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":16000.0, "cuota":1052.0, "saldo":8992.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.438, "fecha_inicio":"2022-01-28", "tipo_deuda":"I", "ahorro_cuota_mensual":339.0268430384077, "ahorro_total":12204.966349382677, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3800116, "monto_maximo_cliente": 81500.0, "cuota_externa_total": 26134.0, "capacidad_maxima_pago": 73279.0, "bursolnum": 7317651, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4528.941494402706, "monto_max": 81500.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 40.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":13, "monto_otorgado":1125.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-07-27", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":22000.0, "cuota":1383.0, "saldo":1380.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9373, "fecha_inicio":"2022-02-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-158.6467237712693, "ahorro_total":-3807.5213705104634, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":78000.0, "cuota":3920.0, "saldo":72267.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":48.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.0735, "fecha_inicio":"2023-02-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-173.1331741382055, "ahorro_total":-8310.392358633864, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":80000.0, "cuota":4669.0, "saldo":78121.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0235, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":45.03872253820464, "ahorro_total":1621.394011375367, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":28000.0, "cuota":2081.0, "saldo":25773.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0795, "fecha_inicio":"2024-01-22", "tipo_deuda":"R", "ahorro_cuota_mensual":27854.000000000055, "ahorro_total":-27854.000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":5500.0, "cuota":1838.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-07-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1838.0, "ahorro_total":-1838.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":11600.0, "cuota":844.0, "saldo":8028.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3079, "fecha_inicio":"2019-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-633.3614340190079, "ahorro_total":-6333.614340190079, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":47300.0, "cuota":731.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":731.0, "ahorro_total":-731.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":73700.0, "cuota":4620.0, "saldo":10277.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8606, "fecha_inicio":"2017-12-30", "tipo_deuda":"R", "ahorro_cuota_mensual":14897.000000000022, "ahorro_total":-14897.000000000022, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":81500.0, "cuota":5170.0, "saldo":35832.0, "tasa_externa":0.6892, "tasa_kubo":0.4818, "numero_pagos_otorgado":80.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.5603, "fecha_inicio":"2019-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":641.0585055972942, "ahorro_total":25642.34022389177, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11400.0, "cuota":788.0, "saldo":7395.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3513, "fecha_inicio":"2019-09-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-663.8896851566112, "ahorro_total":-6638.896851566113, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":25000.0, "cuota":1788.0, "saldo":16792.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3283, "fecha_inicio":"2019-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-1395.9686077995857, "ahorro_total":-13959.686077995857, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":14200.0, "cuota":871.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":871.0, "ahorro_total":-871.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3805773, "monto_maximo_cliente": 68000.0, "cuota_externa_total": 8123.0, "capacidad_maxima_pago": 82877.0, "bursolnum": 7315963, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2083.0989955179853, "monto_max": 68000.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-05-30", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":52000.0, "cuota":3447.0, "saldo":9804.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":26.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8115, "fecha_inicio":"2022-02-04", "tipo_deuda":"I", "ahorro_cuota_mensual":790.1471643479604, "ahorro_total":20543.82627304697, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":68000.0, "cuota":2676.0, "saldo":56967.0, "tasa_externa":0.4147, "tasa_kubo":0.2306, "numero_pagos_otorgado":60.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.1622, "fecha_inicio":"2022-07-25", "tipo_deuda":"I", "ahorro_cuota_mensual":609.7626696329071, "ahorro_total":36585.76017797443, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":3000.0, "cuota":150.0, "saldo":1945.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3517, "fecha_inicio":"2023-05-29", "tipo_deuda":"R", "ahorro_cuota_mensual":2094.999999999992, "ahorro_total":-2094.999999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":117500.0, "cuota":5875.0, "saldo":84305.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2825, "fecha_inicio":"2016-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":90179.99999999965, "ahorro_total":-90179.99999999965, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":29000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3868724, "monto_maximo_cliente": 73000.0, "cuota_externa_total": 31174.0, "capacidad_maxima_pago": 62214.0, "bursolnum": 7317173, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4235.800052296678, "monto_max": 73000.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":28, "monto_otorgado":722.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-03-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2002-04-02", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2016-01-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-10-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":7, "monto_otorgado":363704.0, "cuota":5850.0, "saldo":482570.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":211.0, "frecuencia_externa":"M", "avance":-0.3268, "fecha_inicio":"2011-10-26", "tipo_deuda":"M", "ahorro_cuota_mensual":-19825.297908418557, "ahorro_total":-7137107.247030681, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3688.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1479, "fecha_inicio":"2023-06-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-49.354436781702134, "ahorro_total":-1184.5064827608512, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":3, "monto_otorgado":236321.0, "cuota":5997.0, "saldo":83697.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":60.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.6458, "fecha_inicio":"2020-05-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-7163.329014893279, "ahorro_total":-429799.7408935968, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-05-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":13634.0, "cuota":682.0, "saldo":4256.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6878, "fecha_inicio":"2023-11-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":14700.0, "cuota":1110.0, "saldo":2222.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8488, "fecha_inicio":"2023-09-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":2835.0, "saldo":2835.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7638, "fecha_inicio":"2023-08-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":75700.0, "cuota":4660.0, "saldo":64968.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1418, "fecha_inicio":"2014-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":69627.99999999994, "ahorro_total":-69627.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":24100.0, "cuota":1205.0, "saldo":15500.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3568, "fecha_inicio":"2022-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":16704.999999999985, "ahorro_total":-16704.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6200.0, "cuota":450.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":450.0, "ahorro_total":-450.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":73000.0, "cuota":5352.0, "saldo":69663.0, "tasa_externa":0.8602, "tasa_kubo":0.5504, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0457, "fecha_inicio":"2017-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1116.1999477033223, "ahorro_total":53577.59748975947, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-04-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3926429, "monto_maximo_cliente": 9200.0, "cuota_externa_total": 13483.0, "capacidad_maxima_pago": 4896.0, "bursolnum": 7316286, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 285.3139590408537, "monto_max": 9200.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":14302.0, "cuota":715.0, "saldo":2974.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7921, "fecha_inicio":"2023-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":14303.0, "cuota":715.0, "saldo":5696.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6018, "fecha_inicio":"2024-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":14320.0, "cuota":716.0, "saldo":1991.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.861, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1543.0, "cuota":918.0, "saldo":918.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4051, "fecha_inicio":"2019-01-19", "tipo_deuda":"O", "ahorro_cuota_mensual":1835.9999999999982, "ahorro_total":-1835.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":40000.0, "cuota":2848.0, "saldo":18988.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5253, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":749.0938663391257, "ahorro_total":17978.252792139017, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":23600.0, "cuota":1813.0, "saldo":3445.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":21.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.854, "fecha_inicio":"2022-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":434.97967644236405, "ahorro_total":9134.573205289646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":14360.0, "cuota":718.0, "saldo":1166.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9188, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":20000.0, "cuota":1425.0, "saldo":11286.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.4357, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":375.54693316956286, "ahorro_total":9013.126396069509, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":14351.0, "cuota":718.0, "saldo":1736.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.879, "fecha_inicio":"2023-11-05", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":14317.0, "cuota":716.0, "saldo":1134.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9208, "fecha_inicio":"2023-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":11917.0, "cuota":596.0, "saldo":708.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9406, "fecha_inicio":"2023-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":14400.0, "cuota":236.0, "saldo":236.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9836, "fecha_inicio":"2023-07-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":15000.0, "cuota":1428.0, "saldo":14927.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":27.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0049, "fecha_inicio":"2023-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":713.147882840986, "ahorro_total":19254.99283670662, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":8000.0, "cuota":400.0, "saldo":7932.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0085, "fecha_inicio":"2021-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":8331.999999999985, "ahorro_total":-8331.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":8700.0, "cuota":435.0, "saldo":8649.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0059, "fecha_inicio":"2020-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":9083.999999999982, "ahorro_total":-9083.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":6500.0, "cuota":497.0, "saldo":4961.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2368, "fecha_inicio":"2021-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5457.99999999999, "ahorro_total":-5457.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9200.0, "cuota":368.0, "saldo":8268.0, "tasa_externa":0.426, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":42.0, "frecuencia_externa":"S", "avance":0.1013, "fecha_inicio":"2022-10-03", "tipo_deuda":"I", "ahorro_cuota_mensual":107.58942309051048, "ahorro_total":6455.3653854306285, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":12400.0, "cuota":1007.0, "saldo":12223.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":13229.999999999976, "ahorro_total":-13229.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":14384.0, "cuota":719.0, "saldo":2811.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8046, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3941195, "monto_maximo_cliente": 17500.0, "cuota_externa_total": 9248.0, "capacidad_maxima_pago": 18752.0, "bursolnum": 7316202, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 570.1336596018155, "monto_max": 17500.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":9880.0, "cuota":50.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":50.0, "ahorro_total":-50.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":50000.0, "cuota":2966.0, "saldo":17853.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":29.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6429, "fecha_inicio":"2022-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":697.4097295381043, "ahorro_total":20224.882156605025, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1075.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":17500.0, "cuota":891.0, "saldo":17170.0, "tasa_externa":0.4536, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0189, "fecha_inicio":"2024-01-08", "tipo_deuda":"I", "ahorro_cuota_mensual":211.75431056022796, "ahorro_total":7623.155180168207, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":84000.0, "cuota":4200.0, "saldo":23239.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7233, "fecha_inicio":"2015-06-24", "tipo_deuda":"R", "ahorro_cuota_mensual":27438.999999999956, "ahorro_total":-27438.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":27000.0, "cuota":1350.0, "saldo":3514.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8699, "fecha_inicio":"2017-07-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4863.999999999993, "ahorro_total":-4863.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":16500.0, "cuota":1430.0, "saldo":17375.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.053, "fecha_inicio":"2021-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":18804.999999999967, "ahorro_total":-18804.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3987119, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 34766.0, "capacidad_maxima_pago": 78696.23000000001, "bursolnum": 7316655, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4536.833238450779, "monto_max": 80000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 29.0, "plazo_min": 4, "tasa": 0.3813, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":18, "monto_otorgado":47000.0, "cuota":2948.0, "saldo":46832.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0036, "fecha_inicio":"2024-01-19", "tipo_deuda":"R", "ahorro_cuota_mensual":49780.0000000001, "ahorro_total":-49780.0000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":6450.0, "cuota":6450.0, "saldo":6450.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-237.74055000000317, "ahorro_total":-237.74055000000317, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":19, "monto_otorgado":51000.0, "cuota":670.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1997-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":670.0, "ahorro_total":-670.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":2835.0, "cuota":70.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1998-07-14", "tipo_deuda":"R", "ahorro_cuota_mensual":70.0, "ahorro_total":-70.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":76400.0, "cuota":5890.0, "saldo":71443.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0649, "fecha_inicio":"2023-09-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1039.0007275704784, "ahorro_total":24936.01746169148, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":40000.0, "cuota":2934.0, "saldo":25769.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":50.0, "numero_pagos_restante":10.0, "frecuencia_externa":"S", "avance":0.3558, "fecha_inicio":"2022-12-22", "tipo_deuda":"I", "ahorro_cuota_mensual":457.82011315460204, "ahorro_total":11445.50282886505, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-01-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":5592.0, "cuota":155.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2005-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":155.0, "ahorro_total":-155.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":39000.0, "cuota":4339.0, "saldo":24689.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3669, "fecha_inicio":"2012-04-22", "tipo_deuda":"R", "ahorro_cuota_mensual":29028.000000000055, "ahorro_total":-29028.000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":30000.0, "cuota":1789.0, "saldo":23934.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":48.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.2022, "fecha_inicio":"2022-04-20", "tipo_deuda":"I", "ahorro_cuota_mensual":447.0846237942385, "ahorro_total":21460.061942123448, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":2100.0, "cuota":160.0, "saldo":1088.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4819, "fecha_inicio":"2020-09-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-94.87847214056575, "ahorro_total":-948.7847214056575, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":5088.0, "saldo":75647.0, "tasa_externa":0.368, "tasa_kubo":0.3813, "numero_pagos_otorgado":43.0, "numero_pagos_restante":12.0, "frecuencia_externa":"S", "avance":0.0544, "fecha_inicio":"2023-05-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-282.97329195266684, "ahorro_total":-6225.4124229586705, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":25000.0, "cuota":1250.0, "saldo":23474.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":29.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.061, "fecha_inicio":"2021-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-81.2202929924199, "ahorro_total":-2355.388496780177, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":14000.0, "cuota":791.0, "saldo":13088.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0651, "fecha_inicio":"2021-07-02", "tipo_deuda":"R", "ahorro_cuota_mensual":13879.00000000003, "ahorro_total":-13879.00000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":6000.0, "cuota":844.0, "saldo":5873.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0212, "fecha_inicio":"2021-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":6717.000000000013, "ahorro_total":-6717.000000000013, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":16990.0, "cuota":1980.0, "saldo":13860.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1842, "fecha_inicio":"2022-08-19", "tipo_deuda":"I", "ahorro_cuota_mensual":901.224114678304, "ahorro_total":21629.378752279295, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":5000.0, "cuota":468.0, "saldo":4677.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0646, "fecha_inicio":"2022-01-22", "tipo_deuda":"R", "ahorro_cuota_mensual":5145.00000000001, "ahorro_total":-5145.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4007295, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 27903.0, "capacidad_maxima_pago": 122097.0, "bursolnum": 7316549, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5351.859687435604, "monto_max": 80000.0, "cuota_min": 269.2747621622814, "monto_min": 5000, "plazo_max": 29.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":80000.0, "cuota":5896.0, "saldo":78373.0, "tasa_externa":0.559, "tasa_kubo":0.5292, "numero_pagos_otorgado":43.0, "numero_pagos_restante":15.0, "frecuencia_externa":"S", "avance":0.0203, "fecha_inicio":"2023-08-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-245.85716632032108, "ahorro_total":-5408.857659047064, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":143700.0, "cuota":11152.0, "saldo":121879.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1519, "fecha_inicio":"2022-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-7562.423753542254, "ahorro_total":-75624.23753542255, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":91500.0, "cuota":62273.0, "saldo":237.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9974, "fecha_inicio":"2021-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":62510.0, "ahorro_total":-62510.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":95500.0, "cuota":910.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":910.0, "ahorro_total":-910.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":84000.0, "cuota":4475.0, "saldo":50272.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":36.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.4015, "fecha_inicio":"2022-04-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-677.1046057393323, "ahorro_total":-24375.765806615964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":5, "monto_otorgado":136000.0, "cuota":100.0, "saldo":6745.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9504, "fecha_inicio":"2017-02-20", "tipo_deuda":"R", "ahorro_cuota_mensual":6845.000000000002, "ahorro_total":-6845.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":689999.0, "cuota":6380.0, "saldo":486322.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":360.0, "numero_pagos_restante":285.0, "frecuencia_externa":"M", "avance":0.2952, "fecha_inicio":"2017-12-28", "tipo_deuda":"M", "ahorro_cuota_mensual":-18498.28862612865, "ahorro_total":-6659383.905406315, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-06-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4018492, "monto_maximo_cliente": 68908.0, "cuota_externa_total": 21248.0, "capacidad_maxima_pago": 69478.0, "bursolnum": 7316570, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2721.9703104700557, "monto_max": 68908.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 41.0, "plazo_min": 4, "tasa": 0.2622, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":5155.0, "saldo":58396.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.416, "fecha_inicio":"2022-04-25", "tipo_deuda":"I", "ahorro_cuota_mensual":887.0690643921444, "ahorro_total":31934.486318117197, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":2, "monto_otorgado":209267.0, "cuota":5792.0, "saldo":5792.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9723, "fecha_inicio":"2021-02-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-3139.3710310184906, "ahorro_total":-113017.35711666566, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":12000.0, "cuota":600.0, "saldo":4169.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6526, "fecha_inicio":"2023-10-22", "tipo_deuda":"R", "ahorro_cuota_mensual":4768.999999999978, "ahorro_total":-4768.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":117000.0, "cuota":3160.0, "saldo":64587.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.448, "fecha_inicio":"2017-10-23", "tipo_deuda":"R", "ahorro_cuota_mensual":67746.99999999967, "ahorro_total":-67746.99999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-12-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48000.0, "cuota":2400.0, "saldo":2741.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9429, "fecha_inicio":"2012-06-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5140.999999999985, "ahorro_total":-5140.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":68908.0, "cuota":3223.0, "saldo":51110.0, "tasa_externa":0.3822, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.2583, "fecha_inicio":"2022-10-06", "tipo_deuda":"I", "ahorro_cuota_mensual":282.0541508913393, "ahorro_total":10153.949432088215, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":87360.0, "cuota":250.0, "saldo":2247.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9743, "fecha_inicio":"2008-09-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2496.999999999988, "ahorro_total":-2496.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":167000.0, "cuota":8350.0, "saldo":131640.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":900.0, "numero_pagos_restante":855.0, "frecuencia_externa":"Z", "avance":0.2117, "fecha_inicio":"2020-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":5013.452559450587, "ahorro_total":4512107.303505528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":32000.0, "cuota":1600.0, "saldo":29499.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0782, "fecha_inicio":"2020-01-06", "tipo_deuda":"R", "ahorro_cuota_mensual":31098.999999999844, "ahorro_total":-31098.999999999844, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4039644, "monto_maximo_cliente": 50000.0, "cuota_externa_total": 6891.0, "capacidad_maxima_pago": 57109.0, "bursolnum": 7316318, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2171.60659674501, "monto_max": 50000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":12000.0, "cuota":239.0, "saldo":239.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9801, "fecha_inicio":"2021-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":477.99999999999875, "ahorro_total":-477.99999999999875, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":5800.0, "cuota":1193.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":1193.0, "ahorro_total":-1193.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":39000.0, "cuota":1759.0, "saldo":2085.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9465, "fecha_inicio":"2020-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":3843.999999999989, "ahorro_total":-3843.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":37810.0, "cuota":213.0, "saldo":1368.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9638, "fecha_inicio":"2021-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":1580.9999999999927, "ahorro_total":-1580.9999999999927, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":59100.0, "cuota":2955.0, "saldo":18918.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6799, "fecha_inicio":"2020-11-05", "tipo_deuda":"R", "ahorro_cuota_mensual":21872.999999999898, "ahorro_total":-21872.999999999898, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":5, "monto_otorgado":7000.0, "cuota":831.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-03-12", "tipo_deuda":"R", "ahorro_cuota_mensual":831.0, "ahorro_total":-831.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":2500.0, "cuota":154.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":154.0, "ahorro_total":-154.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":50000.0, "cuota":2734.0, "saldo":39876.0, "tasa_externa":0.2797, "tasa_kubo":0.2622, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.2025, "fecha_inicio":"2023-06-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-72.3382936375142, "ahorro_total":-1736.1190473003408, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":25000.0, "cuota":1993.0, "saldo":12543.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4983, "fecha_inicio":"2022-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":589.8308531812429, "ahorro_total":14155.94047634983, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4134401, "monto_maximo_cliente": 155000.0, "cuota_externa_total": 51795.0, "capacidad_maxima_pago": 147070.0, "bursolnum": 7316602, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7747.063177087497, "monto_max": 155000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1235.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-12-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":262700.0, "cuota":18986.0, "saldo":171532.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":24.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.347, "fecha_inicio":"2023-01-18", "tipo_deuda":"I", "ahorro_cuota_mensual":577.3366211494358, "ahorro_total":13856.07890758646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":3, "monto_otorgado":318000.0, "cuota":15900.0, "saldo":92704.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7085, "fecha_inicio":"2017-10-05", "tipo_deuda":"R", "ahorro_cuota_mensual":108604.00000000019, "ahorro_total":-108604.00000000019, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":25000.0, "cuota":3842.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":3842.0, "ahorro_total":-3842.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":51000.0, "cuota":2550.0, "saldo":43113.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1546, "fecha_inicio":"2019-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":45663.00000000009, "ahorro_total":-45663.00000000009, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":271386.0, "cuota":13260.0, "saldo":228758.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.1571, "fecha_inicio":"2023-10-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-5757.333535335896, "ahorro_total":-138176.0048480615, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":86800.0, "cuota":4340.0, "saldo":40000.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5392, "fecha_inicio":"2018-09-06", "tipo_deuda":"R", "ahorro_cuota_mensual":44340.00000000009, "ahorro_total":-44340.00000000009, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":155000.0, "cuota":8418.0, "saldo":112646.0, "tasa_externa":0.6318, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":34.0, "frecuencia_externa":"S", "avance":0.2733, "fecha_inicio":"2022-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":719.942632839271, "ahorro_total":43916.500603195534, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":86800.0, "cuota":4340.0, "saldo":42992.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5047, "fecha_inicio":"2018-09-06", "tipo_deuda":"R", "ahorro_cuota_mensual":47332.00000000009, "ahorro_total":-47332.00000000009, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4143061, "monto_maximo_cliente": 92935.0, "cuota_externa_total": 11566.0, "capacidad_maxima_pago": 106943.0, "bursolnum": 7364328, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3344.8056150627262, "monto_max": 92935.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 37.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":40000.0, "cuota":1590.0, "saldo":21740.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":36.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.4565, "fecha_inicio":"2022-06-03", "tipo_deuda":"I", "ahorro_cuota_mensual":120.92631270445418, "ahorro_total":4353.34725736035, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-02-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":66000.0, "cuota":4431.0, "saldo":49523.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2497, "fecha_inicio":"2015-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":53954.00000000024, "ahorro_total":-53954.00000000024, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":92935.0, "cuota":4315.0, "saldo":64032.0, "tasa_externa":0.3882, "tasa_kubo":0.165, "numero_pagos_otorgado":37.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.311, "fecha_inicio":"2022-10-12", "tipo_deuda":"I", "ahorro_cuota_mensual":970.1943849372738, "ahorro_total":35897.19224267913, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":40000.0, "cuota":2000.0, "saldo":17818.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5546, "fecha_inicio":"2014-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":19818.000000000087, "ahorro_total":-19818.000000000087, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4170086, "monto_maximo_cliente": 332000.0, "cuota_externa_total": 44624.0, "capacidad_maxima_pago": 327376.0, "bursolnum": 7317381, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 22968.418661180458, "monto_max": 332000.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":36000.0, "cuota":9.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-10-04", "tipo_deuda":"R", "ahorro_cuota_mensual":9.0, "ahorro_total":-9.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":72000.0, "cuota":299.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":299.0, "ahorro_total":-299.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":332000.0, "cuota":24852.0, "saldo":330541.0, "tasa_externa":0.8807, "tasa_kubo":0.7007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":22.0, "frecuencia_externa":"S", "avance":0.0044, "fecha_inicio":"2022-02-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1353.0540805726669, "ahorro_total":64946.59586748801, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":18000.0, "cuota":664.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-08-09", "tipo_deuda":"R", "ahorro_cuota_mensual":664.0, "ahorro_total":-664.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-08-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":124500.0, "cuota":9161.0, "saldo":124242.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":48.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.0021, "fecha_inicio":"2023-02-08", "tipo_deuda":"I", "ahorro_cuota_mensual":348.8952802147505, "ahorro_total":16746.973450308025, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":6, "monto_otorgado":598487.0, "cuota":8437.0, "saldo":506215.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":57.0, "frecuencia_externa":"M", "avance":0.1542, "fecha_inicio":"2022-12-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-32466.213441095766, "ahorro_total":-2337567.3677588953, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":28000.0, "cuota":2174.0, "saldo":23482.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1614, "fecha_inicio":"2022-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":79.56328743775703, "ahorro_total":2864.278347759253, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4206571, "monto_maximo_cliente": 61616.0, "cuota_externa_total": 26246.0, "capacidad_maxima_pago": 58970.0, "bursolnum": 7316836, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2380.862607852828, "monto_max": 61616.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":210000.0, "cuota":14377.0, "saldo":174233.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.1703, "fecha_inicio":"2022-10-13", "tipo_deuda":"I", "ahorro_cuota_mensual":5019.227314879101, "ahorro_total":180692.18333564763, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":28000.0, "cuota":2384.0, "saldo":20121.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":21.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.2814, "fecha_inicio":"2023-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":599.4862096941742, "ahorro_total":12589.21040357766, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":22000.0, "cuota":1100.0, "saldo":1555.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9293, "fecha_inicio":"2018-10-06", "tipo_deuda":"R", "ahorro_cuota_mensual":2654.999999999996, "ahorro_total":-2654.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":21000.0, "cuota":1777.0, "saldo":18732.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.108, "fecha_inicio":"2024-01-16", "tipo_deuda":"R", "ahorro_cuota_mensual":20508.99999999995, "ahorro_total":-20508.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":48000.0, "cuota":2400.0, "saldo":17498.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6355, "fecha_inicio":"2018-05-04", "tipo_deuda":"R", "ahorro_cuota_mensual":19897.999999999953, "ahorro_total":-19897.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":25200.0, "cuota":182.0, "saldo":20982.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1674, "fecha_inicio":"2019-03-22", "tipo_deuda":"R", "ahorro_cuota_mensual":21163.99999999994, "ahorro_total":-21163.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":23800.0, "cuota":1190.0, "saldo":16321.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3142, "fecha_inicio":"2018-09-22", "tipo_deuda":"R", "ahorro_cuota_mensual":17510.999999999956, "ahorro_total":-17510.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48800.0, "cuota":2250.0, "saldo":45800.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0615, "fecha_inicio":"2023-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":48049.999999999876, "ahorro_total":-48049.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":61616.0, "cuota":3053.0, "saldo":55098.0, "tasa_externa":0.4304, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.1058, "fecha_inicio":"2023-06-09", "tipo_deuda":"I", "ahorro_cuota_mensual":307.34037254090845, "ahorro_total":11064.253411472704, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":23000.0, "cuota":1150.0, "saldo":15960.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":69.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.3061, "fecha_inicio":"2018-06-11", "tipo_deuda":"R", "ahorro_cuota_mensual":622.901501410678, "ahorro_total":42980.20359733678, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":14800.0, "cuota":1000.0, "saldo":10000.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3243, "fecha_inicio":"2020-10-19", "tipo_deuda":"R", "ahorro_cuota_mensual":10999.999999999973, "ahorro_total":-10999.999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":14000.0, "cuota":1508.0, "saldo":11490.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":52.0, "numero_pagos_restante":7.0, "frecuencia_externa":"W", "avance":0.1793, "fecha_inicio":"2023-10-06", "tipo_deuda":"I", "ahorro_cuota_mensual":206.95647902858582, "ahorro_total":2690.4342273716156, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4231833, "monto_maximo_cliente": 35000.0, "cuota_externa_total": 15791.0, "capacidad_maxima_pago": 32133.66, "bursolnum": 7316042, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1385.4815374669631, "monto_max": 35000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":13500.0, "cuota":2152.0, "saldo":21520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.5941, "fecha_inicio":"2024-01-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":13, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2014-01-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":26395.0, "cuota":1836.0, "saldo":7005.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7346, "fecha_inicio":"2022-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":85.70097278459752, "ahorro_total":1542.6175101227554, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":173000.0, "cuota":7322.0, "saldo":137084.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2076, "fecha_inicio":"2023-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":607.1711843953963, "ahorro_total":21858.162638234266, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":13100.0, "cuota":164.0, "saldo":549.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9581, "fecha_inicio":"2018-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":712.999999999999, "ahorro_total":-712.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":24000.0, "cuota":337.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":337.0, "ahorro_total":-337.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":25900.0, "cuota":1295.0, "saldo":18543.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2841, "fecha_inicio":"2019-06-10", "tipo_deuda":"R", "ahorro_cuota_mensual":19837.999999999964, "ahorro_total":-19837.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":88000.0, "cuota":4350.0, "saldo":39772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.548, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":44121.99999999992, "ahorro_total":-44121.99999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":7200.0, "cuota":553.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":553.0, "ahorro_total":-553.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":1901.0, "saldo":967.0, "tasa_externa":0.2724, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9724, "fecha_inicio":"2022-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":64.45713304673473, "ahorro_total":1546.9711931216334, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":138800.0, "cuota":6940.0, "saldo":53995.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.611, "fecha_inicio":"2018-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":60934.9999999999, "ahorro_total":-60934.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":2550.0, "cuota":345.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":345.0, "ahorro_total":-345.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":17700.0, "cuota":885.0, "saldo":12840.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2746, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":13724.999999999975, "ahorro_total":-13724.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":4550.0, "cuota":519.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-04-18", "tipo_deuda":"R", "ahorro_cuota_mensual":519.0, "ahorro_total":-519.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4261012, "monto_maximo_cliente": 54022.0, "cuota_externa_total": 20198.0, "capacidad_maxima_pago": 45476.0, "bursolnum": 7315917, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2772.155536151241, "monto_max": 54022.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":3500.0, "cuota":179.0, "saldo":1849.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4717, "fecha_inicio":"2016-06-04", "tipo_deuda":"R", "ahorro_cuota_mensual":2028.000000000004, "ahorro_total":-2028.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":35000.0, "cuota":3007.0, "saldo":5670.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.838, "fecha_inicio":"2022-07-12", "tipo_deuda":"I", "ahorro_cuota_mensual":502.75659598887705, "ahorro_total":10055.131919777541, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":47700.0, "cuota":3183.0, "saldo":42525.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1085, "fecha_inicio":"2023-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":768.9179452645271, "ahorro_total":27681.04602952298, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":8500.0, "cuota":652.0, "saldo":8178.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":29.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.0379, "fecha_inicio":"2023-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":169.96146841460467, "ahorro_total":4928.882584023535, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-03-14", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-06-22", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":18, "monto_otorgado":17000.0, "cuota":213.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-11-30", "tipo_deuda":"R", "ahorro_cuota_mensual":213.0, "ahorro_total":-213.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":17, "monto_otorgado":10000.0, "cuota":500.0, "saldo":3264.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6736, "fecha_inicio":"2020-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":3764.0000000000073, "ahorro_total":-3764.0000000000073, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":10791.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":17000.0, "cuota":838.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":900.0, "numero_pagos_restante":847.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":838.0, "ahorro_total":754200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":24000.0, "cuota":1200.0, "saldo":22912.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0453, "fecha_inicio":"2018-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":24112.00000000005, "ahorro_total":-24112.00000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":604.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":604.0, "ahorro_total":-604.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":12600.0, "cuota":8073.0, "saldo":7695.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3893, "fecha_inicio":"2023-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15768.000000000016, "ahorro_total":-15768.000000000016, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":54022.0, "cuota":3279.0, "saldo":44400.0, "tasa_externa":0.3963, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1781, "fecha_inicio":"2023-07-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-151.11364784276975, "ahorro_total":-3626.727548226474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":336.0, "cuota":40.0, "saldo":143.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5744, "fecha_inicio":"2023-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":4.847904926197529, "ahorro_total":58.17485911437035, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":327.0, "cuota":39.0, "saldo":108.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6697, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":4.789478901388669, "ahorro_total":57.47374681666403, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":398.0, "cuota":82.0, "saldo":80.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.799, "fecha_inicio":"2023-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":6.851323509131163, "ahorro_total":41.10794105478698, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":191.0, "cuota":77.0, "saldo":74.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6126, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":8.583339252222174, "ahorro_total":25.750017756666523, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4287160, "monto_maximo_cliente": 127700.0, "cuota_externa_total": 36441.0, "capacidad_maxima_pago": 126259.0, "bursolnum": 7316912, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7582.693271901869, "monto_max": 127700.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":8, "monto_otorgado":35300.0, "cuota":2717.0, "saldo":32517.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0788, "fecha_inicio":"2022-01-07", "tipo_deuda":"R", "ahorro_cuota_mensual":35234.00000000001, "ahorro_total":-35234.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":50000.0, "cuota":3345.0, "saldo":36956.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":36.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.2609, "fecha_inicio":"2022-07-27", "tipo_deuda":"I", "ahorro_cuota_mensual":135.0124949446108, "ahorro_total":4860.449818005989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":100000.0, "cuota":8939.0, "saldo":97484.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":18.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.0252, "fecha_inicio":"2023-12-26", "tipo_deuda":"I", "ahorro_cuota_mensual":61.260141146376554, "ahorro_total":1102.682540634778, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3300.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":3300.0, "cuota":438.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":438.0, "ahorro_total":-438.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":1843.0, "saldo":2624.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.672, "fecha_inicio":"2021-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":4467.0, "ahorro_total":-4467.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":58400.0, "cuota":2920.0, "saldo":15540.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7339, "fecha_inicio":"2022-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":18460.000000000004, "ahorro_total":-18460.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":18000.0, "cuota":11508.0, "saldo":11508.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3607, "fecha_inicio":"2021-07-21", "tipo_deuda":"R", "ahorro_cuota_mensual":23016.000000000004, "ahorro_total":-23016.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":7000.0, "cuota":254.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":254.0, "ahorro_total":-254.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":10000.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5, "fecha_inicio":"2023-08-31", "tipo_deuda":"R", "ahorro_cuota_mensual":11000.000000000002, "ahorro_total":-11000.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":127700.0, "cuota":9576.0, "saldo":129288.0, "tasa_externa":0.9007, "tasa_kubo":0.5668, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0124, "fecha_inicio":"2023-12-28", "tipo_deuda":"I", "ahorro_cuota_mensual":2282.075837082247, "ahorro_total":136924.55022493482, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4302613, "monto_maximo_cliente": 26200.0, "cuota_externa_total": 22826.0, "capacidad_maxima_pago": 27874.0, "bursolnum": 7317116, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2543.9296345744, "monto_max": 26200.0, "cuota_min": 269.2747621622814, "monto_min": 5000, "plazo_max": 15.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2011-03-28", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-03-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":80000.0, "cuota":6219.0, "saldo":62601.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":36.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.2175, "fecha_inicio":"2022-07-27", "tipo_deuda":"I", "ahorro_cuota_mensual":1312.2337088196837, "ahorro_total":47240.41351750861, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":600.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-10-26", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":21, "monto_otorgado":2310.0, "cuota":60.0, "saldo":2205.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.0455, "fecha_inicio":"2023-05-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-79.05539719101074, "ahorro_total":-3004.105093258408, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":20, "monto_otorgado":49742.0, "cuota":1292.0, "saldo":47148.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.0521, "fecha_inicio":"2023-05-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-1702.3262195130978, "ahorro_total":-64688.39634149772, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":8221.0, "cuota":500.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2007-04-02", "tipo_deuda":"R", "ahorro_cuota_mensual":500.0, "ahorro_total":-500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":7000.0, "cuota":571.0, "saldo":5569.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2044, "fecha_inicio":"2023-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":6140.000000000002, "ahorro_total":-6140.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":8400.0, "cuota":5269.0, "saldo":5269.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3727, "fecha_inicio":"2022-07-14", "tipo_deuda":"R", "ahorro_cuota_mensual":10538.000000000002, "ahorro_total":-10538.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":27899.0, "cuota":2828.0, "saldo":27024.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":72.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.0314, "fecha_inicio":"2023-06-19", "tipo_deuda":"I", "ahorro_cuota_mensual":1116.8265905295043, "ahorro_total":40205.75725906216, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":10400.0, "cuota":500.0, "saldo":9119.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1232, "fecha_inicio":"2022-05-17", "tipo_deuda":"R", "ahorro_cuota_mensual":9619.000000000004, "ahorro_total":-9619.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":28500.0, "cuota":1425.0, "saldo":26351.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0754, "fecha_inicio":"2021-11-04", "tipo_deuda":"R", "ahorro_cuota_mensual":27776.00000000001, "ahorro_total":-27776.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":25000.0, "cuota":2352.0, "saldo":23526.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.059, "fecha_inicio":"2021-05-17", "tipo_deuda":"R", "ahorro_cuota_mensual":25878.00000000001, "ahorro_total":-25878.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":26200.0, "cuota":3076.0, "saldo":14896.0, "tasa_externa":0.695, "tasa_kubo":0.5292, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4315, "fecha_inicio":"2020-03-18", "tipo_deuda":"I", "ahorro_cuota_mensual":100.67056449284064, "ahorro_total":1208.0467739140877, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4356609, "monto_maximo_cliente": 296000.0, "cuota_externa_total": 58617.0, "capacidad_maxima_pago": 263492.0, "bursolnum": 7316413, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 18878.843519455324, "monto_max": 296000.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":70000.0, "cuota":5554.0, "saldo":35690.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":22.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4901, "fecha_inicio":"2022-11-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-252.40168520698808, "ahorro_total":-5552.837074553738, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":258000.0, "cuota":15577.0, "saldo":254332.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0142, "fecha_inicio":"2023-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-354.99653358029354, "ahorro_total":-21299.792014817613, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":2446.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-02-29", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":74543.0, "cuota":8126.0, "saldo":46086.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.3818, "fecha_inicio":"2021-05-14", "tipo_deuda":"O", "ahorro_cuota_mensual":54212.00000000001, "ahorro_total":-54212.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":10000.0, "cuota":600.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-02-29", "tipo_deuda":"R", "ahorro_cuota_mensual":600.0, "ahorro_total":-600.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":28440.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5937, "fecha_inicio":"2021-09-22", "tipo_deuda":"R", "ahorro_cuota_mensual":31940.000000000007, "ahorro_total":-31940.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":127017.0, "cuota":4629.0, "saldo":69424.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.4534, "fecha_inicio":"2022-08-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-4044.406267040149, "ahorro_total":-145598.62561344536, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":296000.0, "cuota":22500.0, "saldo":276197.0, "tasa_externa":0.8961, "tasa_kubo":0.6193, "numero_pagos_otorgado":96.0, "numero_pagos_restante":13.0, "frecuencia_externa":"S", "avance":0.0669, "fecha_inicio":"2021-05-18", "tipo_deuda":"I", "ahorro_cuota_mensual":3621.156480544676, "ahorro_total":173815.51106614445, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":54000.0, "cuota":3000.0, "saldo":31272.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4209, "fecha_inicio":"2019-04-26", "tipo_deuda":"R", "ahorro_cuota_mensual":34272.00000000001, "ahorro_total":-34272.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4389079, "monto_maximo_cliente": 70000.0, "cuota_externa_total": 11667.0, "capacidad_maxima_pago": 78633.0, "bursolnum": 7316903, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3433.1575734085386, "monto_max": 70000.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0455, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":2174.0, "cuota":122.0, "saldo":490.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.7746, "fecha_inicio":"2023-10-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-14.741437083058429, "ahorro_total":-58.965748332233716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30000.0, "cuota":1810.0, "saldo":22052.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.2649, "fecha_inicio":"2022-08-26", "tipo_deuda":"I", "ahorro_cuota_mensual":100.68241140596501, "ahorro_total":3624.5668106147405, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":41924.0, "cuota":2647.0, "saldo":40031.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0452, "fecha_inicio":"2023-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":258.2856471927894, "ahorro_total":9298.283298940418, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":2000.0, "cuota":267.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":267.0, "ahorro_total":-267.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-10-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1132.0, "saldo":4124.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.5876, "fecha_inicio":"2023-06-01", "tipo_deuda":"I", "ahorro_cuota_mensual":32.25358358036624, "ahorro_total":387.0430029643949, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":71100.0, "cuota":3555.0, "saldo":14256.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7995, "fecha_inicio":"2017-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":17811.000000000007, "ahorro_total":-17811.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":70000.0, "cuota":3978.0, "saldo":62869.0, "tasa_externa":0.679, "tasa_kubo":0.4706, "numero_pagos_otorgado":146.0, "numero_pagos_restante":56.0, "frecuencia_externa":"S", "avance":0.1019, "fecha_inicio":"2022-10-31", "tipo_deuda":"I", "ahorro_cuota_mensual":664.8254846366553, "ahorro_total":48532.26037847584, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":14000.0, "cuota":1089.0, "saldo":4582.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6727, "fecha_inicio":"2022-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5671.000000000002, "ahorro_total":-5671.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4433343, "monto_maximo_cliente": 100000.0, "cuota_externa_total": 19438.0, "capacidad_maxima_pago": 95376.0, "bursolnum": 7317022, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6567.032899983563, "monto_max": 100000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-11-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-03-20", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2003.0, "saldo":24010.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1997, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-120.69378190660336, "ahorro_total":-4344.976148637721, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1046.0, "saldo":14688.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0208, "fecha_inicio":"2023-06-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.846890953301681, "ahorro_total":-570.4880743188605, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":44, "monto_otorgado":9720.0, "cuota":630.0, "saldo":630.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9352, "fecha_inicio":"2019-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-548.0061662558794, "ahorro_total":-6576.073995070553, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":5061.0, "cuota":519.0, "saldo":5194.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0263, "fecha_inicio":"2023-12-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5061.0, "cuota":432.0, "saldo":2592.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4878, "fecha_inicio":"2023-12-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":5062.0, "cuota":253.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9354, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":5100.0, "cuota":919.0, "saldo":2753.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4602, "fecha_inicio":"2023-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":10000.0, "cuota":1196.0, "saldo":8748.0, "tasa_externa":0.736, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1252, "fecha_inicio":"2020-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.940500263250215, "ahorro_total":-191.28600315900258, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":90000.0, "cuota":6236.0, "saldo":80757.0, "tasa_externa":0.8227, "tasa_kubo":0.6509, "numero_pagos_otorgado":112.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1027, "fecha_inicio":"2023-03-29", "tipo_deuda":"I", "ahorro_cuota_mensual":381.09089912038144, "ahorro_total":21341.09035074136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":2000.0, "cuota":524.0, "saldo":581.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7095, "fecha_inicio":"2019-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":1105.0000000000007, "ahorro_total":-1105.0000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7400.0, "cuota":370.0, "saldo":4802.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3511, "fecha_inicio":"2022-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":5172.0000000000055, "ahorro_total":-5172.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":44200.0, "cuota":3016.0, "saldo":35838.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1892, "fecha_inicio":"2022-12-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-21191.015201068985, "ahorro_total":-42382.03040213797, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":25000.0, "cuota":1732.0, "saldo":22910.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0836, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-11959.75067933766, "ahorro_total":-23919.50135867532, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":17400.0, "cuota":1450.0, "saldo":7150.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5891, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-658.7764704580554, "ahorro_total":-7905.317645496665, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4445474, "monto_maximo_cliente": 275400.0, "cuota_externa_total": 14552.0, "capacidad_maxima_pago": 282978.0, "bursolnum": 7316097, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7865.90822866068, "monto_max": 275400.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":38311.0, "cuota":2494.0, "saldo":17125.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.553, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":483.72017783295587, "ahorro_total":11609.28426799094, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-06-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":48300.0, "cuota":2576.0, "saldo":13481.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7209, "fecha_inicio":"2021-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":701.2818971462293, "ahorro_total":25246.148297264255, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":150000.0, "cuota":4101.0, "saldo":134521.0, "tasa_externa":0.2181, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":45.0, "frecuencia_externa":"M", "avance":0.1032, "fecha_inicio":"2023-01-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-144.82462352428502, "ahorro_total":-8689.477411457101, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":5000.0, "cuota":486.0, "saldo":1694.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6612, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":182.18014049477893, "ahorro_total":3643.6028098955785, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":125400.0, "cuota":3430.0, "saldo":123799.0, "tasa_externa":0.2183, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0128, "fecha_inicio":"2023-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-119.50938526630262, "ahorro_total":-7170.563115978157, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7500.0, "cuota":1.0, "saldo":6080.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1893, "fecha_inicio":"2006-07-31", "tipo_deuda":"R", "ahorro_cuota_mensual":6080.999999999988, "ahorro_total":-6080.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":5000.0, "cuota":339.0, "saldo":3969.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2062, "fecha_inicio":"1992-03-14", "tipo_deuda":"R", "ahorro_cuota_mensual":4307.999999999993, "ahorro_total":-4307.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":132100.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-02", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":122200.0, "cuota":1465.0, "saldo":119578.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":52.0, "frecuencia_externa":"M", "avance":0.0215, "fecha_inicio":"2023-07-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-1993.9317932977842, "ahorro_total":-119635.90759786706, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4450135, "monto_maximo_cliente": 64204.0, "cuota_externa_total": 22424.0, "capacidad_maxima_pago": 82780.0, "bursolnum": 7317790, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2455.851494737766, "monto_max": 64204.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":10, "monto_otorgado":11000.0, "cuota":809.0, "saldo":9426.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1431, "fecha_inicio":"2016-10-11", "tipo_deuda":"R", "ahorro_cuota_mensual":10234.999999999975, "ahorro_total":-10234.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":23595.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5281, "fecha_inicio":"2021-03-31", "tipo_deuda":"R", "ahorro_cuota_mensual":26094.999999999935, "ahorro_total":-26094.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":120600.0, "cuota":6030.0, "saldo":48288.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5996, "fecha_inicio":"2021-09-07", "tipo_deuda":"R", "ahorro_cuota_mensual":54317.99999999987, "ahorro_total":-54317.99999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":64204.0, "cuota":3035.0, "saldo":44376.0, "tasa_externa":0.4028, "tasa_kubo":0.2914, "numero_pagos_otorgado":37.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.3088, "fecha_inicio":"2022-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":218.91399501186697, "ahorro_total":8099.817815439078, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":31900.0, "cuota":2277.0, "saldo":31124.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0243, "fecha_inicio":"2023-06-07", "tipo_deuda":"I", "ahorro_cuota_mensual":855.5097683078254, "ahorro_total":30798.351659081716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":73500.0, "cuota":3675.0, "saldo":14866.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7977, "fecha_inicio":"2018-08-01", "tipo_deuda":"R", "ahorro_cuota_mensual":18540.999999999956, "ahorro_total":-18540.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":13000.0, "cuota":650.0, "saldo":12286.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0549, "fecha_inicio":"2017-10-02", "tipo_deuda":"R", "ahorro_cuota_mensual":12935.999999999965, "ahorro_total":-12935.999999999965, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":57800.0, "cuota":1800.0, "saldo":55173.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0454, "fecha_inicio":"2016-10-07", "tipo_deuda":"R", "ahorro_cuota_mensual":56972.99999999985, "ahorro_total":-56972.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":33800.0, "cuota":2032.0, "saldo":27677.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1812, "fecha_inicio":"2022-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-1893.4473383413729, "ahorro_total":-18934.47338341373, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":188145.0, "cuota":9407.0, "saldo":166678.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1141, "fecha_inicio":"2017-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":176084.99999999953, "ahorro_total":-176084.99999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4482737, "monto_maximo_cliente": 394000.0, "cuota_externa_total": 76459.0, "capacidad_maxima_pago": 386436.0, "bursolnum": 7317061, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 24457.618253374276, "monto_max": 394000.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":504.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":100000.0, "cuota":6273.0, "saldo":76474.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.2353, "fecha_inicio":"2022-09-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-397.20244808557436, "ahorro_total":-14299.288131080677, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":200800.0, "cuota":12206.0, "saldo":199897.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.0045, "fecha_inicio":"2023-09-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-258.6947849684111, "ahorro_total":-12417.349678483733, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":755527.0, "cuota":10042.0, "saldo":470127.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":120.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3777, "fecha_inicio":"2012-02-07", "tipo_deuda":"M", "ahorro_cuota_mensual":-17216.197332014694, "ahorro_total":-2065943.6798417633, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":103000.0, "cuota":24000.0, "saldo":53238.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4831, "fecha_inicio":"2002-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":77237.99999999994, "ahorro_total":-77237.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":66800.0, "cuota":4660.0, "saldo":67143.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0051, "fecha_inicio":"2005-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":71802.99999999993, "ahorro_total":-71802.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":421200.0, "cuota":6008.0, "saldo":125077.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.703, "fecha_inicio":"2017-04-04", "tipo_deuda":"R", "ahorro_cuota_mensual":131084.99999999985, "ahorro_total":-131084.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":70000.0, "cuota":4366.0, "saldo":13639.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8052, "fecha_inicio":"2021-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":18004.999999999985, "ahorro_total":-18004.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":50100.0, "cuota":2500.0, "saldo":48981.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0223, "fecha_inicio":"2009-03-06", "tipo_deuda":"R", "ahorro_cuota_mensual":51480.99999999995, "ahorro_total":-51480.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":394000.0, "cuota":35618.0, "saldo":385935.0, "tasa_externa":1.0831, "tasa_kubo":0.5991, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0205, "fecha_inicio":"2017-01-02", "tipo_deuda":"I", "ahorro_cuota_mensual":11160.381746625724, "ahorro_total":535698.3238380348, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":30000.0, "cuota":300.0, "saldo":10236.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6588, "fecha_inicio":"2012-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":10535.99999999999, "ahorro_total":-10535.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":114480.0, "cuota":5724.0, "saldo":101360.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1146, "fecha_inicio":"2009-06-09", "tipo_deuda":"R", "ahorro_cuota_mensual":107083.9999999999, "ahorro_total":-107083.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4495647, "monto_maximo_cliente": 150000.0, "cuota_externa_total": 23733.0, "capacidad_maxima_pago": 160267.0, "bursolnum": 7317004, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9441.540507506765, "monto_max": 150000.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":6, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2021-11-22", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1882.0, "cuota":1363.0, "saldo":1363.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2758, "fecha_inicio":"2019-01-25", "tipo_deuda":"O", "ahorro_cuota_mensual":2725.999999999999, "ahorro_total":-2725.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":65000.0, "cuota":4136.0, "saldo":49766.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":18.0, "frecuencia_externa":"S", "avance":0.2344, "fecha_inicio":"2022-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":44.66578008040187, "ahorro_total":1607.9680828944674, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":9500.0, "cuota":475.0, "saldo":1287.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8645, "fecha_inicio":"2019-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1761.999999999999, "ahorro_total":-1761.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":4, "monto_otorgado":18700.0, "cuota":1178.0, "saldo":17082.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":0.0865, "fecha_inicio":"2022-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":92.93889071304261, "ahorro_total":4461.066754226045, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":10000.0, "cuota":1640.0, "saldo":3051.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6949, "fecha_inicio":"2022-10-03", "tipo_deuda":"R", "ahorro_cuota_mensual":4690.999999999998, "ahorro_total":-4690.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":150000.0, "cuota":14468.0, "saldo":136700.0, "tasa_externa":1.1287, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":0.0887, "fecha_inicio":"2022-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":5026.459492493235, "ahorro_total":180952.54172975646, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":35000.0, "cuota":1750.0, "saldo":10889.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6889, "fecha_inicio":"2022-06-22", "tipo_deuda":"R", "ahorro_cuota_mensual":12638.99999999999, "ahorro_total":-12638.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4551959, "monto_maximo_cliente": 5000.0, "cuota_externa_total": 10115.0, "capacidad_maxima_pago": 12361.0, "bursolnum": 7316590, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 514.3620497751509, "monto_max": 5000.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 15.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":10000.0, "cuota":35.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-07-13", "tipo_deuda":"R", "ahorro_cuota_mensual":35.0, "ahorro_total":-35.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5000.0, "cuota":1036.0, "saldo":4886.0, "tasa_externa":2.2072, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":0.0228, "fecha_inicio":"2023-12-28", "tipo_deuda":"I", "ahorro_cuota_mensual":440.05398780132623, "ahorro_total":5280.647853615915, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3900.0, "cuota":3731.0, "saldo":3731.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0433, "fecha_inicio":"2021-05-28", "tipo_deuda":"R", "ahorro_cuota_mensual":7462.000000000001, "ahorro_total":-7462.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":12000.0, "cuota":1888.0, "saldo":8178.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":32.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.3185, "fecha_inicio":"2023-11-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-43.40404893913524, "ahorro_total":-347.2323915130819, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":51800.0, "cuota":3460.0, "saldo":44702.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.137, "fecha_inicio":"2022-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-77.18356308745842, "ahorro_total":-2778.6082711485033, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-10-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4557823, "monto_maximo_cliente": 92206.0, "cuota_externa_total": 10596.0, "capacidad_maxima_pago": 91741.0, "bursolnum": 7316095, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5278.874084805884, "monto_max": 92206.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "EDUCACION", "registro":14, "monto_otorgado":182600.0, "cuota":2300.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":48.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":2300.0, "ahorro_total":110400.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":12000.0, "cuota":1606.0, "saldo":3689.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.6926, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":15.584905894488656, "ahorro_total":155.84905894488656, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":20000.0, "cuota":1573.0, "saldo":18605.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0697, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":55.30073275889822, "ahorro_total":1327.2175862135573, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1400.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-09-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":91500.0, "cuota":6006.0, "saldo":86969.0, "tasa_externa":0.7818, "tasa_kubo":0.5668, "numero_pagos_otorgado":122.0, "numero_pagos_restante":53.0, "frecuencia_externa":"S", "avance":0.0495, "fecha_inicio":"2023-08-21", "tipo_deuda":"I", "ahorro_cuota_mensual":791.2391816992858, "ahorro_total":48265.59008365644, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":2000.0, "cuota":185.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-12-19", "tipo_deuda":"R", "ahorro_cuota_mensual":185.0, "ahorro_total":-185.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500.0, "cuota":781.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":781.0, "ahorro_total":-781.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":7000.0, "cuota":1226.0, "saldo":6936.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0091, "fecha_inicio":"2023-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":8162.000000000002, "ahorro_total":-8162.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4569317, "monto_maximo_cliente": 117500.0, "cuota_externa_total": 20222.0, "capacidad_maxima_pago": 119750.11, "bursolnum": 7317164, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7540.574557774192, "monto_max": 117500.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 22.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":9, "monto_otorgado":36100.0, "cuota":1859.0, "saldo":33841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0626, "fecha_inicio":"2019-02-20", "tipo_deuda":"R", "ahorro_cuota_mensual":35699.99999999992, "ahorro_total":-35699.99999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"1950-01-01", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":280710.0, "cuota":6413.0, "saldo":135341.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":2.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5179, "fecha_inicio":"2019-02-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-140769.21950791142, "ahorro_total":-281538.43901582283, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":4000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-21", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":50000.0, "cuota":3214.0, "saldo":42131.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1574, "fecha_inicio":"2022-11-04", "tipo_deuda":"I", "ahorro_cuota_mensual":846.011675047012, "ahorro_total":30456.42030169243, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":117500.0, "cuota":8372.0, "saldo":86391.0, "tasa_externa":0.5141, "tasa_kubo":0.3337, "numero_pagos_otorgado":43.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.2648, "fecha_inicio":"2019-03-27", "tipo_deuda":"I", "ahorro_cuota_mensual":831.4254422258082, "ahorro_total":18291.35972896778, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":250000.0, "cuota":50.0, "saldo":679.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9973, "fecha_inicio":"2020-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":728.9999999999983, "ahorro_total":-728.9999999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":250000.0, "cuota":3234.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2007-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":3234.0, "ahorro_total":-3234.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":50000.0, "cuota":2925.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":2925.0, "ahorro_total":-2925.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":189000.0, "cuota":314.0, "saldo":6403.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9661, "fecha_inicio":"2008-04-25", "tipo_deuda":"R", "ahorro_cuota_mensual":6716.999999999984, "ahorro_total":-6716.999999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4569546, "monto_maximo_cliente": 20000.0, "cuota_externa_total": 9058.0, "capacidad_maxima_pago": 30942.0, "bursolnum": 7317106, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2283.478782455287, "monto_max": 20000.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":170200.0, "cuota":3990.0, "saldo":9111.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9465, "fecha_inicio":"2014-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":13100.999999999982, "ahorro_total":-13100.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":20000.0, "cuota":4220.0, "saldo":20329.0, "tasa_externa":2.2635, "tasa_kubo":0.5391, "numero_pagos_otorgado":24.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":-0.0165, "fecha_inicio":"2024-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":1936.5212175447132, "ahorro_total":23238.254610536558, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":75300.0, "cuota":4539.0, "saldo":62069.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1757, "fecha_inicio":"2022-11-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-135.91500227986398, "ahorro_total":-4892.940082075103, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":1000.0, "cuota":299.0, "saldo":299.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.701, "fecha_inicio":"2022-09-17", "tipo_deuda":"O", "ahorro_cuota_mensual":597.9999999999993, "ahorro_total":-597.9999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4572013, "monto_maximo_cliente": 24000.0, "cuota_externa_total": 27261.0, "capacidad_maxima_pago": 21644.0, "bursolnum": 7317895, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 685.4821985760941, "monto_max": 24000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":569068.0, "cuota":8948.0, "saldo":127442.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":360.0, "numero_pagos_restante":229.0, "frecuencia_externa":"M", "avance":0.7761, "fecha_inicio":"2013-05-06", "tipo_deuda":"M", "ahorro_cuota_mensual":6481.619729410446, "ahorro_total":2333383.1025877604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":87996.0, "cuota":2933.0, "saldo":59579.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":30.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.3229, "fecha_inicio":"2023-08-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-960.0899263936026, "ahorro_total":-28802.697791808077, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3484.0, "saldo":50008.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":-0.0002, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":1543.29803017208, "ahorro_total":55558.72908619488, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":20800.0, "cuota":5854.0, "saldo":5854.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7186, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":11707.999999999989, "ahorro_total":-11707.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":9000.0, "cuota":450.0, "saldo":5113.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4319, "fecha_inicio":"2015-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":5562.99999999999, "ahorro_total":-5562.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":11000.0, "cuota":550.0, "saldo":3804.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6542, "fecha_inicio":"2018-06-17", "tipo_deuda":"R", "ahorro_cuota_mensual":4353.999999999993, "ahorro_total":-4353.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":24000.0, "cuota":865.0, "saldo":17550.0, "tasa_externa":0.3636, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.2688, "fecha_inicio":"2021-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":185.66806023611434, "ahorro_total":11140.08361416686, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":20800.0, "cuota":1109.0, "saldo":6901.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6682, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":8009.999999999986, "ahorro_total":-8009.999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":2, "monto_otorgado":6000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":1172.0, "saldo":10214.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3191, "fecha_inicio":"2021-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-492.0785295781575, "ahorro_total":-4920.785295781575, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":82100.0, "cuota":4105.0, "saldo":59199.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2789, "fecha_inicio":"2021-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":63303.99999999989, "ahorro_total":-63303.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4584137, "monto_maximo_cliente": 15000.0, "cuota_externa_total": 15676.0, "capacidad_maxima_pago": 23307.0, "bursolnum": 7317085, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 492.71188145409775, "monto_max": 15000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":83100.0, "cuota":5512.0, "saldo":79366.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0449, "fecha_inicio":"2023-08-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-3999.886921159992, "ahorro_total":-39998.86921159992, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15000.0, "cuota":1012.0, "saldo":15143.0, "tasa_externa":0.8043, "tasa_kubo":0.2622, "numero_pagos_otorgado":120.0, "numero_pagos_restante":56.0, "frecuencia_externa":"S", "avance":-0.0095, "fecha_inicio":"2023-12-18", "tipo_deuda":"I", "ahorro_cuota_mensual":522.8666313550359, "ahorro_total":31371.997881302155, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":12000.0, "cuota":1014.0, "saldo":4348.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6377, "fecha_inicio":"2021-08-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5361.999999999977, "ahorro_total":-5361.999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-02-13", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":70000.0, "cuota":4134.0, "saldo":56757.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1892, "fecha_inicio":"2022-11-11", "tipo_deuda":"I", "ahorro_cuota_mensual":1146.448345074501, "ahorro_total":41272.14042268204, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":364726.0, "cuota":4004.0, "saldo":335163.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":360.0, "numero_pagos_restante":304.0, "frecuencia_externa":"M", "avance":0.0811, "fecha_inicio":"2019-07-22", "tipo_deuda":"M", "ahorro_cuota_mensual":-4492.078590989873, "ahorro_total":-1617148.2927563544, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":600.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-06-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-12-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4596838, "monto_maximo_cliente": 147100.0, "cuota_externa_total": 18982.0, "capacidad_maxima_pago": 141893.0, "bursolnum": 7317138, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9131.257982414609, "monto_max": 147100.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":20000.0, "cuota":1543.0, "saldo":17797.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1101, "fecha_inicio":"2023-08-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-19.97982419981099, "ahorro_total":-479.5157807954638, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":43400.0, "cuota":2722.0, "saldo":35613.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1794, "fecha_inicio":"2022-11-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-172.8678624691397, "ahorro_total":-6223.2430488890295, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":15000.0, "cuota":888.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-02-12", "tipo_deuda":"R", "ahorro_cuota_mensual":888.0, "ahorro_total":-888.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":147100.0, "cuota":13242.0, "saldo":126570.0, "tasa_externa":1.079, "tasa_kubo":0.5991, "numero_pagos_otorgado":97.0, "numero_pagos_restante":34.0, "frecuencia_externa":"S", "avance":0.1396, "fecha_inicio":"2023-01-24", "tipo_deuda":"I", "ahorro_cuota_mensual":4110.742017585391, "ahorro_total":197315.61684409878, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":44500.0, "cuota":2225.0, "saldo":41015.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0783, "fecha_inicio":"2022-07-06", "tipo_deuda":"R", "ahorro_cuota_mensual":43239.999999999956, "ahorro_total":-43239.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4609687, "monto_maximo_cliente": 30179.0, "cuota_externa_total": 6880.0, "capacidad_maxima_pago": 81962.0, "bursolnum": 7316828, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 983.2036407498965, "monto_max": 30179.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":13100.0, "cuota":1500.0, "saldo":7255.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4462, "fecha_inicio":"2007-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":8754.999999999985, "ahorro_total":-8754.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":30179.0, "cuota":1506.0, "saldo":21997.0, "tasa_externa":0.4364, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.2711, "fecha_inicio":"2022-10-27", "tipo_deuda":"I", "ahorro_cuota_mensual":334.63110505126406, "ahorro_total":12046.719781845506, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":225500.0, "cuota":11275.0, "saldo":169582.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.248, "fecha_inicio":"2014-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":180856.99999999968, "ahorro_total":-180856.99999999968, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":52655.0, "cuota":3000.0, "saldo":43.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9992, "fecha_inicio":"2021-04-20", "tipo_deuda":"I", "ahorro_cuota_mensual":237.05243830216614, "ahorro_total":5689.258519251987, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":1180.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2000-07-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":6000.0, "cuota":490.0, "saldo":5435.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":18.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.0942, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":92.12941226397368, "ahorro_total":1658.3294207515262, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":35000.0, "cuota":1883.0, "saldo":26098.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":34.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.2543, "fecha_inicio":"2022-11-18", "tipo_deuda":"I", "ahorro_cuota_mensual":468.8799097015801, "ahorro_total":15941.916929853724, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4611310, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 36961.0, "capacidad_maxima_pago": 514148.0, "bursolnum": 7316572, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20721.45438704324, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":63000.0, "cuota":4923.0, "saldo":37119.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.4108, "fecha_inicio":"2022-11-22", "tipo_deuda":"I", "ahorro_cuota_mensual":1001.2811315986633, "ahorro_total":24030.747158367918, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":50000.0, "cuota":4042.0, "saldo":46237.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0753, "fecha_inicio":"2023-08-10", "tipo_deuda":"I", "ahorro_cuota_mensual":929.5247076179867, "ahorro_total":22308.59298283168, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":203234.0, "cuota":4914.0, "saldo":168297.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.1719, "fecha_inicio":"2022-12-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-3227.518314303139, "ahorro_total":-193651.09885818834, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":1283.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"1991-07-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":236500.0, "cuota":13694.0, "saldo":236500.0, "tasa_externa":0.343, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2022-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1028.0081329669229, "ahorro_total":-24672.19519120615, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":40000.0, "cuota":1159.0, "saldo":38068.0, "tasa_externa":0.2469, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0483, "fecha_inicio":"2023-05-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-443.3929685590281, "ahorro_total":-26603.578113541684, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":80000.0, "cuota":2540.0, "saldo":76437.0, "tasa_externa":0.2942, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":48.0, "frecuencia_externa":"M", "avance":0.0445, "fecha_inicio":"2023-04-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-664.7859371180562, "ahorro_total":-39887.15622708337, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":80000.0, "cuota":2319.0, "saldo":76990.0, "tasa_externa":0.2472, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":50.0, "frecuencia_externa":"M", "avance":0.0376, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-885.7859371180562, "ahorro_total":-53147.15622708337, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":12620.0, "cuota":1166.0, "saldo":10644.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1566, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-139.69332329686017, "ahorro_total":-1676.319879562322, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":133100.0, "cuota":2000.0, "saldo":50990.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6169, "fecha_inicio":"2023-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":52989.999999999876, "ahorro_total":-52989.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":70000.0, "cuota":2204.0, "saldo":65058.0, "tasa_externa":0.2898, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":46.0, "frecuencia_externa":"M", "avance":0.0706, "fecha_inicio":"2023-02-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-600.1876949782995, "ahorro_total":-36011.26169869797, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4620988, "monto_maximo_cliente": 14700.0, "cuota_externa_total": 3041.0, "capacidad_maxima_pago": 21659.0, "bursolnum": 7317306, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 581.9022457361245, "monto_max": 14700.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":29000.0, "cuota":1935.0, "saldo":23980.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.1731, "fecha_inicio":"2022-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":809.3928574998065, "ahorro_total":29138.142869993033, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3045.0, "cuota":-1.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8926, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":3745.0, "cuota":-1.0, "saldo":2520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3271, "fecha_inicio":"2023-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":3274.0, "cuota":-1.0, "saldo":269.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9178, "fecha_inicio":"2023-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":3612.0, "cuota":-1.0, "saldo":109.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9698, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":5000.0, "cuota":250.0, "saldo":2239.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5522, "fecha_inicio":"2022-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":2488.999999999996, "ahorro_total":-2488.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5600.0, "cuota":6287.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-07", "tipo_deuda":"R", "ahorro_cuota_mensual":6287.0, "ahorro_total":-6287.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":1500.0, "cuota":142.0, "saldo":1411.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0593, "fecha_inicio":"2021-08-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1552.9999999999973, "ahorro_total":-1552.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":14700.0, "cuota":909.0, "saldo":15159.0, "tasa_externa":0.4177, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":-0.0312, "fecha_inicio":"2023-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":137.65199587962866, "ahorro_total":3303.647901111088, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":3950.0, "cuota":-1.0, "saldo":50.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9873, "fecha_inicio":"2023-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4648381, "monto_maximo_cliente": 36000.0, "cuota_externa_total": 7631.0, "capacidad_maxima_pago": 38369.0, "bursolnum": 7317407, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1172.846385466592, "monto_max": 36000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":32430.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5367, "fecha_inicio":"2012-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":35929.99999999994, "ahorro_total":-35929.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36000.0, "cuota":1722.0, "saldo":6487.0, "tasa_externa":0.4007, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8198, "fecha_inicio":"2021-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":324.6945817238975, "ahorro_total":11689.00494206031, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":9750.0, "cuota":488.0, "saldo":1180.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.879, "fecha_inicio":"2010-01-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1667.9999999999977, "ahorro_total":-1667.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":33000.0, "cuota":2256.0, "saldo":29552.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1045, "fecha_inicio":"2023-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":975.1366999135728, "ahorro_total":35104.92119688862, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":150988.0, "cuota":1043.0, "saldo":181845.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":360.0, "numero_pagos_restante":269.0, "frecuencia_externa":"M", "avance":-0.2044, "fecha_inicio":"2016-08-29", "tipo_deuda":"M", "ahorro_cuota_mensual":-2476.2394995790823, "ahorro_total":-891446.2198484696, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4651445, "monto_maximo_cliente": 41126.0, "cuota_externa_total": 4646.0, "capacidad_maxima_pago": 51480.0, "bursolnum": 7317739, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1174.6308707766852, "monto_max": 41126.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":25000.0, "cuota":1845.0, "saldo":24193.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0323, "fecha_inicio":"2023-05-08", "tipo_deuda":"I", "ahorro_cuota_mensual":874.64901508604, "ahorro_total":31487.36454309744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":1500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":9600.0, "cuota":480.0, "saldo":6665.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3057, "fecha_inicio":"2017-07-14", "tipo_deuda":"R", "ahorro_cuota_mensual":7144.999999999987, "ahorro_total":-7144.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":7700.0, "cuota":385.0, "saldo":3796.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.507, "fecha_inicio":"2023-08-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4180.999999999993, "ahorro_total":-4180.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":12000.0, "cuota":600.0, "saldo":3236.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":16.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.7303, "fecha_inicio":"2022-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":362.9249814329372, "ahorro_total":5806.799702926995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5600.0, "cuota":370.0, "saldo":1969.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6484, "fecha_inicio":"2021-07-21", "tipo_deuda":"R", "ahorro_cuota_mensual":2338.9999999999964, "ahorro_total":-2338.9999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":40100.0, "cuota":1751.0, "saldo":36269.0, "tasa_externa":0.4316, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":38.0, "frecuencia_externa":"M", "avance":0.0955, "fecha_inicio":"2023-05-26", "tipo_deuda":"I", "ahorro_cuota_mensual":461.3379636882944, "ahorro_total":22144.22225703813, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":5000.0, "cuota":224.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-03-30", "tipo_deuda":"R", "ahorro_cuota_mensual":224.0, "ahorro_total":-224.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4672618, "monto_maximo_cliente": 39591.0, "cuota_externa_total": 10473.0, "capacidad_maxima_pago": 188118.0, "bursolnum": 7317846, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1130.7885718260893, "monto_max": 39591.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-12-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":39200.0, "cuota":1645.0, "saldo":37073.0, "tasa_externa":0.4042, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":41.0, "frecuencia_externa":"M", "avance":0.0543, "fecha_inicio":"2023-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":384.282996922223, "ahorro_total":18445.583852266704, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":3000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":140000.0, "cuota":8828.0, "saldo":132670.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0524, "fecha_inicio":"2023-08-22", "tipo_deuda":"I", "ahorro_cuota_mensual":3394.0344844818237, "ahorro_total":122185.24144134566, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4682530, "monto_maximo_cliente": 236800.0, "cuota_externa_total": 47073.0, "capacidad_maxima_pago": 233467.0, "bursolnum": 7317218, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13456.936902585416, "monto_max": 236800.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 49.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":150000.0, "cuota":8596.0, "saldo":122074.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.1862, "fecha_inicio":"2022-12-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-716.5796858164613, "ahorro_total":-25796.868689392606, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":120000.0, "cuota":8747.0, "saldo":112060.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0662, "fecha_inicio":"2023-09-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-129.1238442126123, "ahorro_total":-3098.9722611026955, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":1471.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2011-09-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":9, "monto_otorgado":250000.0, "cuota":5000.0, "saldo":50860.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7966, "fecha_inicio":"2022-04-30", "tipo_deuda":"R", "ahorro_cuota_mensual":55859.99999999989, "ahorro_total":-55859.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":84500.0, "cuota":2980.0, "saldo":44691.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4711, "fecha_inicio":"2021-09-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-10205.89201881676, "ahorro_total":-81647.13615053408, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":3000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2012-11-04", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":200000.0, "cuota":7526.0, "saldo":247519.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":48.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":-0.2376, "fecha_inicio":"2022-11-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-3893.502328239101, "ahorro_total":-186888.11175547686, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":236800.0, "cuota":18680.0, "saldo":191291.0, "tasa_externa":0.936, "tasa_kubo":0.5391, "numero_pagos_otorgado":98.0, "numero_pagos_restante":31.0, "frecuencia_externa":"S", "avance":0.1922, "fecha_inicio":"2022-10-07", "tipo_deuda":"I", "ahorro_cuota_mensual":5223.063097414584, "ahorro_total":255930.09177331463, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":766512.0, "cuota":0.0, "saldo":208913.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.7274, "fecha_inicio":"2020-03-10", "tipo_deuda":"O", "ahorro_cuota_mensual":208912.99999999956, "ahorro_total":-208912.99999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":43500.0, "cuota":2175.0, "saldo":12067.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7226, "fecha_inicio":"2021-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":14241.999999999975, "ahorro_total":-14241.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4682600, "monto_maximo_cliente": 130000.0, "cuota_externa_total": 25531.0, "capacidad_maxima_pago": 123841.0, "bursolnum": 7316245, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9424.495741759796, "monto_max": 130000.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":55000.0, "cuota":2750.0, "saldo":19894.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6383, "fecha_inicio":"2019-06-05", "tipo_deuda":"R", "ahorro_cuota_mensual":22644.000000000022, "ahorro_total":-22644.000000000022, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":999.0, "cuota":374.0, "saldo":374.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":899.0, "frecuencia_externa":"M", "avance":0.6256, "fecha_inicio":"2015-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":349.6977293333333, "ahorro_total":349697.7293333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":686.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-05-30", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":16800.0, "cuota":1552.0, "saldo":6533.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6111, "fecha_inicio":"2022-12-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-58.11245803984184, "ahorro_total":-1046.0242447171531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":36800.0, "cuota":2980.0, "saldo":32041.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":25.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1293, "fecha_inicio":"2023-06-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-36.34167434656683, "ahorro_total":-908.5418586641708, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":13000.0, "cuota":650.0, "saldo":4973.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6175, "fecha_inicio":"2022-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5623.000000000006, "ahorro_total":-5623.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":22700.0, "cuota":1135.0, "saldo":10867.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5213, "fecha_inicio":"2023-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":12002.000000000013, "ahorro_total":-12002.000000000013, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":-1.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2019-05-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":74500.0, "cuota":3725.0, "saldo":36573.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5091, "fecha_inicio":"2018-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":40298.000000000044, "ahorro_total":-40298.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":130000.0, "cuota":14620.0, "saldo":129566.0, "tasa_externa":1.3394, "tasa_kubo":0.6722, "numero_pagos_otorgado":72.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":0.0033, "fecha_inicio":"2022-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":5195.504258240204, "ahorro_total":187038.15329664733, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":38000.0, "cuota":1857.0, "saldo":14121.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6284, "fecha_inicio":"2018-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":15978.000000000018, "ahorro_total":-15978.000000000018, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":8780.0, "cuota":989.0, "saldo":6462.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.264, "fecha_inicio":"2022-05-06", "tipo_deuda":"R", "ahorro_cuota_mensual":7451.000000000007, "ahorro_total":-7451.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":11100.0, "cuota":672.0, "saldo":10153.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0853, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-871.912730530313, "ahorro_total":-8719.12730530313, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":4100.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4691173, "monto_maximo_cliente": 18000.0, "cuota_externa_total": 10602.0, "capacidad_maxima_pago": 27010.5, "bursolnum": 7317221, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 712.5333621258668, "monto_max": 18000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":2500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":39000.0, "cuota":2233.0, "saldo":33234.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1478, "fecha_inicio":"2023-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":719.2524635342222, "ahorro_total":25893.088687232, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":7150.0, "cuota":-1.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":10000.0, "cuota":1425.0, "saldo":10389.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0389, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":203.7405547651083, "ahorro_total":1833.6649928859747, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":2557.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-05-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":51000.0, "cuota":2990.0, "saldo":21785.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5728, "fecha_inicio":"2021-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":24774.99999999996, "ahorro_total":-24774.99999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":7150.0, "cuota":97.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":194.9999999999998, "ahorro_total":-194.9999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":149.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9926, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":148.99999999999972, "ahorro_total":-148.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":57350.0, "cuota":4559.0, "saldo":30880.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4616, "fecha_inicio":"2017-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":35438.99999999994, "ahorro_total":-35438.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6500.0, "cuota":149.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-03-28", "tipo_deuda":"R", "ahorro_cuota_mensual":149.0, "ahorro_total":-149.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":21800.0, "cuota":1312.0, "saldo":17853.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1811, "fecha_inicio":"2022-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-1106.4607963202552, "ahorro_total":-11064.607963202552, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":39000.0, "cuota":1950.0, "saldo":3040.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9221, "fecha_inicio":"2022-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":4989.9999999999945, "ahorro_total":-4989.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":18000.0, "cuota":1096.0, "saldo":16159.0, "tasa_externa":0.3999, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1023, "fecha_inicio":"2023-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":151.49223985260642, "ahorro_total":3635.813756462554, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":18700.0, "cuota":1176.0, "saldo":18233.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.025, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":450.17746328435794, "ahorro_total":16206.388678236886, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4721165, "monto_maximo_cliente": 199100.0, "cuota_externa_total": 15160.0, "capacidad_maxima_pago": 201940.0, "bursolnum": 7317408, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6959.836284108579, "monto_max": 199100.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-07-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":33000.0, "cuota":2256.0, "saldo":28974.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.122, "fecha_inicio":"2023-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":785.492863766716, "ahorro_total":28277.743095601778, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":30000.0, "cuota":1500.0, "saldo":4619.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.846, "fecha_inicio":"2022-02-26", "tipo_deuda":"R", "ahorro_cuota_mensual":6118.999999999987, "ahorro_total":-6118.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":36500.0, "cuota":1825.0, "saldo":15412.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5778, "fecha_inicio":"2021-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":17236.999999999956, "ahorro_total":-17236.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":55000.0, "cuota":9795.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":9795.0, "ahorro_total":-9795.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":41900.0, "cuota":2095.0, "saldo":7533.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8202, "fecha_inicio":"2023-03-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9627.999999999978, "ahorro_total":-9627.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":174077.0, "cuota":4500.0, "saldo":58342.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6648, "fecha_inicio":"2021-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":62841.99999999984, "ahorro_total":-62841.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":15000.0, "cuota":3572.0, "saldo":1255.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9163, "fecha_inicio":"2021-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":4826.999999999996, "ahorro_total":-4826.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":8900.0, "cuota":445.0, "saldo":4702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4717, "fecha_inicio":"2021-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":5146.999999999987, "ahorro_total":-5146.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41300.0, "cuota":4288.0, "saldo":32070.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2235, "fecha_inicio":"2021-04-26", "tipo_deuda":"R", "ahorro_cuota_mensual":36357.99999999991, "ahorro_total":-36357.99999999991, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":21900.0, "cuota":1768.0, "saldo":17566.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1979, "fecha_inicio":"2022-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-775.4111452566885, "ahorro_total":-7754.111452566885, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":90000.0, "cuota":4500.0, "saldo":75272.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":900.0, "numero_pagos_restante":880.0, "frecuencia_externa":"Z", "avance":0.1636, "fecha_inicio":"2022-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2379.6881226372584, "ahorro_total":2141719.3103735326, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":150000.0, "cuota":6202.0, "saldo":145872.0, "tasa_externa":0.3942, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0275, "fecha_inicio":"2023-12-18", "tipo_deuda":"I", "ahorro_cuota_mensual":464.38670159701996, "ahorro_total":22290.56167665696, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":49100.0, "cuota":1711.0, "saldo":45458.0, "tasa_externa":0.3446, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":48.0, "frecuencia_externa":"M", "avance":0.0742, "fecha_inicio":"2023-04-17", "tipo_deuda":"I", "ahorro_cuota_mensual":5.8934206427802565, "ahorro_total":353.6052385668154, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":50000.0, "cuota":0.0, "saldo":3168.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9366, "fecha_inicio":"2024-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":3167.9999999999914, "ahorro_total":-3167.9999999999914, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4726077, "monto_maximo_cliente": 227525.0, "cuota_externa_total": 32794.0, "capacidad_maxima_pago": 214720.94, "bursolnum": 7317365, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10487.364612063631, "monto_max": 227525.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 34.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":1180.0, "cuota":418.0, "saldo":418.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6458, "fecha_inicio":"2017-06-20", "tipo_deuda":"O", "ahorro_cuota_mensual":835.9999999999989, "ahorro_total":-835.9999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":38000.0, "cuota":3100.0, "saldo":26496.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3027, "fecha_inicio":"2014-08-25", "tipo_deuda":"R", "ahorro_cuota_mensual":29595.99999999993, "ahorro_total":-29595.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":660.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-09-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":100000.0, "cuota":6424.0, "saldo":87176.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1282, "fecha_inicio":"2023-01-11", "tipo_deuda":"I", "ahorro_cuota_mensual":1967.917768990049, "ahorro_total":70845.03968364176, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1681.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-09-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":25000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-03-28", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":46248.0, "cuota":4278.0, "saldo":2125.0, "tasa_externa":0.9445, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.9541, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":1600.7650095064923, "ahorro_total":38418.36022815581, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":48000.0, "cuota":6700.0, "saldo":15734.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6722, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":22433.999999999956, "ahorro_total":-22433.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":111600.0, "cuota":8660.0, "saldo":92259.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1733, "fecha_inicio":"2022-04-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-4300.944466239562, "ahorro_total":-43009.44466239562, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":102850.0, "cuota":7132.0, "saldo":17281.0, "tasa_externa":0.7484, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.832, "fecha_inicio":"2021-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":2548.919425406265, "ahorro_total":91761.09931462554, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":11000.0, "cuota":5620.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":5620.0, "ahorro_total":-5620.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":78427.0, "cuota":5882.0, "saldo":76876.0, "tasa_externa":0.8312, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":31.0, "frecuencia_externa":"S", "avance":0.0198, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2387.2283886858254, "ahorro_total":85940.22199268971, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4733030, "monto_maximo_cliente": 27500.0, "cuota_externa_total": 6966.0, "capacidad_maxima_pago": 27164.0, "bursolnum": 7316674, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1993.6433299876494, "monto_max": 27500.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":10700.0, "cuota":535.0, "saldo":8883.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1698, "fecha_inicio":"2022-09-02", "tipo_deuda":"R", "ahorro_cuota_mensual":9418.000000000011, "ahorro_total":-9418.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":27500.0, "cuota":3120.0, "saldo":27363.0, "tasa_externa":1.3523, "tasa_kubo":0.6722, "numero_pagos_otorgado":72.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.005, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":1126.3566700123506, "ahorro_total":40548.84012044462, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":22000.0, "cuota":1744.0, "saldo":5456.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.752, "fecha_inicio":"2021-12-24", "tipo_deuda":"R", "ahorro_cuota_mensual":7200.000000000006, "ahorro_total":-7200.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":15000.0, "cuota":1732.0, "saldo":11135.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":13.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2577, "fecha_inicio":"2023-08-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-12.030941924668241, "ahorro_total":-156.40224502068713, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4766643, "monto_maximo_cliente": 52500.0, "cuota_externa_total": 22700.0, "capacidad_maxima_pago": 55411.0, "bursolnum": 7317472, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2339.4431712802248, "monto_max": 52500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":15000.0, "cuota":1026.0, "saldo":12942.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1372, "fecha_inicio":"2023-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":357.58766534850724, "ahorro_total":12873.155952546262, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":321816.0, "cuota":3814.0, "saldo":277712.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":345.0, "frecuencia_externa":"M", "avance":0.137, "fecha_inicio":"2023-01-02", "tipo_deuda":"M", "ahorro_cuota_mensual":-4009.131741815442, "ahorro_total":-1443287.427053559, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":35000.0, "cuota":2498.0, "saldo":35402.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0115, "fecha_inicio":"2023-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":938.371219146517, "ahorro_total":33781.36388927461, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":170900.0, "cuota":4204.0, "saldo":137460.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-1730.8821672535405, "ahorro_total":-103852.93003521243, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":801.0, "cuota":327.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-12-23", "tipo_deuda":"O", "ahorro_cuota_mensual":327.0, "ahorro_total":-327.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":13500.0, "cuota":675.0, "saldo":5018.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6283, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":5692.999999999986, "ahorro_total":-5692.999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":995.0, "saldo":8592.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3863, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":9586.999999999976, "ahorro_total":-9586.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":57231.0, "cuota":1408.0, "saldo":46033.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-579.4736179876381, "ahorro_total":-34768.41707925829, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":22.0, "saldo":9208.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0792, "fecha_inicio":"2022-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":9229.999999999975, "ahorro_total":-9229.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52500.0, "cuota":5006.0, "saldo":50113.0, "tasa_externa":1.1139, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0455, "fecha_inicio":"2013-04-16", "tipo_deuda":"I", "ahorro_cuota_mensual":2666.5568287197752, "ahorro_total":95996.0458339119, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":8800.0, "cuota":3017.0, "saldo":9051.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0285, "fecha_inicio":"2023-12-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4767970, "monto_maximo_cliente": 50136.0, "cuota_externa_total": 8262.0, "capacidad_maxima_pago": 51439.0, "bursolnum": 7317400, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2442.556728911599, "monto_max": 50136.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0439, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":181296.0, "cuota":1146.0, "saldo":103539.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":360.0, "numero_pagos_restante":276.0, "frecuencia_externa":"M", "avance":0.4289, "fecha_inicio":"2017-04-21", "tipo_deuda":"M", "ahorro_cuota_mensual":-3152.7685910880573, "ahorro_total":-1134996.6927917006, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":953.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-05-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-08-18", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":782.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2006-02-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":48000.0, "cuota":3008.0, "saldo":42106.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1228, "fecha_inicio":"2023-02-15", "tipo_deuda":"I", "ahorro_cuota_mensual":415.79883213376934, "ahorro_total":14968.757956815696, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":50136.0, "cuota":2962.0, "saldo":50136.0, "tasa_externa":0.587, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":254.445880163722, "ahorro_total":9160.051685893992, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":50000.0, "cuota":602.0, "saldo":43118.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.1376, "fecha_inicio":"2023-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-2098.209549860657, "ahorro_total":-75535.54379498365, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5700.0, "cuota":544.0, "saldo":5449.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.044, "fecha_inicio":"2010-05-27", "tipo_deuda":"R", "ahorro_cuota_mensual":5992.999999999996, "ahorro_total":-5992.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":78600.0, "cuota":1198.0, "saldo":27905.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.645, "fecha_inicio":"2017-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":29102.999999999985, "ahorro_total":-29102.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":6000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-09-01", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4803033, "monto_maximo_cliente": 7821.0, "cuota_externa_total": 9854.0, "capacidad_maxima_pago": 22967.0, "bursolnum": 7317401, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 242.54787757157794, "monto_max": 7821.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":1221.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-05-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":18390.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-05-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":217520.0, "cuota":6156.0, "saldo":78761.0, "tasa_externa":0.2351, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.6379, "fecha_inicio":"2020-04-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-1.011814060017059, "ahorro_total":-60.708843601023545, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":7790.0, "cuota":496.0, "saldo":7518.0, "tasa_externa":0.7561, "tasa_kubo":0.2, "numero_pagos_otorgado":122.0, "numero_pagos_restante":55.0, "frecuencia_externa":"S", "avance":0.0349, "fecha_inicio":"2023-09-25", "tipo_deuda":"I", "ahorro_cuota_mensual":277.4240781340892, "ahorro_total":16922.868766179443, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":32100.0, "cuota":401.0, "saldo":737.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.977, "fecha_inicio":"2019-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1137.9999999999986, "ahorro_total":-1137.9999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":44700.0, "cuota":2801.0, "saldo":39502.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1163, "fecha_inicio":"2023-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":1066.0124389738394, "ahorro_total":38376.44780305822, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4803129, "monto_maximo_cliente": 40100.0, "cuota_externa_total": 6115.0, "capacidad_maxima_pago": 40487.0, "bursolnum": 7316805, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3193.4922784990963, "monto_max": 40100.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 29.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":740.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2011-08-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":40100.0, "cuota":3705.0, "saldo":22719.0, "tasa_externa":0.7307, "tasa_kubo":0.7007, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4334, "fecha_inicio":"2023-03-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-216.50056625108982, "ahorro_total":-3897.010192519617, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":34700.0, "cuota":1735.0, "saldo":8654.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7506, "fecha_inicio":"2022-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":10388.999999999995, "ahorro_total":-10388.999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":39500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":1.0, "fecha_inicio":"2022-06-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-2795.8083247511436, "ahorro_total":-134198.79958805488, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":17000.0, "cuota":1530.0, "saldo":12965.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":24.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.2374, "fecha_inicio":"2023-02-13", "tipo_deuda":"I", "ahorro_cuota_mensual":77.14207120806668, "ahorro_total":1851.4097089936004, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-10-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GOBIERNO", "registro":6, "monto_otorgado":1.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4831217, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 41470.0, "capacidad_maxima_pago": 621648.0, "bursolnum": 7317899, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 24990.526377701604, "monto_max": 500000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":100000.0, "cuota":6864.0, "saldo":95246.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":72.0, "numero_pagos_restante":29.0, "frecuencia_externa":"S", "avance":0.0475, "fecha_inicio":"2023-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":1084.0484031727556, "ahorro_total":39025.7425142192, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":15000.0, "cuota":7906.0, "saldo":7906.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4729, "fecha_inicio":"2021-10-20", "tipo_deuda":"R", "ahorro_cuota_mensual":15812.000000000016, "ahorro_total":-15812.000000000016, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":600000.0, "cuota":26700.0, "saldo":268378.0, "tasa_externa":0.4472, "tasa_kubo":0.4818, "numero_pagos_otorgado":96.0, "numero_pagos_restante":20.0, "frecuencia_externa":"S", "avance":0.5527, "fecha_inicio":"2021-11-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-4785.63980106312, "ahorro_total":-229710.71045102976, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":100000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4881018, "monto_maximo_cliente": 77000.0, "cuota_externa_total": 7115.0, "capacidad_maxima_pago": 79370.0, "bursolnum": 7317459, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2199.255387098302, "monto_max": 77000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":36494.0, "cuota":1028.0, "saldo":27499.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":142.0, "numero_pagos_restante":26.0, "frecuencia_externa":"W", "avance":0.2465, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-388.4795537380023, "ahorro_total":-13985.263934568084, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2840.0, "cuota":80.0, "saldo":2140.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":142.0, "numero_pagos_restante":26.0, "frecuencia_externa":"W", "avance":0.2465, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-30.23187188622586, "ahorro_total":-1088.347387904131, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":17000.0, "cuota":850.0, "saldo":2184.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8715, "fecha_inicio":"2023-08-28", "tipo_deuda":"R", "ahorro_cuota_mensual":3033.999999999996, "ahorro_total":-3033.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":4, "monto_otorgado":21200.0, "cuota":1462.0, "saldo":20945.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":43.0, "frecuencia_externa":"M", "avance":0.012, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":780.1836616007942, "ahorro_total":37448.81575683812, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":4000.0, "cuota":250.0, "saldo":1631.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5922, "fecha_inicio":"2021-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1880.999999999997, "ahorro_total":-1880.999999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":77000.0, "cuota":2106.0, "saldo":77621.0, "tasa_externa":0.2183, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":57.0, "frecuencia_externa":"M", "avance":-0.0081, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-73.5233067424665, "ahorro_total":-4411.39840454799, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":22000.0, "cuota":1939.0, "saldo":19930.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":30.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0941, "fecha_inicio":"2023-03-14", "tipo_deuda":"I", "ahorro_cuota_mensual":965.68327673236, "ahorro_total":28970.4983019708, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4884745, "monto_maximo_cliente": 28112.0, "cuota_externa_total": 21663.0, "capacidad_maxima_pago": 25073.0, "bursolnum": 7317557, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1405.0673550598951, "monto_max": 28112.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":70000.0, "cuota":4826.0, "saldo":63945.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0865, "fecha_inicio":"2023-03-17", "tipo_deuda":"I", "ahorro_cuota_mensual":780.0338822209287, "ahorro_total":28081.219759953434, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":30, "monto_otorgado":21609.0, "cuota":6455.0, "saldo":6455.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7013, "fecha_inicio":"2011-12-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":35656.0, "cuota":1783.0, "saldo":32821.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0795, "fecha_inicio":"2016-08-03", "tipo_deuda":"R", "ahorro_cuota_mensual":34604.00000000007, "ahorro_total":-34604.00000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":3500.0, "cuota":25.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":25.0, "ahorro_total":-25.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":35000.0, "cuota":500.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":500.0, "ahorro_total":-500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3900.0, "cuota":3128.0, "saldo":3128.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1979, "fecha_inicio":"2020-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":6256.000000000007, "ahorro_total":-6256.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1817.0000000000025, "ahorro_total":-1817.0000000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":6400.0, "cuota":407.0, "saldo":3263.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4902, "fecha_inicio":"2021-12-23", "tipo_deuda":"R", "ahorro_cuota_mensual":3670.000000000007, "ahorro_total":-3670.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":2071.0, "cuota":959.0, "saldo":959.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5369, "fecha_inicio":"2018-08-27", "tipo_deuda":"O", "ahorro_cuota_mensual":1918.000000000002, "ahorro_total":-1918.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":3000.0, "cuota":264.0, "saldo":2633.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1223, "fecha_inicio":"2020-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":2897.0000000000055, "ahorro_total":-2897.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":47700.0, "cuota":621.0, "saldo":1569.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":49.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.9671, "fecha_inicio":"2020-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":539.1267691419298, "ahorro_total":26417.21168795456, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28112.0, "cuota":1950.0, "saldo":22468.0, "tasa_externa":0.8298, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":37.0, "frecuencia_externa":"S", "avance":0.2008, "fecha_inicio":"2022-03-23", "tipo_deuda":"I", "ahorro_cuota_mensual":553.8207180282427, "ahorro_total":33783.063799722804, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":6600.0, "cuota":570.0, "saldo":6682.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0124, "fecha_inicio":"2008-02-01", "tipo_deuda":"R", "ahorro_cuota_mensual":7252.000000000014, "ahorro_total":-7252.000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4907839, "monto_maximo_cliente": 40600.0, "cuota_externa_total": 3248.0, "capacidad_maxima_pago": 47352.0, "bursolnum": 7317596, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1568.7974207807197, "monto_max": 40600.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":17000.0, "cuota":1142.0, "saldo":15096.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.112, "fecha_inicio":"2023-03-31", "tipo_deuda":"I", "ahorro_cuota_mensual":384.4660207283083, "ahorro_total":13840.776746219099, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":6630.0, "cuota":3653.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":3653.0, "ahorro_total":-3653.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":3240.0, "cuota":154.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-03-17", "tipo_deuda":"R", "ahorro_cuota_mensual":154.0, "ahorro_total":-154.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":40600.0, "cuota":2106.0, "saldo":37036.0, "tasa_externa":0.4678, "tasa_kubo":0.2914, "numero_pagos_otorgado":71.0, "numero_pagos_restante":27.0, "frecuencia_externa":"S", "avance":0.0878, "fecha_inicio":"2023-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":296.83061420995955, "ahorro_total":10685.902111558544, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4916169, "monto_maximo_cliente": 9910.0, "cuota_externa_total": 8126.0, "capacidad_maxima_pago": 11784.0, "bursolnum": 7317529, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1118.5563829496425, "monto_max": 9910.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 13.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-10-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-02-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":22000.0, "cuota":1507.0, "saldo":19264.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":34.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1244, "fecha_inicio":"2023-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-21.793381824541257, "ahorro_total":-740.9749820344027, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-05-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":10, "monto_otorgado":191237.0, "cuota":2083.0, "saldo":321166.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":360.0, "numero_pagos_restante":193.0, "frecuencia_externa":"M", "avance":-0.6794, "fecha_inicio":"2010-04-22", "tipo_deuda":"M", "ahorro_cuota_mensual":-17143.81671628414, "ahorro_total":-6171774.01786229, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":40700.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-07-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6100.0, "cuota":40.0, "saldo":40.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9934, "fecha_inicio":"2023-08-30", "tipo_deuda":"R", "ahorro_cuota_mensual":80.0, "ahorro_total":-80.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":10300.0, "cuota":2.0, "saldo":15.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9985, "fecha_inicio":"2023-10-23", "tipo_deuda":"R", "ahorro_cuota_mensual":17.000000000000004, "ahorro_total":-17.000000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":9910.0, "cuota":4024.0, "saldo":217.0, "tasa_externa":5.2574, "tasa_kubo":0.6193, "numero_pagos_otorgado":52.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.9781, "fecha_inicio":"2023-02-27", "tipo_deuda":"I", "ahorro_cuota_mensual":2905.4436170503577, "ahorro_total":37770.767021654654, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":37000.0, "cuota":470.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":470.0, "ahorro_total":-470.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4928823, "monto_maximo_cliente": 20000.0, "cuota_externa_total": 8182.0, "capacidad_maxima_pago": 20471.0, "bursolnum": 7316991, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 608.0076194116565, "monto_max": 20000.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-10-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":9, "monto_otorgado":289890.0, "cuota":4885.0, "saldo":240433.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":360.0, "numero_pagos_restante":345.0, "frecuencia_externa":"M", "avance":0.1706, "fecha_inicio":"2023-01-01", "tipo_deuda":"M", "ahorro_cuota_mensual":1037.176262401898, "ahorro_total":373383.45446468325, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":20000.0, "cuota":788.0, "saldo":15749.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":33.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.2126, "fecha_inicio":"2023-04-03", "tipo_deuda":"I", "ahorro_cuota_mensual":3.799768115211805, "ahorro_total":125.39234780198956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":10000.0, "cuota":506.0, "saldo":8629.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1371, "fecha_inicio":"2023-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":1.2333741467926416, "ahorro_total":29.600979523023398, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":11600.0, "cuota":580.0, "saldo":6897.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4054, "fecha_inicio":"2023-08-18", "tipo_deuda":"R", "ahorro_cuota_mensual":7477.000000000034, "ahorro_total":-7477.000000000034, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":5400.0, "cuota":504.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":504.0, "ahorro_total":-504.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":20000.0, "cuota":1215.0, "saldo":13925.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3037, "fecha_inicio":"2009-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":15140.000000000067, "ahorro_total":-15140.000000000067, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":6250.0, "cuota":469.0, "saldo":5858.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0627, "fecha_inicio":"2011-05-10", "tipo_deuda":"R", "ahorro_cuota_mensual":6327.000000000028, "ahorro_total":-6327.000000000028, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":20000.0, "cuota":1034.0, "saldo":15848.0, "tasa_externa":0.4649, "tasa_kubo":0.165, "numero_pagos_otorgado":71.0, "numero_pagos_restante":21.0, "frecuencia_externa":"S", "avance":0.2076, "fecha_inicio":"2023-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":299.4631563522271, "ahorro_total":10780.673628680175, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":7800.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-09-09", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4935313, "monto_maximo_cliente": 66600.0, "cuota_externa_total": 10599.0, "capacidad_maxima_pago": 71001.0, "bursolnum": 7316057, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3748.8715974739007, "monto_max": 66600.0, "cuota_min": 269.2747621622814, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":30000.0, "cuota":3420.0, "saldo":9628.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6791, "fecha_inicio":"2023-04-05", "tipo_deuda":"I", "ahorro_cuota_mensual":13.134234152108093, "ahorro_total":157.6108098252971, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1370.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-12-30", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":25000.0, "cuota":1549.0, "saldo":24233.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0307, "fecha_inicio":"2023-10-31", "tipo_deuda":"I", "ahorro_cuota_mensual":15.635534006151147, "ahorro_total":562.8792242214413, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":500.0, "cuota":4903.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-03-03", "tipo_deuda":"R", "ahorro_cuota_mensual":4903.0, "ahorro_total":-4903.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":66600.0, "cuota":5172.0, "saldo":67695.0, "tasa_externa":0.9346, "tasa_kubo":0.5292, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0164, "fecha_inicio":"2024-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":1585.2601679984118, "ahorro_total":95115.61007990471, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":33000.0, "cuota":1650.0, "saldo":5261.0, "tasa_externa":-1.0, "tasa_kubo":0.5292, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8406, "fecha_inicio":"2021-07-12", "tipo_deuda":"R", "ahorro_cuota_mensual":6911.000000000002, "ahorro_total":-6911.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4940454, "monto_maximo_cliente": 310000.0, "cuota_externa_total": 26282.0, "capacidad_maxima_pago": 306431.0, "bursolnum": 7317725, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9969.9558916865, "monto_max": 310000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":7500.0, "cuota":180.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":180.0, "ahorro_total":-180.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":310000.0, "cuota":22298.0, "saldo":297893.0, "tasa_externa":0.8417, "tasa_kubo":0.2, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0391, "fecha_inicio":"2017-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":12328.0441083135, "ahorro_total":591746.1171990479, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":12000.0, "cuota":600.0, "saldo":1898.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8418, "fecha_inicio":"2022-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":2497.9999999999964, "ahorro_total":-2497.9999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":60000.0, "cuota":3935.0, "saldo":57501.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0416, "fecha_inicio":"2023-06-09", "tipo_deuda":"I", "ahorro_cuota_mensual":1606.1576362064957, "ahorro_total":57821.67490343384, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 4982051, "monto_maximo_cliente": 59364.0, "cuota_externa_total": 13902.0, "capacidad_maxima_pago": 58756.0, "bursolnum": 7316158, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2775.0702814306237, "monto_max": 59364.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":3, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-05-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":411321.0, "cuota":2998.0, "saldo":343239.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":720.0, "numero_pagos_restante":218.0, "frecuencia_externa":"S", "avance":0.1655, "fecha_inicio":"2012-05-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-14608.189012304647, "ahorro_total":-5258948.044429673, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30000.0, "cuota":3450.0, "saldo":9394.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6869, "fecha_inicio":"2023-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":201.21268270306382, "ahorro_total":2414.552192436766, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":8000.0, "cuota":400.0, "saldo":885.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8894, "fecha_inicio":"2017-04-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1284.9999999999982, "ahorro_total":-1284.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":15000.0, "cuota":3961.0, "saldo":3961.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7359, "fecha_inicio":"2023-06-19", "tipo_deuda":"R", "ahorro_cuota_mensual":7921.999999999993, "ahorro_total":-7921.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":37810.0, "cuota":1650.0, "saldo":326.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9914, "fecha_inicio":"2020-11-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1975.9999999999993, "ahorro_total":-1975.9999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":59364.0, "cuota":3292.0, "saldo":54648.0, "tasa_externa":0.6456, "tasa_kubo":0.4428, "numero_pagos_otorgado":120.0, "numero_pagos_restante":50.0, "frecuencia_externa":"S", "avance":0.0794, "fecha_inicio":"2023-06-01", "tipo_deuda":"I", "ahorro_cuota_mensual":527.382325234586, "ahorro_total":31642.93951407516, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":15000.0, "cuota":500.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-12-30", "tipo_deuda":"R", "ahorro_cuota_mensual":500.0, "ahorro_total":-500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5002691, "monto_maximo_cliente": 165809.0, "cuota_externa_total": 16753.0, "capacidad_maxima_pago": 160122.0, "bursolnum": 7317691, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7751.021297313696, "monto_max": 165809.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":165809.0, "cuota":8382.0, "saldo":137039.0, "tasa_externa":0.5804, "tasa_kubo":0.4428, "numero_pagos_otorgado":122.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1735, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":687.9646427252155, "ahorro_total":41965.84320623815, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":67700.0, "cuota":3385.0, "saldo":9242.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":32.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.8635, "fecha_inicio":"2021-06-25", "tipo_deuda":"R", "ahorro_cuota_mensual":2849.308455128591, "ahorro_total":91177.87056411491, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":201500.0, "cuota":10075.0, "saldo":81300.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5965, "fecha_inicio":"2017-04-18", "tipo_deuda":"R", "ahorro_cuota_mensual":91374.99999999984, "ahorro_total":-91374.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":25000.0, "cuota":2372.0, "saldo":24692.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":72.0, "numero_pagos_restante":31.0, "frecuencia_externa":"S", "avance":0.0123, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":998.0366092530057, "ahorro_total":35929.31793310821, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":35000.0, "cuota":2560.0, "saldo":32015.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":72.0, "numero_pagos_restante":25.0, "frecuencia_externa":"S", "avance":0.0853, "fecha_inicio":"2023-05-02", "tipo_deuda":"I", "ahorro_cuota_mensual":636.451252954208, "ahorro_total":22912.24510635149, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-08-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5037305, "monto_maximo_cliente": 254900.0, "cuota_externa_total": 24399.0, "capacidad_maxima_pago": 247708.0, "bursolnum": 7317743, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17781.854940849025, "monto_max": 254900.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2015-05-19", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":70000.0, "cuota":5161.0, "saldo":66820.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0454, "fecha_inicio":"2023-05-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-75.09178140560834, "ahorro_total":-2703.3041306019004, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2020-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":25900.0, "cuota":2878.0, "saldo":22608.0, "tasa_externa":0.5756, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1271, "fecha_inicio":"2021-07-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-343.5993667470784, "ahorro_total":-4123.192400964941, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":229000.0, "cuota":15420.0, "saldo":213958.0, "tasa_externa":0.7796, "tasa_kubo":0.7007, "numero_pagos_otorgado":96.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.0657, "fecha_inicio":"2022-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-788.6102877977664, "ahorro_total":-37853.29381429279, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":23000.0, "cuota":3766.0, "saldo":7630.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6683, "fecha_inicio":"2019-06-07", "tipo_deuda":"R", "ahorro_cuota_mensual":11395.999999999996, "ahorro_total":-11395.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":4000.0, "cuota":2186.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-06", "tipo_deuda":"R", "ahorro_cuota_mensual":2186.0, "ahorro_total":-2186.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":45000.0, "cuota":2250.0, "saldo":32262.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2831, "fecha_inicio":"2022-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":34511.999999999985, "ahorro_total":-34511.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5096951, "monto_maximo_cliente": 468995.0, "cuota_externa_total": 41276.0, "capacidad_maxima_pago": 481508.0, "bursolnum": 7317355, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 14057.677079945823, "monto_max": 468995.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":50000.0, "cuota":1844.0, "saldo":42845.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.1431, "fecha_inicio":"2023-06-09", "tipo_deuda":"I", "ahorro_cuota_mensual":7.657890880567493, "ahorro_total":275.68407170042974, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-10-21", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":17000.0, "cuota":850.0, "saldo":7688.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5478, "fecha_inicio":"2014-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":8538.000000000036, "ahorro_total":-8538.000000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":6000.0, "cuota":360.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":360.0, "ahorro_total":-360.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":68300.0, "cuota":3415.0, "saldo":44722.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3452, "fecha_inicio":"2015-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":48137.00000000022, "ahorro_total":-48137.00000000022, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":10000.0, "cuota":52.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-18", "tipo_deuda":"R", "ahorro_cuota_mensual":52.0, "ahorro_total":-52.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":44000.0, "cuota":2200.0, "saldo":22460.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4895, "fecha_inicio":"2023-09-12", "tipo_deuda":"R", "ahorro_cuota_mensual":24660.00000000011, "ahorro_total":-24660.00000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":36800.0, "cuota":1840.0, "saldo":25858.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2973, "fecha_inicio":"2016-05-20", "tipo_deuda":"R", "ahorro_cuota_mensual":27698.000000000127, "ahorro_total":-27698.000000000127, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":93600.0, "cuota":4680.0, "saldo":35345.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6224, "fecha_inicio":"2021-10-11", "tipo_deuda":"R", "ahorro_cuota_mensual":40025.000000000175, "ahorro_total":-40025.000000000175, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":465100.0, "cuota":30092.0, "saldo":455824.0, "tasa_externa":0.8373, "tasa_kubo":0.165, "numero_pagos_otorgado":156.0, "numero_pagos_restante":71.0, "frecuencia_externa":"K", "avance":0.0199, "fecha_inicio":"2023-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":19628.24807259319, "ahorro_total":1531003.3496622688, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":5000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-10", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":59700.0, "cuota":2985.0, "saldo":50714.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1505, "fecha_inicio":"2017-03-17", "tipo_deuda":"R", "ahorro_cuota_mensual":53699.00000000025, "ahorro_total":-53699.00000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5097565, "monto_maximo_cliente": 71600.0, "cuota_externa_total": 9499.0, "capacidad_maxima_pago": 73518.0, "bursolnum": 7317754, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3437.9074006978803, "monto_max": 71600.0, "cuota_min": 239.2245207516586, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5486, "comision": 0.0449, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":27200.0, "cuota":1478.0, "saldo":26044.0, "tasa_externa":0.5146, "tasa_kubo":0.4582, "numero_pagos_otorgado":72.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.0425, "fecha_inicio":"2023-09-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-47.18185937822636, "ahorro_total":-1698.546937616149, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":40400.0, "cuota":2705.0, "saldo":9277.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7704, "fecha_inicio":"2020-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":11981.999999999978, "ahorro_total":-11981.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":24000.0, "cuota":613.0, "saldo":15247.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3647, "fecha_inicio":"2021-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":15859.999999999965, "ahorro_total":-15859.999999999965, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":4300.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-11-28", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":16000.0, "cuota":1336.0, "saldo":8556.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4653, "fecha_inicio":"2022-04-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9891.99999999998, "ahorro_total":-9891.99999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":44400.0, "cuota":2516.0, "saldo":44821.0, "tasa_externa":0.6619, "tasa_kubo":0.4582, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0095, "fecha_inicio":"2024-01-15", "tipo_deuda":"I", "ahorro_cuota_mensual":391.6862557252716, "ahorro_total":23501.175343516297, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":67500.0, "cuota":4169.0, "saldo":65365.0, "tasa_externa":-1.0, "tasa_kubo":0.4582, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0316, "fecha_inicio":"2023-07-05", "tipo_deuda":"I", "ahorro_cuota_mensual":384.081782793005, "ahorro_total":13826.94418054818, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5104626, "monto_maximo_cliente": 41200.0, "cuota_externa_total": 4256.0, "capacidad_maxima_pago": 51444.0, "bursolnum": 7317766, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2292.1517075495476, "monto_max": 41200.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":9300.0, "cuota":648.0, "saldo":8930.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0398, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":136.88561864211812, "ahorro_total":4927.882271116252, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1548.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-12-26", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":5872.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7064, "fecha_inicio":"2023-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":6871.999999999989, "ahorro_total":-6871.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":17200.0, "cuota":860.0, "saldo":7939.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5384, "fecha_inicio":"2022-03-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8798.999999999985, "ahorro_total":-8798.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":41200.0, "cuota":2816.0, "saldo":5281.0, "tasa_externa":0.5362, "tasa_kubo":0.4428, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8718, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":35.69190208118107, "ahorro_total":856.6056499483457, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":19340.0, "cuota":967.0, "saldo":9309.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5187, "fecha_inicio":"2022-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":10275.999999999982, "ahorro_total":-10275.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5109565, "monto_maximo_cliente": 96000.0, "cuota_externa_total": 12391.0, "capacidad_maxima_pago": 98586.0, "bursolnum": 7317411, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4012.674951101334, "monto_max": 96000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":10900.0, "cuota":545.0, "saldo":5974.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4519, "fecha_inicio":"2023-09-07", "tipo_deuda":"R", "ahorro_cuota_mensual":-1088.61205199581, "ahorro_total":-4354.44820798324, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15100.0, "cuota":1132.0, "saldo":14547.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0366, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-700.697585391687, "ahorro_total":-7006.97585391687, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":96000.0, "cuota":4881.0, "saldo":79736.0, "tasa_externa":0.5423, "tasa_kubo":0.3813, "numero_pagos_otorgado":48.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.1694, "fecha_inicio":"2022-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":586.870796141563, "ahorro_total":28169.798214795024, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":7100.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-02", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":25600.0, "cuota":1280.0, "saldo":7078.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7235, "fecha_inicio":"2023-10-05", "tipo_deuda":"R", "ahorro_cuota_mensual":8358.000000000015, "ahorro_total":-8358.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":3600.0, "cuota":284.0, "saldo":537.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8508, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":821.0000000000011, "ahorro_total":-821.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":45000.0, "cuota":1250.0, "saldo":9167.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7963, "fecha_inicio":"2021-07-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1027.435900693842, "ahorro_total":-36987.69242497832, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":4835.0, "cuota":667.0, "saldo":1330.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7249, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":4835.0, "cuota":270.0, "saldo":806.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8333, "fecha_inicio":"2023-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":19000.0, "cuota":950.0, "saldo":2988.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8427, "fecha_inicio":"2021-04-08", "tipo_deuda":"R", "ahorro_cuota_mensual":3938.0000000000064, "ahorro_total":-3938.0000000000064, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":19, "monto_otorgado":25700.0, "cuota":1285.0, "saldo":20428.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2051, "fecha_inicio":"2022-03-04", "tipo_deuda":"R", "ahorro_cuota_mensual":21713.000000000044, "ahorro_total":-21713.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":20, "monto_otorgado":22600.0, "cuota":1390.0, "saldo":20166.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1077, "fecha_inicio":"2020-03-13", "tipo_deuda":"R", "ahorro_cuota_mensual":21556.000000000044, "ahorro_total":-21556.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1427.0, "saldo":13499.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1001, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":474.5786768790206, "ahorro_total":11389.888245096494, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":637.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5115747, "monto_maximo_cliente": 116986.0, "cuota_externa_total": 13701.0, "capacidad_maxima_pago": 117511.0, "bursolnum": 7317829, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8281.414692337528, "monto_max": 116986.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-12-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":70000.0, "cuota":4877.0, "saldo":66197.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0543, "fecha_inicio":"2023-06-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-78.28549111540815, "ahorro_total":-2818.2776801546934, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":116986.0, "cuota":8824.0, "saldo":102206.0, "tasa_externa":0.8374, "tasa_kubo":0.6509, "numero_pagos_otorgado":72.0, "numero_pagos_restante":25.0, "frecuencia_externa":"S", "avance":0.1263, "fecha_inicio":"2023-05-15", "tipo_deuda":"I", "ahorro_cuota_mensual":542.5853076624717, "ahorro_total":19533.07107584898, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":9000.0, "cuota":393.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":393.0, "ahorro_total":-393.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5133040, "monto_maximo_cliente": 52400.0, "cuota_externa_total": 18019.0, "capacidad_maxima_pago": 44081.0, "bursolnum": 7317356, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3111.4575367866714, "monto_max": 52400.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":50000.0, "cuota":3716.0, "saldo":48136.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0373, "fecha_inicio":"2023-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-2910.729558772964, "ahorro_total":-29107.29558772964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52400.0, "cuota":4194.0, "saldo":52994.0, "tasa_externa":0.9653, "tasa_kubo":0.5668, "numero_pagos_otorgado":122.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0113, "fecha_inicio":"2023-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.6233127982796, "ahorro_total":73665.02208069505, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":13200.0, "cuota":5712.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-07-14", "tipo_deuda":"R", "ahorro_cuota_mensual":5712.0, "ahorro_total":-5712.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":10000.0, "cuota":500.0, "saldo":9053.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0947, "fecha_inicio":"2023-03-03", "tipo_deuda":"R", "ahorro_cuota_mensual":9553.000000000002, "ahorro_total":-9553.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":12100.0, "cuota":1098.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1098.0, "ahorro_total":-1098.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":17800.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":4, "monto_otorgado":674890.0, "cuota":6405.0, "saldo":671220.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":360.0, "numero_pagos_restante":352.0, "frecuencia_externa":"M", "avance":0.0054, "fecha_inicio":"2023-08-21", "tipo_deuda":"M", "ahorro_cuota_mensual":-30371.59144815558, "ahorro_total":-10933772.92133601, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30000.0, "cuota":2248.0, "saldo":26668.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1111, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-28.548900861652783, "ahorro_total":-685.1736206796668, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COOPERATIVA", "registro":6, "monto_otorgado":60000.0, "cuota":1250.0, "saldo":19472.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":48.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.6755, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-2312.73763754199, "ahorro_total":-111011.40660201552, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5158482, "monto_maximo_cliente": 100638.0, "cuota_externa_total": 67664.0, "capacidad_maxima_pago": 82275.0, "bursolnum": 7317410, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4150.576921317457, "monto_max": 100638.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0423, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":17, "monto_otorgado":117700.0, "cuota":6210.0, "saldo":73230.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3778, "fecha_inicio":"2006-01-27", "tipo_deuda":"R", "ahorro_cuota_mensual":79439.99999999981, "ahorro_total":-79439.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":9917.0, "cuota":820.0, "saldo":1640.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8346, "fecha_inicio":"2023-09-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":9966.0, "cuota":2311.0, "saldo":2311.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7681, "fecha_inicio":"2023-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":9953.0, "cuota":1619.0, "saldo":4855.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5122, "fecha_inicio":"2023-10-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":96000.0, "cuota":7907.0, "saldo":80978.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1565, "fecha_inicio":"2023-06-30", "tipo_deuda":"I", "ahorro_cuota_mensual":2099.702511179965, "ahorro_total":50392.86026831916, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":22, "monto_otorgado":64000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":23, "monto_otorgado":39100.0, "cuota":2144.0, "saldo":20140.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4849, "fecha_inicio":"2003-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":22283.99999999995, "ahorro_total":-22283.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-02-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":95000.0, "cuota":8000.0, "saldo":76841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1911, "fecha_inicio":"2007-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":84840.99999999981, "ahorro_total":-84840.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":9974.0, "cuota":689.0, "saldo":2758.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7235, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":44600.0, "cuota":3476.0, "saldo":38335.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1405, "fecha_inicio":"2018-05-30", "tipo_deuda":"R", "ahorro_cuota_mensual":41810.999999999905, "ahorro_total":-41810.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":260100.0, "cuota":13005.0, "saldo":123543.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.525, "fecha_inicio":"2007-05-10", "tipo_deuda":"R", "ahorro_cuota_mensual":136547.99999999968, "ahorro_total":-136547.99999999968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":109000.0, "cuota":6938.0, "saldo":109521.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0048, "fecha_inicio":"2004-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":116458.99999999972, "ahorro_total":-116458.99999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":100638.0, "cuota":4742.0, "saldo":69480.0, "tasa_externa":0.4002, "tasa_kubo":0.3337, "numero_pagos_otorgado":37.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3096, "fecha_inicio":"2022-10-26", "tipo_deuda":"I", "ahorro_cuota_mensual":44.53254235675013, "ahorro_total":1647.7040671997547, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":25000.0, "cuota":1250.0, "saldo":2461.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9016, "fecha_inicio":"2022-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3710.9999999999936, "ahorro_total":-3710.9999999999936, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":143100.0, "cuota":9300.0, "saldo":113621.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.206, "fecha_inicio":"2004-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":122920.99999999971, "ahorro_total":-122920.99999999971, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":42000.0, "cuota":2620.0, "saldo":40222.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0423, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":42841.9999999999, "ahorro_total":-42841.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":117500.0, "cuota":10682.0, "saldo":89885.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.235, "fecha_inicio":"2013-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":100566.99999999978, "ahorro_total":-100566.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":180000.0, "cuota":9000.0, "saldo":89736.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5015, "fecha_inicio":"2004-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":98735.99999999978, "ahorro_total":-98735.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":51681.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2617, "fecha_inicio":"2023-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":55180.999999999876, "ahorro_total":-55180.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":98000.0, "cuota":5390.0, "saldo":76502.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2194, "fecha_inicio":"2022-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":81891.99999999981, "ahorro_total":-81891.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":31500.0, "cuota":1575.0, "saldo":11540.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6337, "fecha_inicio":"2006-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":13114.99999999997, "ahorro_total":-13114.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5177117, "monto_maximo_cliente": 15000.0, "cuota_externa_total": 6484.0, "capacidad_maxima_pago": 23516.0, "bursolnum": 7317655, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 428.4263741100588, "monto_max": 15000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":35000.0, "cuota":2207.0, "saldo":33267.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":33.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.0495, "fecha_inicio":"2023-07-06", "tipo_deuda":"I", "ahorro_cuota_mensual":762.4429513834762, "ahorro_total":25160.617395654714, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":49000.0, "cuota":2450.0, "saldo":22834.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.534, "fecha_inicio":"2020-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":25283.999999999956, "ahorro_total":-25283.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":21349.0, "cuota":1404.0, "saldo":12926.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3945, "fecha_inicio":"2019-07-08", "tipo_deuda":"R", "ahorro_cuota_mensual":14329.999999999976, "ahorro_total":-14329.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":21000.0, "cuota":3353.0, "saldo":17928.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1463, "fecha_inicio":"2022-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":21280.999999999964, "ahorro_total":-21280.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":15000.0, "cuota":557.0, "saldo":4952.0, "tasa_externa":0.3806, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.6699, "fecha_inicio":"2019-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":132.41753764757152, "ahorro_total":7945.052258854292, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5205463, "monto_maximo_cliente": 43000.0, "cuota_externa_total": 43229.0, "capacidad_maxima_pago": 14287.0, "bursolnum": 7317625, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1382.9293656210307, "monto_max": 43000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":11400.0, "cuota":10969.0, "saldo":10318.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0949, "fecha_inicio":"2023-06-18", "tipo_deuda":"R", "ahorro_cuota_mensual":21286.99999999998, "ahorro_total":-21286.99999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":22000.0, "cuota":1574.0, "saldo":20518.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":30.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.0674, "fecha_inicio":"2023-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":600.68327673236, "ahorro_total":18020.4983019708, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-07-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":43000.0, "cuota":2484.0, "saldo":43057.0, "tasa_externa":0.6767, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":58.0, "frecuencia_externa":"S", "avance":-0.0013, "fecha_inicio":"2024-01-29", "tipo_deuda":"I", "ahorro_cuota_mensual":1266.8636079230382, "ahorro_total":76011.8164753823, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":33000.0, "cuota":2822.0, "saldo":32760.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0073, "fecha_inicio":"2021-06-07", "tipo_deuda":"R", "ahorro_cuota_mensual":35581.99999999994, "ahorro_total":-35581.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":1476.0, "saldo":9871.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2949, "fecha_inicio":"2022-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":11346.999999999982, "ahorro_total":-11346.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":20100.0, "cuota":1005.0, "saldo":19381.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0358, "fecha_inicio":"2011-08-01", "tipo_deuda":"R", "ahorro_cuota_mensual":20385.999999999964, "ahorro_total":-20385.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":13970.0, "cuota":344.0, "saldo":574.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9589, "fecha_inicio":"2021-05-08", "tipo_deuda":"R", "ahorro_cuota_mensual":917.9999999999989, "ahorro_total":-917.9999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":14000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":17000.0, "cuota":850.0, "saldo":11013.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3522, "fecha_inicio":"2023-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":11862.999999999978, "ahorro_total":-11862.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5200.0, "cuota":8.0, "saldo":4755.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0856, "fecha_inicio":"2019-05-15", "tipo_deuda":"R", "ahorro_cuota_mensual":4762.999999999991, "ahorro_total":-4762.999999999991, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":419000.0, "cuota":22760.0, "saldo":395970.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.055, "fecha_inicio":"2023-08-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-23723.26025954986, "ahorro_total":-237232.6025954986, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":20000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2010-08-08", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5206962, "monto_maximo_cliente": 80000.0, "cuota_externa_total": 12663.0, "capacidad_maxima_pago": 95251.0, "bursolnum": 7317931, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5293.744643303981, "monto_max": 80000.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 33.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1548.0, "cuota":714.0, "saldo":714.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5388, "fecha_inicio":"2018-03-25", "tipo_deuda":"O", "ahorro_cuota_mensual":1428.0, "ahorro_total":-1428.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":60000.0, "cuota":5025.0, "saldo":59119.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0147, "fecha_inicio":"2023-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":1173.0149939335329, "ahorro_total":42228.539781607185, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":2043.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-07-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":43480.0, "cuota":2174.0, "saldo":5770.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8673, "fecha_inicio":"2020-02-28", "tipo_deuda":"R", "ahorro_cuota_mensual":7944.000000000002, "ahorro_total":-7944.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":80000.0, "cuota":5900.0, "saldo":78741.0, "tasa_externa":0.56, "tasa_kubo":0.5668, "numero_pagos_otorgado":43.0, "numero_pagos_restante":15.0, "frecuencia_externa":"S", "avance":0.0157, "fecha_inicio":"2023-09-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-445.85407781089634, "ahorro_total":-9808.78971183972, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":19500.0, "cuota":2258.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-04-17", "tipo_deuda":"R", "ahorro_cuota_mensual":2258.0, "ahorro_total":-2258.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5215233, "monto_maximo_cliente": 12000.0, "cuota_externa_total": 7485.0, "capacidad_maxima_pago": 39515.0, "bursolnum": 7317135, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 342.74109928804705, "monto_max": 12000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":12000.0, "cuota":768.0, "saldo":9855.0, "tasa_externa":0.7592, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":51.0, "frecuencia_externa":"S", "avance":0.1787, "fecha_inicio":"2023-07-13", "tipo_deuda":"I", "ahorro_cuota_mensual":428.33403011805717, "ahorro_total":25700.04180708343, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":83100.0, "cuota":2187.0, "saldo":186.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9978, "fecha_inicio":"2022-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2372.9999999999995, "ahorro_total":-2372.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1921.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-06-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":69000.0, "cuota":4530.0, "saldo":55857.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1905, "fecha_inicio":"2023-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":1851.8312816374705, "ahorro_total":66665.92613894894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5252137, "monto_maximo_cliente": 85000.0, "cuota_externa_total": 7250.0, "capacidad_maxima_pago": 90750.0, "bursolnum": 7317545, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3621.5346005800234, "monto_max": 85000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":16000.0, "cuota":800.0, "saldo":952.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9405, "fecha_inicio":"2021-05-05", "tipo_deuda":"R", "ahorro_cuota_mensual":1751.9999999999977, "ahorro_total":-1751.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":18000.0, "cuota":1520.0, "saldo":16984.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0564, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":399.50889474247515, "ahorro_total":9588.213473819404, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":22000.0, "cuota":1100.0, "saldo":11609.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4723, "fecha_inicio":"2018-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":100.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":18000.0, "cuota":900.0, "saldo":4795.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7336, "fecha_inicio":"2023-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":5694.999999999989, "ahorro_total":-5694.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":2075.0, "saldo":7748.0, "tasa_externa":0.4, "tasa_kubo":0.3617, "numero_pagos_otorgado":25.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7786, "fecha_inicio":"2022-05-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-47.769301171188545, "ahorro_total":-1194.2325292797136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15600.0, "cuota":560.0, "saldo":14466.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0727, "fecha_inicio":"2020-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":15025.999999999967, "ahorro_total":-15025.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":5944.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8811, "fecha_inicio":"2022-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":8443.999999999985, "ahorro_total":-8443.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":50000.0, "cuota":2061.0, "saldo":47726.0, "tasa_externa":0.3921, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.0455, "fecha_inicio":"2023-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-102.96654858722286, "ahorro_total":-4942.394332186697, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":40000.0, "cuota":1.0, "saldo":13716.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6571, "fecha_inicio":"2022-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":13716.999999999969, "ahorro_total":-13716.999999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6300.0, "cuota":149.0, "saldo":5402.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1425, "fecha_inicio":"2018-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5550.999999999988, "ahorro_total":-5550.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":7140.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7254, "fecha_inicio":"2022-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":8439.999999999984, "ahorro_total":-8439.999999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5267958, "monto_maximo_cliente": 130000.0, "cuota_externa_total": 9618.0, "capacidad_maxima_pago": 129922.0, "bursolnum": 7317186, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6497.536858202417, "monto_max": 130000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":130000.0, "cuota":7310.0, "saldo":115003.0, "tasa_externa":0.6577, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":48.0, "frecuencia_externa":"S", "avance":0.1154, "fecha_inicio":"2023-03-03", "tipo_deuda":"I", "ahorro_cuota_mensual":853.5647888329377, "ahorro_total":52067.4521188092, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":47000.0, "cuota":2526.0, "saldo":7603.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8382, "fecha_inicio":"2023-05-27", "tipo_deuda":"R", "ahorro_cuota_mensual":10129.000000000015, "ahorro_total":-10129.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":23400.0, "cuota":1170.0, "saldo":5053.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7841, "fecha_inicio":"2021-03-31", "tipo_deuda":"R", "ahorro_cuota_mensual":6223.00000000001, "ahorro_total":-6223.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":20000.0, "cuota":2015.0, "saldo":17416.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":18.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.1292, "fecha_inicio":"2023-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":349.5670874171169, "ahorro_total":6292.207573508104, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5283904, "monto_maximo_cliente": 372000.0, "cuota_externa_total": 32149.0, "capacidad_maxima_pago": 396351.0, "bursolnum": 7317657, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13206.842106659838, "monto_max": 372000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.2622, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":45000.0, "cuota":2988.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":30.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0532, "fecha_inicio":"2023-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":828.0751421092141, "ahorro_total":24842.254263276423, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":7744.0, "cuota":558.0, "saldo":4464.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4236, "fecha_inicio":"2023-11-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":3844.0, "cuota":266.0, "saldo":1592.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5858, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3836.0, "cuota":808.0, "saldo":3236.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1564, "fecha_inicio":"2023-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":65000.0, "cuota":2214.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":312.0, "numero_pagos_restante":217.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-05-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2214.0, "ahorro_total":690768.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":88100.0, "cuota":5000.0, "saldo":78690.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1068, "fecha_inicio":"2018-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":83689.99999999959, "ahorro_total":-83689.99999999959, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":21600.0, "cuota":1469.0, "saldo":35086.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.6244, "fecha_inicio":"2013-08-28", "tipo_deuda":"R", "ahorro_cuota_mensual":36554.99999999981, "ahorro_total":-36554.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":60200.0, "cuota":1320.0, "saldo":33746.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4394, "fecha_inicio":"2022-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-6244.83771967064, "ahorro_total":-56203.53947703576, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":8000.0, "cuota":113.0, "saldo":3371.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5786, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-8089.767999999969, "ahorro_total":-8089.767999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":372000.0, "cuota":13739.0, "saldo":353868.0, "tasa_externa":0.3775, "tasa_kubo":0.2622, "numero_pagos_otorgado":60.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0487, "fecha_inicio":"2021-05-27", "tipo_deuda":"I", "ahorro_cuota_mensual":1608.4924576048925, "ahorro_total":96509.54745629354, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":66000.0, "cuota":4530.0, "saldo":56880.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1382, "fecha_inicio":"2023-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":61409.9999999997, "ahorro_total":-61409.9999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":27000.0, "cuota":700.0, "saldo":20440.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.243, "fecha_inicio":"2023-08-07", "tipo_deuda":"R", "ahorro_cuota_mensual":21139.99999999989, "ahorro_total":-21139.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":300700.0, "cuota":6358.0, "saldo":158943.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4714, "fecha_inicio":"2022-04-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-31428.49007151099, "ahorro_total":-282856.41064359894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5286466, "monto_maximo_cliente": 39000.0, "cuota_externa_total": 4741.0, "capacidad_maxima_pago": 55206.0, "bursolnum": 7317498, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1363.3029386249852, "monto_max": 39000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":30000.0, "cuota":2357.0, "saldo":27394.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0869, "fecha_inicio":"2023-08-14", "tipo_deuda":"I", "ahorro_cuota_mensual":620.3400424925353, "ahorro_total":14888.161019820847, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":461.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":25000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":25000.0, "cuota":0.0, "saldo":4126.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.835, "fecha_inicio":"2023-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4125.999999999988, "ahorro_total":-4125.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":39000.0, "cuota":1984.0, "saldo":26248.0, "tasa_externa":0.5452, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.327, "fecha_inicio":"2022-10-07", "tipo_deuda":"I", "ahorro_cuota_mensual":492.2205424152253, "ahorro_total":23626.586035930814, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15800.0, "cuota":790.0, "saldo":9468.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4008, "fecha_inicio":"2018-05-13", "tipo_deuda":"R", "ahorro_cuota_mensual":10257.999999999975, "ahorro_total":-10257.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":19500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5286748, "monto_maximo_cliente": 72784.0, "cuota_externa_total": 25321.0, "capacidad_maxima_pago": 92477.19, "bursolnum": 7317748, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3029.020062383641, "monto_max": 72784.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0423, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":219000.0, "cuota":10950.0, "saldo":197997.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0959, "fecha_inicio":"2001-05-11", "tipo_deuda":"R", "ahorro_cuota_mensual":208946.9999999995, "ahorro_total":-208946.9999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":7, "monto_otorgado":598091.0, "cuota":8608.0, "saldo":344281.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":72.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.4244, "fecha_inicio":"2021-05-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-12868.891129764666, "ahorro_total":-926560.161343056, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":74000.0, "cuota":3988.0, "saldo":70309.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.0499, "fecha_inicio":"2023-08-15", "tipo_deuda":"I", "ahorro_cuota_mensual":483.377279069578, "ahorro_total":17401.58204650481, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":2953.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8864, "fecha_inicio":"2018-10-03", "tipo_deuda":"R", "ahorro_cuota_mensual":4252.999999999993, "ahorro_total":-4252.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":171000.0, "cuota":8550.0, "saldo":11659.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9318, "fecha_inicio":"2005-08-27", "tipo_deuda":"R", "ahorro_cuota_mensual":20208.99999999997, "ahorro_total":-20208.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":116448.0, "cuota":4115.0, "saldo":91628.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.2131, "fecha_inicio":"2023-08-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-1399.9500892825108, "ahorro_total":-50398.20321417039, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":58000.0, "cuota":2900.0, "saldo":33535.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4218, "fecha_inicio":"2022-07-12", "tipo_deuda":"R", "ahorro_cuota_mensual":36434.99999999991, "ahorro_total":-36434.99999999991, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":72784.0, "cuota":3663.0, "saldo":63875.0, "tasa_externa":0.4437, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.1224, "fecha_inicio":"2023-05-12", "tipo_deuda":"I", "ahorro_cuota_mensual":215.96675513243417, "ahorro_total":7774.80318476763, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":54000.0, "cuota":2700.0, "saldo":25175.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5338, "fecha_inicio":"2021-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":27874.999999999935, "ahorro_total":-27874.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5310347, "monto_maximo_cliente": 8800.0, "cuota_externa_total": 14970.0, "capacidad_maxima_pago": 18920.48, "bursolnum": 7317456, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2509.3795136012172, "monto_max": 8800.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 4.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":8800.0, "cuota":5866.0, "saldo":5866.0, "tasa_externa":5.91, "tasa_kubo":0.5668, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3334, "fecha_inicio":"2024-01-19", "tipo_deuda":"I", "ahorro_cuota_mensual":2605.5153704246286, "ahorro_total":7816.546111273886, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":19500.0, "cuota":975.0, "saldo":7802.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5999, "fecha_inicio":"2018-01-23", "tipo_deuda":"R", "ahorro_cuota_mensual":8777.000000000004, "ahorro_total":-8777.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":60000.0, "cuota":4656.0, "saldo":53703.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1049, "fecha_inicio":"2022-10-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-3296.0754705275567, "ahorro_total":-32960.75470527557, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":31200.0, "cuota":100.0, "saldo":30903.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0095, "fecha_inicio":"2019-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":31003.000000000007, "ahorro_total":-31003.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":39000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":50000.0, "cuota":3744.0, "saldo":44729.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.1054, "fecha_inicio":"2023-08-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-50.24816810275479, "ahorro_total":-1205.956034466115, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5327026, "monto_maximo_cliente": 18500.0, "cuota_externa_total": 37647.33333333333, "capacidad_maxima_pago": 20025.93666666667, "bursolnum": 7317608, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 631.5972997486506, "monto_max": 18500.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2306, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":50000.0, "cuota":3581.0, "saldo":52094.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0419, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":1546.4501400254426, "ahorro_total":55672.205040915935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":30000.0, "cuota":2426.0, "saldo":27039.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0987, "fecha_inicio":"2023-08-25", "tipo_deuda":"I", "ahorro_cuota_mensual":798.3990146982223, "ahorro_total":19161.576352757336, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":1221.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-06-13", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":278510.0, "cuota":12502.0, "saldo":82146.0, "tasa_externa":0.5202, "tasa_kubo":0.2306, "numero_pagos_otorgado":144.0, "numero_pagos_restante":13.0, "frecuencia_externa":"S", "avance":0.7051, "fecha_inicio":"2019-04-23", "tipo_deuda":"I", "ahorro_cuota_mensual":4697.9757389498445, "ahorro_total":338254.2532043888, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":5483.0, "cuota":5483.0, "saldo":5483.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-122.22338066663997, "ahorro_total":-122.22338066663997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":55000.0, "cuota":2750.0, "saldo":54393.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.011, "fecha_inicio":"2002-08-30", "tipo_deuda":"R", "ahorro_cuota_mensual":57142.99999999977, "ahorro_total":-57142.99999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":18500.0, "cuota":1492.0, "saldo":14077.0, "tasa_externa":0.9723, "tasa_kubo":0.2306, "numero_pagos_otorgado":120.0, "numero_pagos_restante":28.0, "frecuencia_externa":"S", "avance":0.2391, "fecha_inicio":"2021-08-10", "tipo_deuda":"I", "ahorro_cuota_mensual":929.8619027677762, "ahorro_total":55791.71416606657, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":10000.0, "cuota":500.0, "saldo":10082.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":900.0, "numero_pagos_restante":893.0, "frecuencia_externa":"Z", "avance":-0.0082, "fecha_inicio":"2023-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":275.2587767907435, "ahorro_total":247732.89911166916, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":4000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":30000.0, "cuota":551.3333333333334, "saldo":78024.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":48.0, "numero_pagos_restante":142.0, "frecuencia_externa":"Q", "avance":-1.6008, "fecha_inicio":"2024-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-146.58432336690635, "ahorro_total":-21108.142564834514, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":45341.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0932, "fecha_inicio":"2016-11-09", "tipo_deuda":"R", "ahorro_cuota_mensual":47840.99999999981, "ahorro_total":-47840.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":499000.0, "cuota":24950.0, "saldo":472672.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":900.0, "numero_pagos_restante":891.0, "frecuencia_externa":"Z", "avance":0.0528, "fecha_inicio":"2023-07-21", "tipo_deuda":"R", "ahorro_cuota_mensual":14413.510865228558, "ahorro_total":12972159.778705703, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":60000.0, "cuota":3000.0, "saldo":55013.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0831, "fecha_inicio":"2023-08-18", "tipo_deuda":"R", "ahorro_cuota_mensual":58012.99999999977, "ahorro_total":-58012.99999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5361027, "monto_maximo_cliente": 45000.0, "cuota_externa_total": 9673.0, "capacidad_maxima_pago": 43113.0, "bursolnum": 7317584, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1478.1356443622933, "monto_max": 45000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.4582, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":7, "monto_otorgado":343444.0, "cuota":2380.0, "saldo":160197.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":720.0, "numero_pagos_restante":214.0, "frecuencia_externa":"S", "avance":0.5336, "fecha_inicio":"2012-02-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-6325.994443312435, "ahorro_total":-2277357.9995924765, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1921.0, "cuota":548.0, "saldo":548.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":0.7147, "fecha_inicio":"2011-04-23", "tipo_deuda":"O", "ahorro_cuota_mensual":1095.999999999997, "ahorro_total":-1095.999999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":42021.0, "cuota":3348.0, "saldo":37686.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":50.0, "numero_pagos_restante":18.0, "frecuencia_externa":"S", "avance":0.1032, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":1058.2356274081726, "ahorro_total":26455.890685204315, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":11000.0, "cuota":550.0, "saldo":824.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.9251, "fecha_inicio":"2024-01-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-5159.9767727963335, "ahorro_total":-10319.953545592667, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":62500.0, "cuota":3125.0, "saldo":41214.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3406, "fecha_inicio":"2018-07-25", "tipo_deuda":"R", "ahorro_cuota_mensual":44338.99999999978, "ahorro_total":-44338.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":45000.0, "cuota":2057.0, "saldo":43382.0, "tasa_externa":0.4638, "tasa_kubo":0.2622, "numero_pagos_otorgado":48.0, "numero_pagos_restante":45.0, "frecuencia_externa":"M", "avance":0.036, "fecha_inicio":"2023-12-26", "tipo_deuda":"I", "ahorro_cuota_mensual":425.84536607043924, "ahorro_total":20440.577571381084, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-03-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5383814, "monto_maximo_cliente": 15084.0, "cuota_externa_total": 8260.0, "capacidad_maxima_pago": 22272.0, "bursolnum": 7316743, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1193.2774856689198, "monto_max": 15084.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 26.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":342176.0, "cuota":3227.0, "saldo":315822.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":360.0, "numero_pagos_restante":263.0, "frecuencia_externa":"M", "avance":0.077, "fecha_inicio":"2016-02-25", "tipo_deuda":"M", "ahorro_cuota_mensual":-16644.62551972764, "ahorro_total":-5992065.187101951, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-10-27", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-08-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":350.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-04-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":4000.0, "cuota":275.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":264.0, "numero_pagos_restante":144.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":275.0, "ahorro_total":72600.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":5000.0, "cuota":250.0, "saldo":299.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9402, "fecha_inicio":"2021-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":549.0000000000005, "ahorro_total":-549.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":500.0, "saldo":972.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9028, "fecha_inicio":"2023-02-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1472.0000000000011, "ahorro_total":-1472.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":3676.0, "saldo":13187.0, "tasa_externa":3.1879, "tasa_kubo":0.6509, "numero_pagos_otorgado":104.0, "numero_pagos_restante":20.0, "frecuencia_externa":"W", "avance":0.1209, "fecha_inicio":"2023-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":2489.3676554605013, "ahorro_total":64723.559041973036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":10000.0, "cuota":1202.0, "saldo":7672.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2328, "fecha_inicio":"2023-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-9.940500263250215, "ahorro_total":-119.28600315900258, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5417924, "monto_maximo_cliente": 52400.0, "cuota_externa_total": 14612.0, "capacidad_maxima_pago": 51548.0, "bursolnum": 7317734, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3926.51033237947, "monto_max": 52400.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 30.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":50000.0, "cuota":4038.0, "saldo":46182.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0764, "fecha_inicio":"2023-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-54.09910790137883, "ahorro_total":-1298.378589633092, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":6000.0, "cuota":300.0, "saldo":3775.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3708, "fecha_inicio":"2018-11-19", "tipo_deuda":"R", "ahorro_cuota_mensual":4075.0000000000045, "ahorro_total":-4075.0000000000045, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":6590.0, "cuota":330.0, "saldo":1818.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7241, "fecha_inicio":"2024-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1552.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7643, "fecha_inicio":"2024-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1746.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7349, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":5400.0, "cuota":1150.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-06-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1150.0, "ahorro_total":-1150.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":6, "monto_otorgado":6585.0, "cuota":1261.0, "saldo":8823.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.3399, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1467.0, "saldo":8108.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1892, "fecha_inicio":"2022-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":9575.000000000011, "ahorro_total":-9575.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52400.0, "cuota":6060.0, "saldo":48482.0, "tasa_externa":1.3555, "tasa_kubo":0.6509, "numero_pagos_otorgado":61.0, "numero_pagos_restante":24.0, "frecuencia_externa":"S", "avance":0.0748, "fecha_inicio":"2023-10-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2133.48966762053, "ahorro_total":64004.69002861589, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":8800.0, "cuota":390.0, "saldo":3379.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.616, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":3769.0000000000036, "ahorro_total":-3769.0000000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":6585.0, "cuota":856.0, "saldo":4280.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.35, "fecha_inicio":"2023-12-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5446631, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 67944.0, "capacidad_maxima_pago": 572056.0, "bursolnum": 7317746, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 19125.377661343267, "monto_max": 500000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":103500.0, "cuota":5175.0, "saldo":40310.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6105, "fecha_inicio":"2022-02-12", "tipo_deuda":"R", "ahorro_cuota_mensual":45484.99999999989, "ahorro_total":-45484.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5476222, "monto_maximo_cliente": 60000.0, "cuota_externa_total": 23965.0, "capacidad_maxima_pago": 57935.0, "bursolnum": 7316956, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3696.1110273840345, "monto_max": 60000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 22.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1365.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-02-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":8500.0, "cuota":425.0, "saldo":826.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9028, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-05-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":5000.0, "cuota":599.0, "saldo":4170.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.166, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":102.16507259029186, "ahorro_total":1225.9808710835023, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":8986.0, "cuota":449.0, "saldo":658.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9268, "fecha_inicio":"2023-12-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":10252.0, "cuota":513.0, "saldo":2250.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7805, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":20000.0, "cuota":1202.0, "saldo":8584.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5708, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-662.5658076752466, "ahorro_total":-3312.829038376233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":10300.0, "cuota":515.0, "saldo":702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9318, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":18200.0, "cuota":12044.0, "saldo":4727.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7403, "fecha_inicio":"2023-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":16770.999999999985, "ahorro_total":-16770.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":1750.0, "cuota":1838.0, "saldo":919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4749, "fecha_inicio":"2023-12-31", "tipo_deuda":"I", "ahorro_cuota_mensual":1221.4989543348352, "ahorro_total":3664.4968630045055, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":8932.0, "cuota":1350.0, "saldo":885.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9009, "fecha_inicio":"2018-07-13", "tipo_deuda":"R", "ahorro_cuota_mensual":2234.9999999999973, "ahorro_total":-2234.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":7000.0, "cuota":904.0, "saldo":6312.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0983, "fecha_inicio":"2022-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":7215.999999999983, "ahorro_total":-7215.999999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":14000.0, "cuota":1184.0, "saldo":13800.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2021-07-09", "tipo_deuda":"R", "ahorro_cuota_mensual":14983.999999999962, "ahorro_total":-14983.999999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":17000.0, "cuota":1973.0, "saldo":16906.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0055, "fecha_inicio":"2023-11-27", "tipo_deuda":"R", "ahorro_cuota_mensual":18878.999999999953, "ahorro_total":-18878.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":60000.0, "cuota":4212.0, "saldo":58005.0, "tasa_externa":0.4945, "tasa_kubo":0.2914, "numero_pagos_otorgado":43.0, "numero_pagos_restante":12.0, "frecuencia_externa":"S", "avance":0.0332, "fecha_inicio":"2023-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":515.8889726159655, "ahorro_total":11349.557397551242, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5484371, "monto_maximo_cliente": 76088.0, "cuota_externa_total": 15093.0, "capacidad_maxima_pago": 73348.18, "bursolnum": 7317669, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5477.424358859572, "monto_max": 76088.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 37.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":76088.0, "cuota":6932.0, "saldo":63899.0, "tasa_externa":1.0614, "tasa_kubo":0.6722, "numero_pagos_otorgado":74.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.1602, "fecha_inicio":"2023-05-05", "tipo_deuda":"I", "ahorro_cuota_mensual":1454.5756411404282, "ahorro_total":53819.29872219584, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":113000.0, "cuota":2248.0, "saldo":9633.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9148, "fecha_inicio":"2015-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":11881.000000000011, "ahorro_total":-11881.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":95000.0, "cuota":4750.0, "saldo":23364.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7541, "fecha_inicio":"2023-06-21", "tipo_deuda":"R", "ahorro_cuota_mensual":28114.00000000003, "ahorro_total":-28114.00000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":17000.0, "cuota":1970.0, "saldo":13293.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2181, "fecha_inicio":"2023-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":15263.000000000015, "ahorro_total":-15263.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":66300.0, "cuota":3315.0, "saldo":20751.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.687, "fecha_inicio":"2022-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":24066.000000000025, "ahorro_total":-24066.000000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":24600.0, "cuota":1230.0, "saldo":5465.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7778, "fecha_inicio":"2019-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":6695.000000000006, "ahorro_total":-6695.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":39600.0, "cuota":1.0, "saldo":439.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9889, "fecha_inicio":"2011-10-04", "tipo_deuda":"R", "ahorro_cuota_mensual":440.0000000000005, "ahorro_total":-440.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-09-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":40000.0, "cuota":3865.0, "saldo":36534.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":18.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.0866, "fecha_inicio":"2023-10-25", "tipo_deuda":"I", "ahorro_cuota_mensual":31.398909428947718, "ahorro_total":565.1803697210589, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5511694, "monto_maximo_cliente": 37500.0, "cuota_externa_total": 6907.0, "capacidad_maxima_pago": 42593.0, "bursolnum": 7317369, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2953.5051079851855, "monto_max": 37500.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 30.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":4, "monto_otorgado":15000.0, "cuota":1794.0, "saldo":14999.0, "tasa_externa":0.736, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0001, "fecha_inicio":"2020-11-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-71.79113904270957, "ahorro_total":-861.4936685125149, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":25000.0, "cuota":3330.0, "saldo":23893.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.0443, "fecha_inicio":"2023-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":220.34810159548442, "ahorro_total":2644.177219145813, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":500.0, "cuota":962.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-04-08", "tipo_deuda":"R", "ahorro_cuota_mensual":962.0, "ahorro_total":-962.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":22500.0, "cuota":1783.0, "saldo":15557.0, "tasa_externa":0.7228, "tasa_kubo":0.7007, "numero_pagos_otorgado":24.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.3086, "fecha_inicio":"2023-02-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-139.9001998716767, "ahorro_total":-3357.604796920241, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5532709, "monto_maximo_cliente": 39500.0, "cuota_externa_total": 4700.0, "capacidad_maxima_pago": 41023.0, "bursolnum": 7317323, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2166.63292378765, "monto_max": 39500.0, "cuota_min": 273.54534136637614, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0471, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":15000.0, "cuota":1876.0, "saldo":13692.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.0872, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":163.3909131585349, "ahorro_total":1960.6909579024186, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":7000.0, "cuota":350.0, "saldo":6491.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0727, "fecha_inicio":"2022-02-20", "tipo_deuda":"R", "ahorro_cuota_mensual":6840.999999999986, "ahorro_total":-6840.999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":3100.0, "cuota":155.0, "saldo":1662.0, "tasa_externa":-1.0, "tasa_kubo":0.5391, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4639, "fecha_inicio":"2023-06-05", "tipo_deuda":"R", "ahorro_cuota_mensual":1816.9999999999966, "ahorro_total":-1816.9999999999966, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":39500.0, "cuota":2676.0, "saldo":32053.0, "tasa_externa":0.7866, "tasa_kubo":0.5391, "numero_pagos_otorgado":97.0, "numero_pagos_restante":33.0, "frecuencia_externa":"S", "avance":0.1885, "fecha_inicio":"2023-01-04", "tipo_deuda":"I", "ahorro_cuota_mensual":420.6482901727777, "ahorro_total":20191.11792829333, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5544466, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 133564.0, "capacidad_maxima_pago": 727247.0, "bursolnum": 7317838, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20239.78127720747, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 58.0, "plazo_min": 4, "tasa": 0.3617, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":600000.0, "cuota":28080.0, "saldo":464773.0, "tasa_externa":0.5256, "tasa_kubo":0.3617, "numero_pagos_otorgado":120.0, "numero_pagos_restante":40.0, "frecuencia_externa":"S", "avance":0.2254, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":4044.1054716145736, "ahorro_total":242646.32829687442, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":250000.0, "cuota":12500.0, "saldo":182160.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":76.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.2714, "fecha_inicio":"2017-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":5626.40440515134, "ahorro_total":427606.73479150183, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":441000.0, "cuota":22050.0, "saldo":32203.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.927, "fecha_inicio":"2014-07-20", "tipo_deuda":"R", "ahorro_cuota_mensual":54252.99999999993, "ahorro_total":-54252.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":577500.0, "cuota":28875.0, "saldo":640887.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.1098, "fecha_inicio":"2014-06-06", "tipo_deuda":"R", "ahorro_cuota_mensual":669761.9999999985, "ahorro_total":-669761.9999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":376598.0, "cuota":12626.0, "saldo":158758.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":36.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.5784, "fecha_inicio":"2022-03-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-5924.801625948363, "ahorro_total":-213292.85853414107, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":140000.0, "cuota":7000.0, "saldo":108694.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2236, "fecha_inicio":"2021-04-10", "tipo_deuda":"R", "ahorro_cuota_mensual":115693.99999999975, "ahorro_total":-115693.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":286400.0, "cuota":19851.0, "saldo":271861.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0508, "fecha_inicio":"2006-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":291711.99999999936, "ahorro_total":-291711.99999999936, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":4, "monto_otorgado":870517.0, "cuota":18734.0, "saldo":392494.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.5491, "fecha_inicio":"2022-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-18941.393359530077, "ahorro_total":-909186.8812574437, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-09-29", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":44919.0, "cuota":2557.0, "saldo":43610.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":28.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0291, "fecha_inicio":"2023-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":15.54241772362684, "ahorro_total":435.18769626155154, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":60181.0, "cuota":4740.0, "saldo":59153.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0171, "fecha_inicio":"2023-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":993.7624885831606, "ahorro_total":23850.299725995854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":54500.0, "cuota":2418.0, "saldo":38594.0, "tasa_externa":0.3392, "tasa_kubo":0.3617, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2919, "fecha_inicio":"2023-02-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-266.60981899581475, "ahorro_total":-9597.953483849331, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5547392, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 46459.0, "capacidad_maxima_pago": 517877.0, "bursolnum": 7317891, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17987.656733921576, "monto_max": 500000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 55.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":7, "monto_otorgado":15000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":58500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-01-14", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":100000.0, "cuota":8622.0, "saldo":99776.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0022, "fecha_inicio":"2023-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":2833.1334749751168, "ahorro_total":67995.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6000.0, "cuota":1244.0, "saldo":4614.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.231, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5857.999999999987, "ahorro_total":-5857.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":77011.0, "cuota":4494.0, "saldo":70275.0, "tasa_externa":0.3517, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0875, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":35.93600041308764, "ahorro_total":862.4640099141034, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":386000.0, "cuota":19300.0, "saldo":285213.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2611, "fecha_inicio":"2007-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":304512.9999999992, "ahorro_total":-304512.9999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":225500.0, "cuota":11275.0, "saldo":86785.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6151, "fecha_inicio":"2008-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":415000.0, "cuota":15404.0, "saldo":375261.0, "tasa_externa":0.3234, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":38.0, "frecuencia_externa":"M", "avance":0.0958, "fecha_inicio":"2023-06-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-470.06345891491037, "ahorro_total":-22563.046027915698, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5550621, "monto_maximo_cliente": 149997.0, "cuota_externa_total": 12974.0, "capacidad_maxima_pago": 157966.0, "bursolnum": 7317367, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10649.214805333773, "monto_max": 149997.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":3, "monto_otorgado":149997.0, "cuota":11328.0, "saldo":146954.0, "tasa_externa":0.8388, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0203, "fecha_inicio":"2023-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":108.02772949290011, "ahorro_total":3888.998261744404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":19500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":29000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-07-31", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":600.0, "cuota":400.0, "saldo":400.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3333, "fecha_inicio":"2023-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":74, "monto_otorgado":0.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2005-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":5300.0, "cuota":706.0, "saldo":4902.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.0751, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":46.75379753824268, "ahorro_total":561.0455704589122, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1036.0, "cuota":540.0, "saldo":540.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4788, "fecha_inicio":"2018-03-18", "tipo_deuda":"O", "ahorro_cuota_mensual":1079.9999999999995, "ahorro_total":-1079.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5555834, "monto_maximo_cliente": 216000.0, "cuota_externa_total": 37484.0, "capacidad_maxima_pago": 233771.0, "bursolnum": 7317878, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8262.16314970029, "monto_max": 216000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":957301.0, "cuota":8990.0, "saldo":610774.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":246.0, "frecuencia_externa":"M", "avance":0.362, "fecha_inicio":"2014-10-16", "tipo_deuda":"M", "ahorro_cuota_mensual":-8215.469934592616, "ahorro_total":-2957569.1764533417, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":5, "monto_otorgado":357520.0, "cuota":6182.0, "saldo":202251.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.4343, "fecha_inicio":"2021-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-6233.676257673995, "ahorro_total":-374020.57546043966, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":216000.0, "cuota":16136.0, "saldo":192094.0, "tasa_externa":0.8799, "tasa_kubo":0.2914, "numero_pagos_otorgado":97.0, "numero_pagos_restante":38.0, "frecuencia_externa":"S", "avance":0.1107, "fecha_inicio":"2023-05-23", "tipo_deuda":"I", "ahorro_cuota_mensual":7873.836850299709, "ahorro_total":377944.168814386, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":360.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-06-29", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":97900.0, "cuota":4895.0, "saldo":43175.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.559, "fecha_inicio":"2021-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":48069.99999999988, "ahorro_total":-48069.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":60000.0, "cuota":4952.0, "saldo":59469.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0089, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1478.6800849850706, "ahorro_total":35488.322039641695, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5556081, "monto_maximo_cliente": 316003.0, "cuota_externa_total": 23712.0, "capacidad_maxima_pago": 338169.0, "bursolnum": 7317231, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9025.601299860062, "monto_max": 316003.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1221.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-01-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2002-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1711.0, "saldo":13415.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.1057, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":298.40695334541124, "ahorro_total":3580.883440144935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":11, "monto_otorgado":811.0, "cuota":1023.0, "saldo":1023.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.2614, "fecha_inicio":"2009-12-14", "tipo_deuda":"O", "ahorro_cuota_mensual":2045.9999999999982, "ahorro_total":-2045.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":1, "monto_otorgado":237792.0, "cuota":8219.0, "saldo":78079.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.6717, "fecha_inicio":"2021-12-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-1010.6680561864159, "ahorro_total":-36384.05002271097, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":59400.0, "cuota":2970.0, "saldo":6481.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8909, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":9450.999999999987, "ahorro_total":-9450.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":34676.0, "cuota":1159.0, "saldo":17008.0, "tasa_externa":0.2252, "tasa_kubo":0.2, "numero_pagos_otorgado":44.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.5095, "fecha_inicio":"2022-05-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-18.409014537201756, "ahorro_total":-809.9966396368773, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":44627.0, "cuota":1355.0, "saldo":33019.0, "tasa_externa":0.1847, "tasa_kubo":0.2, "numero_pagos_otorgado":46.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.2601, "fecha_inicio":"2023-03-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-118.4225517298596, "ahorro_total":-5447.437379573542, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":57000.0, "cuota":200.0, "saldo":54663.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.041, "fecha_inicio":"2016-10-11", "tipo_deuda":"R", "ahorro_cuota_mensual":54862.99999999989, "ahorro_total":-54862.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":236700.0, "cuota":7681.0, "saldo":196294.0, "tasa_externa":0.3058, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.1707, "fecha_inicio":"2022-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":981.0887440786782, "ahorro_total":58865.32464472069, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":62969.0, "cuota":1821.0, "saldo":15507.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":45.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.7537, "fecha_inicio":"2021-04-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-286.8510756114638, "ahorro_total":-12908.29840251587, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5587133, "monto_maximo_cliente": 120000.0, "cuota_externa_total": 14277.0, "capacidad_maxima_pago": 149878.0, "bursolnum": 7317592, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5997.726330648386, "monto_max": 120000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":871.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-01-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":30000.0, "cuota":2027.0, "saldo":21420.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.286, "fecha_inicio":"2022-07-12", "tipo_deuda":"I", "ahorro_cuota_mensual":293.0145209518266, "ahorro_total":10548.52275426576, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":3030.0, "cuota":1451.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":1451.0, "ahorro_total":-1451.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":10200.0, "cuota":4148.0, "saldo":3423.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6644, "fecha_inicio":"2023-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":7571.000000000007, "ahorro_total":-7571.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":21000.0, "cuota":720.0, "saldo":580.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9724, "fecha_inicio":"2022-04-11", "tipo_deuda":"R", "ahorro_cuota_mensual":1300.0000000000011, "ahorro_total":-1300.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":120000.0, "cuota":6950.0, "saldo":87879.0, "tasa_externa":0.6482, "tasa_kubo":0.4818, "numero_pagos_otorgado":96.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.2677, "fecha_inicio":"2021-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":652.8720397873758, "ahorro_total":31337.85790979404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":500.0, "saldo":2163.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7837, "fecha_inicio":"2023-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":2663.0000000000045, "ahorro_total":-2663.0000000000045, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":12000.0, "cuota":1700.0, "saldo":3197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7336, "fecha_inicio":"2022-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":4897.000000000006, "ahorro_total":-4897.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":15000.0, "cuota":750.0, "saldo":7114.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5257, "fecha_inicio":"2023-03-15", "tipo_deuda":"R", "ahorro_cuota_mensual":7864.0000000000155, "ahorro_total":-7864.0000000000155, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":3860.0, "saldo":26831.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1056, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":540.3240688517226, "ahorro_total":6483.888826220671, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":3000.0, "cuota":3200.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-04-24", "tipo_deuda":"R", "ahorro_cuota_mensual":3200.0, "ahorro_total":-3200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5610632, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 39729.0, "capacidad_maxima_pago": 639036.88, "bursolnum": 7317550, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20132.49706217271, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":100000.0, "cuota":11651.0, "saldo":97858.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.0214, "fecha_inicio":"2023-12-05", "tipo_deuda":"I", "ahorro_cuota_mensual":1304.7771529567344, "ahorro_total":15657.325835480813, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FONDOS Y FIDEIC", "registro":3, "monto_otorgado":261262.0, "cuota":13063.0, "saldo":77481.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":40.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.7034, "fecha_inicio":"2015-03-19", "tipo_deuda":"R", "ahorro_cuota_mensual":9436.782392573523, "ahorro_total":377471.2957029409, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":506576.0, "cuota":21226.0, "saldo":506576.0, "tasa_externa":0.4529, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-09-11", "tipo_deuda":"I", "ahorro_cuota_mensual":932.654488981043, "ahorro_total":55959.26933886258, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":18000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5660133, "monto_maximo_cliente": 10965.0, "cuota_externa_total": 5714.0, "capacidad_maxima_pago": 19442.0, "bursolnum": 7317849, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 433.1340984254972, "monto_max": 10965.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 41.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":30000.0, "cuota":3263.0, "saldo":28167.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":12.0, "numero_pagos_restante":9.0, "frecuencia_externa":"M", "avance":0.0611, "fecha_inicio":"2023-12-28", "tipo_deuda":"I", "ahorro_cuota_mensual":332.25582409257413, "ahorro_total":3987.0698891108896, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":4, "monto_otorgado":751.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-12-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":10900.0, "cuota":942.0, "saldo":9441.0, "tasa_externa":0.9497, "tasa_kubo":0.2622, "numero_pagos_otorgado":61.0, "numero_pagos_restante":23.0, "frecuencia_externa":"S", "avance":0.1339, "fecha_inicio":"2023-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":418.81820108867635, "ahorro_total":12564.54603266029, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":120700.0, "cuota":6035.0, "saldo":25611.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7878, "fecha_inicio":"2022-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":31645.999999999865, "ahorro_total":-31645.999999999865, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "GUBERNAMENTALES", "registro":5, "monto_otorgado":999.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-12-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
 </sst>
 </file>
@@ -84,7 +456,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,26 +465,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,85 +510,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFff0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFff0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFff0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFff0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFff0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFff0000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,10 +565,10 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -518,158 +842,1206 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="49.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="71.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="3">
+        <v>28837</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
-        <v>767837</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="3">
+        <v>39500</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7">
-        <v>3279161</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="3">
+        <v>380930</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7">
-        <v>3388929</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="3">
+        <v>405226</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="3">
+        <v>458697</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7">
-        <v>3399666</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="3">
+        <v>458697</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="3">
+        <v>458697</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="3">
+        <v>458697</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="3">
+        <v>557483</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="3">
+        <v>659364</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7">
-        <v>3590341</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="3">
+        <v>829025</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="3">
+        <v>847726</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7">
-        <v>3591168</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3">
+        <v>920002</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7">
-        <v>3622744</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3">
+        <v>976655</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="3">
+        <v>1177743</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7">
-        <v>4387308</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="3">
+        <v>1302408</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7">
-        <v>4871715</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="3">
+        <v>1448462</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="7">
-        <v>5112695</v>
-      </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="3">
+        <v>1496214</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7">
-        <v>5188639</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="3">
+        <v>1550610</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="7">
-        <v>5272657</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="3">
+        <v>1630602</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="3">
+        <v>1784380</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="3">
+        <v>1848246</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="3">
+        <v>2009039</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="3">
+        <v>2090977</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="3">
+        <v>2162754</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="3">
+        <v>2298632</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="3">
+        <v>2311104</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="3">
+        <v>2372071</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="3">
+        <v>2612016</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="3">
+        <v>2687735</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="3">
+        <v>2710338</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="3">
+        <v>2790904</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="3">
+        <v>2878373</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="3">
+        <v>2901882</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="3">
+        <v>2937559</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="3">
+        <v>3073017</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="3">
+        <v>3159500</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="3">
+        <v>3284861</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="3">
+        <v>3312894</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="3">
+        <v>3341344</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="3">
+        <v>3463619</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="3">
+        <v>3473842</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="3">
+        <v>3549605</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="3">
+        <v>3553967</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="3">
+        <v>3567378</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="3">
+        <v>3589493</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="3">
+        <v>3632363</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="3">
+        <v>3728149</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="3">
+        <v>3730883</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="3">
+        <v>3741894</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="3">
+        <v>3748714</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="3">
+        <v>3786062</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="3">
+        <v>3800116</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="3">
+        <v>3805773</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="3">
+        <v>3868724</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="3">
+        <v>3926429</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="3">
+        <v>3941195</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="3">
+        <v>3987119</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="3">
+        <v>4007295</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="3">
+        <v>4018492</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="3">
+        <v>4039644</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="3">
+        <v>4134401</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="3">
+        <v>4143061</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="3">
+        <v>4170086</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="3">
+        <v>4206571</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="3">
+        <v>4231833</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="3">
+        <v>4261012</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="3">
+        <v>4287160</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="3">
+        <v>4302613</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="3">
+        <v>4356609</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="3">
+        <v>4389079</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="3">
+        <v>4433343</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="3">
+        <v>4445474</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="3">
+        <v>4450135</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="3">
+        <v>4482737</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="3">
+        <v>4495647</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="3">
+        <v>4551959</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="3">
+        <v>4557823</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="3">
+        <v>4569317</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="3">
+        <v>4569546</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="3">
+        <v>4572013</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="3">
+        <v>4584137</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="3">
+        <v>4596838</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="3">
+        <v>4609687</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="3">
+        <v>4611310</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="3">
+        <v>4620988</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="3">
+        <v>4648381</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="3">
+        <v>4651445</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="3">
+        <v>4672618</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="3">
+        <v>4682530</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="3">
+        <v>4682600</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="3">
+        <v>4691173</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="3">
+        <v>4721165</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="3">
+        <v>4726077</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="3">
+        <v>4733030</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="3">
+        <v>4766643</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="3">
+        <v>4767970</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="3">
+        <v>4803033</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="3">
+        <v>4803129</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="3">
+        <v>4831217</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="3">
+        <v>4881018</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="3">
+        <v>4884745</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="3">
+        <v>4907839</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="3">
+        <v>4916169</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="3">
+        <v>4928823</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="3">
+        <v>4935313</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="3">
+        <v>4940454</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="3">
+        <v>4982051</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="3">
+        <v>5002691</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="3">
+        <v>5037305</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="3">
+        <v>5096951</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="3">
+        <v>5097565</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="3">
+        <v>5104626</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="3">
+        <v>5109565</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="3">
+        <v>5115747</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="3">
+        <v>5133040</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="3">
+        <v>5158482</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="3">
+        <v>5177117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="3">
+        <v>5205463</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="3">
+        <v>5206962</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="3">
+        <v>5215233</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="3">
+        <v>5252137</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="3">
+        <v>5267958</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="3">
+        <v>5283904</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="3">
+        <v>5286466</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="3">
+        <v>5286748</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="3">
+        <v>5310347</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="3">
+        <v>5327026</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="3">
+        <v>5361027</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="3">
+        <v>5383814</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="3">
+        <v>5417924</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="3">
+        <v>5446631</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="3">
+        <v>5446631</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="3">
+        <v>5446631</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="3">
+        <v>5446631</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="3">
+        <v>5476222</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="3">
+        <v>5484371</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="3">
+        <v>5511694</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="3">
+        <v>5532709</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="3">
+        <v>5544466</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="3">
+        <v>5547392</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="3">
+        <v>5550621</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="3">
+        <v>5555834</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="3">
+        <v>5556081</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="3">
+        <v>5587133</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="3">
+        <v>5610632</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="3">
+        <v>5660133</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>prospectus_id</t>
   </si>
@@ -22,22 +22,25 @@
     <t>Json</t>
   </si>
   <si>
+    <t>Monto maximo igual a la deuda consolidable</t>
+  </si>
+  <si>
     <t>{"Prospecto": 28837, "monto_maximo_cliente": 160000.0, "cuota_externa_total": 26582.0, "capacidad_maxima_pago": 151418.0, "bursolnum": 7317484, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4795.847147179248, "monto_max": 160000.0, "cuota_min": 130.08822700780902, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.165, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.165], "comisiones": [0], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":12900.0, "cuota":808.0, "saldo":10588.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1792, "fecha_inicio":"2022-08-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-597.8502317941084, "ahorro_total":-5978.502317941084, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2019-02-24", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":350000.0, "cuota":1011.0, "saldo":81278.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":40.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7678, "fecha_inicio":"2015-06-04", "tipo_deuda":"M", "ahorro_cuota_mensual":-1753.2323454138273, "ahorro_total":-70129.2938165531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":858.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":923.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-07-09", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":17000.0, "cuota":862.0, "saldo":15404.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0939, "fecha_inicio":"2023-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":3.896736049547485, "ahorro_total":93.52166518913964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":20000.0, "cuota":1305.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2010-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":1305.0, "ahorro_total":-1305.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":259150.0, "cuota":7238.0, "saldo":231420.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":54.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.107, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":43.21710984879246, "ahorro_total":2333.723931834793, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":30000.0, "cuota":3007.0, "saldo":28876.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0375, "fecha_inicio":"2022-04-20", "tipo_deuda":"R", "ahorro_cuota_mensual":31883.00000000014, "ahorro_total":-31883.00000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":80000.0, "cuota":5160.0, "saldo":80762.0, "tasa_externa":0.7762, "tasa_kubo":0.165, "numero_pagos_otorgado":144.0, "numero_pagos_restante":68.0, "frecuencia_externa":"S", "avance":-0.0095, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":3283.444156192121, "ahorro_total":236407.9792458327, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":39500.0, "cuota":4500.0, "saldo":77318.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.9574, "fecha_inicio":"2009-01-06", "tipo_deuda":"R", "ahorro_cuota_mensual":81818.00000000036, "ahorro_total":-81818.00000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":69600.0, "cuota":2596.0, "saldo":39767.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4286, "fecha_inicio":"2023-09-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-4989.05241340077, "ahorro_total":-49890.524134007705, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":80000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":43.0, "numero_pagos_restante":16.0, "frecuencia_externa":"S", "avance":1.0, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":-4340.230522526159, "ahorro_total":-95485.0714955755, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11900.0, "cuota":744.0, "saldo":9704.0, "tasa_externa":-1.0, "tasa_kubo":0.165, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1845, "fecha_inicio":"2022-07-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-552.869593670534, "ahorro_total":-5528.69593670534, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":80000.0, "cuota":5156.0, "saldo":80073.0, "tasa_externa":0.7756, "tasa_kubo":0.165, "numero_pagos_otorgado":144.0, "numero_pagos_restante":70.0, "frecuencia_externa":"S", "avance":-0.0009, "fecha_inicio":"2024-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":3279.444156192121, "ahorro_total":236119.9792458327, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 39500, "monto_maximo_cliente": 71900.0, "cuota_externa_total": 27925.0, "capacidad_maxima_pago": 81060.0, "bursolnum": 7317209, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2965.3458995878814, "monto_max": 71900.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":137585.0, "cuota":4665.0, "saldo":82503.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.4003, "fecha_inicio":"2022-11-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-1850.9934737731373, "ahorro_total":-66635.76505583295, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":4632.0, "saldo":94959.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.0504, "fecha_inicio":"2023-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-103.97664990597605, "ahorro_total":-3743.1593966151377, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":65000.0, "cuota":3101.0, "saldo":65669.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":32.0, "frecuencia_externa":"M", "avance":-0.0103, "fecha_inicio":"2023-12-04", "tipo_deuda":"I", "ahorro_cuota_mensual":22.615177561115615, "ahorro_total":814.1463922001622, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":71900.0, "cuota":4588.0, "saldo":72761.0, "tasa_externa":0.7567, "tasa_kubo":0.3337, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.012, "fecha_inicio":"2024-01-04", "tipo_deuda":"I", "ahorro_cuota_mensual":1863.1069267607159, "ahorro_total":111786.41560564295, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":4500.0, "cuota":29.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":900.0, "numero_pagos_restante":767.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":29.0, "ahorro_total":26100.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":2718.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8641, "fecha_inicio":"2019-08-11", "tipo_deuda":"R", "ahorro_cuota_mensual":3717.999999999993, "ahorro_total":-3717.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":500.0, "cuota":6336.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-08-03", "tipo_deuda":"R", "ahorro_cuota_mensual":6336.0, "ahorro_total":-6336.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":100000.0, "cuota":3589.0, "saldo":82549.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":48.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.1745, "fecha_inicio":"2022-11-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-535.2641162557456, "ahorro_total":-25692.67758027579, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":102000.0, "cuota":344.0, "saldo":2161.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9788, "fecha_inicio":"2019-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":2504.9999999999945, "ahorro_total":-2504.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":30000.0, "cuota":1435.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-09", "tipo_deuda":"R", "ahorro_cuota_mensual":1435.0, "ahorro_total":-1435.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":37800.0, "cuota":3000.0, "saldo":6242.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8349, "fecha_inicio":"2021-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":9241.999999999985, "ahorro_total":-9241.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":45800.0, "cuota":2290.0, "saldo":5848.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8723, "fecha_inicio":"2023-08-25", "tipo_deuda":"R", "ahorro_cuota_mensual":8137.999999999985, "ahorro_total":-8137.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":20000.0, "cuota":96.0, "saldo":127.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9936, "fecha_inicio":"2022-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":222.99999999999966, "ahorro_total":-222.99999999999966, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":117200.0, "cuota":6776.0, "saldo":111852.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0456, "fecha_inicio":"2023-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-7122.1843719153785, "ahorro_total":-71221.84371915378, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":2000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>ahorro_cuota_mensual -inf</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 240179, "monto_maximo_cliente": 28000.0, "cuota_externa_total": 7716.0, "capacidad_maxima_pago": 36100.0, "bursolnum": 7316960, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 912.2138553629048, "monto_max": 28000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":55000.0, "cuota":3654.0, "saldo":49283.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1039, "fecha_inicio":"2023-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":1519.227833189288, "ahorro_total":54692.20199481437, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":37772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.1364, "fecha_inicio":"2023-05-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":36636.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":27.0, "frecuencia_externa":"W", "avance":0.1623, "fecha_inicio":"2023-04-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":-1.0, "saldo":637.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9204, "fecha_inicio":"2023-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":5600.0, "cuota":-1.0, "saldo":1090.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8054, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":35000.0, "cuota":980.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":980.0, "ahorro_total":-980.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6000.0, "cuota":300.0, "saldo":4674.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":23.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.221, "fecha_inicio":"2022-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":46.33658520444712, "ahorro_total":1065.7414597022837, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":12500.0, "cuota":625.0, "saldo":4046.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6763, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":4670.999999999993, "ahorro_total":-4670.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28000.0, "cuota":1389.0, "saldo":26826.0, "tasa_externa":0.4314, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0419, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":302.2068968963647, "ahorro_total":10879.44828826913, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":3000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 380930, "monto_maximo_cliente": 41100.0, "cuota_externa_total": 9644.0, "capacidad_maxima_pago": 42113.0, "bursolnum": 7317848, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1921.2888041034741, "monto_max": 41100.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":12, "monto_otorgado":9000.0, "cuota":450.0, "saldo":2754.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.694, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1300.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-03-21", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":40000.0, "cuota":2856.0, "saldo":37674.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0582, "fecha_inicio":"2023-06-27", "tipo_deuda":"I", "ahorro_cuota_mensual":657.6585748048092, "ahorro_total":23675.70869297313, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":9000.0, "cuota":450.0, "saldo":4919.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4534, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":1, "monto_otorgado":41223.0, "cuota":2425.0, "saldo":40647.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":49.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.014, "fecha_inicio":"2023-11-03", "tipo_deuda":"I", "ahorro_cuota_mensual":400.892394629843, "ahorro_total":19643.727336862306, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":28000.0, "cuota":21042.0, "saldo":6100.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7821, "fecha_inicio":"2020-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":27141.99999999999, "ahorro_total":-27141.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":20000.0, "cuota":1666.0, "saldo":16133.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1934, "fecha_inicio":"2023-02-17", "tipo_deuda":"R", "ahorro_cuota_mensual":17798.999999999967, "ahorro_total":-17798.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41100.0, "cuota":2424.0, "saldo":41524.0, "tasa_externa":0.6929, "tasa_kubo":0.4428, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0103, "fecha_inicio":"2024-01-09", "tipo_deuda":"I", "ahorro_cuota_mensual":509.94794095986595, "ahorro_total":30596.876457591956, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 405226, "monto_maximo_cliente": 205500.0, "cuota_externa_total": 239493.0, "capacidad_maxima_pago": 126007.0, "bursolnum": 7316530, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7183.5577919854995, "monto_max": 205500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":39, "monto_otorgado":495000.0, "cuota":31259.0, "saldo":228125.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5391, "fecha_inicio":"2021-01-20", "tipo_deuda":"O", "ahorro_cuota_mensual":16183.860777170179, "ahorro_total":323677.2155434036, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":21, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2019-06-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-07-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":17, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-11-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-05-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":350900.0, "cuota":16622.0, "saldo":206760.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.4108, "fecha_inicio":"2021-07-14", "tipo_deuda":"I", "ahorro_cuota_mensual":3063.1080061094963, "ahorro_total":143966.07628714634, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":138700.0, "cuota":6388.0, "saldo":107088.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":52.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.2279, "fecha_inicio":"2021-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":1275.0749096445152, "ahorro_total":66303.89530151479, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":233160.0, "cuota":5691.0, "saldo":146279.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":0.3726, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-2405.9989825443863, "ahorro_total":-144359.9389526632, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":226020.0, "cuota":4566.0, "saldo":134253.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.406, "fecha_inicio":"2021-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-2797.0599259490555, "ahorro_total":-201388.314668332, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-06-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":23, "monto_otorgado":300000.0, "cuota":1.0, "saldo":254513.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1516, "fecha_inicio":"2023-07-03", "tipo_deuda":"O", "ahorro_cuota_mensual":-11340.308568610357, "ahorro_total":-408251.10846997285, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":300000.0, "cuota":1.0, "saldo":241667.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1944, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-13367.246693029854, "ahorro_total":-481220.88094907475, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":45000.0, "cuota":2250.0, "saldo":24201.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4622, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":900000.0, "cuota":53621.0, "saldo":816040.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0933, "fecha_inicio":"2023-09-15", "tipo_deuda":"O", "ahorro_cuota_mensual":6381.533609186947, "ahorro_total":153156.80662048672, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":59003.0, "cuota":722.0, "saldo":50966.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":144.0, "numero_pagos_restante":67.0, "frecuencia_externa":"S", "avance":0.1362, "fecha_inicio":"2023-10-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1200.1423980655345, "ahorro_total":-86410.25266071848, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":132552.0, "cuota":3894.0, "saldo":108273.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":36.0, "frecuencia_externa":"S", "avance":0.1832, "fecha_inicio":"2023-04-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-1176.214119532745, "ahorro_total":-56458.277737571756, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":205500.0, "cuota":7809.0, "saldo":76789.0, "tasa_externa":0.394, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":11.0, "frecuencia_externa":"M", "avance":0.6263, "fecha_inicio":"2020-03-04", "tipo_deuda":"I", "ahorro_cuota_mensual":672.5559662340393, "ahorro_total":40353.35797404236, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":155300.0, "cuota":8000.0, "saldo":40529.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.739, "fecha_inicio":"2012-03-20", "tipo_deuda":"R", "ahorro_cuota_mensual":48528.99999999988, "ahorro_total":-48528.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":135000.0, "cuota":6750.0, "saldo":91545.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3219, "fecha_inicio":"2016-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":98294.99999999975, "ahorro_total":-98294.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":1174.0, "saldo":11184.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2011, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":12357.99999999997, "ahorro_total":-12357.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":106205.0, "cuota":9827.0, "saldo":170436.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":-0.6048, "fecha_inicio":"2023-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":3678.9343070973237, "ahorro_total":88294.42337033577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":418548.0, "cuota":85856.0, "saldo":220008.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":78.0, "numero_pagos_restante":9.0, "frecuencia_externa":"W", "avance":0.4744, "fecha_inicio":"2023-05-10", "tipo_deuda":"I", "ahorro_cuota_mensual":58197.17535808449, "ahorro_total":1163943.5071616897, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":19, "monto_otorgado":136814.0, "cuota":6520.0, "saldo":106713.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.22, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":1233.4618146134635, "ahorro_total":57972.70528683279, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 240179, "monto_maximo_cliente": 28000.0, "cuota_externa_total": 7716.0, "capacidad_maxima_pago": 36100.0, "bursolnum": 7316960, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 912.2138553629048, "monto_max": 28000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":55000.0, "cuota":3654.0, "saldo":49283.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.1039, "fecha_inicio":"2023-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":1519.227833189288, "ahorro_total":54692.20199481437, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":37772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":28.0, "frecuencia_externa":"W", "avance":0.1364, "fecha_inicio":"2023-05-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":43736.0, "cuota":1136.0, "saldo":36636.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":154.0, "numero_pagos_restante":27.0, "frecuencia_externa":"W", "avance":0.1623, "fecha_inicio":"2023-04-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-499.6453448490415, "ahorro_total":-18986.52310426358, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":8000.0, "cuota":-1.0, "saldo":637.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9204, "fecha_inicio":"2023-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":5600.0, "cuota":-1.0, "saldo":1090.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8054, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":35000.0, "cuota":980.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-09", "tipo_deuda":"R", "ahorro_cuota_mensual":980.0, "ahorro_total":-980.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6000.0, "cuota":300.0, "saldo":4674.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":23.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.221, "fecha_inicio":"2022-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":46.33658520444712, "ahorro_total":1065.7414597022837, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":12500.0, "cuota":625.0, "saldo":4046.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6763, "fecha_inicio":"2023-11-16", "tipo_deuda":"R", "ahorro_cuota_mensual":4670.999999999993, "ahorro_total":-4670.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28000.0, "cuota":1389.0, "saldo":26826.0, "tasa_externa":0.4314, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.0419, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":302.2068968963647, "ahorro_total":10879.44828826913, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":3000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 380930, "monto_maximo_cliente": 41100.0, "cuota_externa_total": 9644.0, "capacidad_maxima_pago": 42113.0, "bursolnum": 7317848, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1921.2888041034741, "monto_max": 41100.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":12, "monto_otorgado":9000.0, "cuota":450.0, "saldo":2754.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.694, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1300.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-03-21", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":40000.0, "cuota":2856.0, "saldo":37674.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0582, "fecha_inicio":"2023-06-27", "tipo_deuda":"I", "ahorro_cuota_mensual":657.6585748048092, "ahorro_total":23675.70869297313, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":9000.0, "cuota":450.0, "saldo":4919.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4534, "fecha_inicio":"2022-05-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":1, "monto_otorgado":41223.0, "cuota":2425.0, "saldo":40647.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":49.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.014, "fecha_inicio":"2023-11-03", "tipo_deuda":"I", "ahorro_cuota_mensual":400.892394629843, "ahorro_total":19643.727336862306, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":28000.0, "cuota":21042.0, "saldo":6100.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7821, "fecha_inicio":"2020-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":27141.99999999999, "ahorro_total":-27141.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":20000.0, "cuota":1666.0, "saldo":16133.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1934, "fecha_inicio":"2023-02-17", "tipo_deuda":"R", "ahorro_cuota_mensual":17798.999999999967, "ahorro_total":-17798.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41100.0, "cuota":2424.0, "saldo":41524.0, "tasa_externa":0.6929, "tasa_kubo":0.4428, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0103, "fecha_inicio":"2024-01-09", "tipo_deuda":"I", "ahorro_cuota_mensual":509.94794095986595, "ahorro_total":30596.876457591956, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>Deudas de servicios como consolidables</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 405226, "monto_maximo_cliente": 205500.0, "cuota_externa_total": 239493.0, "capacidad_maxima_pago": 126007.0, "bursolnum": 7316530, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7183.5577919854995, "monto_max": 205500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":39, "monto_otorgado":495000.0, "cuota":31259.0, "saldo":228125.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5391, "fecha_inicio":"2021-01-20", "tipo_deuda":"O", "ahorro_cuota_mensual":16183.860777170179, "ahorro_total":323677.2155434036, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":21, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2019-06-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-07-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":17, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-11-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-05-16", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":350900.0, "cuota":16622.0, "saldo":206760.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.4108, "fecha_inicio":"2021-07-14", "tipo_deuda":"I", "ahorro_cuota_mensual":3063.1080061094963, "ahorro_total":143966.07628714634, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":138700.0, "cuota":6388.0, "saldo":107088.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":52.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.2279, "fecha_inicio":"2021-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":1275.0749096445152, "ahorro_total":66303.89530151479, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":233160.0, "cuota":5691.0, "saldo":146279.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":36.0, "frecuencia_externa":"M", "avance":0.3726, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-2405.9989825443863, "ahorro_total":-144359.9389526632, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":226020.0, "cuota":4566.0, "saldo":134253.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":34.0, "frecuencia_externa":"M", "avance":0.406, "fecha_inicio":"2021-01-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-2797.0599259490555, "ahorro_total":-201388.314668332, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-06-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":23, "monto_otorgado":300000.0, "cuota":1.0, "saldo":254513.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1516, "fecha_inicio":"2023-07-03", "tipo_deuda":"O", "ahorro_cuota_mensual":-11340.308568610357, "ahorro_total":-408251.10846997285, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":300000.0, "cuota":1.0, "saldo":241667.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1944, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-13367.246693029854, "ahorro_total":-481220.88094907475, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":45000.0, "cuota":2250.0, "saldo":24201.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4622, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":900000.0, "cuota":53621.0, "saldo":816040.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0933, "fecha_inicio":"2023-09-15", "tipo_deuda":"O", "ahorro_cuota_mensual":6381.533609186947, "ahorro_total":153156.80662048672, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":59003.0, "cuota":722.0, "saldo":50966.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":144.0, "numero_pagos_restante":67.0, "frecuencia_externa":"S", "avance":0.1362, "fecha_inicio":"2023-10-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-1200.1423980655345, "ahorro_total":-86410.25266071848, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":132552.0, "cuota":3894.0, "saldo":108273.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":36.0, "frecuencia_externa":"S", "avance":0.1832, "fecha_inicio":"2023-04-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-1176.214119532745, "ahorro_total":-56458.277737571756, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":205500.0, "cuota":7809.0, "saldo":76789.0, "tasa_externa":0.394, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":11.0, "frecuencia_externa":"M", "avance":0.6263, "fecha_inicio":"2020-03-04", "tipo_deuda":"I", "ahorro_cuota_mensual":672.5559662340393, "ahorro_total":40353.35797404236, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":155300.0, "cuota":8000.0, "saldo":40529.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.739, "fecha_inicio":"2012-03-20", "tipo_deuda":"R", "ahorro_cuota_mensual":48528.99999999988, "ahorro_total":-48528.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":135000.0, "cuota":6750.0, "saldo":91545.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3219, "fecha_inicio":"2016-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":98294.99999999975, "ahorro_total":-98294.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":1174.0, "saldo":11184.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2011, "fecha_inicio":"2023-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":12357.99999999997, "ahorro_total":-12357.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":106205.0, "cuota":9827.0, "saldo":170436.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":-0.6048, "fecha_inicio":"2023-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":3678.9343070973237, "ahorro_total":88294.42337033577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":418548.0, "cuota":85856.0, "saldo":220008.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":78.0, "numero_pagos_restante":9.0, "frecuencia_externa":"W", "avance":0.4744, "fecha_inicio":"2023-05-10", "tipo_deuda":"I", "ahorro_cuota_mensual":58197.17535808449, "ahorro_total":1163943.5071616897, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":19, "monto_otorgado":136814.0, "cuota":6520.0, "saldo":106713.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":47.0, "numero_pagos_restante":37.0, "frecuencia_externa":"M", "avance":0.22, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":1233.4618146134635, "ahorro_total":57972.70528683279, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 458697, "monto_maximo_cliente": 175800.0, "cuota_externa_total": 60240.0, "capacidad_maxima_pago": 146606.0, "bursolnum": 7340616, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 11065.485474797928, "monto_max": 175800.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":12000.0, "cuota":1367.0, "saldo":10020.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.165, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-9186.11744, "ahorro_total":-9186.11744, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":25, "monto_otorgado":10000.0, "cuota":1521.0, "saldo":1521.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8479, "fecha_inicio":"2023-08-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-9011.053333333333, "ahorro_total":-9011.053333333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":16000.0, "cuota":961.0, "saldo":14510.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0931, "fecha_inicio":"2022-01-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15470.999999999989, "ahorro_total":-15470.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":79000.0, "cuota":8295.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":900.0, "numero_pagos_restante":826.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8295.0, "ahorro_total":7465500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":14, "monto_otorgado":21000.0, "cuota":1772.0, "saldo":3367.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8397, "fecha_inicio":"2022-09-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-69.73504670700981, "ahorro_total":-1255.2308407261767, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":3500.0, "cuota":204.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-05-25", "tipo_deuda":"R", "ahorro_cuota_mensual":204.0, "ahorro_total":-204.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":90000.0, "cuota":4849.0, "saldo":80026.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1108, "fecha_inicio":"2022-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-373.21924255754857, "ahorro_total":-17914.52364276233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":191900.0, "cuota":4327.0, "saldo":8282.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9568, "fecha_inicio":"2018-03-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-6133.490877377719, "ahorro_total":-441611.34317119577, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-17.04125751743345, "ahorro_total":-613.4852706276042, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":17000.0, "cuota":1053.0, "saldo":16004.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":36.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0586, "fecha_inicio":"2023-05-03",</t>
@@ -91,7 +94,7 @@
     <t>{"Prospecto": 2090977, "monto_maximo_cliente": 58300.0, "cuota_externa_total": 12003.0, "capacidad_maxima_pago": 57593.86, "bursolnum": 7316152, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3618.98259942061, "monto_max": 58300.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":30000.0, "cuota":2392.0, "saldo":16462.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.4513, "fecha_inicio":"2022-10-24", "tipo_deuda":"I", "ahorro_cuota_mensual":47.53026370028374, "ahorro_total":1140.7263288068098, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":5000.0, "cuota":218.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":900.0, "numero_pagos_restante":871.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-11-17", "tipo_deuda":"R", "ahorro_cuota_mensual":218.0, "ahorro_total":196200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":47000.0, "cuota":2841.0, "saldo":16747.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6437, "fecha_inicio":"2021-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-293.9951506002203, "ahorro_total":-10583.825421607931, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":10800.0, "cuota":540.0, "saldo":10458.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0317, "fecha_inicio":"2023-07-06", "tipo_deuda":"R", "ahorro_cuota_mensual":10997.999999999989, "ahorro_total":-10997.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":58300.0, "cuota":6532.0, "saldo":54256.0, "tasa_externa":1.4595, "tasa_kubo":0.5991, "numero_pagos_otorgado":261.0, "numero_pagos_restante":55.0, "frecuencia_externa":"W", "avance":0.0694, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":3066.438881547675, "ahorro_total":199318.5273005989, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":8000.0, "cuota":400.0, "saldo":3851.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5186, "fecha_inicio":"2019-06-24", "tipo_deuda":"R", "ahorro_cuota_mensual":4250.999999999996, "ahorro_total":-4250.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 2162754, "monto_maximo_cliente": 54000.0, "cuota_externa_total": 11791.0, "capacidad_maxima_pago": 64709.0, "bursolnum": 7317537, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5451.090349008467, "monto_max": 54000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":17200.0, "cuota":1589.0, "saldo":12415.0, "tasa_externa":0.7305, "tasa_kubo":0.6509, "numero_pagos_otorgado":18.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.2782, "fecha_inicio":"2023-06-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-34.54721391740736, "ahorro_total":-621.8498505133325, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":36800.0, "cuota":4431.0, "saldo":21148.0, "tasa_externa":0.751, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4253, "fecha_inicio":"2022-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-28.941040968760717, "ahorro_total":-347.2924916251286, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":8500.0, "cuota":425.0, "saldo":4988.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4132, "fecha_inicio":"2021-10-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":8563.0, "cuota":428.0, "saldo":2893.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6622, "fecha_inicio":"2014-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":625.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-11-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":52527.0, "cuota":3401.0, "saldo":48417.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":40.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0782, "fecha_inicio":"2023-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-219.31153671878928, "ahorro_total":-8772.461468751571, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":21020.0, "cuota":1736.0, "saldo":21248.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":-0.0108, "fecha_inicio":"2024-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":15.681535038260336, "ahorro_total":376.35684091824805, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-10-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 2162754, "monto_maximo_cliente": 54000.0, "cuota_externa_total": 11791.0, "capacidad_maxima_pago": 64709.0, "bursolnum": 7317537, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5451.090349008467, "monto_max": 54000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 16.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":17200.0, "cuota":1589.0, "saldo":12415.0, "tasa_externa":0.7305, "tasa_kubo":0.6509, "numero_pagos_otorgado":18.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.2782, "fecha_inicio":"2023-06-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-34.54721391740736, "ahorro_total":-621.8498505133325, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":36800.0, "cuota":4431.0, "saldo":21148.0, "tasa_externa":0.751, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4253, "fecha_inicio":"2022-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-28.941040968760717, "ahorro_total":-347.2924916251286, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":8500.0, "cuota":425.0, "saldo":4988.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4132, "fecha_inicio":"2021-10-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":8563.0, "cuota":428.0, "saldo":2893.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6622, "fecha_inicio":"2014-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":625.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-11-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":52527.0, "cuota":3401.0, "saldo":48417.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":40.0, "numero_pagos_restante":25.0, "frecuencia_externa":"M", "avance":0.0782, "fecha_inicio":"2023-01-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-219.31153671878928, "ahorro_total":-8772.461468751571, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":21020.0, "cuota":1736.0, "saldo":21248.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":-0.0108, "fecha_inicio":"2024-01-25", "tipo_deuda":"I", "ahorro_cuota_mensual":15.681535038260336, "ahorro_total":376.35684091824805, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":7, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-10-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 2298632, "monto_maximo_cliente": 102436.0, "cuota_externa_total": 27186.0, "capacidad_maxima_pago": 99249.0, "bursolnum": 7317447, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3713.0879129157443, "monto_max": 102436.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":10, "monto_otorgado":1242826.0, "cuota":9082.0, "saldo":1055485.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":720.0, "numero_pagos_restante":256.0, "frecuencia_externa":"S", "avance":0.1507, "fecha_inicio":"2015-07-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-22422.513836329126, "ahorro_total":-8072104.981078485, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":9, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2015-11-04", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":1116.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-10-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "GUBERNAMENTALES", "registro":7, "monto_otorgado":2169.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"1989-08-14", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":100000.0, "cuota":5441.0, "saldo":89582.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":51.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.1042, "fecha_inicio":"2022-06-03", "tipo_deuda":"I", "ahorro_cuota_mensual":1925.5944447306283, "ahorro_total":98205.31668126205, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7800.0, "cuota":5702.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2003-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":5702.0, "ahorro_total":-5702.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":54000.0, "cuota":3046.0, "saldo":46577.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1375, "fecha_inicio":"2020-03-21", "tipo_deuda":"R", "ahorro_cuota_mensual":49622.99999999976, "ahorro_total":-49622.99999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":102436.0, "cuota":4407.0, "saldo":66155.0, "tasa_externa":0.3276, "tasa_kubo":0.2622, "numero_pagos_otorgado":37.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.3542, "fecha_inicio":"2022-07-05", "tipo_deuda":"I", "ahorro_cuota_mensual":107.77989184105809, "ahorro_total":3987.8559981191493, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":94365.0, "cuota":5210.0, "saldo":82966.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":48.0, "numero_pagos_restante":28.0, "frecuencia_externa":"M", "avance":0.1208, "fecha_inicio":"2022-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":1789.468732649711, "ahorro_total":85894.49916718612, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -109,19 +112,19 @@
     <t>{"Prospecto": 2687735, "monto_maximo_cliente": 90000.0, "cuota_externa_total": 15609.0, "capacidad_maxima_pago": 105064.0, "bursolnum": 7316666, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2757.042788185569, "monto_max": 90000.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":90000.0, "cuota":3418.0, "saldo":86903.0, "tasa_externa":0.3937, "tasa_kubo":0.2306, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0344, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":683.2741215729652, "ahorro_total":40996.44729437791, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":41990.0, "cuota":3500.0, "saldo":38435.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0847, "fecha_inicio":"2016-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":41934.99999999983, "ahorro_total":-41934.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":60000.0, "cuota":3665.0, "saldo":38258.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":36.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.3624, "fecha_inicio":"2022-04-22", "tipo_deuda":"I", "ahorro_cuota_mensual":1223.5401680305313, "ahorro_total":44047.446049099126, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":152600.0, "cuota":8526.0, "saldo":117442.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":48.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2304, "fecha_inicio":"2022-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":3316.175786938158, "ahorro_total":159176.4377730316, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 2710338, "monto_maximo_cliente": 67158.0, "cuota_externa_total": 9897.0, "capacidad_maxima_pago": 73379.0, "bursolnum": 7317075, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4311.526817290196, "monto_max": 67158.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COOPERATIVA", "registro":48, "monto_otorgado":5000.0, "cuota":868.0, "saldo":378.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":26.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.9244, "fecha_inicio":"2012-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-132.23070171786173, "ahorro_total":-793.3842103071704, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":33, "monto_otorgado":999.0, "cuota":462.0, "saldo":462.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":929.0, "frecuencia_externa":"M", "avance":0.5375, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":436.686712, "ahorro_total":436686.712, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":22, "monto_otorgado":483.0, "cuota":175.0, "saldo":172.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6439, "fecha_inicio":"2023-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.9561450096482247, "ahorro_total":-11.868435028944674, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":178.0, "cuota":67.0, "saldo":65.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6348, "fecha_inicio":"2023-06-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1.0492881744981588, "ahorro_total":3.1478645234944764, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":12000.0, "cuota":600.0, "saldo":2596.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7837, "fecha_inicio":"2010-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":3196.0000000000005, "ahorro_total":-3196.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5400.0, "cuota":270.0, "saldo":1401.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7406, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":4000.0, "cuota":352.0, "saldo":3350.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":18.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.1625, "fecha_inicio":"2023-08-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.1095943541449174, "ahorro_total":-55.97269837460851, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":2600.0, "cuota":243.0, "saldo":731.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7188, "fecha_inicio":"2023-12-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":8100.0, "cuota":837.0, "saldo":2236.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.724, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3073.0000000000005, "ahorro_total":-3073.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":11000.0, "cuota":725.0, "saldo":5546.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4958, "fecha_inicio":"2022-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":6271.000000000001, "ahorro_total":-6271.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":2300.0, "cuota":550.0, "saldo":1448.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3704, "fecha_inicio":"2023-11-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1998.0000000000002, "ahorro_total":-1998.0000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":19000.0, "cuota":950.0, "saldo":10157.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4654, "fecha_inicio":"2020-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":11107.000000000004, "ahorro_total":-11107.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":25000.0, "cuota":800.0, "saldo":3321.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8672, "fecha_inicio":"2020-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4121.000000000001, "ahorro_total":-4121.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":67158.0, "cuota":5064.0, "saldo":48544.0, "tasa_externa":0.8371, "tasa_kubo":0.5668, "numero_pagos_otorgado":72.0, "numero_pagos_restante":20.0, "frecuencia_externa":"S", "avance":0.2772, "fecha_inicio":"2022-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":752.473182709804, "ahorro_total":27089.034577552942, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":2600.0, "cuota":338.0, "saldo":1688.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3508, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 2710338, "monto_maximo_cliente": 67158.0, "cuota_externa_total": 9897.0, "capacidad_maxima_pago": 73379.0, "bursolnum": 7317075, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4311.526817290196, "monto_max": 67158.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COOPERATIVA", "registro":48, "monto_otorgado":5000.0, "cuota":868.0, "saldo":378.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":26.0, "numero_pagos_restante":6.0, "frecuencia_externa":"W", "avance":0.9244, "fecha_inicio":"2012-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-132.23070171786173, "ahorro_total":-793.3842103071704, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":33, "monto_otorgado":999.0, "cuota":462.0, "saldo":462.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":929.0, "frecuencia_externa":"M", "avance":0.5375, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":436.686712, "ahorro_total":436686.712, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":22, "monto_otorgado":483.0, "cuota":175.0, "saldo":172.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6439, "fecha_inicio":"2023-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.9561450096482247, "ahorro_total":-11.868435028944674, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":178.0, "cuota":67.0, "saldo":65.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6348, "fecha_inicio":"2023-06-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1.0492881744981588, "ahorro_total":3.1478645234944764, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":12000.0, "cuota":600.0, "saldo":2596.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7837, "fecha_inicio":"2010-05-31", "tipo_deuda":"R", "ahorro_cuota_mensual":3196.0000000000005, "ahorro_total":-3196.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5400.0, "cuota":270.0, "saldo":1401.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7406, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":4000.0, "cuota":352.0, "saldo":3350.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":18.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.1625, "fecha_inicio":"2023-08-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-3.1095943541449174, "ahorro_total":-55.97269837460851, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":2600.0, "cuota":243.0, "saldo":731.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7188, "fecha_inicio":"2023-12-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":8100.0, "cuota":837.0, "saldo":2236.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.724, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3073.0000000000005, "ahorro_total":-3073.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":11000.0, "cuota":725.0, "saldo":5546.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4958, "fecha_inicio":"2022-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":6271.000000000001, "ahorro_total":-6271.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":2300.0, "cuota":550.0, "saldo":1448.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3704, "fecha_inicio":"2023-11-20", "tipo_deuda":"R", "ahorro_cuota_mensual":1998.0000000000002, "ahorro_total":-1998.0000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":19000.0, "cuota":950.0, "saldo":10157.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4654, "fecha_inicio":"2020-04-13", "tipo_deuda":"R", "ahorro_cuota_mensual":11107.000000000004, "ahorro_total":-11107.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":25000.0, "cuota":800.0, "saldo":3321.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8672, "fecha_inicio":"2020-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4121.000000000001, "ahorro_total":-4121.000000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":67158.0, "cuota":5064.0, "saldo":48544.0, "tasa_externa":0.8371, "tasa_kubo":0.5668, "numero_pagos_otorgado":72.0, "numero_pagos_restante":20.0, "frecuencia_externa":"S", "avance":0.2772, "fecha_inicio":"2022-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":752.473182709804, "ahorro_total":27089.034577552942, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":2600.0, "cuota":338.0, "saldo":1688.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3508, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 2790904, "monto_maximo_cliente": 231000.0, "cuota_externa_total": 50312.0, "capacidad_maxima_pago": 227250.0, "bursolnum": 7316902, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 15778.821653385676, "monto_max": 231000.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":229000.0, "cuota":12732.0, "saldo":177201.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":48.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.2262, "fecha_inicio":"2021-12-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-2910.208478897486, "ahorro_total":-139690.00698707934, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":94100.0, "cuota":1499.0, "saldo":3838.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9592, "fecha_inicio":"1996-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":5337.000000000005, "ahorro_total":-5337.000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":206000.0, "cuota":13274.0, "saldo":201548.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":120.0, "numero_pagos_restante":47.0, "frecuencia_externa":"S", "avance":0.0216, "fecha_inicio":"2023-03-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-425.23395633006476, "ahorro_total":-25514.037379803885, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":46500.0, "cuota":2830.0, "saldo":46284.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0046, "fecha_inicio":"2019-08-01", "tipo_deuda":"R", "ahorro_cuota_mensual":49114.00000000006, "ahorro_total":-49114.00000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":231000.0, "cuota":21476.0, "saldo":230588.0, "tasa_externa":1.1158, "tasa_kubo":0.6722, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0018, "fecha_inicio":"2019-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":5697.178346614324, "ahorro_total":273464.56063748756, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 2878373, "monto_maximo_cliente": 125000.0, "cuota_externa_total": 81336.0, "capacidad_maxima_pago": 101704.0, "bursolnum": 7374699, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4369.560700721107, "monto_max": 125000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":15000.0, "cuota":-1.0, "saldo":13698.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0868, "fecha_inicio":"2023-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":2459.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":13, "monto_otorgado":261238.0, "cuota":8972.0, "saldo":264919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":46.0, "frecuencia_externa":"M", "avance":-0.0141, "fecha_inicio":"2024-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-1020.5508189879838, "ahorro_total":-48986.43931142322, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":11, "monto_otorgado":68100.0, "cuota":49049.0, "saldo":19427.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7147, "fecha_inicio":"2017-02-21", "tipo_deuda":"R", "ahorro_cuota_mensual":68475.99999999994, "ahorro_total":-68475.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":166000.0, "cuota":11561.0, "saldo":165222.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0047, "fecha_inicio":"2023-10-12", "tipo_deuda":"I", "ahorro_cuota_mensual":4163.90349652348, "ahorro_total":149900.52587484528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":33, "monto_otorgado":1700.0, "cuota":586.0, "saldo":1138.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3306, "fecha_inicio":"2023-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-12.886730074731418, "ahorro_total":-38.66019022419425, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":32, "monto_otorgado":9900.0, "cuota":935.0, "saldo":6855.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3076, "fecha_inicio":"2022-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-48.733156271222015, "ahorro_total":-584.7978752546642, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":31, "monto_otorgado":6800.0, "cuota":6945.0, "saldo":6804.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0006, "fecha_inicio":"2023-02-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-46.5469333333167, "ahorro_total":-46.5469333333167, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":30, "monto_otorgado":5500.0, "cuota":675.0, "saldo":3784.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.312, "fecha_inicio":"2022-11-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-25.366658169637276, "ahorro_total":-228.29992352673548, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":15000.0, "cuota":1910.0, "saldo":9214.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3857, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":35100.0, "cuota":3235.0, "saldo":22032.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3723, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":25266.999999999938, "ahorro_total":-25266.999999999938, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":6800.0, "saldo":79624.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":34.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.2038, "fecha_inicio":"2022-12-27", "tipo_deuda":"I", "ahorro_cuota_mensual":2190.6759204203354, "ahorro_total":74482.9812942914, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":63000.0, "cuota":3540.0, "saldo":58338.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.074, "fecha_inicio":"2017-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":61877.99999999984, "ahorro_total":-61877.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":125000.0, "cuota":5006.0, "saldo":123369.0, "tasa_externa":0.3728, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.013, "fecha_inicio":"2023-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":224.65558466418315, "ahorro_total":10783.468063880791, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":28000.0, "cuota":230.0, "saldo":22751.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1875, "fecha_inicio":"2018-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":22980.999999999935, "ahorro_total":-22980.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":25000.0, "cuota":20454.0, "saldo":15822.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3671, "fecha_inicio":"2023-06-26", "tipo_deuda":"R", "ahorro_cuota_mensual":36275.999999999956, "ahorro_total":-36275.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":20000.0, "cuota":1003.0, "saldo":19424.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0288, "fecha_inicio":"2018-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":20426.999999999945, "ahorro_total":-20426.999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":63000.0, "cuota":5000.0, "saldo":57266.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.091, "fecha_inicio":"2017-03-15", "tipo_deuda":"R", "ahorro_cuota_mensual":62265.99999999985, "ahorro_total":-62265.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":10569.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4716, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":11568.99999999997, "ahorro_total":-11568.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":55000.0, "cuota":3406.0, "saldo":53546.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0264, "fecha_inicio":"2022-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":56951.999999999854, "ahorro_total":-56951.999999999854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":3000.0, "cuota":449.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":449.0, "ahorro_total":-449.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":35100.0, "cuota":3730.0, "saldo":31369.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1063, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":44000.0, "cuota":2200.0, "saldo":43387.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0139, "fecha_inicio":"2017-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":45586.999999999876, "ahorro_total":-45586.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 2878373, "monto_maximo_cliente": 125000.0, "cuota_externa_total": 81336.0, "capacidad_maxima_pago": 101704.0, "bursolnum": 7374699, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4369.560700721107, "monto_max": 125000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":15000.0, "cuota":-1.0, "saldo":13698.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0868, "fecha_inicio":"2023-12-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":18, "monto_otorgado":2459.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":13, "monto_otorgado":261238.0, "cuota":8972.0, "saldo":264919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":46.0, "frecuencia_externa":"M", "avance":-0.0141, "fecha_inicio":"2024-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-1020.5508189879838, "ahorro_total":-48986.43931142322, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":11, "monto_otorgado":68100.0, "cuota":49049.0, "saldo":19427.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7147, "fecha_inicio":"2017-02-21", "tipo_deuda":"R", "ahorro_cuota_mensual":68475.99999999994, "ahorro_total":-68475.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":166000.0, "cuota":11561.0, "saldo":165222.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0047, "fecha_inicio":"2023-10-12", "tipo_deuda":"I", "ahorro_cuota_mensual":4163.90349652348, "ahorro_total":149900.52587484528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":33, "monto_otorgado":1700.0, "cuota":586.0, "saldo":1138.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3306, "fecha_inicio":"2023-02-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-12.886730074731418, "ahorro_total":-38.66019022419425, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":32, "monto_otorgado":9900.0, "cuota":935.0, "saldo":6855.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3076, "fecha_inicio":"2022-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-48.733156271222015, "ahorro_total":-584.7978752546642, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":31, "monto_otorgado":6800.0, "cuota":6945.0, "saldo":6804.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0006, "fecha_inicio":"2023-02-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-46.5469333333167, "ahorro_total":-46.5469333333167, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":30, "monto_otorgado":5500.0, "cuota":675.0, "saldo":3784.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.312, "fecha_inicio":"2022-11-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-25.366658169637276, "ahorro_total":-228.29992352673548, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":15000.0, "cuota":1910.0, "saldo":9214.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3857, "fecha_inicio":"2024-01-31", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":35100.0, "cuota":3235.0, "saldo":22032.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3723, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":25266.999999999938, "ahorro_total":-25266.999999999938, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":100000.0, "cuota":6800.0, "saldo":79624.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":34.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.2038, "fecha_inicio":"2022-12-27", "tipo_deuda":"I", "ahorro_cuota_mensual":2190.6759204203354, "ahorro_total":74482.9812942914, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":63000.0, "cuota":3540.0, "saldo":58338.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.074, "fecha_inicio":"2017-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":61877.99999999984, "ahorro_total":-61877.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":125000.0, "cuota":5006.0, "saldo":123369.0, "tasa_externa":0.3728, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.013, "fecha_inicio":"2023-08-16", "tipo_deuda":"I", "ahorro_cuota_mensual":224.65558466418315, "ahorro_total":10783.468063880791, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":28000.0, "cuota":230.0, "saldo":22751.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1875, "fecha_inicio":"2018-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":22980.999999999935, "ahorro_total":-22980.999999999935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":25000.0, "cuota":20454.0, "saldo":15822.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3671, "fecha_inicio":"2023-06-26", "tipo_deuda":"R", "ahorro_cuota_mensual":36275.999999999956, "ahorro_total":-36275.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":20000.0, "cuota":1003.0, "saldo":19424.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0288, "fecha_inicio":"2018-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":20426.999999999945, "ahorro_total":-20426.999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":63000.0, "cuota":5000.0, "saldo":57266.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.091, "fecha_inicio":"2017-03-15", "tipo_deuda":"R", "ahorro_cuota_mensual":62265.99999999985, "ahorro_total":-62265.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":10569.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4716, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":11568.99999999997, "ahorro_total":-11568.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":55000.0, "cuota":3406.0, "saldo":53546.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0264, "fecha_inicio":"2022-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":56951.999999999854, "ahorro_total":-56951.999999999854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":3000.0, "cuota":449.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-07-01", "tipo_deuda":"R", "ahorro_cuota_mensual":449.0, "ahorro_total":-449.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":35100.0, "cuota":3730.0, "saldo":31369.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1063, "fecha_inicio":"2020-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":44000.0, "cuota":2200.0, "saldo":43387.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0139, "fecha_inicio":"2017-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":45586.999999999876, "ahorro_total":-45586.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 2901882, "monto_maximo_cliente": 328500.0, "cuota_externa_total": 42978.0, "capacidad_maxima_pago": 330366.0, "bursolnum": 7316468, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10187.569080969615, "monto_max": 328500.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "BANCO", "registro":16, "monto_otorgado":209000.0, "cuota":11732.0, "saldo":209130.0, "tasa_externa":0.6547, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0006, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":5816.151024556162, "ahorro_total":348969.0614733697, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":50, "monto_otorgado":1000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2009-05-09", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":17, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2011-03-19", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":79100.0, "cuota":4982.0, "saldo":43011.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":10.0, "frecuencia_externa":"S", "avance":0.4562, "fecha_inicio":"2023-01-30", "tipo_deuda":"I", "ahorro_cuota_mensual":831.4131206856209, "ahorro_total":19953.914896454902, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1921.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2021-06-13", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2005-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":37930.0, "cuota":2675.0, "saldo":27513.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":17.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2746, "fecha_inicio":"2020-07-18", "tipo_deuda":"I", "ahorro_cuota_mensual":35.809750045089004, "ahorro_total":608.7657507665131, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":101600.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":42500.0, "cuota":231.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-17", "tipo_deuda":"R", "ahorro_cuota_mensual":231.0, "ahorro_total":-231.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":119500.0, "cuota":9010.0, "saldo":90105.0, "tasa_externa":0.837, "tasa_kubo":0.2, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.246, "fecha_inicio":"2011-04-06", "tipo_deuda":"I", "ahorro_cuota_mensual":4371.722292111271, "ahorro_total":157382.00251600574, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":211500.0, "cuota":10575.0, "saldo":68445.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6764, "fecha_inicio":"2017-04-12", "tipo_deuda":"R", "ahorro_cuota_mensual":79019.99999999985, "ahorro_total":-79019.99999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":110000.0, "cuota":177.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":177.0, "ahorro_total":-177.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":51500.0, "cuota":120.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":120.0, "ahorro_total":-120.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":114510.0, "cuota":5726.0, "saldo":46021.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5981, "fecha_inicio":"2003-08-29", "tipo_deuda":"R", "ahorro_cuota_mensual":51746.999999999905, "ahorro_total":-51746.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":95778.0, "cuota":5681.0, "saldo":64169.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.33, "fecha_inicio":"2023-05-09", "tipo_deuda":"I", "ahorro_cuota_mensual":655.2742082557188, "ahorro_total":15726.580998137251, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 2937559, "monto_maximo_cliente": 85395.0, "cuota_externa_total": 36859.0, "capacidad_maxima_pago": 67665.0, "bursolnum": 7317560, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5991.637935690177, "monto_max": 85395.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 31.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":8000.0, "cuota":6430.0, "saldo":6430.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1963, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":12859.999999999993, "ahorro_total":-12859.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":18, "monto_otorgado":6543.0, "cuota":124.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-02-08", "tipo_deuda":"R", "ahorro_cuota_mensual":124.0, "ahorro_total":-124.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":20, "monto_otorgado":12000.0, "cuota":600.0, "saldo":8960.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2533, "fecha_inicio":"2020-12-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":8400.0, "cuota":420.0, "saldo":6099.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2739, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":8100.0, "cuota":-1.0, "saldo":339.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9581, "fecha_inicio":"2023-12-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":23, "monto_otorgado":4100.0, "cuota":-1.0, "saldo":6066.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.4795, "fecha_inicio":"2024-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1075.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-11-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":38, "monto_otorgado":14040.0, "cuota":468.0, "saldo":14040.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":120.0, "numero_pagos_restante":22.0, "frecuencia_externa":"W", "avance":0.0, "fecha_inicio":"2023-07-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-529.3177334154271, "ahorro_total":-15879.532002462814, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":65, "monto_otorgado":8000.0, "cuota":2476.0, "saldo":7231.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0961, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":19, "monto_otorgado":28500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":13700.0, "cuota":1625.0, "saldo":13152.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.04, "fecha_inicio":"2023-12-19", "tipo_deuda":"I", "ahorro_cuota_mensual":9.549540641746717, "ahorro_total":114.5944877009606, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":24, "monto_otorgado":7354.0, "cuota":504.0, "saldo":4752.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3538, "fecha_inicio":"2024-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":8000.0, "cuota":1294.0, "saldo":4426.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4468, "fecha_inicio":"2023-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":5719.9999999999945, "ahorro_total":-5719.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2300.0, "cuota":300.0, "saldo":986.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5713, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1285.999999999999, "ahorro_total":-1285.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":13600.0, "cuota":883.0, "saldo":479.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9648, "fecha_inicio":"2023-06-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1361.9999999999995, "ahorro_total":-1361.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":20000.0, "cuota":1922.0, "saldo":16204.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1898, "fecha_inicio":"2023-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":18125.999999999985, "ahorro_total":-18125.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":19900.0, "cuota":1352.0, "saldo":13332.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3301, "fecha_inicio":"2022-05-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-9470.459608264802, "ahorro_total":-18940.919216529604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":84800.0, "cuota":5944.0, "saldo":76307.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1002, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-40173.81782818367, "ahorro_total":-80347.63565636735, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33700.0, "cuota":2364.0, "saldo":31661.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0605, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-15963.48184917205, "ahorro_total":-31926.9636983441, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":12000.0, "cuota":2390.0, "saldo":1962.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8365, "fecha_inicio":"2019-02-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4351.999999999998, "ahorro_total":-4351.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":22815.0, "cuota":1141.0, "saldo":22770.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.002, "fecha_inicio":"2021-02-02", "tipo_deuda":"R", "ahorro_cuota_mensual":23910.999999999975, "ahorro_total":-23910.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":16000.0, "cuota":1437.0, "saldo":1727.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8921, "fecha_inicio":"2020-02-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3163.999999999998, "ahorro_total":-3163.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48476.0, "cuota":3650.0, "saldo":47164.0, "tasa_externa":0.8355, "tasa_kubo":0.5991, "numero_pagos_otorgado":72.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.0271, "fecha_inicio":"2023-10-18", "tipo_deuda":"I", "ahorro_cuota_mensual":416.5526612660369, "ahorro_total":14995.89580557733, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36919.0, "cuota":3416.0, "saldo":33775.0, "tasa_externa":0.9449, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.0852, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":530.817393518359, "ahorro_total":12739.617444440617, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":4749.0, "cuota":3284.0, "saldo":1642.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.6542, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":1514.2084581612366, "ahorro_total":4542.62537448371, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":2000.0, "cuota":1302.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":1302.0, "ahorro_total":-1302.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 2937559, "monto_maximo_cliente": 85395.0, "cuota_externa_total": 36859.0, "capacidad_maxima_pago": 67665.0, "bursolnum": 7317560, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5991.637935690177, "monto_max": 85395.0, "cuota_min": 299.79381766541826, "monto_min": 5000, "plazo_max": 31.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":17, "monto_otorgado":8000.0, "cuota":6430.0, "saldo":6430.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1963, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":12859.999999999993, "ahorro_total":-12859.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":18, "monto_otorgado":6543.0, "cuota":124.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-02-08", "tipo_deuda":"R", "ahorro_cuota_mensual":124.0, "ahorro_total":-124.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":20, "monto_otorgado":12000.0, "cuota":600.0, "saldo":8960.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2533, "fecha_inicio":"2020-12-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":21, "monto_otorgado":8400.0, "cuota":420.0, "saldo":6099.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2739, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":22, "monto_otorgado":8100.0, "cuota":-1.0, "saldo":339.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9581, "fecha_inicio":"2023-12-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":23, "monto_otorgado":4100.0, "cuota":-1.0, "saldo":6066.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.4795, "fecha_inicio":"2024-01-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":1075.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-11-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":38, "monto_otorgado":14040.0, "cuota":468.0, "saldo":14040.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":120.0, "numero_pagos_restante":22.0, "frecuencia_externa":"W", "avance":0.0, "fecha_inicio":"2023-07-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-529.3177334154271, "ahorro_total":-15879.532002462814, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":65, "monto_otorgado":8000.0, "cuota":2476.0, "saldo":7231.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0961, "fecha_inicio":"2021-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":19, "monto_otorgado":28500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-07-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":13700.0, "cuota":1625.0, "saldo":13152.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.04, "fecha_inicio":"2023-12-19", "tipo_deuda":"I", "ahorro_cuota_mensual":9.549540641746717, "ahorro_total":114.5944877009606, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":24, "monto_otorgado":7354.0, "cuota":504.0, "saldo":4752.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3538, "fecha_inicio":"2024-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":16, "monto_otorgado":8000.0, "cuota":1294.0, "saldo":4426.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4468, "fecha_inicio":"2023-05-03", "tipo_deuda":"R", "ahorro_cuota_mensual":5719.9999999999945, "ahorro_total":-5719.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2300.0, "cuota":300.0, "saldo":986.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5713, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":1285.999999999999, "ahorro_total":-1285.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":13600.0, "cuota":883.0, "saldo":479.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9648, "fecha_inicio":"2023-06-19", "tipo_deuda":"R", "ahorro_cuota_mensual":1361.9999999999995, "ahorro_total":-1361.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":20000.0, "cuota":1922.0, "saldo":16204.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1898, "fecha_inicio":"2023-10-16", "tipo_deuda":"R", "ahorro_cuota_mensual":18125.999999999985, "ahorro_total":-18125.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":19900.0, "cuota":1352.0, "saldo":13332.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.3301, "fecha_inicio":"2022-05-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-9470.459608264802, "ahorro_total":-18940.919216529604, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":84800.0, "cuota":5944.0, "saldo":76307.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1002, "fecha_inicio":"2023-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":-40173.81782818367, "ahorro_total":-80347.63565636735, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":33700.0, "cuota":2364.0, "saldo":31661.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0605, "fecha_inicio":"2023-09-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-15963.48184917205, "ahorro_total":-31926.9636983441, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":12000.0, "cuota":2390.0, "saldo":1962.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8365, "fecha_inicio":"2019-02-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4351.999999999998, "ahorro_total":-4351.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":22815.0, "cuota":1141.0, "saldo":22770.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.002, "fecha_inicio":"2021-02-02", "tipo_deuda":"R", "ahorro_cuota_mensual":23910.999999999975, "ahorro_total":-23910.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":16000.0, "cuota":1437.0, "saldo":1727.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8921, "fecha_inicio":"2020-02-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3163.999999999998, "ahorro_total":-3163.999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48476.0, "cuota":3650.0, "saldo":47164.0, "tasa_externa":0.8355, "tasa_kubo":0.5991, "numero_pagos_otorgado":72.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.0271, "fecha_inicio":"2023-10-18", "tipo_deuda":"I", "ahorro_cuota_mensual":416.5526612660369, "ahorro_total":14995.89580557733, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36919.0, "cuota":3416.0, "saldo":33775.0, "tasa_externa":0.9449, "tasa_kubo":0.5991, "numero_pagos_otorgado":48.0, "numero_pagos_restante":19.0, "frecuencia_externa":"S", "avance":0.0852, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":530.817393518359, "ahorro_total":12739.617444440617, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":4749.0, "cuota":3284.0, "saldo":1642.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.6542, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":1514.2084581612366, "ahorro_total":4542.62537448371, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":15, "monto_otorgado":2000.0, "cuota":1302.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5991, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":1302.0, "ahorro_total":-1302.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 3073017, "monto_maximo_cliente": 21000.0, "cuota_externa_total": 16679.0, "capacidad_maxima_pago": 23321.0, "bursolnum": 7317317, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1150.271580551952, "monto_max": 21000.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 28.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":27000.0, "cuota":47.0, "saldo":932.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9655, "fecha_inicio":"2018-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":978.9999999999977, "ahorro_total":-978.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":90000.0, "cuota":6011.0, "saldo":78841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.124, "fecha_inicio":"2022-12-02", "tipo_deuda":"I", "ahorro_cuota_mensual":1748.6210150846218, "ahorro_total":62950.356543046386, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":21000.0, "cuota":1670.0, "saldo":8844.0, "tasa_externa":0.7274, "tasa_kubo":0.3337, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5789, "fecha_inicio":"2022-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":399.65367432061726, "ahorro_total":9591.688183694814, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-04-23", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":28100.0, "cuota":584.0, "saldo":20572.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2679, "fecha_inicio":"2016-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":21155.999999999945, "ahorro_total":-21155.999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":23446.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0982, "fecha_inicio":"2019-03-04", "tipo_deuda":"R", "ahorro_cuota_mensual":24745.999999999938, "ahorro_total":-24745.999999999938, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":3, "monto_otorgado":200000.0, "cuota":7741.0, "saldo":188085.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0596, "fecha_inicio":"2023-09-19", "tipo_deuda":"I", "ahorro_cuota_mensual":161.32524829128215, "ahorro_total":9679.514897476929, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -145,7 +148,7 @@
     <t>{"Prospecto": 3473842, "monto_maximo_cliente": 5800.0, "cuota_externa_total": 2951.0, "capacidad_maxima_pago": 9849.0, "bursolnum": 7316387, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 628.0988813440744, "monto_max": 5800.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 12.0, "plazo_min": 4, "tasa": 0.4428, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":13100.0, "cuota":655.0, "saldo":1329.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8985, "fecha_inicio":"2023-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-730.886515999998, "ahorro_total":-730.886515999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":12000.0, "cuota":1651.0, "saldo":7430.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3808, "fecha_inicio":"2023-09-11", "tipo_deuda":"I", "ahorro_cuota_mensual":16.397674972638697, "ahorro_total":147.57907475374827, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":13100.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-03-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":17, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2017-05-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":4530.0, "cuota":524.0, "saldo":250.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9448, "fecha_inicio":"2013-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":773.9999999999995, "ahorro_total":-773.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":5800.0, "cuota":1145.0, "saldo":4886.0, "tasa_externa":0.616, "tasa_kubo":0.4428, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1576, "fecha_inicio":"2024-01-22", "tipo_deuda":"I", "ahorro_cuota_mensual":28.460368362937515, "ahorro_total":170.7622101776251, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":2000.0, "cuota":3580.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-05-13", "tipo_deuda":"R", "ahorro_cuota_mensual":3580.0, "ahorro_total":-3580.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":4500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":36000.0, "cuota":1450.0, "saldo":4228.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8826, "fecha_inicio":"2018-07-15", "tipo_deuda":"R", "ahorro_cuota_mensual":5677.999999999992, "ahorro_total":-5677.999999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 3549605, "monto_maximo_cliente": 163300.0, "cuota_externa_total": 55494.0, "capacidad_maxima_pago": 143773.0, "bursolnum": 7317920, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8244.36739815244, "monto_max": 163300.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":16, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2015-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":56000.0, "cuota":3904.0, "saldo":56000.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":21.760060625548704, "ahorro_total":522.2414550131689, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":13, "monto_otorgado":1436320.0, "cuota":12683.0, "saldo":1228340.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":360.0, "numero_pagos_restante":256.0, "frecuencia_externa":"M", "avance":0.1448, "fecha_inicio":"2015-07-24", "tipo_deuda":"M", "ahorro_cuota_mensual":-43195.83057950822, "ahorro_total":-15550499.00862296, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":10, "monto_otorgado":315700.0, "cuota":5410.0, "saldo":32456.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8972, "fecha_inicio":"2019-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-10021.088176126632, "ahorro_total":-601265.290567598, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2095.0, "saldo":28849.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0384, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":15.228603906543867, "ahorro_total":365.4864937570528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":7, "monto_otorgado":80000.0, "cuota":4000.0, "saldo":52724.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3409, "fecha_inicio":"2019-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":56724.00000000002, "ahorro_total":-56724.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-02-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":26, "monto_otorgado":23400.0, "cuota":1250.0, "saldo":10949.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5321, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":17, "monto_otorgado":78000.0, "cuota":3900.0, "saldo":8885.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8861, "fecha_inicio":"2013-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":12785.000000000004, "ahorro_total":-12785.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":97963.0, "cuota":4898.0, "saldo":54845.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4401, "fecha_inicio":"2002-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":59743.00000000002, "ahorro_total":-59743.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":100000.0, "cuota":5000.0, "saldo":70192.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":900.0, "numero_pagos_restante":830.0, "frecuencia_externa":"Z", "avance":0.2981, "fecha_inicio":"2018-06-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1806.8723306666661, "ahorro_total":1626185.0975999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":96000.0, "cuota":5660.0, "saldo":82134.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1444, "fecha_inicio":"2023-11-07", "tipo_deuda":"R", "ahorro_cuota_mensual":87794.00000000004, "ahorro_total":-87794.00000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":258500.0, "cuota":12925.0, "saldo":51012.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8027, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":63937.00000000002, "ahorro_total":-63937.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":102000.0, "cuota":800.0, "saldo":3291.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9677, "fecha_inicio":"2023-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4091.0000000000014, "ahorro_total":-4091.0000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":254000.0, "cuota":4000.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4000.0, "ahorro_total":-4000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":23400.0, "cuota":40.0, "saldo":53.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9977, "fecha_inicio":"2012-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":93.00000000000003, "ahorro_total":-93.00000000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":163300.0, "cuota":20572.0, "saldo":148413.0, "tasa_externa":1.6396, "tasa_kubo":0.4706, "numero_pagos_otorgado":208.0, "numero_pagos_restante":43.0, "frecuencia_externa":"W", "avance":0.0912, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":12327.63260184756, "ahorro_total":641036.895296073, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":79430.0, "cuota":3972.0, "saldo":5365.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9325, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9337.000000000004, "ahorro_total":-9337.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 3549605, "monto_maximo_cliente": 163300.0, "cuota_externa_total": 55494.0, "capacidad_maxima_pago": 143773.0, "bursolnum": 7317920, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8244.36739815244, "monto_max": 163300.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.4706, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":16, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2015-08-10", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":15, "monto_otorgado":56000.0, "cuota":3904.0, "saldo":56000.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2024-01-31", "tipo_deuda":"I", "ahorro_cuota_mensual":21.760060625548704, "ahorro_total":522.2414550131689, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":13, "monto_otorgado":1436320.0, "cuota":12683.0, "saldo":1228340.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":360.0, "numero_pagos_restante":256.0, "frecuencia_externa":"M", "avance":0.1448, "fecha_inicio":"2015-07-24", "tipo_deuda":"M", "ahorro_cuota_mensual":-43195.83057950822, "ahorro_total":-15550499.00862296, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":10, "monto_otorgado":315700.0, "cuota":5410.0, "saldo":32456.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":60.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8972, "fecha_inicio":"2019-06-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-10021.088176126632, "ahorro_total":-601265.290567598, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2095.0, "saldo":28849.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0384, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":15.228603906543867, "ahorro_total":365.4864937570528, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":7, "monto_otorgado":80000.0, "cuota":4000.0, "saldo":52724.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3409, "fecha_inicio":"2019-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":56724.00000000002, "ahorro_total":-56724.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-02-07", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":26, "monto_otorgado":23400.0, "cuota":1250.0, "saldo":10949.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5321, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":17, "monto_otorgado":78000.0, "cuota":3900.0, "saldo":8885.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8861, "fecha_inicio":"2013-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":12785.000000000004, "ahorro_total":-12785.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":97963.0, "cuota":4898.0, "saldo":54845.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4401, "fecha_inicio":"2002-11-01", "tipo_deuda":"R", "ahorro_cuota_mensual":59743.00000000002, "ahorro_total":-59743.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":100000.0, "cuota":5000.0, "saldo":70192.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":900.0, "numero_pagos_restante":830.0, "frecuencia_externa":"Z", "avance":0.2981, "fecha_inicio":"2018-06-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1806.8723306666661, "ahorro_total":1626185.0975999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":96000.0, "cuota":5660.0, "saldo":82134.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1444, "fecha_inicio":"2023-11-07", "tipo_deuda":"R", "ahorro_cuota_mensual":87794.00000000004, "ahorro_total":-87794.00000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":258500.0, "cuota":12925.0, "saldo":51012.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8027, "fecha_inicio":"2013-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":63937.00000000002, "ahorro_total":-63937.00000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":102000.0, "cuota":800.0, "saldo":3291.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9677, "fecha_inicio":"2023-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4091.0000000000014, "ahorro_total":-4091.0000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":254000.0, "cuota":4000.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4000.0, "ahorro_total":-4000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":23400.0, "cuota":40.0, "saldo":53.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9977, "fecha_inicio":"2012-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":93.00000000000003, "ahorro_total":-93.00000000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":163300.0, "cuota":20572.0, "saldo":148413.0, "tasa_externa":1.6396, "tasa_kubo":0.4706, "numero_pagos_otorgado":208.0, "numero_pagos_restante":43.0, "frecuencia_externa":"W", "avance":0.0912, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":12327.63260184756, "ahorro_total":641036.895296073, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":79430.0, "cuota":3972.0, "saldo":5365.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9325, "fecha_inicio":"2004-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9337.000000000004, "ahorro_total":-9337.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 3553967, "monto_maximo_cliente": 18500.0, "cuota_externa_total": 6464.0, "capacidad_maxima_pago": 24836.0, "bursolnum": 7316324, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1420.8663578375517, "monto_max": 18500.0, "cuota_min": 308.7596227438041, "monto_min": 5000, "plazo_max": 26.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":35500.0, "cuota":2277.0, "saldo":15899.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":36.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.5521, "fecha_inicio":"2021-10-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-147.13159246341274, "ahorro_total":-5296.737328682859, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":1, "monto_otorgado":15000.0, "cuota":1553.0, "saldo":14197.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":15.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.0535, "fecha_inicio":"2023-11-09", "tipo_deuda":"I", "ahorro_cuota_mensual":9.913850674547348, "ahorro_total":148.70776011821022, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":15800.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-05-10", "tipo_deuda":"I", "ahorro_cuota_mensual":-16745.87753333335, "ahorro_total":-16745.87753333335, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7000.0, "cuota":558.0, "saldo":6186.0, "tasa_externa":0.7306, "tasa_kubo":0.6193, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.1163, "fecha_inicio":"2023-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":0.9391266801566189, "ahorro_total":22.539040323758854, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":11500.0, "cuota":1376.0, "saldo":10053.0, "tasa_externa":0.737, "tasa_kubo":0.6193, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1258, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":5.32417194305026, "ahorro_total":63.89006331660312, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":9800.0, "cuota":700.0, "saldo":9232.0, "tasa_externa":-1.0, "tasa_kubo":0.6193, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.058, "fecha_inicio":"2023-05-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9932.000000000004, "ahorro_total":-9932.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
@@ -181,10 +184,10 @@
     <t>{"Prospecto": 3805773, "monto_maximo_cliente": 68000.0, "cuota_externa_total": 8123.0, "capacidad_maxima_pago": 82877.0, "bursolnum": 7315963, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2083.0989955179853, "monto_max": 68000.0, "cuota_min": 151.9292154681686, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2306, 0.2], "comisiones": [0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-05-30", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":52000.0, "cuota":3447.0, "saldo":9804.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":26.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8115, "fecha_inicio":"2022-02-04", "tipo_deuda":"I", "ahorro_cuota_mensual":790.1471643479604, "ahorro_total":20543.82627304697, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":68000.0, "cuota":2676.0, "saldo":56967.0, "tasa_externa":0.4147, "tasa_kubo":0.2306, "numero_pagos_otorgado":60.0, "numero_pagos_restante":40.0, "frecuencia_externa":"M", "avance":0.1622, "fecha_inicio":"2022-07-25", "tipo_deuda":"I", "ahorro_cuota_mensual":609.7626696329071, "ahorro_total":36585.76017797443, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":3000.0, "cuota":150.0, "saldo":1945.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3517, "fecha_inicio":"2023-05-29", "tipo_deuda":"R", "ahorro_cuota_mensual":2094.999999999992, "ahorro_total":-2094.999999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":117500.0, "cuota":5875.0, "saldo":84305.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2825, "fecha_inicio":"2016-06-01", "tipo_deuda":"R", "ahorro_cuota_mensual":90179.99999999965, "ahorro_total":-90179.99999999965, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":29000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2306, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 3868724, "monto_maximo_cliente": 73000.0, "cuota_externa_total": 31174.0, "capacidad_maxima_pago": 62214.0, "bursolnum": 7317173, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4235.800052296678, "monto_max": 73000.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":28, "monto_otorgado":722.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-03-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2002-04-02", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2016-01-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-10-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":7, "monto_otorgado":363704.0, "cuota":5850.0, "saldo":482570.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":211.0, "frecuencia_externa":"M", "avance":-0.3268, "fecha_inicio":"2011-10-26", "tipo_deuda":"M", "ahorro_cuota_mensual":-19825.297908418557, "ahorro_total":-7137107.247030681, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3688.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1479, "fecha_inicio":"2023-06-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-49.354436781702134, "ahorro_total":-1184.5064827608512, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":3, "monto_otorgado":236321.0, "cuota":5997.0, "saldo":83697.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":60.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.6458, "fecha_inicio":"2020-05-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-7163.329014893279, "ahorro_total":-429799.7408935968, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-05-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":13634.0, "cuota":682.0, "saldo":4256.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6878, "fecha_inicio":"2023-11-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":14700.0, "cuota":1110.0, "saldo":2222.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8488, "fecha_inicio":"2023-09-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":2835.0, "saldo":2835.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7638, "fecha_inicio":"2023-08-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":75700.0, "cuota":4660.0, "saldo":64968.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1418, "fecha_inicio":"2014-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":69627.99999999994, "ahorro_total":-69627.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":24100.0, "cuota":1205.0, "saldo":15500.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3568, "fecha_inicio":"2022-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":16704.999999999985, "ahorro_total":-16704.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6200.0, "cuota":450.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":450.0, "ahorro_total":-450.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":73000.0, "cuota":5352.0, "saldo":69663.0, "tasa_externa":0.8602, "tasa_kubo":0.5504, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0457, "fecha_inicio":"2017-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1116.1999477033223, "ahorro_total":53577.59748975947, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-04-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 3926429, "monto_maximo_cliente": 9200.0, "cuota_externa_total": 13483.0, "capacidad_maxima_pago": 4896.0, "bursolnum": 7316286, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 285.3139590408537, "monto_max": 9200.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":14302.0, "cuota":715.0, "saldo":2974.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7921, "fecha_inicio":"2023-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":14303.0, "cuota":715.0, "saldo":5696.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6018, "fecha_inicio":"2024-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":14320.0, "cuota":716.0, "saldo":1991.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.861, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1543.0, "cuota":918.0, "saldo":918.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4051, "fecha_inicio":"2019-01-19", "tipo_deuda":"O", "ahorro_cuota_mensual":1835.9999999999982, "ahorro_total":-1835.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":40000.0, "cuota":2848.0, "saldo":18988.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5253, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":749.0938663391257, "ahorro_total":17978.252792139017, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":23600.0, "cuota":1813.0, "saldo":3445.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":21.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.854, "fecha_inicio":"2022-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":434.97967644236405, "ahorro_total":9134.573205289646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":14360.0, "cuota":718.0, "saldo":1166.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9188, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":20000.0, "cuota":1425.0, "saldo":11286.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.4357, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":375.54693316956286, "ahorro_total":9013.126396069509, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":14351.0, "cuota":718.0, "saldo":1736.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.879, "fecha_inicio":"2023-11-05", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":14317.0, "cuota":716.0, "saldo":1134.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9208, "fecha_inicio":"2023-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":11917.0, "cuota":596.0, "saldo":708.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9406, "fecha_inicio":"2023-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":14400.0, "cuota":236.0, "saldo":236.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9836, "fecha_inicio":"2023-07-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":15000.0, "cuota":1428.0, "saldo":14927.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":27.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0049, "fecha_inicio":"2023-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":713.147882840986, "ahorro_total":19254.99283670662, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":8000.0, "cuota":400.0, "saldo":7932.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0085, "fecha_inicio":"2021-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":8331.999999999985, "ahorro_total":-8331.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":8700.0, "cuota":435.0, "saldo":8649.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0059, "fecha_inicio":"2020-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":9083.999999999982, "ahorro_total":-9083.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":6500.0, "cuota":497.0, "saldo":4961.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2368, "fecha_inicio":"2021-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5457.99999999999, "ahorro_total":-5457.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9200.0, "cuota":368.0, "saldo":8268.0, "tasa_externa":0.426, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":42.0, "frecuencia_externa":"S", "avance":0.1013, "fecha_inicio":"2022-10-03", "tipo_deuda":"I", "ahorro_cuota_mensual":107.58942309051048, "ahorro_total":6455.3653854306285, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":12400.0, "cuota":1007.0, "saldo":12223.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":13229.999999999976, "ahorro_total":-13229.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":14384.0, "cuota":719.0, "saldo":2811.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8046, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 3868724, "monto_maximo_cliente": 73000.0, "cuota_externa_total": 31174.0, "capacidad_maxima_pago": 62214.0, "bursolnum": 7317173, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4235.800052296678, "monto_max": 73000.0, "cuota_min": 278.44180193239873, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5504, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":28, "monto_otorgado":722.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-03-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2002-04-02", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2016-01-02", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-10-21", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":7, "monto_otorgado":363704.0, "cuota":5850.0, "saldo":482570.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":360.0, "numero_pagos_restante":211.0, "frecuencia_externa":"M", "avance":-0.3268, "fecha_inicio":"2011-10-26", "tipo_deuda":"M", "ahorro_cuota_mensual":-19825.297908418557, "ahorro_total":-7137107.247030681, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":50000.0, "cuota":3688.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1479, "fecha_inicio":"2023-06-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-49.354436781702134, "ahorro_total":-1184.5064827608512, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":3, "monto_otorgado":236321.0, "cuota":5997.0, "saldo":83697.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":60.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.6458, "fecha_inicio":"2020-05-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-7163.329014893279, "ahorro_total":-429799.7408935968, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-05-20", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":13634.0, "cuota":682.0, "saldo":4256.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6878, "fecha_inicio":"2023-11-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":14700.0, "cuota":1110.0, "saldo":2222.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8488, "fecha_inicio":"2023-09-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":2835.0, "saldo":2835.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7638, "fecha_inicio":"2023-08-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":75700.0, "cuota":4660.0, "saldo":64968.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1418, "fecha_inicio":"2014-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":69627.99999999994, "ahorro_total":-69627.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":24100.0, "cuota":1205.0, "saldo":15500.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3568, "fecha_inicio":"2022-10-10", "tipo_deuda":"R", "ahorro_cuota_mensual":16704.999999999985, "ahorro_total":-16704.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6200.0, "cuota":450.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":450.0, "ahorro_total":-450.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":73000.0, "cuota":5352.0, "saldo":69663.0, "tasa_externa":0.8602, "tasa_kubo":0.5504, "numero_pagos_otorgado":96.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0457, "fecha_inicio":"2017-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":1116.1999477033223, "ahorro_total":53577.59748975947, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5504, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-04-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 3926429, "monto_maximo_cliente": 9200.0, "cuota_externa_total": 13483.0, "capacidad_maxima_pago": 4896.0, "bursolnum": 7316286, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 285.3139590408537, "monto_max": 9200.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 51.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":14302.0, "cuota":715.0, "saldo":2974.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7921, "fecha_inicio":"2023-12-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":14303.0, "cuota":715.0, "saldo":5696.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6018, "fecha_inicio":"2024-01-15", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":14320.0, "cuota":716.0, "saldo":1991.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.861, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1543.0, "cuota":918.0, "saldo":918.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4051, "fecha_inicio":"2019-01-19", "tipo_deuda":"O", "ahorro_cuota_mensual":1835.9999999999982, "ahorro_total":-1835.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":40000.0, "cuota":2848.0, "saldo":18988.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5253, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":749.0938663391257, "ahorro_total":17978.252792139017, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":23600.0, "cuota":1813.0, "saldo":3445.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":21.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.854, "fecha_inicio":"2022-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":434.97967644236405, "ahorro_total":9134.573205289646, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":14360.0, "cuota":718.0, "saldo":1166.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9188, "fecha_inicio":"2023-11-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":20000.0, "cuota":1425.0, "saldo":11286.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.4357, "fecha_inicio":"2022-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":375.54693316956286, "ahorro_total":9013.126396069509, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":14351.0, "cuota":718.0, "saldo":1736.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.879, "fecha_inicio":"2023-11-05", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":14317.0, "cuota":716.0, "saldo":1134.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9208, "fecha_inicio":"2023-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":11917.0, "cuota":596.0, "saldo":708.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9406, "fecha_inicio":"2023-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":14400.0, "cuota":236.0, "saldo":236.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9836, "fecha_inicio":"2023-07-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":15000.0, "cuota":1428.0, "saldo":14927.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":27.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.0049, "fecha_inicio":"2023-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":713.147882840986, "ahorro_total":19254.99283670662, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":8000.0, "cuota":400.0, "saldo":7932.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0085, "fecha_inicio":"2021-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":8331.999999999985, "ahorro_total":-8331.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":8700.0, "cuota":435.0, "saldo":8649.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0059, "fecha_inicio":"2020-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":9083.999999999982, "ahorro_total":-9083.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":6500.0, "cuota":497.0, "saldo":4961.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2368, "fecha_inicio":"2021-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":5457.99999999999, "ahorro_total":-5457.99999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":9200.0, "cuota":368.0, "saldo":8268.0, "tasa_externa":0.426, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":42.0, "frecuencia_externa":"S", "avance":0.1013, "fecha_inicio":"2022-10-03", "tipo_deuda":"I", "ahorro_cuota_mensual":107.58942309051048, "ahorro_total":6455.3653854306285, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":12400.0, "cuota":1007.0, "saldo":12223.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":13229.999999999976, "ahorro_total":-13229.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":14384.0, "cuota":719.0, "saldo":2811.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8046, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 3941195, "monto_maximo_cliente": 17500.0, "cuota_externa_total": 9248.0, "capacidad_maxima_pago": 18752.0, "bursolnum": 7316202, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 570.1336596018155, "monto_max": 17500.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5292, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":9880.0, "cuota":50.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":50.0, "ahorro_total":-50.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-30", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":50000.0, "cuota":2966.0, "saldo":17853.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":29.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6429, "fecha_inicio":"2022-03-24", "tipo_deuda":"I", "ahorro_cuota_mensual":697.4097295381043, "ahorro_total":20224.882156605025, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1075.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2017-01-03", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":17500.0, "cuota":891.0, "saldo":17170.0, "tasa_externa":0.4536, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.0189, "fecha_inicio":"2024-01-08", "tipo_deuda":"I", "ahorro_cuota_mensual":211.75431056022796, "ahorro_total":7623.155180168207, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":84000.0, "cuota":4200.0, "saldo":23239.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7233, "fecha_inicio":"2015-06-24", "tipo_deuda":"R", "ahorro_cuota_mensual":27438.999999999956, "ahorro_total":-27438.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":27000.0, "cuota":1350.0, "saldo":3514.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8699, "fecha_inicio":"2017-07-11", "tipo_deuda":"R", "ahorro_cuota_mensual":4863.999999999993, "ahorro_total":-4863.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":16500.0, "cuota":1430.0, "saldo":17375.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.053, "fecha_inicio":"2021-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":18804.999999999967, "ahorro_total":-18804.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
@@ -214,7 +217,7 @@
     <t>{"Prospecto": 4206571, "monto_maximo_cliente": 61616.0, "cuota_externa_total": 26246.0, "capacidad_maxima_pago": 58970.0, "bursolnum": 7316836, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2380.862607852828, "monto_max": 61616.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":210000.0, "cuota":14377.0, "saldo":174233.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.1703, "fecha_inicio":"2022-10-13", "tipo_deuda":"I", "ahorro_cuota_mensual":5019.227314879101, "ahorro_total":180692.18333564763, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":28000.0, "cuota":2384.0, "saldo":20121.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":21.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.2814, "fecha_inicio":"2023-04-27", "tipo_deuda":"I", "ahorro_cuota_mensual":599.4862096941742, "ahorro_total":12589.21040357766, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":22000.0, "cuota":1100.0, "saldo":1555.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9293, "fecha_inicio":"2018-10-06", "tipo_deuda":"R", "ahorro_cuota_mensual":2654.999999999996, "ahorro_total":-2654.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":21000.0, "cuota":1777.0, "saldo":18732.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.108, "fecha_inicio":"2024-01-16", "tipo_deuda":"R", "ahorro_cuota_mensual":20508.99999999995, "ahorro_total":-20508.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":48000.0, "cuota":2400.0, "saldo":17498.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6355, "fecha_inicio":"2018-05-04", "tipo_deuda":"R", "ahorro_cuota_mensual":19897.999999999953, "ahorro_total":-19897.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":25200.0, "cuota":182.0, "saldo":20982.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1674, "fecha_inicio":"2019-03-22", "tipo_deuda":"R", "ahorro_cuota_mensual":21163.99999999994, "ahorro_total":-21163.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":23800.0, "cuota":1190.0, "saldo":16321.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3142, "fecha_inicio":"2018-09-22", "tipo_deuda":"R", "ahorro_cuota_mensual":17510.999999999956, "ahorro_total":-17510.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":48800.0, "cuota":2250.0, "saldo":45800.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0615, "fecha_inicio":"2023-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":48049.999999999876, "ahorro_total":-48049.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":61616.0, "cuota":3053.0, "saldo":55098.0, "tasa_externa":0.4304, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.1058, "fecha_inicio":"2023-06-09", "tipo_deuda":"I", "ahorro_cuota_mensual":307.34037254090845, "ahorro_total":11064.253411472704, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":23000.0, "cuota":1150.0, "saldo":15960.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":69.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.3061, "fecha_inicio":"2018-06-11", "tipo_deuda":"R", "ahorro_cuota_mensual":622.901501410678, "ahorro_total":42980.20359733678, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":14800.0, "cuota":1000.0, "saldo":10000.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3243, "fecha_inicio":"2020-10-19", "tipo_deuda":"R", "ahorro_cuota_mensual":10999.999999999973, "ahorro_total":-10999.999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":14000.0, "cuota":1508.0, "saldo":11490.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":52.0, "numero_pagos_restante":7.0, "frecuencia_externa":"W", "avance":0.1793, "fecha_inicio":"2023-10-06", "tipo_deuda":"I", "ahorro_cuota_mensual":206.95647902858582, "ahorro_total":2690.4342273716156, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4231833, "monto_maximo_cliente": 35000.0, "cuota_externa_total": 15791.0, "capacidad_maxima_pago": 32133.66, "bursolnum": 7316042, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1385.4815374669631, "monto_max": 35000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":13500.0, "cuota":2152.0, "saldo":21520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.5941, "fecha_inicio":"2024-01-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":13, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2014-01-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":26395.0, "cuota":1836.0, "saldo":7005.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7346, "fecha_inicio":"2022-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":85.70097278459752, "ahorro_total":1542.6175101227554, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":173000.0, "cuota":7322.0, "saldo":137084.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2076, "fecha_inicio":"2023-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":607.1711843953963, "ahorro_total":21858.162638234266, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":13100.0, "cuota":164.0, "saldo":549.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9581, "fecha_inicio":"2018-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":712.999999999999, "ahorro_total":-712.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":24000.0, "cuota":337.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":337.0, "ahorro_total":-337.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":25900.0, "cuota":1295.0, "saldo":18543.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2841, "fecha_inicio":"2019-06-10", "tipo_deuda":"R", "ahorro_cuota_mensual":19837.999999999964, "ahorro_total":-19837.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":88000.0, "cuota":4350.0, "saldo":39772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.548, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":44121.99999999992, "ahorro_total":-44121.99999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":7200.0, "cuota":553.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":553.0, "ahorro_total":-553.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":1901.0, "saldo":967.0, "tasa_externa":0.2724, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9724, "fecha_inicio":"2022-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":64.45713304673473, "ahorro_total":1546.9711931216334, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":138800.0, "cuota":6940.0, "saldo":53995.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.611, "fecha_inicio":"2018-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":60934.9999999999, "ahorro_total":-60934.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":2550.0, "cuota":345.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":345.0, "ahorro_total":-345.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":17700.0, "cuota":885.0, "saldo":12840.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2746, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":13724.999999999975, "ahorro_total":-13724.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":4550.0, "cuota":519.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-04-18", "tipo_deuda":"R", "ahorro_cuota_mensual":519.0, "ahorro_total":-519.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 4231833, "monto_maximo_cliente": 35000.0, "cuota_externa_total": 15791.0, "capacidad_maxima_pago": 32133.66, "bursolnum": 7316042, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1385.4815374669631, "monto_max": 35000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":13500.0, "cuota":2152.0, "saldo":21520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.5941, "fecha_inicio":"2024-01-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":13, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2014-01-07", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":26395.0, "cuota":1836.0, "saldo":7005.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7346, "fecha_inicio":"2022-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":85.70097278459752, "ahorro_total":1542.6175101227554, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":173000.0, "cuota":7322.0, "saldo":137084.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2076, "fecha_inicio":"2023-02-10", "tipo_deuda":"I", "ahorro_cuota_mensual":607.1711843953963, "ahorro_total":21858.162638234266, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":15, "monto_otorgado":13100.0, "cuota":164.0, "saldo":549.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9581, "fecha_inicio":"2018-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":712.999999999999, "ahorro_total":-712.999999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":24000.0, "cuota":337.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-06-23", "tipo_deuda":"R", "ahorro_cuota_mensual":337.0, "ahorro_total":-337.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":25900.0, "cuota":1295.0, "saldo":18543.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2841, "fecha_inicio":"2019-06-10", "tipo_deuda":"R", "ahorro_cuota_mensual":19837.999999999964, "ahorro_total":-19837.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":88000.0, "cuota":4350.0, "saldo":39772.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.548, "fecha_inicio":"2018-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":44121.99999999992, "ahorro_total":-44121.99999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":7200.0, "cuota":553.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":553.0, "ahorro_total":-553.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":1901.0, "saldo":967.0, "tasa_externa":0.2724, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9724, "fecha_inicio":"2022-02-24", "tipo_deuda":"I", "ahorro_cuota_mensual":64.45713304673473, "ahorro_total":1546.9711931216334, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":138800.0, "cuota":6940.0, "saldo":53995.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.611, "fecha_inicio":"2018-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":60934.9999999999, "ahorro_total":-60934.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":2550.0, "cuota":345.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":345.0, "ahorro_total":-345.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":17700.0, "cuota":885.0, "saldo":12840.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2746, "fecha_inicio":"2022-02-24", "tipo_deuda":"R", "ahorro_cuota_mensual":13724.999999999975, "ahorro_total":-13724.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":10, "monto_otorgado":4550.0, "cuota":519.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-04-18", "tipo_deuda":"R", "ahorro_cuota_mensual":519.0, "ahorro_total":-519.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4261012, "monto_maximo_cliente": 54022.0, "cuota_externa_total": 20198.0, "capacidad_maxima_pago": 45476.0, "bursolnum": 7315917, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2772.155536151241, "monto_max": 54022.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":16, "monto_otorgado":3500.0, "cuota":179.0, "saldo":1849.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4717, "fecha_inicio":"2016-06-04", "tipo_deuda":"R", "ahorro_cuota_mensual":2028.000000000004, "ahorro_total":-2028.000000000004, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":35000.0, "cuota":3007.0, "saldo":5670.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.838, "fecha_inicio":"2022-07-12", "tipo_deuda":"I", "ahorro_cuota_mensual":502.75659598887705, "ahorro_total":10055.131919777541, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":47700.0, "cuota":3183.0, "saldo":42525.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1085, "fecha_inicio":"2023-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":768.9179452645271, "ahorro_total":27681.04602952298, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":8500.0, "cuota":652.0, "saldo":8178.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":29.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.0379, "fecha_inicio":"2023-10-30", "tipo_deuda":"I", "ahorro_cuota_mensual":169.96146841460467, "ahorro_total":4928.882584023535, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-03-14", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-06-22", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":18, "monto_otorgado":17000.0, "cuota":213.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-11-30", "tipo_deuda":"R", "ahorro_cuota_mensual":213.0, "ahorro_total":-213.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":17, "monto_otorgado":10000.0, "cuota":500.0, "saldo":3264.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6736, "fecha_inicio":"2020-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":3764.0000000000073, "ahorro_total":-3764.0000000000073, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":10791.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":17000.0, "cuota":838.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":900.0, "numero_pagos_restante":847.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":838.0, "ahorro_total":754200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":14, "monto_otorgado":24000.0, "cuota":1200.0, "saldo":22912.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0453, "fecha_inicio":"2018-11-15", "tipo_deuda":"R", "ahorro_cuota_mensual":24112.00000000005, "ahorro_total":-24112.00000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":12000.0, "cuota":604.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":604.0, "ahorro_total":-604.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":12600.0, "cuota":8073.0, "saldo":7695.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3893, "fecha_inicio":"2023-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":15768.000000000016, "ahorro_total":-15768.000000000016, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":54022.0, "cuota":3279.0, "saldo":44400.0, "tasa_externa":0.3963, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1781, "fecha_inicio":"2023-07-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-151.11364784276975, "ahorro_total":-3626.727548226474, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":336.0, "cuota":40.0, "saldo":143.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5744, "fecha_inicio":"2023-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":4.847904926197529, "ahorro_total":58.17485911437035, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":327.0, "cuota":39.0, "saldo":108.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6697, "fecha_inicio":"2023-04-18", "tipo_deuda":"I", "ahorro_cuota_mensual":4.789478901388669, "ahorro_total":57.47374681666403, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":398.0, "cuota":82.0, "saldo":80.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.799, "fecha_inicio":"2023-08-17", "tipo_deuda":"I", "ahorro_cuota_mensual":6.851323509131163, "ahorro_total":41.10794105478698, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":191.0, "cuota":77.0, "saldo":74.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6126, "fecha_inicio":"2023-11-23", "tipo_deuda":"I", "ahorro_cuota_mensual":8.583339252222174, "ahorro_total":25.750017756666523, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -232,7 +235,7 @@
     <t>{"Prospecto": 4389079, "monto_maximo_cliente": 70000.0, "cuota_externa_total": 11667.0, "capacidad_maxima_pago": 78633.0, "bursolnum": 7316903, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3433.1575734085386, "monto_max": 70000.0, "cuota_min": 244.39480798426723, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0455, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":2174.0, "cuota":122.0, "saldo":490.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":8.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.7746, "fecha_inicio":"2023-10-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-14.741437083058429, "ahorro_total":-58.965748332233716, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30000.0, "cuota":1810.0, "saldo":22052.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.2649, "fecha_inicio":"2022-08-26", "tipo_deuda":"I", "ahorro_cuota_mensual":100.68241140596501, "ahorro_total":3624.5668106147405, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":41924.0, "cuota":2647.0, "saldo":40031.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0452, "fecha_inicio":"2023-07-17", "tipo_deuda":"I", "ahorro_cuota_mensual":258.2856471927894, "ahorro_total":9298.283298940418, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":2000.0, "cuota":267.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":267.0, "ahorro_total":-267.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":7, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-10-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1132.0, "saldo":4124.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.5876, "fecha_inicio":"2023-06-01", "tipo_deuda":"I", "ahorro_cuota_mensual":32.25358358036624, "ahorro_total":387.0430029643949, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":71100.0, "cuota":3555.0, "saldo":14256.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7995, "fecha_inicio":"2017-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":17811.000000000007, "ahorro_total":-17811.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":70000.0, "cuota":3978.0, "saldo":62869.0, "tasa_externa":0.679, "tasa_kubo":0.4706, "numero_pagos_otorgado":146.0, "numero_pagos_restante":56.0, "frecuencia_externa":"S", "avance":0.1019, "fecha_inicio":"2022-10-31", "tipo_deuda":"I", "ahorro_cuota_mensual":664.8254846366553, "ahorro_total":48532.26037847584, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":14000.0, "cuota":1089.0, "saldo":4582.0, "tasa_externa":-1.0, "tasa_kubo":0.4706, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6727, "fecha_inicio":"2022-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5671.000000000002, "ahorro_total":-5671.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4433343, "monto_maximo_cliente": 100000.0, "cuota_externa_total": 19438.0, "capacidad_maxima_pago": 95376.0, "bursolnum": 7317022, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6567.032899983563, "monto_max": 100000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-11-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-03-20", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2003.0, "saldo":24010.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1997, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-120.69378190660336, "ahorro_total":-4344.976148637721, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1046.0, "saldo":14688.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0208, "fecha_inicio":"2023-06-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.846890953301681, "ahorro_total":-570.4880743188605, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":44, "monto_otorgado":9720.0, "cuota":630.0, "saldo":630.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9352, "fecha_inicio":"2019-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-548.0061662558794, "ahorro_total":-6576.073995070553, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":5061.0, "cuota":519.0, "saldo":5194.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0263, "fecha_inicio":"2023-12-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5061.0, "cuota":432.0, "saldo":2592.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4878, "fecha_inicio":"2023-12-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":5062.0, "cuota":253.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9354, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":5100.0, "cuota":919.0, "saldo":2753.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4602, "fecha_inicio":"2023-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":10000.0, "cuota":1196.0, "saldo":8748.0, "tasa_externa":0.736, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1252, "fecha_inicio":"2020-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.940500263250215, "ahorro_total":-191.28600315900258, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":90000.0, "cuota":6236.0, "saldo":80757.0, "tasa_externa":0.8227, "tasa_kubo":0.6509, "numero_pagos_otorgado":112.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1027, "fecha_inicio":"2023-03-29", "tipo_deuda":"I", "ahorro_cuota_mensual":381.09089912038144, "ahorro_total":21341.09035074136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":2000.0, "cuota":524.0, "saldo":581.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7095, "fecha_inicio":"2019-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":1105.0000000000007, "ahorro_total":-1105.0000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7400.0, "cuota":370.0, "saldo":4802.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3511, "fecha_inicio":"2022-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":5172.0000000000055, "ahorro_total":-5172.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":44200.0, "cuota":3016.0, "saldo":35838.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1892, "fecha_inicio":"2022-12-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-21191.015201068985, "ahorro_total":-42382.03040213797, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":25000.0, "cuota":1732.0, "saldo":22910.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0836, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-11959.75067933766, "ahorro_total":-23919.50135867532, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":17400.0, "cuota":1450.0, "saldo":7150.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5891, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-658.7764704580554, "ahorro_total":-7905.317645496665, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 4433343, "monto_maximo_cliente": 100000.0, "cuota_externa_total": 19438.0, "capacidad_maxima_pago": 95376.0, "bursolnum": 7317022, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6567.032899983563, "monto_max": 100000.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 52.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "SERVICIOS", "registro":15, "monto_otorgado":811.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-11-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":14, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2013-03-20", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":2003.0, "saldo":24010.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.1997, "fecha_inicio":"2022-09-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-120.69378190660336, "ahorro_total":-4344.976148637721, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1046.0, "saldo":14688.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0208, "fecha_inicio":"2023-06-02", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.846890953301681, "ahorro_total":-570.4880743188605, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":44, "monto_otorgado":9720.0, "cuota":630.0, "saldo":630.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9352, "fecha_inicio":"2019-12-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-548.0061662558794, "ahorro_total":-6576.073995070553, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":5061.0, "cuota":519.0, "saldo":5194.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0263, "fecha_inicio":"2023-12-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":5061.0, "cuota":432.0, "saldo":2592.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4878, "fecha_inicio":"2023-12-26", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":5062.0, "cuota":253.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9354, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":5100.0, "cuota":919.0, "saldo":2753.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4602, "fecha_inicio":"2023-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":10000.0, "cuota":1196.0, "saldo":8748.0, "tasa_externa":0.736, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1252, "fecha_inicio":"2020-06-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-15.940500263250215, "ahorro_total":-191.28600315900258, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":90000.0, "cuota":6236.0, "saldo":80757.0, "tasa_externa":0.8227, "tasa_kubo":0.6509, "numero_pagos_otorgado":112.0, "numero_pagos_restante":44.0, "frecuencia_externa":"S", "avance":0.1027, "fecha_inicio":"2023-03-29", "tipo_deuda":"I", "ahorro_cuota_mensual":381.09089912038144, "ahorro_total":21341.09035074136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":2000.0, "cuota":524.0, "saldo":581.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7095, "fecha_inicio":"2019-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":1105.0000000000007, "ahorro_total":-1105.0000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":7400.0, "cuota":370.0, "saldo":4802.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3511, "fecha_inicio":"2022-05-16", "tipo_deuda":"R", "ahorro_cuota_mensual":5172.0000000000055, "ahorro_total":-5172.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":44200.0, "cuota":3016.0, "saldo":35838.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1892, "fecha_inicio":"2022-12-05", "tipo_deuda":"I", "ahorro_cuota_mensual":-21191.015201068985, "ahorro_total":-42382.03040213797, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":25000.0, "cuota":1732.0, "saldo":22910.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":3.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0836, "fecha_inicio":"2023-07-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-11959.75067933766, "ahorro_total":-23919.50135867532, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":17400.0, "cuota":1450.0, "saldo":7150.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5891, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-658.7764704580554, "ahorro_total":-7905.317645496665, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4445474, "monto_maximo_cliente": 275400.0, "cuota_externa_total": 14552.0, "capacidad_maxima_pago": 282978.0, "bursolnum": 7316097, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 7865.90822866068, "monto_max": 275400.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":38311.0, "cuota":2494.0, "saldo":17125.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.553, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":483.72017783295587, "ahorro_total":11609.28426799094, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-06-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":48300.0, "cuota":2576.0, "saldo":13481.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7209, "fecha_inicio":"2021-08-18", "tipo_deuda":"I", "ahorro_cuota_mensual":701.2818971462293, "ahorro_total":25246.148297264255, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":150000.0, "cuota":4101.0, "saldo":134521.0, "tasa_externa":0.2181, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":45.0, "frecuencia_externa":"M", "avance":0.1032, "fecha_inicio":"2023-01-13", "tipo_deuda":"I", "ahorro_cuota_mensual":-144.82462352428502, "ahorro_total":-8689.477411457101, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":7, "monto_otorgado":5000.0, "cuota":486.0, "saldo":1694.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":20.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6612, "fecha_inicio":"2022-09-15", "tipo_deuda":"I", "ahorro_cuota_mensual":182.18014049477893, "ahorro_total":3643.6028098955785, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":125400.0, "cuota":3430.0, "saldo":123799.0, "tasa_externa":0.2183, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0128, "fecha_inicio":"2023-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-119.50938526630262, "ahorro_total":-7170.563115978157, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":7500.0, "cuota":1.0, "saldo":6080.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1893, "fecha_inicio":"2006-07-31", "tipo_deuda":"R", "ahorro_cuota_mensual":6080.999999999988, "ahorro_total":-6080.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":5000.0, "cuota":339.0, "saldo":3969.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2062, "fecha_inicio":"1992-03-14", "tipo_deuda":"R", "ahorro_cuota_mensual":4307.999999999993, "ahorro_total":-4307.999999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":132100.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-02", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":122200.0, "cuota":1465.0, "saldo":119578.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":52.0, "frecuencia_externa":"M", "avance":0.0215, "fecha_inicio":"2023-07-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-1993.9317932977842, "ahorro_total":-119635.90759786706, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -274,7 +277,7 @@
     <t>{"Prospecto": 4611310, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 36961.0, "capacidad_maxima_pago": 514148.0, "bursolnum": 7316572, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20721.45438704324, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 54.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":63000.0, "cuota":4923.0, "saldo":37119.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.4108, "fecha_inicio":"2022-11-22", "tipo_deuda":"I", "ahorro_cuota_mensual":1001.2811315986633, "ahorro_total":24030.747158367918, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":50000.0, "cuota":4042.0, "saldo":46237.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0753, "fecha_inicio":"2023-08-10", "tipo_deuda":"I", "ahorro_cuota_mensual":929.5247076179867, "ahorro_total":22308.59298283168, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":203234.0, "cuota":4914.0, "saldo":168297.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.1719, "fecha_inicio":"2022-12-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-3227.518314303139, "ahorro_total":-193651.09885818834, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":1, "monto_otorgado":1283.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"1991-07-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":11, "monto_otorgado":236500.0, "cuota":13694.0, "saldo":236500.0, "tasa_externa":0.343, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2022-10-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-1028.0081329669229, "ahorro_total":-24672.19519120615, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":40000.0, "cuota":1159.0, "saldo":38068.0, "tasa_externa":0.2469, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":49.0, "frecuencia_externa":"M", "avance":0.0483, "fecha_inicio":"2023-05-11", "tipo_deuda":"I", "ahorro_cuota_mensual":-443.3929685590281, "ahorro_total":-26603.578113541684, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":80000.0, "cuota":2540.0, "saldo":76437.0, "tasa_externa":0.2942, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":48.0, "frecuencia_externa":"M", "avance":0.0445, "fecha_inicio":"2023-04-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-664.7859371180562, "ahorro_total":-39887.15622708337, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":80000.0, "cuota":2319.0, "saldo":76990.0, "tasa_externa":0.2472, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":50.0, "frecuencia_externa":"M", "avance":0.0376, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":-885.7859371180562, "ahorro_total":-53147.15622708337, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":12620.0, "cuota":1166.0, "saldo":10644.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1566, "fecha_inicio":"2023-12-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-139.69332329686017, "ahorro_total":-1676.319879562322, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":133100.0, "cuota":2000.0, "saldo":50990.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6169, "fecha_inicio":"2023-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":52989.999999999876, "ahorro_total":-52989.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":70000.0, "cuota":2204.0, "saldo":65058.0, "tasa_externa":0.2898, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":46.0, "frecuencia_externa":"M", "avance":0.0706, "fecha_inicio":"2023-02-21", "tipo_deuda":"I", "ahorro_cuota_mensual":-600.1876949782995, "ahorro_total":-36011.26169869797, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4620988, "monto_maximo_cliente": 14700.0, "cuota_externa_total": 3041.0, "capacidad_maxima_pago": 21659.0, "bursolnum": 7317306, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 581.9022457361245, "monto_max": 14700.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":29000.0, "cuota":1935.0, "saldo":23980.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.1731, "fecha_inicio":"2022-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":809.3928574998065, "ahorro_total":29138.142869993033, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3045.0, "cuota":-1.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8926, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":3745.0, "cuota":-1.0, "saldo":2520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3271, "fecha_inicio":"2023-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":3274.0, "cuota":-1.0, "saldo":269.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9178, "fecha_inicio":"2023-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":3612.0, "cuota":-1.0, "saldo":109.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9698, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":5000.0, "cuota":250.0, "saldo":2239.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5522, "fecha_inicio":"2022-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":2488.999999999996, "ahorro_total":-2488.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5600.0, "cuota":6287.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-07", "tipo_deuda":"R", "ahorro_cuota_mensual":6287.0, "ahorro_total":-6287.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":1500.0, "cuota":142.0, "saldo":1411.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0593, "fecha_inicio":"2021-08-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1552.9999999999973, "ahorro_total":-1552.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":14700.0, "cuota":909.0, "saldo":15159.0, "tasa_externa":0.4177, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":-0.0312, "fecha_inicio":"2023-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":137.65199587962866, "ahorro_total":3303.647901111088, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":3950.0, "cuota":-1.0, "saldo":50.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9873, "fecha_inicio":"2023-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 4620988, "monto_maximo_cliente": 14700.0, "cuota_externa_total": 3041.0, "capacidad_maxima_pago": 21659.0, "bursolnum": 7317306, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 581.9022457361245, "monto_max": 14700.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":29000.0, "cuota":1935.0, "saldo":23980.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.1731, "fecha_inicio":"2022-11-24", "tipo_deuda":"I", "ahorro_cuota_mensual":809.3928574998065, "ahorro_total":29138.142869993033, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3045.0, "cuota":-1.0, "saldo":327.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8926, "fecha_inicio":"2024-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":3745.0, "cuota":-1.0, "saldo":2520.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3271, "fecha_inicio":"2023-12-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":3274.0, "cuota":-1.0, "saldo":269.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9178, "fecha_inicio":"2023-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":3612.0, "cuota":-1.0, "saldo":109.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9698, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":5000.0, "cuota":250.0, "saldo":2239.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5522, "fecha_inicio":"2022-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":2488.999999999996, "ahorro_total":-2488.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5600.0, "cuota":6287.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-02-07", "tipo_deuda":"R", "ahorro_cuota_mensual":6287.0, "ahorro_total":-6287.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":2, "monto_otorgado":1500.0, "cuota":142.0, "saldo":1411.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0593, "fecha_inicio":"2021-08-31", "tipo_deuda":"R", "ahorro_cuota_mensual":1552.9999999999973, "ahorro_total":-1552.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":14700.0, "cuota":909.0, "saldo":15159.0, "tasa_externa":0.4177, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":-0.0312, "fecha_inicio":"2023-12-08", "tipo_deuda":"I", "ahorro_cuota_mensual":137.65199587962866, "ahorro_total":3303.647901111088, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":3950.0, "cuota":-1.0, "saldo":50.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9873, "fecha_inicio":"2023-10-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4648381, "monto_maximo_cliente": 36000.0, "cuota_externa_total": 7631.0, "capacidad_maxima_pago": 38369.0, "bursolnum": 7317407, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1172.846385466592, "monto_max": 36000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":32430.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5367, "fecha_inicio":"2012-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":35929.99999999994, "ahorro_total":-35929.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":36000.0, "cuota":1722.0, "saldo":6487.0, "tasa_externa":0.4007, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8198, "fecha_inicio":"2021-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":324.6945817238975, "ahorro_total":11689.00494206031, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":9750.0, "cuota":488.0, "saldo":1180.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.879, "fecha_inicio":"2010-01-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1667.9999999999977, "ahorro_total":-1667.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":33000.0, "cuota":2256.0, "saldo":29552.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1045, "fecha_inicio":"2023-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":975.1366999135728, "ahorro_total":35104.92119688862, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":150988.0, "cuota":1043.0, "saldo":181845.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":360.0, "numero_pagos_restante":269.0, "frecuencia_externa":"M", "avance":-0.2044, "fecha_inicio":"2016-08-29", "tipo_deuda":"M", "ahorro_cuota_mensual":-2476.2394995790823, "ahorro_total":-891446.2198484696, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -292,7 +295,7 @@
     <t>{"Prospecto": 4682600, "monto_maximo_cliente": 130000.0, "cuota_externa_total": 25531.0, "capacidad_maxima_pago": 123841.0, "bursolnum": 7316245, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9424.495741759796, "monto_max": 130000.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":14, "monto_otorgado":55000.0, "cuota":2750.0, "saldo":19894.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6383, "fecha_inicio":"2019-06-05", "tipo_deuda":"R", "ahorro_cuota_mensual":22644.000000000022, "ahorro_total":-22644.000000000022, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":12, "monto_otorgado":999.0, "cuota":374.0, "saldo":374.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":899.0, "frecuencia_externa":"M", "avance":0.6256, "fecha_inicio":"2015-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":349.6977293333333, "ahorro_total":349697.7293333333, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":686.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-05-30", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":16800.0, "cuota":1552.0, "saldo":6533.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":18.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6111, "fecha_inicio":"2022-12-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-58.11245803984184, "ahorro_total":-1046.0242447171531, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":36800.0, "cuota":2980.0, "saldo":32041.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":25.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1293, "fecha_inicio":"2023-06-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-36.34167434656683, "ahorro_total":-908.5418586641708, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":13, "monto_otorgado":13000.0, "cuota":650.0, "saldo":4973.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6175, "fecha_inicio":"2022-09-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5623.000000000006, "ahorro_total":-5623.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":22700.0, "cuota":1135.0, "saldo":10867.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5213, "fecha_inicio":"2023-06-08", "tipo_deuda":"R", "ahorro_cuota_mensual":12002.000000000013, "ahorro_total":-12002.000000000013, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":-1.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-1.0, "fecha_inicio":"2019-05-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":74500.0, "cuota":3725.0, "saldo":36573.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5091, "fecha_inicio":"2018-11-08", "tipo_deuda":"R", "ahorro_cuota_mensual":40298.000000000044, "ahorro_total":-40298.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":130000.0, "cuota":14620.0, "saldo":129566.0, "tasa_externa":1.3394, "tasa_kubo":0.6722, "numero_pagos_otorgado":72.0, "numero_pagos_restante":9.0, "frecuencia_externa":"S", "avance":0.0033, "fecha_inicio":"2022-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":5195.504258240204, "ahorro_total":187038.15329664733, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":38000.0, "cuota":1857.0, "saldo":14121.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6284, "fecha_inicio":"2018-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":15978.000000000018, "ahorro_total":-15978.000000000018, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":8780.0, "cuota":989.0, "saldo":6462.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.264, "fecha_inicio":"2022-05-06", "tipo_deuda":"R", "ahorro_cuota_mensual":7451.000000000007, "ahorro_total":-7451.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":11100.0, "cuota":672.0, "saldo":10153.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0853, "fecha_inicio":"2023-04-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-871.912730530313, "ahorro_total":-8719.12730530313, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":4100.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-12-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4691173, "monto_maximo_cliente": 18000.0, "cuota_externa_total": 10602.0, "capacidad_maxima_pago": 27010.5, "bursolnum": 7317221, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 712.5333621258668, "monto_max": 18000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":2500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":39000.0, "cuota":2233.0, "saldo":33234.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1478, "fecha_inicio":"2023-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":719.2524635342222, "ahorro_total":25893.088687232, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":7150.0, "cuota":-1.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":10000.0, "cuota":1425.0, "saldo":10389.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0389, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":203.7405547651083, "ahorro_total":1833.6649928859747, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":2557.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-05-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":51000.0, "cuota":2990.0, "saldo":21785.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5728, "fecha_inicio":"2021-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":24774.99999999996, "ahorro_total":-24774.99999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":7150.0, "cuota":97.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":194.9999999999998, "ahorro_total":-194.9999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":149.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9926, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":148.99999999999972, "ahorro_total":-148.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":57350.0, "cuota":4559.0, "saldo":30880.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4616, "fecha_inicio":"2017-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":35438.99999999994, "ahorro_total":-35438.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6500.0, "cuota":149.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-03-28", "tipo_deuda":"R", "ahorro_cuota_mensual":149.0, "ahorro_total":-149.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":21800.0, "cuota":1312.0, "saldo":17853.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1811, "fecha_inicio":"2022-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-1106.4607963202552, "ahorro_total":-11064.607963202552, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":39000.0, "cuota":1950.0, "saldo":3040.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9221, "fecha_inicio":"2022-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":4989.9999999999945, "ahorro_total":-4989.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":18000.0, "cuota":1096.0, "saldo":16159.0, "tasa_externa":0.3999, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1023, "fecha_inicio":"2023-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":151.49223985260642, "ahorro_total":3635.813756462554, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":18700.0, "cuota":1176.0, "saldo":18233.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.025, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":450.17746328435794, "ahorro_total":16206.388678236886, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 4691173, "monto_maximo_cliente": 18000.0, "cuota_externa_total": 10602.0, "capacidad_maxima_pago": 27010.5, "bursolnum": 7317221, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 712.5333621258668, "monto_max": 18000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":14, "monto_otorgado":2500.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2024-01-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":39000.0, "cuota":2233.0, "saldo":33234.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.1478, "fecha_inicio":"2023-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":719.2524635342222, "ahorro_total":25893.088687232, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":7150.0, "cuota":-1.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":12, "monto_otorgado":10000.0, "cuota":1425.0, "saldo":10389.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0389, "fecha_inicio":"2024-01-05", "tipo_deuda":"I", "ahorro_cuota_mensual":203.7405547651083, "ahorro_total":1833.6649928859747, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":11, "monto_otorgado":2557.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-05-11", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":51000.0, "cuota":2990.0, "saldo":21785.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5728, "fecha_inicio":"2021-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":24774.99999999996, "ahorro_total":-24774.99999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":7150.0, "cuota":97.0, "saldo":98.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9863, "fecha_inicio":"2021-04-16", "tipo_deuda":"R", "ahorro_cuota_mensual":194.9999999999998, "ahorro_total":-194.9999999999998, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":149.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9926, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":148.99999999999972, "ahorro_total":-148.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":57350.0, "cuota":4559.0, "saldo":30880.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4616, "fecha_inicio":"2017-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":35438.99999999994, "ahorro_total":-35438.99999999994, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":6500.0, "cuota":149.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-03-28", "tipo_deuda":"R", "ahorro_cuota_mensual":149.0, "ahorro_total":-149.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":3, "monto_otorgado":21800.0, "cuota":1312.0, "saldo":17853.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1811, "fecha_inicio":"2022-07-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-1106.4607963202552, "ahorro_total":-11064.607963202552, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":39000.0, "cuota":1950.0, "saldo":3040.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9221, "fecha_inicio":"2022-09-30", "tipo_deuda":"R", "ahorro_cuota_mensual":4989.9999999999945, "ahorro_total":-4989.9999999999945, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":18000.0, "cuota":1096.0, "saldo":16159.0, "tasa_externa":0.3999, "tasa_kubo":0.2, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.1023, "fecha_inicio":"2023-11-10", "tipo_deuda":"I", "ahorro_cuota_mensual":151.49223985260642, "ahorro_total":3635.813756462554, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":18700.0, "cuota":1176.0, "saldo":18233.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":31.0, "frecuencia_externa":"M", "avance":0.025, "fecha_inicio":"2023-11-07", "tipo_deuda":"I", "ahorro_cuota_mensual":450.17746328435794, "ahorro_total":16206.388678236886, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4721165, "monto_maximo_cliente": 199100.0, "cuota_externa_total": 15160.0, "capacidad_maxima_pago": 201940.0, "bursolnum": 7317408, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6959.836284108579, "monto_max": 199100.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":14, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-07-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":11, "monto_otorgado":33000.0, "cuota":2256.0, "saldo":28974.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.122, "fecha_inicio":"2023-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":785.492863766716, "ahorro_total":28277.743095601778, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":15, "monto_otorgado":30000.0, "cuota":1500.0, "saldo":4619.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.846, "fecha_inicio":"2022-02-26", "tipo_deuda":"R", "ahorro_cuota_mensual":6118.999999999987, "ahorro_total":-6118.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":36500.0, "cuota":1825.0, "saldo":15412.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5778, "fecha_inicio":"2021-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":17236.999999999956, "ahorro_total":-17236.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":55000.0, "cuota":9795.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":9795.0, "ahorro_total":-9795.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":41900.0, "cuota":2095.0, "saldo":7533.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8202, "fecha_inicio":"2023-03-07", "tipo_deuda":"R", "ahorro_cuota_mensual":9627.999999999978, "ahorro_total":-9627.999999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":174077.0, "cuota":4500.0, "saldo":58342.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6648, "fecha_inicio":"2021-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":62841.99999999984, "ahorro_total":-62841.99999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":15000.0, "cuota":3572.0, "saldo":1255.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9163, "fecha_inicio":"2021-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":4826.999999999996, "ahorro_total":-4826.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":8900.0, "cuota":445.0, "saldo":4702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4717, "fecha_inicio":"2021-10-08", "tipo_deuda":"R", "ahorro_cuota_mensual":5146.999999999987, "ahorro_total":-5146.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":41300.0, "cuota":4288.0, "saldo":32070.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2235, "fecha_inicio":"2021-04-26", "tipo_deuda":"R", "ahorro_cuota_mensual":36357.99999999991, "ahorro_total":-36357.99999999991, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":21900.0, "cuota":1768.0, "saldo":17566.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.1979, "fecha_inicio":"2022-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-775.4111452566885, "ahorro_total":-7754.111452566885, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":90000.0, "cuota":4500.0, "saldo":75272.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":900.0, "numero_pagos_restante":880.0, "frecuencia_externa":"Z", "avance":0.1636, "fecha_inicio":"2022-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2379.6881226372584, "ahorro_total":2141719.3103735326, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":150000.0, "cuota":6202.0, "saldo":145872.0, "tasa_externa":0.3942, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":44.0, "frecuencia_externa":"M", "avance":0.0275, "fecha_inicio":"2023-12-18", "tipo_deuda":"I", "ahorro_cuota_mensual":464.38670159701996, "ahorro_total":22290.56167665696, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":49100.0, "cuota":1711.0, "saldo":45458.0, "tasa_externa":0.3446, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":48.0, "frecuencia_externa":"M", "avance":0.0742, "fecha_inicio":"2023-04-17", "tipo_deuda":"I", "ahorro_cuota_mensual":5.8934206427802565, "ahorro_total":353.6052385668154, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":50000.0, "cuota":0.0, "saldo":3168.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9366, "fecha_inicio":"2024-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":3167.9999999999914, "ahorro_total":-3167.9999999999914, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -304,7 +307,7 @@
     <t>{"Prospecto": 4733030, "monto_maximo_cliente": 27500.0, "cuota_externa_total": 6966.0, "capacidad_maxima_pago": 27164.0, "bursolnum": 7316674, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1993.6433299876494, "monto_max": 27500.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":10700.0, "cuota":535.0, "saldo":8883.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1698, "fecha_inicio":"2022-09-02", "tipo_deuda":"R", "ahorro_cuota_mensual":9418.000000000011, "ahorro_total":-9418.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":27500.0, "cuota":3120.0, "saldo":27363.0, "tasa_externa":1.3523, "tasa_kubo":0.6722, "numero_pagos_otorgado":72.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.005, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":1126.3566700123506, "ahorro_total":40548.84012044462, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":22000.0, "cuota":1744.0, "saldo":5456.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.752, "fecha_inicio":"2021-12-24", "tipo_deuda":"R", "ahorro_cuota_mensual":7200.000000000006, "ahorro_total":-7200.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":15000.0, "cuota":1732.0, "saldo":11135.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":13.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2577, "fecha_inicio":"2023-08-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-12.030941924668241, "ahorro_total":-156.40224502068713, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4766643, "monto_maximo_cliente": 52500.0, "cuota_externa_total": 22700.0, "capacidad_maxima_pago": 55411.0, "bursolnum": 7317472, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2339.4431712802248, "monto_max": 52500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":15000.0, "cuota":1026.0, "saldo":12942.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1372, "fecha_inicio":"2023-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":357.58766534850724, "ahorro_total":12873.155952546262, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":321816.0, "cuota":3814.0, "saldo":277712.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":345.0, "frecuencia_externa":"M", "avance":0.137, "fecha_inicio":"2023-01-02", "tipo_deuda":"M", "ahorro_cuota_mensual":-4009.131741815442, "ahorro_total":-1443287.427053559, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":35000.0, "cuota":2498.0, "saldo":35402.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0115, "fecha_inicio":"2023-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":938.371219146517, "ahorro_total":33781.36388927461, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":170900.0, "cuota":4204.0, "saldo":137460.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-1730.8821672535405, "ahorro_total":-103852.93003521243, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":801.0, "cuota":327.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-12-23", "tipo_deuda":"O", "ahorro_cuota_mensual":327.0, "ahorro_total":-327.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":13500.0, "cuota":675.0, "saldo":5018.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6283, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":5692.999999999986, "ahorro_total":-5692.999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":995.0, "saldo":8592.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3863, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":9586.999999999976, "ahorro_total":-9586.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":57231.0, "cuota":1408.0, "saldo":46033.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-579.4736179876381, "ahorro_total":-34768.41707925829, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":22.0, "saldo":9208.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0792, "fecha_inicio":"2022-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":9229.999999999975, "ahorro_total":-9229.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52500.0, "cuota":5006.0, "saldo":50113.0, "tasa_externa":1.1139, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0455, "fecha_inicio":"2013-04-16", "tipo_deuda":"I", "ahorro_cuota_mensual":2666.5568287197752, "ahorro_total":95996.0458339119, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":8800.0, "cuota":3017.0, "saldo":9051.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0285, "fecha_inicio":"2023-12-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 4766643, "monto_maximo_cliente": 52500.0, "cuota_externa_total": 22700.0, "capacidad_maxima_pago": 55411.0, "bursolnum": 7317472, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2339.4431712802248, "monto_max": 52500.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":15000.0, "cuota":1026.0, "saldo":12942.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1372, "fecha_inicio":"2023-01-27", "tipo_deuda":"I", "ahorro_cuota_mensual":357.58766534850724, "ahorro_total":12873.155952546262, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":8, "monto_otorgado":321816.0, "cuota":3814.0, "saldo":277712.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":345.0, "frecuencia_externa":"M", "avance":0.137, "fecha_inicio":"2023-01-02", "tipo_deuda":"M", "ahorro_cuota_mensual":-4009.131741815442, "ahorro_total":-1443287.427053559, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":35000.0, "cuota":2498.0, "saldo":35402.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":-0.0115, "fecha_inicio":"2023-10-11", "tipo_deuda":"I", "ahorro_cuota_mensual":938.371219146517, "ahorro_total":33781.36388927461, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":170900.0, "cuota":4204.0, "saldo":137460.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-1730.8821672535405, "ahorro_total":-103852.93003521243, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":801.0, "cuota":327.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2022-12-23", "tipo_deuda":"O", "ahorro_cuota_mensual":327.0, "ahorro_total":-327.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":13500.0, "cuota":675.0, "saldo":5018.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6283, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":5692.999999999986, "ahorro_total":-5692.999999999986, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":14000.0, "cuota":995.0, "saldo":8592.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3863, "fecha_inicio":"2021-08-20", "tipo_deuda":"R", "ahorro_cuota_mensual":9586.999999999976, "ahorro_total":-9586.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":57231.0, "cuota":1408.0, "saldo":46033.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.1957, "fecha_inicio":"2022-09-30", "tipo_deuda":"I", "ahorro_cuota_mensual":-579.4736179876381, "ahorro_total":-34768.41707925829, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":22.0, "saldo":9208.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0792, "fecha_inicio":"2022-01-21", "tipo_deuda":"R", "ahorro_cuota_mensual":9229.999999999975, "ahorro_total":-9229.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52500.0, "cuota":5006.0, "saldo":50113.0, "tasa_externa":1.1139, "tasa_kubo":0.2914, "numero_pagos_otorgado":72.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0455, "fecha_inicio":"2013-04-16", "tipo_deuda":"I", "ahorro_cuota_mensual":2666.5568287197752, "ahorro_total":95996.0458339119, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":8800.0, "cuota":3017.0, "saldo":9051.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.0285, "fecha_inicio":"2023-12-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4767970, "monto_maximo_cliente": 50136.0, "cuota_externa_total": 8262.0, "capacidad_maxima_pago": 51439.0, "bursolnum": 7317400, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2442.556728911599, "monto_max": 50136.0, "cuota_min": 227.39637225020516, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0439, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":181296.0, "cuota":1146.0, "saldo":103539.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":360.0, "numero_pagos_restante":276.0, "frecuencia_externa":"M", "avance":0.4289, "fecha_inicio":"2017-04-21", "tipo_deuda":"M", "ahorro_cuota_mensual":-3152.7685910880573, "ahorro_total":-1134996.6927917006, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":953.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-05-08", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-08-18", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":1000.0, "numero_pagos_restante":782.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2006-02-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1000.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":48000.0, "cuota":3008.0, "saldo":42106.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.1228, "fecha_inicio":"2023-02-15", "tipo_deuda":"I", "ahorro_cuota_mensual":415.79883213376934, "ahorro_total":14968.757956815696, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":2, "monto_otorgado":50136.0, "cuota":2962.0, "saldo":50136.0, "tasa_externa":0.587, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":30.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":254.445880163722, "ahorro_total":9160.051685893992, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":50000.0, "cuota":602.0, "saldo":43118.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.1376, "fecha_inicio":"2023-05-31", "tipo_deuda":"I", "ahorro_cuota_mensual":-2098.209549860657, "ahorro_total":-75535.54379498365, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":5700.0, "cuota":544.0, "saldo":5449.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.044, "fecha_inicio":"2010-05-27", "tipo_deuda":"R", "ahorro_cuota_mensual":5992.999999999996, "ahorro_total":-5992.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":78600.0, "cuota":1198.0, "saldo":27905.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.645, "fecha_inicio":"2017-07-18", "tipo_deuda":"R", "ahorro_cuota_mensual":29102.999999999985, "ahorro_total":-29102.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":6000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4295, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-09-01", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -322,7 +325,7 @@
     <t>{"Prospecto": 4881018, "monto_maximo_cliente": 77000.0, "cuota_externa_total": 7115.0, "capacidad_maxima_pago": 79370.0, "bursolnum": 7317459, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2199.255387098302, "monto_max": 77000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.2, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0], "deudas_buro": [ {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":36494.0, "cuota":1028.0, "saldo":27499.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":142.0, "numero_pagos_restante":26.0, "frecuencia_externa":"W", "avance":0.2465, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-388.4795537380023, "ahorro_total":-13985.263934568084, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":2840.0, "cuota":80.0, "saldo":2140.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":142.0, "numero_pagos_restante":26.0, "frecuencia_externa":"W", "avance":0.2465, "fecha_inicio":"2023-06-08", "tipo_deuda":"I", "ahorro_cuota_mensual":-30.23187188622586, "ahorro_total":-1088.347387904131, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":17000.0, "cuota":850.0, "saldo":2184.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8715, "fecha_inicio":"2023-08-28", "tipo_deuda":"R", "ahorro_cuota_mensual":3033.999999999996, "ahorro_total":-3033.999999999996, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":4, "monto_otorgado":21200.0, "cuota":1462.0, "saldo":20945.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":48.0, "numero_pagos_restante":43.0, "frecuencia_externa":"M", "avance":0.012, "fecha_inicio":"2023-10-23", "tipo_deuda":"I", "ahorro_cuota_mensual":780.1836616007942, "ahorro_total":37448.81575683812, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":4000.0, "cuota":250.0, "saldo":1631.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5922, "fecha_inicio":"2021-12-21", "tipo_deuda":"R", "ahorro_cuota_mensual":1880.999999999997, "ahorro_total":-1880.999999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":77000.0, "cuota":2106.0, "saldo":77621.0, "tasa_externa":0.2183, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":57.0, "frecuencia_externa":"M", "avance":-0.0081, "fecha_inicio":"2024-01-17", "tipo_deuda":"I", "ahorro_cuota_mensual":-73.5233067424665, "ahorro_total":-4411.39840454799, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":22000.0, "cuota":1939.0, "saldo":19930.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":30.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0941, "fecha_inicio":"2023-03-14", "tipo_deuda":"I", "ahorro_cuota_mensual":965.68327673236, "ahorro_total":28970.4983019708, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 4884745, "monto_maximo_cliente": 28112.0, "cuota_externa_total": 21663.0, "capacidad_maxima_pago": 25073.0, "bursolnum": 7317557, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1405.0673550598951, "monto_max": 28112.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":70000.0, "cuota":4826.0, "saldo":63945.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0865, "fecha_inicio":"2023-03-17", "tipo_deuda":"I", "ahorro_cuota_mensual":780.0338822209287, "ahorro_total":28081.219759953434, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":30, "monto_otorgado":21609.0, "cuota":6455.0, "saldo":6455.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7013, "fecha_inicio":"2011-12-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":35656.0, "cuota":1783.0, "saldo":32821.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0795, "fecha_inicio":"2016-08-03", "tipo_deuda":"R", "ahorro_cuota_mensual":34604.00000000007, "ahorro_total":-34604.00000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":3500.0, "cuota":25.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":25.0, "ahorro_total":-25.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":35000.0, "cuota":500.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":500.0, "ahorro_total":-500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3900.0, "cuota":3128.0, "saldo":3128.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1979, "fecha_inicio":"2020-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":6256.000000000007, "ahorro_total":-6256.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1817.0000000000025, "ahorro_total":-1817.0000000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":6400.0, "cuota":407.0, "saldo":3263.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4902, "fecha_inicio":"2021-12-23", "tipo_deuda":"R", "ahorro_cuota_mensual":3670.000000000007, "ahorro_total":-3670.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":2071.0, "cuota":959.0, "saldo":959.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5369, "fecha_inicio":"2018-08-27", "tipo_deuda":"O", "ahorro_cuota_mensual":1918.000000000002, "ahorro_total":-1918.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":3000.0, "cuota":264.0, "saldo":2633.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1223, "fecha_inicio":"2020-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":2897.0000000000055, "ahorro_total":-2897.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":47700.0, "cuota":621.0, "saldo":1569.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":49.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.9671, "fecha_inicio":"2020-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":539.1267691419298, "ahorro_total":26417.21168795456, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28112.0, "cuota":1950.0, "saldo":22468.0, "tasa_externa":0.8298, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":37.0, "frecuencia_externa":"S", "avance":0.2008, "fecha_inicio":"2022-03-23", "tipo_deuda":"I", "ahorro_cuota_mensual":553.8207180282427, "ahorro_total":33783.063799722804, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":6600.0, "cuota":570.0, "saldo":6682.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0124, "fecha_inicio":"2008-02-01", "tipo_deuda":"R", "ahorro_cuota_mensual":7252.000000000014, "ahorro_total":-7252.000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 4884745, "monto_maximo_cliente": 28112.0, "cuota_externa_total": 21663.0, "capacidad_maxima_pago": 25073.0, "bursolnum": 7317557, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1405.0673550598951, "monto_max": 28112.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":70000.0, "cuota":4826.0, "saldo":63945.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0865, "fecha_inicio":"2023-03-17", "tipo_deuda":"I", "ahorro_cuota_mensual":780.0338822209287, "ahorro_total":28081.219759953434, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":30, "monto_otorgado":21609.0, "cuota":6455.0, "saldo":6455.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7013, "fecha_inicio":"2011-12-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":13, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":35656.0, "cuota":1783.0, "saldo":32821.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0795, "fecha_inicio":"2016-08-03", "tipo_deuda":"R", "ahorro_cuota_mensual":34604.00000000007, "ahorro_total":-34604.00000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":3500.0, "cuota":25.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-03-08", "tipo_deuda":"R", "ahorro_cuota_mensual":25.0, "ahorro_total":-25.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":35000.0, "cuota":500.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-01-26", "tipo_deuda":"R", "ahorro_cuota_mensual":500.0, "ahorro_total":-500.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":3900.0, "cuota":3128.0, "saldo":3128.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1979, "fecha_inicio":"2020-09-23", "tipo_deuda":"R", "ahorro_cuota_mensual":6256.000000000007, "ahorro_total":-6256.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":1650.0, "cuota":620.0, "saldo":1197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2745, "fecha_inicio":"2020-10-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1817.0000000000025, "ahorro_total":-1817.0000000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":6400.0, "cuota":407.0, "saldo":3263.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4902, "fecha_inicio":"2021-12-23", "tipo_deuda":"R", "ahorro_cuota_mensual":3670.000000000007, "ahorro_total":-3670.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":2071.0, "cuota":959.0, "saldo":959.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5369, "fecha_inicio":"2018-08-27", "tipo_deuda":"O", "ahorro_cuota_mensual":1918.000000000002, "ahorro_total":-1918.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":3000.0, "cuota":264.0, "saldo":2633.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1223, "fecha_inicio":"2020-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":2897.0000000000055, "ahorro_total":-2897.0000000000055, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":47700.0, "cuota":621.0, "saldo":1569.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":49.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.9671, "fecha_inicio":"2020-02-06", "tipo_deuda":"R", "ahorro_cuota_mensual":539.1267691419298, "ahorro_total":26417.21168795456, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":28112.0, "cuota":1950.0, "saldo":22468.0, "tasa_externa":0.8298, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":37.0, "frecuencia_externa":"S", "avance":0.2008, "fecha_inicio":"2022-03-23", "tipo_deuda":"I", "ahorro_cuota_mensual":553.8207180282427, "ahorro_total":33783.063799722804, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":6600.0, "cuota":570.0, "saldo":6682.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0124, "fecha_inicio":"2008-02-01", "tipo_deuda":"R", "ahorro_cuota_mensual":7252.000000000014, "ahorro_total":-7252.000000000014, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 4907839, "monto_maximo_cliente": 40600.0, "cuota_externa_total": 3248.0, "capacidad_maxima_pago": 47352.0, "bursolnum": 7317596, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1568.7974207807197, "monto_max": 40600.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":17000.0, "cuota":1142.0, "saldo":15096.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":36.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.112, "fecha_inicio":"2023-03-31", "tipo_deuda":"I", "ahorro_cuota_mensual":384.4660207283083, "ahorro_total":13840.776746219099, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":6630.0, "cuota":3653.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":3653.0, "ahorro_total":-3653.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":3240.0, "cuota":154.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-03-17", "tipo_deuda":"R", "ahorro_cuota_mensual":154.0, "ahorro_total":-154.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":40600.0, "cuota":2106.0, "saldo":37036.0, "tasa_externa":0.4678, "tasa_kubo":0.2914, "numero_pagos_otorgado":71.0, "numero_pagos_restante":27.0, "frecuencia_externa":"S", "avance":0.0878, "fecha_inicio":"2023-07-20", "tipo_deuda":"I", "ahorro_cuota_mensual":296.83061420995955, "ahorro_total":10685.902111558544, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -358,7 +361,7 @@
     <t>{"Prospecto": 5104626, "monto_maximo_cliente": 41200.0, "cuota_externa_total": 4256.0, "capacidad_maxima_pago": 51444.0, "bursolnum": 7317766, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 2292.1517075495476, "monto_max": 41200.0, "cuota_min": 232.85304854502846, "monto_min": 5000, "plazo_max": 35.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0444, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":9300.0, "cuota":648.0, "saldo":8930.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":36.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0398, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":136.88561864211812, "ahorro_total":4927.882271116252, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1548.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2020-12-26", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":20000.0, "cuota":1000.0, "saldo":5872.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7064, "fecha_inicio":"2023-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":6871.999999999989, "ahorro_total":-6871.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":17200.0, "cuota":860.0, "saldo":7939.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5384, "fecha_inicio":"2022-03-14", "tipo_deuda":"R", "ahorro_cuota_mensual":8798.999999999985, "ahorro_total":-8798.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":41200.0, "cuota":2816.0, "saldo":5281.0, "tasa_externa":0.5362, "tasa_kubo":0.4428, "numero_pagos_otorgado":24.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8718, "fecha_inicio":"2022-03-28", "tipo_deuda":"I", "ahorro_cuota_mensual":35.69190208118107, "ahorro_total":856.6056499483457, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":19340.0, "cuota":967.0, "saldo":9309.0, "tasa_externa":-1.0, "tasa_kubo":0.4428, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5187, "fecha_inicio":"2022-11-02", "tipo_deuda":"R", "ahorro_cuota_mensual":10275.999999999982, "ahorro_total":-10275.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5109565, "monto_maximo_cliente": 96000.0, "cuota_externa_total": 12391.0, "capacidad_maxima_pago": 98586.0, "bursolnum": 7317411, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4012.674951101334, "monto_max": 96000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":10900.0, "cuota":545.0, "saldo":5974.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4519, "fecha_inicio":"2023-09-07", "tipo_deuda":"R", "ahorro_cuota_mensual":-1088.61205199581, "ahorro_total":-4354.44820798324, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15100.0, "cuota":1132.0, "saldo":14547.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0366, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-700.697585391687, "ahorro_total":-7006.97585391687, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":96000.0, "cuota":4881.0, "saldo":79736.0, "tasa_externa":0.5423, "tasa_kubo":0.3813, "numero_pagos_otorgado":48.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.1694, "fecha_inicio":"2022-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":586.870796141563, "ahorro_total":28169.798214795024, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":7100.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-02", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":25600.0, "cuota":1280.0, "saldo":7078.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7235, "fecha_inicio":"2023-10-05", "tipo_deuda":"R", "ahorro_cuota_mensual":8358.000000000015, "ahorro_total":-8358.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":3600.0, "cuota":284.0, "saldo":537.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8508, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":821.0000000000011, "ahorro_total":-821.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":45000.0, "cuota":1250.0, "saldo":9167.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7963, "fecha_inicio":"2021-07-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1027.435900693842, "ahorro_total":-36987.69242497832, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":4835.0, "cuota":667.0, "saldo":1330.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7249, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":4835.0, "cuota":270.0, "saldo":806.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8333, "fecha_inicio":"2023-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":19000.0, "cuota":950.0, "saldo":2988.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8427, "fecha_inicio":"2021-04-08", "tipo_deuda":"R", "ahorro_cuota_mensual":3938.0000000000064, "ahorro_total":-3938.0000000000064, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":19, "monto_otorgado":25700.0, "cuota":1285.0, "saldo":20428.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2051, "fecha_inicio":"2022-03-04", "tipo_deuda":"R", "ahorro_cuota_mensual":21713.000000000044, "ahorro_total":-21713.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":20, "monto_otorgado":22600.0, "cuota":1390.0, "saldo":20166.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1077, "fecha_inicio":"2020-03-13", "tipo_deuda":"R", "ahorro_cuota_mensual":21556.000000000044, "ahorro_total":-21556.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1427.0, "saldo":13499.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1001, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":474.5786768790206, "ahorro_total":11389.888245096494, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":637.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 5109565, "monto_maximo_cliente": 96000.0, "cuota_externa_total": 12391.0, "capacidad_maxima_pago": 98586.0, "bursolnum": 7317411, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4012.674951101334, "monto_max": 96000.0, "cuota_min": 208.00254263563033, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.8317, "comision": 0.0433, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":10900.0, "cuota":545.0, "saldo":5974.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":4.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4519, "fecha_inicio":"2023-09-07", "tipo_deuda":"R", "ahorro_cuota_mensual":-1088.61205199581, "ahorro_total":-4354.44820798324, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15100.0, "cuota":1132.0, "saldo":14547.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0366, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-700.697585391687, "ahorro_total":-7006.97585391687, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":96000.0, "cuota":4881.0, "saldo":79736.0, "tasa_externa":0.5423, "tasa_kubo":0.3813, "numero_pagos_otorgado":48.0, "numero_pagos_restante":29.0, "frecuencia_externa":"M", "avance":0.1694, "fecha_inicio":"2022-09-20", "tipo_deuda":"I", "ahorro_cuota_mensual":586.870796141563, "ahorro_total":28169.798214795024, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":7100.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-02", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":25600.0, "cuota":1280.0, "saldo":7078.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7235, "fecha_inicio":"2023-10-05", "tipo_deuda":"R", "ahorro_cuota_mensual":8358.000000000015, "ahorro_total":-8358.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":3600.0, "cuota":284.0, "saldo":537.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8508, "fecha_inicio":"2023-09-08", "tipo_deuda":"R", "ahorro_cuota_mensual":821.0000000000011, "ahorro_total":-821.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":45000.0, "cuota":1250.0, "saldo":9167.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":36.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7963, "fecha_inicio":"2021-07-24", "tipo_deuda":"I", "ahorro_cuota_mensual":-1027.435900693842, "ahorro_total":-36987.69242497832, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":4835.0, "cuota":667.0, "saldo":1330.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7249, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":4835.0, "cuota":270.0, "saldo":806.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8333, "fecha_inicio":"2023-11-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":12, "monto_otorgado":19000.0, "cuota":950.0, "saldo":2988.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8427, "fecha_inicio":"2021-04-08", "tipo_deuda":"R", "ahorro_cuota_mensual":3938.0000000000064, "ahorro_total":-3938.0000000000064, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":19, "monto_otorgado":25700.0, "cuota":1285.0, "saldo":20428.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2051, "fecha_inicio":"2022-03-04", "tipo_deuda":"R", "ahorro_cuota_mensual":21713.000000000044, "ahorro_total":-21713.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":20, "monto_otorgado":22600.0, "cuota":1390.0, "saldo":20166.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1077, "fecha_inicio":"2020-03-13", "tipo_deuda":"R", "ahorro_cuota_mensual":21556.000000000044, "ahorro_total":-21556.000000000044, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1427.0, "saldo":13499.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":24.0, "numero_pagos_restante":14.0, "frecuencia_externa":"M", "avance":0.1001, "fecha_inicio":"2023-06-14", "tipo_deuda":"I", "ahorro_cuota_mensual":474.5786768790206, "ahorro_total":11389.888245096494, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":8, "monto_otorgado":637.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3813, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2018-02-28", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5115747, "monto_maximo_cliente": 116986.0, "cuota_externa_total": 13701.0, "capacidad_maxima_pago": 117511.0, "bursolnum": 7317829, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8281.414692337528, "monto_max": 116986.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 36.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":3, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2019-12-15", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":70000.0, "cuota":4877.0, "saldo":66197.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.0543, "fecha_inicio":"2023-06-23", "tipo_deuda":"I", "ahorro_cuota_mensual":-78.28549111540815, "ahorro_total":-2818.2776801546934, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":116986.0, "cuota":8824.0, "saldo":102206.0, "tasa_externa":0.8374, "tasa_kubo":0.6509, "numero_pagos_otorgado":72.0, "numero_pagos_restante":25.0, "frecuencia_externa":"S", "avance":0.1263, "fecha_inicio":"2023-05-15", "tipo_deuda":"I", "ahorro_cuota_mensual":542.5853076624717, "ahorro_total":19533.07107584898, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":9000.0, "cuota":393.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2019-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":393.0, "ahorro_total":-393.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -367,7 +370,7 @@
     <t>{"Prospecto": 5133040, "monto_maximo_cliente": 52400.0, "cuota_externa_total": 18019.0, "capacidad_maxima_pago": 44081.0, "bursolnum": 7317356, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3111.4575367866714, "monto_max": 52400.0, "cuota_min": 285.5882600985808, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":50000.0, "cuota":3716.0, "saldo":48136.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":19.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.0373, "fecha_inicio":"2023-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":-2910.729558772964, "ahorro_total":-29107.29558772964, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52400.0, "cuota":4194.0, "saldo":52994.0, "tasa_externa":0.9653, "tasa_kubo":0.5668, "numero_pagos_otorgado":122.0, "numero_pagos_restante":57.0, "frecuencia_externa":"S", "avance":-0.0113, "fecha_inicio":"2023-12-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1207.6233127982796, "ahorro_total":73665.02208069505, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":13200.0, "cuota":5712.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2022-07-14", "tipo_deuda":"R", "ahorro_cuota_mensual":5712.0, "ahorro_total":-5712.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":10000.0, "cuota":500.0, "saldo":9053.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0947, "fecha_inicio":"2023-03-03", "tipo_deuda":"R", "ahorro_cuota_mensual":9553.000000000002, "ahorro_total":-9553.000000000002, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":12100.0, "cuota":1098.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-05-29", "tipo_deuda":"R", "ahorro_cuota_mensual":1098.0, "ahorro_total":-1098.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":9, "monto_otorgado":17800.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":4, "monto_otorgado":674890.0, "cuota":6405.0, "saldo":671220.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":360.0, "numero_pagos_restante":352.0, "frecuencia_externa":"M", "avance":0.0054, "fecha_inicio":"2023-08-21", "tipo_deuda":"M", "ahorro_cuota_mensual":-30371.59144815558, "ahorro_total":-10933772.92133601, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":30000.0, "cuota":2248.0, "saldo":26668.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1111, "fecha_inicio":"2023-07-04", "tipo_deuda":"I", "ahorro_cuota_mensual":-28.548900861652783, "ahorro_total":-685.1736206796668, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COOPERATIVA", "registro":6, "monto_otorgado":60000.0, "cuota":1250.0, "saldo":19472.0, "tasa_externa":-1.0, "tasa_kubo":0.5668, "numero_pagos_otorgado":48.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.6755, "fecha_inicio":"2023-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-2312.73763754199, "ahorro_total":-111011.40660201552, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5158482, "monto_maximo_cliente": 100638.0, "cuota_externa_total": 67664.0, "capacidad_maxima_pago": 82275.0, "bursolnum": 7317410, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4150.576921317457, "monto_max": 100638.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0423, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":17, "monto_otorgado":117700.0, "cuota":6210.0, "saldo":73230.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3778, "fecha_inicio":"2006-01-27", "tipo_deuda":"R", "ahorro_cuota_mensual":79439.99999999981, "ahorro_total":-79439.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":9917.0, "cuota":820.0, "saldo":1640.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8346, "fecha_inicio":"2023-09-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":9966.0, "cuota":2311.0, "saldo":2311.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7681, "fecha_inicio":"2023-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":9953.0, "cuota":1619.0, "saldo":4855.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5122, "fecha_inicio":"2023-10-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":96000.0, "cuota":7907.0, "saldo":80978.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1565, "fecha_inicio":"2023-06-30", "tipo_deuda":"I", "ahorro_cuota_mensual":2099.702511179965, "ahorro_total":50392.86026831916, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":22, "monto_otorgado":64000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":23, "monto_otorgado":39100.0, "cuota":2144.0, "saldo":20140.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4849, "fecha_inicio":"2003-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":22283.99999999995, "ahorro_total":-22283.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-02-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":95000.0, "cuota":8000.0, "saldo":76841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1911, "fecha_inicio":"2007-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":84840.99999999981, "ahorro_total":-84840.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":9974.0, "cuota":689.0, "saldo":2758.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7235, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":44600.0, "cuota":3476.0, "saldo":38335.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1405, "fecha_inicio":"2018-05-30", "tipo_deuda":"R", "ahorro_cuota_mensual":41810.999999999905, "ahorro_total":-41810.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":260100.0, "cuota":13005.0, "saldo":123543.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.525, "fecha_inicio":"2007-05-10", "tipo_deuda":"R", "ahorro_cuota_mensual":136547.99999999968, "ahorro_total":-136547.99999999968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":109000.0, "cuota":6938.0, "saldo":109521.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0048, "fecha_inicio":"2004-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":116458.99999999972, "ahorro_total":-116458.99999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":100638.0, "cuota":4742.0, "saldo":69480.0, "tasa_externa":0.4002, "tasa_kubo":0.3337, "numero_pagos_otorgado":37.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3096, "fecha_inicio":"2022-10-26", "tipo_deuda":"I", "ahorro_cuota_mensual":44.53254235675013, "ahorro_total":1647.7040671997547, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":25000.0, "cuota":1250.0, "saldo":2461.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9016, "fecha_inicio":"2022-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3710.9999999999936, "ahorro_total":-3710.9999999999936, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":143100.0, "cuota":9300.0, "saldo":113621.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.206, "fecha_inicio":"2004-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":122920.99999999971, "ahorro_total":-122920.99999999971, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":42000.0, "cuota":2620.0, "saldo":40222.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0423, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":42841.9999999999, "ahorro_total":-42841.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":117500.0, "cuota":10682.0, "saldo":89885.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.235, "fecha_inicio":"2013-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":100566.99999999978, "ahorro_total":-100566.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":180000.0, "cuota":9000.0, "saldo":89736.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5015, "fecha_inicio":"2004-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":98735.99999999978, "ahorro_total":-98735.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":51681.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2617, "fecha_inicio":"2023-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":55180.999999999876, "ahorro_total":-55180.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":98000.0, "cuota":5390.0, "saldo":76502.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2194, "fecha_inicio":"2022-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":81891.99999999981, "ahorro_total":-81891.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":31500.0, "cuota":1575.0, "saldo":11540.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6337, "fecha_inicio":"2006-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":13114.99999999997, "ahorro_total":-13114.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 5158482, "monto_maximo_cliente": 100638.0, "cuota_externa_total": 67664.0, "capacidad_maxima_pago": 82275.0, "bursolnum": 7317410, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 4150.576921317457, "monto_max": 100638.0, "cuota_min": 189.49186879271792, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.4818, "comision": 0.0423, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":17, "monto_otorgado":117700.0, "cuota":6210.0, "saldo":73230.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3778, "fecha_inicio":"2006-01-27", "tipo_deuda":"R", "ahorro_cuota_mensual":79439.99999999981, "ahorro_total":-79439.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":19, "monto_otorgado":9917.0, "cuota":820.0, "saldo":1640.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.8346, "fecha_inicio":"2023-09-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":18, "monto_otorgado":9966.0, "cuota":2311.0, "saldo":2311.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7681, "fecha_inicio":"2023-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":20, "monto_otorgado":9953.0, "cuota":1619.0, "saldo":4855.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5122, "fecha_inicio":"2023-10-02", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":10, "monto_otorgado":96000.0, "cuota":7907.0, "saldo":80978.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":24.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.1565, "fecha_inicio":"2023-06-30", "tipo_deuda":"I", "ahorro_cuota_mensual":2099.702511179965, "ahorro_total":50392.86026831916, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":22, "monto_otorgado":64000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":23, "monto_otorgado":39100.0, "cuota":2144.0, "saldo":20140.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4849, "fecha_inicio":"2003-12-27", "tipo_deuda":"R", "ahorro_cuota_mensual":22283.99999999995, "ahorro_total":-22283.99999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2012-02-05", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":16, "monto_otorgado":95000.0, "cuota":8000.0, "saldo":76841.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1911, "fecha_inicio":"2007-03-02", "tipo_deuda":"R", "ahorro_cuota_mensual":84840.99999999981, "ahorro_total":-84840.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":21, "monto_otorgado":9974.0, "cuota":689.0, "saldo":2758.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7235, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":15, "monto_otorgado":44600.0, "cuota":3476.0, "saldo":38335.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1405, "fecha_inicio":"2018-05-30", "tipo_deuda":"R", "ahorro_cuota_mensual":41810.999999999905, "ahorro_total":-41810.999999999905, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":260100.0, "cuota":13005.0, "saldo":123543.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.525, "fecha_inicio":"2007-05-10", "tipo_deuda":"R", "ahorro_cuota_mensual":136547.99999999968, "ahorro_total":-136547.99999999968, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":109000.0, "cuota":6938.0, "saldo":109521.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.0048, "fecha_inicio":"2004-01-29", "tipo_deuda":"R", "ahorro_cuota_mensual":116458.99999999972, "ahorro_total":-116458.99999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":12, "monto_otorgado":100638.0, "cuota":4742.0, "saldo":69480.0, "tasa_externa":0.4002, "tasa_kubo":0.3337, "numero_pagos_otorgado":37.0, "numero_pagos_restante":20.0, "frecuencia_externa":"M", "avance":0.3096, "fecha_inicio":"2022-10-26", "tipo_deuda":"I", "ahorro_cuota_mensual":44.53254235675013, "ahorro_total":1647.7040671997547, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":25000.0, "cuota":1250.0, "saldo":2461.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9016, "fecha_inicio":"2022-08-04", "tipo_deuda":"R", "ahorro_cuota_mensual":3710.9999999999936, "ahorro_total":-3710.9999999999936, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":143100.0, "cuota":9300.0, "saldo":113621.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.206, "fecha_inicio":"2004-04-01", "tipo_deuda":"R", "ahorro_cuota_mensual":122920.99999999971, "ahorro_total":-122920.99999999971, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":42000.0, "cuota":2620.0, "saldo":40222.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0423, "fecha_inicio":"2023-11-06", "tipo_deuda":"R", "ahorro_cuota_mensual":42841.9999999999, "ahorro_total":-42841.9999999999, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":117500.0, "cuota":10682.0, "saldo":89885.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.235, "fecha_inicio":"2013-08-05", "tipo_deuda":"R", "ahorro_cuota_mensual":100566.99999999978, "ahorro_total":-100566.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":180000.0, "cuota":9000.0, "saldo":89736.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5015, "fecha_inicio":"2004-09-13", "tipo_deuda":"R", "ahorro_cuota_mensual":98735.99999999978, "ahorro_total":-98735.99999999978, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":70000.0, "cuota":3500.0, "saldo":51681.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2617, "fecha_inicio":"2023-06-29", "tipo_deuda":"R", "ahorro_cuota_mensual":55180.999999999876, "ahorro_total":-55180.999999999876, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":98000.0, "cuota":5390.0, "saldo":76502.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2194, "fecha_inicio":"2022-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":81891.99999999981, "ahorro_total":-81891.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":14, "monto_otorgado":31500.0, "cuota":1575.0, "saldo":11540.0, "tasa_externa":-1.0, "tasa_kubo":0.3337, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6337, "fecha_inicio":"2006-10-01", "tipo_deuda":"R", "ahorro_cuota_mensual":13114.99999999997, "ahorro_total":-13114.99999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5177117, "monto_maximo_cliente": 15000.0, "cuota_externa_total": 6484.0, "capacidad_maxima_pago": 23516.0, "bursolnum": 7317655, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 428.4263741100588, "monto_max": 15000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5391, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":35000.0, "cuota":2207.0, "saldo":33267.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":33.0, "numero_pagos_restante":24.0, "frecuencia_externa":"M", "avance":0.0495, "fecha_inicio":"2023-07-06", "tipo_deuda":"I", "ahorro_cuota_mensual":762.4429513834762, "ahorro_total":25160.617395654714, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":49000.0, "cuota":2450.0, "saldo":22834.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.534, "fecha_inicio":"2020-03-16", "tipo_deuda":"R", "ahorro_cuota_mensual":25283.999999999956, "ahorro_total":-25283.999999999956, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":21349.0, "cuota":1404.0, "saldo":12926.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3945, "fecha_inicio":"2019-07-08", "tipo_deuda":"R", "ahorro_cuota_mensual":14329.999999999976, "ahorro_total":-14329.999999999976, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":3, "monto_otorgado":21000.0, "cuota":3353.0, "saldo":17928.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1463, "fecha_inicio":"2022-03-01", "tipo_deuda":"R", "ahorro_cuota_mensual":21280.999999999964, "ahorro_total":-21280.999999999964, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":15000.0, "cuota":557.0, "saldo":4952.0, "tasa_externa":0.3806, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.6699, "fecha_inicio":"2019-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":132.41753764757152, "ahorro_total":7945.052258854292, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
@@ -382,13 +385,13 @@
     <t>{"Prospecto": 5215233, "monto_maximo_cliente": 12000.0, "cuota_externa_total": 7485.0, "capacidad_maxima_pago": 39515.0, "bursolnum": 7317135, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 342.74109928804705, "monto_max": 12000.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5991, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":12000.0, "cuota":768.0, "saldo":9855.0, "tasa_externa":0.7592, "tasa_kubo":0.2, "numero_pagos_otorgado":120.0, "numero_pagos_restante":51.0, "frecuencia_externa":"S", "avance":0.1787, "fecha_inicio":"2023-07-13", "tipo_deuda":"I", "ahorro_cuota_mensual":428.33403011805717, "ahorro_total":25700.04180708343, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":83100.0, "cuota":2187.0, "saldo":186.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9978, "fecha_inicio":"2022-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2372.9999999999995, "ahorro_total":-2372.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":1921.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-06-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":69000.0, "cuota":4530.0, "saldo":55857.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.1905, "fecha_inicio":"2023-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":1851.8312816374705, "ahorro_total":66665.92613894894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5252137, "monto_maximo_cliente": 85000.0, "cuota_externa_total": 7250.0, "capacidad_maxima_pago": 90750.0, "bursolnum": 7317545, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3621.5346005800234, "monto_max": 85000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":16000.0, "cuota":800.0, "saldo":952.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9405, "fecha_inicio":"2021-05-05", "tipo_deuda":"R", "ahorro_cuota_mensual":1751.9999999999977, "ahorro_total":-1751.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":18000.0, "cuota":1520.0, "saldo":16984.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0564, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":399.50889474247515, "ahorro_total":9588.213473819404, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":22000.0, "cuota":1100.0, "saldo":11609.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4723, "fecha_inicio":"2018-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":100.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":18000.0, "cuota":900.0, "saldo":4795.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7336, "fecha_inicio":"2023-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":5694.999999999989, "ahorro_total":-5694.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":2075.0, "saldo":7748.0, "tasa_externa":0.4, "tasa_kubo":0.3617, "numero_pagos_otorgado":25.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7786, "fecha_inicio":"2022-05-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-47.769301171188545, "ahorro_total":-1194.2325292797136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15600.0, "cuota":560.0, "saldo":14466.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0727, "fecha_inicio":"2020-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":15025.999999999967, "ahorro_total":-15025.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":5944.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8811, "fecha_inicio":"2022-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":8443.999999999985, "ahorro_total":-8443.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":50000.0, "cuota":2061.0, "saldo":47726.0, "tasa_externa":0.3921, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.0455, "fecha_inicio":"2023-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-102.96654858722286, "ahorro_total":-4942.394332186697, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":40000.0, "cuota":1.0, "saldo":13716.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6571, "fecha_inicio":"2022-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":13716.999999999969, "ahorro_total":-13716.999999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6300.0, "cuota":149.0, "saldo":5402.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1425, "fecha_inicio":"2018-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5550.999999999988, "ahorro_total":-5550.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":7140.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7254, "fecha_inicio":"2022-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":8439.999999999984, "ahorro_total":-8439.999999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 5252137, "monto_maximo_cliente": 85000.0, "cuota_externa_total": 7250.0, "capacidad_maxima_pago": 90750.0, "bursolnum": 7317545, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3621.5346005800234, "monto_max": 85000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.7007, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":16000.0, "cuota":800.0, "saldo":952.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9405, "fecha_inicio":"2021-05-05", "tipo_deuda":"R", "ahorro_cuota_mensual":1751.9999999999977, "ahorro_total":-1751.9999999999977, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":5, "monto_otorgado":18000.0, "cuota":1520.0, "saldo":16984.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0564, "fecha_inicio":"2023-08-04", "tipo_deuda":"I", "ahorro_cuota_mensual":399.50889474247515, "ahorro_total":9588.213473819404, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":12, "monto_otorgado":22000.0, "cuota":1100.0, "saldo":11609.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4723, "fecha_inicio":"2018-04-03", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":100.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2018-01-17", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":18000.0, "cuota":900.0, "saldo":4795.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7336, "fecha_inicio":"2023-01-12", "tipo_deuda":"R", "ahorro_cuota_mensual":5694.999999999989, "ahorro_total":-5694.999999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":35000.0, "cuota":2075.0, "saldo":7748.0, "tasa_externa":0.4, "tasa_kubo":0.3617, "numero_pagos_otorgado":25.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7786, "fecha_inicio":"2022-05-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-47.769301171188545, "ahorro_total":-1194.2325292797136, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":15600.0, "cuota":560.0, "saldo":14466.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0727, "fecha_inicio":"2020-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":15025.999999999967, "ahorro_total":-15025.999999999967, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":5944.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8811, "fecha_inicio":"2022-05-12", "tipo_deuda":"R", "ahorro_cuota_mensual":8443.999999999985, "ahorro_total":-8443.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":50000.0, "cuota":2061.0, "saldo":47726.0, "tasa_externa":0.3921, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":42.0, "frecuencia_externa":"M", "avance":0.0455, "fecha_inicio":"2023-09-28", "tipo_deuda":"I", "ahorro_cuota_mensual":-102.96654858722286, "ahorro_total":-4942.394332186697, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":40000.0, "cuota":1.0, "saldo":13716.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6571, "fecha_inicio":"2022-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":13716.999999999969, "ahorro_total":-13716.999999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":6300.0, "cuota":149.0, "saldo":5402.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1425, "fecha_inicio":"2018-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":5550.999999999988, "ahorro_total":-5550.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":26000.0, "cuota":1300.0, "saldo":7140.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7254, "fecha_inicio":"2022-10-17", "tipo_deuda":"R", "ahorro_cuota_mensual":8439.999999999984, "ahorro_total":-8439.999999999984, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5267958, "monto_maximo_cliente": 130000.0, "cuota_externa_total": 9618.0, "capacidad_maxima_pago": 129922.0, "bursolnum": 7317186, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 6497.536858202417, "monto_max": 130000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":130000.0, "cuota":7310.0, "saldo":115003.0, "tasa_externa":0.6577, "tasa_kubo":0.4818, "numero_pagos_otorgado":122.0, "numero_pagos_restante":48.0, "frecuencia_externa":"S", "avance":0.1154, "fecha_inicio":"2023-03-03", "tipo_deuda":"I", "ahorro_cuota_mensual":853.5647888329377, "ahorro_total":52067.4521188092, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":47000.0, "cuota":2526.0, "saldo":7603.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8382, "fecha_inicio":"2023-05-27", "tipo_deuda":"R", "ahorro_cuota_mensual":10129.000000000015, "ahorro_total":-10129.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":23400.0, "cuota":1170.0, "saldo":5053.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7841, "fecha_inicio":"2021-03-31", "tipo_deuda":"R", "ahorro_cuota_mensual":6223.00000000001, "ahorro_total":-6223.00000000001, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":20000.0, "cuota":2015.0, "saldo":17416.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":18.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.1292, "fecha_inicio":"2023-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":349.5670874171169, "ahorro_total":6292.207573508104, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5283904, "monto_maximo_cliente": 372000.0, "cuota_externa_total": 32149.0, "capacidad_maxima_pago": 396351.0, "bursolnum": 7317657, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13206.842106659838, "monto_max": 372000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.2622, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":45000.0, "cuota":2988.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":30.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0532, "fecha_inicio":"2023-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":828.0751421092141, "ahorro_total":24842.254263276423, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":7744.0, "cuota":558.0, "saldo":4464.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4236, "fecha_inicio":"2023-11-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":3844.0, "cuota":266.0, "saldo":1592.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5858, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3836.0, "cuota":808.0, "saldo":3236.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1564, "fecha_inicio":"2023-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":65000.0, "cuota":2214.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":312.0, "numero_pagos_restante":217.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-05-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2214.0, "ahorro_total":690768.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":88100.0, "cuota":5000.0, "saldo":78690.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1068, "fecha_inicio":"2018-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":83689.99999999959, "ahorro_total":-83689.99999999959, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":21600.0, "cuota":1469.0, "saldo":35086.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.6244, "fecha_inicio":"2013-08-28", "tipo_deuda":"R", "ahorro_cuota_mensual":36554.99999999981, "ahorro_total":-36554.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":60200.0, "cuota":1320.0, "saldo":33746.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4394, "fecha_inicio":"2022-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-6244.83771967064, "ahorro_total":-56203.53947703576, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":8000.0, "cuota":113.0, "saldo":3371.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5786, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-8089.767999999969, "ahorro_total":-8089.767999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":372000.0, "cuota":13739.0, "saldo":353868.0, "tasa_externa":0.3775, "tasa_kubo":0.2622, "numero_pagos_otorgado":60.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0487, "fecha_inicio":"2021-05-27", "tipo_deuda":"I", "ahorro_cuota_mensual":1608.4924576048925, "ahorro_total":96509.54745629354, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":66000.0, "cuota":4530.0, "saldo":56880.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1382, "fecha_inicio":"2023-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":61409.9999999997, "ahorro_total":-61409.9999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":27000.0, "cuota":700.0, "saldo":20440.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.243, "fecha_inicio":"2023-08-07", "tipo_deuda":"R", "ahorro_cuota_mensual":21139.99999999989, "ahorro_total":-21139.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":300700.0, "cuota":6358.0, "saldo":158943.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4714, "fecha_inicio":"2022-04-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-31428.49007151099, "ahorro_total":-282856.41064359894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 5283904, "monto_maximo_cliente": 372000.0, "cuota_externa_total": 32149.0, "capacidad_maxima_pago": 396351.0, "bursolnum": 7317657, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 13206.842106659838, "monto_max": 372000.0, "cuota_min": 163.04445621498797, "monto_min": 5000, "plazo_max": 50.0, "plazo_min": 4, "tasa": 0.2622, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":45000.0, "cuota":2988.0, "saldo":42605.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":30.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.0532, "fecha_inicio":"2023-08-11", "tipo_deuda":"I", "ahorro_cuota_mensual":828.0751421092141, "ahorro_total":24842.254263276423, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":13, "monto_otorgado":7744.0, "cuota":558.0, "saldo":4464.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4236, "fecha_inicio":"2023-11-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":3844.0, "cuota":266.0, "saldo":1592.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5858, "fecha_inicio":"2023-10-27", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":11, "monto_otorgado":3836.0, "cuota":808.0, "saldo":3236.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.1564, "fecha_inicio":"2023-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":10, "monto_otorgado":65000.0, "cuota":2214.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":312.0, "numero_pagos_restante":217.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-05-02", "tipo_deuda":"R", "ahorro_cuota_mensual":2214.0, "ahorro_total":690768.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":88100.0, "cuota":5000.0, "saldo":78690.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1068, "fecha_inicio":"2018-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":83689.99999999959, "ahorro_total":-83689.99999999959, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":21600.0, "cuota":1469.0, "saldo":35086.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.6244, "fecha_inicio":"2013-08-28", "tipo_deuda":"R", "ahorro_cuota_mensual":36554.99999999981, "ahorro_total":-36554.99999999981, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":60200.0, "cuota":1320.0, "saldo":33746.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4394, "fecha_inicio":"2022-06-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-6244.83771967064, "ahorro_total":-56203.53947703576, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":8000.0, "cuota":113.0, "saldo":3371.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5786, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":-8089.767999999969, "ahorro_total":-8089.767999999969, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":372000.0, "cuota":13739.0, "saldo":353868.0, "tasa_externa":0.3775, "tasa_kubo":0.2622, "numero_pagos_otorgado":60.0, "numero_pagos_restante":26.0, "frecuencia_externa":"M", "avance":0.0487, "fecha_inicio":"2021-05-27", "tipo_deuda":"I", "ahorro_cuota_mensual":1608.4924576048925, "ahorro_total":96509.54745629354, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":66000.0, "cuota":4530.0, "saldo":56880.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1382, "fecha_inicio":"2023-02-10", "tipo_deuda":"R", "ahorro_cuota_mensual":61409.9999999997, "ahorro_total":-61409.9999999997, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":27000.0, "cuota":700.0, "saldo":20440.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.243, "fecha_inicio":"2023-08-07", "tipo_deuda":"R", "ahorro_cuota_mensual":21139.99999999989, "ahorro_total":-21139.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":300700.0, "cuota":6358.0, "saldo":158943.0, "tasa_externa":-1.0, "tasa_kubo":0.2622, "numero_pagos_otorgado":9.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.4714, "fecha_inicio":"2022-04-22", "tipo_deuda":"I", "ahorro_cuota_mensual":-31428.49007151099, "ahorro_total":-282856.41064359894, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5286466, "monto_maximo_cliente": 39000.0, "cuota_externa_total": 4741.0, "capacidad_maxima_pago": 55206.0, "bursolnum": 7317498, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1363.3029386249852, "monto_max": 39000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.6193, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":30000.0, "cuota":2357.0, "saldo":27394.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":16.0, "frecuencia_externa":"M", "avance":0.0869, "fecha_inicio":"2023-08-14", "tipo_deuda":"I", "ahorro_cuota_mensual":620.3400424925353, "ahorro_total":14888.161019820847, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":461.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-11-12", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":25000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2024-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":25000.0, "cuota":0.0, "saldo":4126.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.835, "fecha_inicio":"2023-11-12", "tipo_deuda":"R", "ahorro_cuota_mensual":4125.999999999988, "ahorro_total":-4125.999999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":39000.0, "cuota":1984.0, "saldo":26248.0, "tasa_externa":0.5452, "tasa_kubo":0.2914, "numero_pagos_otorgado":96.0, "numero_pagos_restante":30.0, "frecuencia_externa":"S", "avance":0.327, "fecha_inicio":"2022-10-07", "tipo_deuda":"I", "ahorro_cuota_mensual":492.2205424152253, "ahorro_total":23626.586035930814, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15800.0, "cuota":790.0, "saldo":9468.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4008, "fecha_inicio":"2018-05-13", "tipo_deuda":"R", "ahorro_cuota_mensual":10257.999999999975, "ahorro_total":-10257.999999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":19500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-08-19", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -409,13 +412,13 @@
     <t>{"Prospecto": 5383814, "monto_maximo_cliente": 15084.0, "cuota_externa_total": 8260.0, "capacidad_maxima_pago": 22272.0, "bursolnum": 7316743, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 1193.2774856689198, "monto_max": 15084.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 26.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "HIPOTECAGOBIERNO", "registro":5, "monto_otorgado":342176.0, "cuota":3227.0, "saldo":315822.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":360.0, "numero_pagos_restante":263.0, "frecuencia_externa":"M", "avance":0.077, "fecha_inicio":"2016-02-25", "tipo_deuda":"M", "ahorro_cuota_mensual":-16644.62551972764, "ahorro_total":-5992065.187101951, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":8, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2017-10-27", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":976.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-08-08", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":4, "monto_otorgado":350.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-04-06", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":4000.0, "cuota":275.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":264.0, "numero_pagos_restante":144.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-03-27", "tipo_deuda":"R", "ahorro_cuota_mensual":275.0, "ahorro_total":72600.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":5000.0, "cuota":250.0, "saldo":299.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9402, "fecha_inicio":"2021-07-27", "tipo_deuda":"R", "ahorro_cuota_mensual":549.0000000000005, "ahorro_total":-549.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":500.0, "saldo":972.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9028, "fecha_inicio":"2023-02-03", "tipo_deuda":"R", "ahorro_cuota_mensual":1472.0000000000011, "ahorro_total":-1472.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":15000.0, "cuota":3676.0, "saldo":13187.0, "tasa_externa":3.1879, "tasa_kubo":0.6509, "numero_pagos_otorgado":104.0, "numero_pagos_restante":20.0, "frecuencia_externa":"W", "avance":0.1209, "fecha_inicio":"2023-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":2489.3676554605013, "ahorro_total":64723.559041973036, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":10000.0, "cuota":1202.0, "saldo":7672.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.2328, "fecha_inicio":"2023-09-12", "tipo_deuda":"I", "ahorro_cuota_mensual":-9.940500263250215, "ahorro_total":-119.28600315900258, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5417924, "monto_maximo_cliente": 52400.0, "cuota_externa_total": 14612.0, "capacidad_maxima_pago": 51548.0, "bursolnum": 7317734, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3926.51033237947, "monto_max": 52400.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 30.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":50000.0, "cuota":4038.0, "saldo":46182.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0764, "fecha_inicio":"2023-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-54.09910790137883, "ahorro_total":-1298.378589633092, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":6000.0, "cuota":300.0, "saldo":3775.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3708, "fecha_inicio":"2018-11-19", "tipo_deuda":"R", "ahorro_cuota_mensual":4075.0000000000045, "ahorro_total":-4075.0000000000045, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":6590.0, "cuota":330.0, "saldo":1818.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7241, "fecha_inicio":"2024-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1552.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7643, "fecha_inicio":"2024-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1746.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7349, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":5400.0, "cuota":1150.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-06-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1150.0, "ahorro_total":-1150.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":6, "monto_otorgado":6585.0, "cuota":1261.0, "saldo":8823.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.3399, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1467.0, "saldo":8108.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1892, "fecha_inicio":"2022-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":9575.000000000011, "ahorro_total":-9575.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52400.0, "cuota":6060.0, "saldo":48482.0, "tasa_externa":1.3555, "tasa_kubo":0.6509, "numero_pagos_otorgado":61.0, "numero_pagos_restante":24.0, "frecuencia_externa":"S", "avance":0.0748, "fecha_inicio":"2023-10-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2133.48966762053, "ahorro_total":64004.69002861589, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":8800.0, "cuota":390.0, "saldo":3379.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.616, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":3769.0000000000036, "ahorro_total":-3769.0000000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":6585.0, "cuota":856.0, "saldo":4280.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.35, "fecha_inicio":"2023-12-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 5417924, "monto_maximo_cliente": 52400.0, "cuota_externa_total": 14612.0, "capacidad_maxima_pago": 51548.0, "bursolnum": 7317734, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3926.51033237947, "monto_max": 52400.0, "cuota_min": 322.9006720425269, "monto_min": 5000, "plazo_max": 30.0, "plazo_min": 4, "tasa": 0.6509, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":50000.0, "cuota":4038.0, "saldo":46182.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.0764, "fecha_inicio":"2023-09-26", "tipo_deuda":"I", "ahorro_cuota_mensual":-54.09910790137883, "ahorro_total":-1298.378589633092, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":11, "monto_otorgado":6000.0, "cuota":300.0, "saldo":3775.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.3708, "fecha_inicio":"2018-11-19", "tipo_deuda":"R", "ahorro_cuota_mensual":4075.0000000000045, "ahorro_total":-4075.0000000000045, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":10, "monto_otorgado":6590.0, "cuota":330.0, "saldo":1818.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7241, "fecha_inicio":"2024-01-24", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":9, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1552.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7643, "fecha_inicio":"2024-01-13", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":6585.0, "cuota":329.0, "saldo":1746.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7349, "fecha_inicio":"2024-01-01", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":5400.0, "cuota":1150.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2021-06-25", "tipo_deuda":"R", "ahorro_cuota_mensual":1150.0, "ahorro_total":-1150.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":6, "monto_otorgado":6585.0, "cuota":1261.0, "saldo":8823.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-0.3399, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":4, "monto_otorgado":10000.0, "cuota":1467.0, "saldo":8108.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.1892, "fecha_inicio":"2022-10-12", "tipo_deuda":"R", "ahorro_cuota_mensual":9575.000000000011, "ahorro_total":-9575.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":52400.0, "cuota":6060.0, "saldo":48482.0, "tasa_externa":1.3555, "tasa_kubo":0.6509, "numero_pagos_otorgado":61.0, "numero_pagos_restante":24.0, "frecuencia_externa":"S", "avance":0.0748, "fecha_inicio":"2023-10-09", "tipo_deuda":"I", "ahorro_cuota_mensual":2133.48966762053, "ahorro_total":64004.69002861589, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":8800.0, "cuota":390.0, "saldo":3379.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.616, "fecha_inicio":"2020-12-09", "tipo_deuda":"R", "ahorro_cuota_mensual":3769.0000000000036, "ahorro_total":-3769.0000000000036, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":7, "monto_otorgado":6585.0, "cuota":856.0, "saldo":4280.0, "tasa_externa":-1.0, "tasa_kubo":0.6509, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.35, "fecha_inicio":"2023-12-20", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5446631, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 67944.0, "capacidad_maxima_pago": 572056.0, "bursolnum": 7317746, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 19125.377661343267, "monto_max": 500000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":4920.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":1.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2023-10-25", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":50000.0, "cuota":2500.0, "saldo":6582.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8684, "fecha_inicio":"2022-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":9081.999999999982, "ahorro_total":-9081.999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":13, "monto_otorgado":119200.0, "cuota":5960.0, "saldo":63954.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4635, "fecha_inicio":"2022-10-24", "tipo_deuda":"R", "ahorro_cuota_mensual":69913.99999999983, "ahorro_total":-69913.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":6, "monto_otorgado":103500.0, "cuota":5175.0, "saldo":40310.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6105, "fecha_inicio":"2022-02-12", "tipo_deuda":"R", "ahorro_cuota_mensual":45484.99999999989, "ahorro_total":-45484.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9966, "fecha_inicio":"2023-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":210.99999999999972, "ahorro_total":-210.99999999999972, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":29, "monto_otorgado":9999.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2014-12-22", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":16, "monto_otorgado":1700.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-08-04", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":100000.0, "cuota":8083.0, "saldo":97398.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":18.0, "frecuencia_externa":"M", "avance":0.026, "fecha_inicio":"2023-10-10", "tipo_deuda":"I", "ahorro_cuota_mensual":2294.1334749751168, "ahorro_total":55059.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":15, "monto_otorgado":86018.0, "cuota":0.0, "saldo":134165.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.5597, "fecha_inicio":"2021-03-30", "tipo_deuda":"O", "ahorro_cuota_mensual":134164.99999999962, "ahorro_total":-134164.99999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "CIA Q' OTORGA", "registro":1, "monto_otorgado":130000.0, "cuota":6500.0, "saldo":64593.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5031, "fecha_inicio":"2016-08-23", "tipo_deuda":"R", "ahorro_cuota_mensual":71092.99999999983, "ahorro_total":-71092.99999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":29400.0, "cuota":112.0, "saldo":99.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_</t>
   </si>
   <si>
-    <t>{"Prospecto": 5476222, "monto_maximo_cliente": 60000.0, "cuota_externa_total": 23965.0, "capacidad_maxima_pago": 57935.0, "bursolnum": 7316956, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3696.1110273840345, "monto_max": 60000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 22.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1365.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-02-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":8500.0, "cuota":425.0, "saldo":826.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9028, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-05-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":5000.0, "cuota":599.0, "saldo":4170.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.166, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":102.16507259029186, "ahorro_total":1225.9808710835023, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":8986.0, "cuota":449.0, "saldo":658.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9268, "fecha_inicio":"2023-12-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":10252.0, "cuota":513.0, "saldo":2250.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7805, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":20000.0, "cuota":1202.0, "saldo":8584.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5708, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-662.5658076752466, "ahorro_total":-3312.829038376233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":10300.0, "cuota":515.0, "saldo":702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9318, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":18200.0, "cuota":12044.0, "saldo":4727.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7403, "fecha_inicio":"2023-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":16770.999999999985, "ahorro_total":-16770.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":1750.0, "cuota":1838.0, "saldo":919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4749, "fecha_inicio":"2023-12-31", "tipo_deuda":"I", "ahorro_cuota_mensual":1221.4989543348352, "ahorro_total":3664.4968630045055, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":8932.0, "cuota":1350.0, "saldo":885.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9009, "fecha_inicio":"2018-07-13", "tipo_deuda":"R", "ahorro_cuota_mensual":2234.9999999999973, "ahorro_total":-2234.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":7000.0, "cuota":904.0, "saldo":6312.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0983, "fecha_inicio":"2022-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":7215.999999999983, "ahorro_total":-7215.999999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":14000.0, "cuota":1184.0, "saldo":13800.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2021-07-09", "tipo_deuda":"R", "ahorro_cuota_mensual":14983.999999999962, "ahorro_total":-14983.999999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":17000.0, "cuota":1973.0, "saldo":16906.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0055, "fecha_inicio":"2023-11-27", "tipo_deuda":"R", "ahorro_cuota_mensual":18878.999999999953, "ahorro_total":-18878.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":60000.0, "cuota":4212.0, "saldo":58005.0, "tasa_externa":0.4945, "tasa_kubo":0.2914, "numero_pagos_otorgado":43.0, "numero_pagos_restante":12.0, "frecuencia_externa":"S", "avance":0.0332, "fecha_inicio":"2023-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":515.8889726159655, "ahorro_total":11349.557397551242, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+    <t>{"Prospecto": 5476222, "monto_maximo_cliente": 60000.0, "cuota_externa_total": 23965.0, "capacidad_maxima_pago": 57935.0, "bursolnum": 7316956, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 3696.1110273840345, "monto_max": 60000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 22.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1365.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-02-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":14, "monto_otorgado":8500.0, "cuota":425.0, "saldo":826.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9028, "fecha_inicio":"2023-09-04", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":9, "monto_otorgado":1571.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-05-01", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":5000.0, "cuota":599.0, "saldo":4170.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":12.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.166, "fecha_inicio":"2023-10-16", "tipo_deuda":"I", "ahorro_cuota_mensual":102.16507259029186, "ahorro_total":1225.9808710835023, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":17, "monto_otorgado":8986.0, "cuota":449.0, "saldo":658.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9268, "fecha_inicio":"2023-12-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":16, "monto_otorgado":10252.0, "cuota":513.0, "saldo":2250.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.7805, "fecha_inicio":"2023-11-14", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":20000.0, "cuota":1202.0, "saldo":8584.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":5.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.5708, "fecha_inicio":"2023-11-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-662.5658076752466, "ahorro_total":-3312.829038376233, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "MICROFINANCIERA", "registro":15, "monto_otorgado":10300.0, "cuota":515.0, "saldo":702.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.9318, "fecha_inicio":"2023-09-11", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":7, "monto_otorgado":18200.0, "cuota":12044.0, "saldo":4727.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7403, "fecha_inicio":"2023-08-24", "tipo_deuda":"R", "ahorro_cuota_mensual":16770.999999999985, "ahorro_total":-16770.999999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":1, "monto_otorgado":1750.0, "cuota":1838.0, "saldo":919.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":6.0, "numero_pagos_restante":6.0, "frecuencia_externa":"S", "avance":0.4749, "fecha_inicio":"2023-12-31", "tipo_deuda":"I", "ahorro_cuota_mensual":1221.4989543348352, "ahorro_total":3664.4968630045055, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":8932.0, "cuota":1350.0, "saldo":885.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9009, "fecha_inicio":"2018-07-13", "tipo_deuda":"R", "ahorro_cuota_mensual":2234.9999999999973, "ahorro_total":-2234.9999999999973, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":8, "monto_otorgado":7000.0, "cuota":904.0, "saldo":6312.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0983, "fecha_inicio":"2022-01-11", "tipo_deuda":"R", "ahorro_cuota_mensual":7215.999999999983, "ahorro_total":-7215.999999999983, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":14000.0, "cuota":1184.0, "saldo":13800.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0143, "fecha_inicio":"2021-07-09", "tipo_deuda":"R", "ahorro_cuota_mensual":14983.999999999962, "ahorro_total":-14983.999999999962, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":17000.0, "cuota":1973.0, "saldo":16906.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0055, "fecha_inicio":"2023-11-27", "tipo_deuda":"R", "ahorro_cuota_mensual":18878.999999999953, "ahorro_total":-18878.999999999953, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":60000.0, "cuota":4212.0, "saldo":58005.0, "tasa_externa":0.4945, "tasa_kubo":0.2914, "numero_pagos_otorgado":43.0, "numero_pagos_restante":12.0, "frecuencia_externa":"S", "avance":0.0332, "fecha_inicio":"2023-06-16", "tipo_deuda":"I", "ahorro_cuota_mensual":515.8889726159655, "ahorro_total":11349.557397551242, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5484371, "monto_maximo_cliente": 76088.0, "cuota_externa_total": 15093.0, "capacidad_maxima_pago": 73348.18, "bursolnum": 7317669, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5477.424358859572, "monto_max": 76088.0, "cuota_min": 332.5056785517006, "monto_min": 5000, "plazo_max": 37.0, "plazo_min": 4, "tasa": 0.6722, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":2, "monto_otorgado":76088.0, "cuota":6932.0, "saldo":63899.0, "tasa_externa":1.0614, "tasa_kubo":0.6722, "numero_pagos_otorgado":74.0, "numero_pagos_restante":26.0, "frecuencia_externa":"S", "avance":0.1602, "fecha_inicio":"2023-05-05", "tipo_deuda":"I", "ahorro_cuota_mensual":1454.5756411404282, "ahorro_total":53819.29872219584, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":3, "monto_otorgado":113000.0, "cuota":2248.0, "saldo":9633.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9148, "fecha_inicio":"2015-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":11881.000000000011, "ahorro_total":-11881.000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":5, "monto_otorgado":95000.0, "cuota":4750.0, "saldo":23364.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7541, "fecha_inicio":"2023-06-21", "tipo_deuda":"R", "ahorro_cuota_mensual":28114.00000000003, "ahorro_total":-28114.00000000003, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":6, "monto_otorgado":17000.0, "cuota":1970.0, "saldo":13293.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2181, "fecha_inicio":"2023-06-02", "tipo_deuda":"R", "ahorro_cuota_mensual":15263.000000000015, "ahorro_total":-15263.000000000015, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":66300.0, "cuota":3315.0, "saldo":20751.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.687, "fecha_inicio":"2022-10-18", "tipo_deuda":"R", "ahorro_cuota_mensual":24066.000000000025, "ahorro_total":-24066.000000000025, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":24600.0, "cuota":1230.0, "saldo":5465.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7778, "fecha_inicio":"2019-09-20", "tipo_deuda":"R", "ahorro_cuota_mensual":6695.000000000006, "ahorro_total":-6695.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":9, "monto_otorgado":39600.0, "cuota":1.0, "saldo":439.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9889, "fecha_inicio":"2011-10-04", "tipo_deuda":"R", "ahorro_cuota_mensual":440.0000000000005, "ahorro_total":-440.0000000000005, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "COMUNICACIONES", "registro":1, "monto_otorgado":10000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-09-19", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":40000.0, "cuota":3865.0, "saldo":36534.0, "tasa_externa":-1.0, "tasa_kubo":0.6722, "numero_pagos_otorgado":18.0, "numero_pagos_restante":13.0, "frecuencia_externa":"M", "avance":0.0866, "fecha_inicio":"2023-10-25", "tipo_deuda":"I", "ahorro_cuota_mensual":31.398909428947718, "ahorro_total":565.1803697210589, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -430,10 +433,10 @@
     <t>{"Prospecto": 5544466, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 133564.0, "capacidad_maxima_pago": 727247.0, "bursolnum": 7317838, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20239.78127720747, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 58.0, "plazo_min": 4, "tasa": 0.3617, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":1, "monto_otorgado":600000.0, "cuota":28080.0, "saldo":464773.0, "tasa_externa":0.5256, "tasa_kubo":0.3617, "numero_pagos_otorgado":120.0, "numero_pagos_restante":40.0, "frecuencia_externa":"S", "avance":0.2254, "fecha_inicio":"2022-08-09", "tipo_deuda":"I", "ahorro_cuota_mensual":4044.1054716145736, "ahorro_total":242646.32829687442, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":250000.0, "cuota":12500.0, "saldo":182160.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":76.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.2714, "fecha_inicio":"2017-09-28", "tipo_deuda":"R", "ahorro_cuota_mensual":5626.40440515134, "ahorro_total":427606.73479150183, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":5, "monto_otorgado":441000.0, "cuota":22050.0, "saldo":32203.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.927, "fecha_inicio":"2014-07-20", "tipo_deuda":"R", "ahorro_cuota_mensual":54252.99999999993, "ahorro_total":-54252.99999999993, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":577500.0, "cuota":28875.0, "saldo":640887.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":-0.1098, "fecha_inicio":"2014-06-06", "tipo_deuda":"R", "ahorro_cuota_mensual":669761.9999999985, "ahorro_total":-669761.9999999985, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":11, "monto_otorgado":376598.0, "cuota":12626.0, "saldo":158758.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":36.0, "numero_pagos_restante":12.0, "frecuencia_externa":"M", "avance":0.5784, "fecha_inicio":"2022-03-25", "tipo_deuda":"I", "ahorro_cuota_mensual":-5924.801625948363, "ahorro_total":-213292.85853414107, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":12, "monto_otorgado":140000.0, "cuota":7000.0, "saldo":108694.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2236, "fecha_inicio":"2021-04-10", "tipo_deuda":"R", "ahorro_cuota_mensual":115693.99999999975, "ahorro_total":-115693.99999999975, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "CIA Q' OTORGA", "registro":2, "monto_otorgado":286400.0, "cuota":19851.0, "saldo":271861.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.0508, "fecha_inicio":"2006-07-10", "tipo_deuda":"R", "ahorro_cuota_mensual":291711.99999999936, "ahorro_total":-291711.99999999936, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":4, "monto_otorgado":870517.0, "cuota":18734.0, "saldo":392494.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":48.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.5491, "fecha_inicio":"2022-01-03", "tipo_deuda":"I", "ahorro_cuota_mensual":-18941.393359530077, "ahorro_total":-909186.8812574437, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":6, "monto_otorgado":20000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2013-09-29", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":44919.0, "cuota":2557.0, "saldo":43610.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":28.0, "numero_pagos_restante":23.0, "frecuencia_externa":"M", "avance":0.0291, "fecha_inicio":"2023-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":15.54241772362684, "ahorro_total":435.18769626155154, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":9, "monto_otorgado":60181.0, "cuota":4740.0, "saldo":59153.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0171, "fecha_inicio":"2023-11-16", "tipo_deuda":"I", "ahorro_cuota_mensual":993.7624885831606, "ahorro_total":23850.299725995854, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":10, "monto_otorgado":54500.0, "cuota":2418.0, "saldo":38594.0, "tasa_externa":0.3392, "tasa_kubo":0.3617, "numero_pagos_otorgado":36.0, "numero_pagos_restante":22.0, "frecuencia_externa":"M", "avance":0.2919, "fecha_inicio":"2023-02-01", "tipo_deuda":"I", "ahorro_cuota_mensual":-266.60981899581475, "ahorro_total":-9597.953483849331, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
-    <t>{"Prospecto": 5547392, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 46459.0, "capacidad_maxima_pago": 517877.0, "bursolnum": 7317891, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17987.656733921576, "monto_max": 500000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 55.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":7, "monto_otorgado":15000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":58500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-01-14", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":100000.0, "cuota":8622.0, "saldo":99776.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0022, "fecha_inicio":"2023-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":2833.1334749751168, "ahorro_total":67995.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6000.0, "cuota":1244.0, "saldo":4614.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.231, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5857.999999999987, "ahorro_total":-5857.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":77011.0, "cuota":4494.0, "saldo":70275.0, "tasa_externa":0.3517, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0875, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":35.93600041308764, "ahorro_total":862.4640099141034, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":386000.0, "cuota":19300.0, "saldo":285213.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2611, "fecha_inicio":"2007-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":304512.9999999992, "ahorro_total":-304512.9999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":225500.0, "cuota":11275.0, "saldo":86785.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6151, "fecha_inicio":"2008-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":415000.0, "cuota":15404.0, "saldo":375261.0, "tasa_externa":0.3234, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":38.0, "frecuencia_externa":"M", "avance":0.0958, "fecha_inicio":"2023-06-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-470.06345891491037, "ahorro_total":-22563.046027915698, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
-  </si>
-  <si>
-    <t>{"Prospecto": 5550621, "monto_maximo_cliente": 149997.0, "cuota_externa_total": 12974.0, "capacidad_maxima_pago": 157966.0, "bursolnum": 7317367, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10649.214805333773, "monto_max": 149997.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":3, "monto_otorgado":149997.0, "cuota":11328.0, "saldo":146954.0, "tasa_externa":0.8388, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0203, "fecha_inicio":"2023-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":108.02772949290011, "ahorro_total":3888.998261744404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":19500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":29000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-07-31", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":600.0, "cuota":400.0, "saldo":400.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3333, "fecha_inicio":"2023-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-inf, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":74, "monto_otorgado":0.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2005-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":5300.0, "cuota":706.0, "saldo":4902.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.0751, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":46.75379753824268, "ahorro_total":561.0455704589122, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1036.0, "cuota":540.0, "saldo":540.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4788, "fecha_inicio":"2018-03-18", "tipo_deuda":"O", "ahorro_cuota_mensual":1079.9999999999995, "ahorro_total":-1079.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+    <t>{"Prospecto": 5547392, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 46459.0, "capacidad_maxima_pago": 517877.0, "bursolnum": 7317891, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 17987.656733921576, "monto_max": 500000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 55.0, "plazo_min": 4, "tasa": 0.3337, "comision": 0.0417, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":7, "monto_otorgado":15000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2016-11-03", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":8, "monto_otorgado":58500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2014-01-14", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":100000.0, "cuota":8622.0, "saldo":99776.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0022, "fecha_inicio":"2023-11-13", "tipo_deuda":"I", "ahorro_cuota_mensual":2833.1334749751168, "ahorro_total":67995.2033994028, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":5, "monto_otorgado":6000.0, "cuota":1244.0, "saldo":4614.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.231, "fecha_inicio":"2023-11-18", "tipo_deuda":"R", "ahorro_cuota_mensual":5857.999999999987, "ahorro_total":-5857.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":77011.0, "cuota":4494.0, "saldo":70275.0, "tasa_externa":0.3517, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":17.0, "frecuencia_externa":"M", "avance":0.0875, "fecha_inicio":"2023-09-05", "tipo_deuda":"I", "ahorro_cuota_mensual":35.93600041308764, "ahorro_total":862.4640099141034, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":2, "monto_otorgado":386000.0, "cuota":19300.0, "saldo":285213.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.2611, "fecha_inicio":"2007-08-02", "tipo_deuda":"R", "ahorro_cuota_mensual":304512.9999999992, "ahorro_total":-304512.9999999992, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":1, "monto_otorgado":225500.0, "cuota":11275.0, "saldo":86785.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.6151, "fecha_inicio":"2008-06-12", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":415000.0, "cuota":15404.0, "saldo":375261.0, "tasa_externa":0.3234, "tasa_kubo":0.2914, "numero_pagos_otorgado":48.0, "numero_pagos_restante":38.0, "frecuencia_externa":"M", "avance":0.0958, "fecha_inicio":"2023-06-06", "tipo_deuda":"I", "ahorro_cuota_mensual":-470.06345891491037, "ahorro_total":-22563.046027915698, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
+  </si>
+  <si>
+    <t>{"Prospecto": 5550621, "monto_maximo_cliente": 149997.0, "cuota_externa_total": 12974.0, "capacidad_maxima_pago": 157966.0, "bursolnum": 7317367, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 10649.214805333773, "monto_max": 149997.0, "cuota_min": 345.4415646244417, "monto_min": 5000, "plazo_max": 47.0, "plazo_min": 4, "tasa": 0.821, "comision": 0.0481, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.7007, 0.6722, 0.6509, 0.6193, 0.5991, 0.5668, 0.5504, 0.5486, 0.5391, 0.5292, 0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0481, 0.0476, 0.0471, 0.0466, 0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "BANCO", "registro":3, "monto_otorgado":149997.0, "cuota":11328.0, "saldo":146954.0, "tasa_externa":0.8388, "tasa_kubo":0.7007, "numero_pagos_otorgado":72.0, "numero_pagos_restante":32.0, "frecuencia_externa":"S", "avance":0.0203, "fecha_inicio":"2023-11-30", "tipo_deuda":"I", "ahorro_cuota_mensual":108.02772949290011, "ahorro_total":3888.998261744404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":6, "monto_otorgado":19500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2017-11-23", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "TIENDA COMERCIAL", "registro":7, "monto_otorgado":29000.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2004-07-31", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":8, "monto_otorgado":600.0, "cuota":400.0, "saldo":400.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":0.3333, "fecha_inicio":"2023-12-10", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":74, "monto_otorgado":0.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":-1.0, "fecha_inicio":"2005-03-18", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":4, "monto_otorgado":5300.0, "cuota":706.0, "saldo":4902.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.0751, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":46.75379753824268, "ahorro_total":561.0455704589122, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "COMUNICACIONES", "registro":5, "monto_otorgado":1036.0, "cuota":540.0, "saldo":540.0, "tasa_externa":-1.0, "tasa_kubo":0.7007, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.4788, "fecha_inicio":"2018-03-18", "tipo_deuda":"O", "ahorro_cuota_mensual":1079.9999999999995, "ahorro_total":-1079.9999999999995, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
   </si>
   <si>
     <t>{"Prospecto": 5555834, "monto_maximo_cliente": 216000.0, "cuota_externa_total": 37484.0, "capacidad_maxima_pago": 233771.0, "bursolnum": 7317878, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 8262.16314970029, "monto_max": 216000.0, "cuota_min": 173.6361078775173, "monto_min": 5000, "plazo_max": 48.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":10, "monto_otorgado":1000.0, "cuota":-1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2010-06-16", "tipo_deuda":"R", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "HIPOTECAGOBIERNO", "registro":6, "monto_otorgado":957301.0, "cuota":8990.0, "saldo":610774.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":360.0, "numero_pagos_restante":246.0, "frecuencia_externa":"M", "avance":0.362, "fecha_inicio":"2014-10-16", "tipo_deuda":"M", "ahorro_cuota_mensual":-8215.469934592616, "ahorro_total":-2957569.1764533417, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":5, "monto_otorgado":357520.0, "cuota":6182.0, "saldo":202251.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":60.0, "numero_pagos_restante":27.0, "frecuencia_externa":"M", "avance":0.4343, "fecha_inicio":"2021-07-19", "tipo_deuda":"I", "ahorro_cuota_mensual":-6233.676257673995, "ahorro_total":-374020.57546043966, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":216000.0, "cuota":16136.0, "saldo":192094.0, "tasa_externa":0.8799, "tasa_kubo":0.2914, "numero_pagos_otorgado":97.0, "numero_pagos_restante":38.0, "frecuencia_externa":"S", "avance":0.1107, "fecha_inicio":"2023-05-23", "tipo_deuda":"I", "ahorro_cuota_mensual":7873.836850299709, "ahorro_total":377944.168814386, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "SERVICIOS", "registro":2, "monto_otorgado":360.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2020-06-29", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":4, "monto_otorgado":97900.0, "cuota":4895.0, "saldo":43175.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.559, "fecha_inicio":"2021-09-29", "tipo_deuda":"R", "ahorro_cuota_mensual":48069.99999999988, "ahorro_total":-48069.99999999988, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":3, "monto_otorgado":60000.0, "cuota":4952.0, "saldo":59469.0, "tasa_externa":-1.0, "tasa_kubo":0.2914, "numero_pagos_otorgado":24.0, "numero_pagos_restante":19.0, "frecuencia_externa":"M", "avance":0.0089, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":1478.6800849850706, "ahorro_total":35488.322039641695, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -442,7 +445,13 @@
     <t>{"Prospecto": 5556081, "monto_maximo_cliente": 316003.0, "cuota_externa_total": 23712.0, "capacidad_maxima_pago": 338169.0, "bursolnum": 7317231, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 9025.601299860062, "monto_max": 316003.0, "cuota_min": 141.5274874508095, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.2914, "comision": 0.0384, "proba": 0, "segmento": 26, "tipo_flujo": "Pre-aprobado", "comprobante_tasa": 1, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.2], "comisiones": [0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":2, "monto_otorgado":1221.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2015-01-17", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":10, "monto_otorgado":0.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":0.0, "numero_pagos_restante":6.0, "frecuencia_externa":"B", "avance":-1.0, "fecha_inicio":"2002-03-23", "tipo_deuda":"O", "ahorro_cuota_mensual":-1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "KUBO FINANCIERO", "registro":6, "monto_otorgado":15000.0, "cuota":1711.0, "saldo":13415.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":12.0, "numero_pagos_restante":7.0, "frecuencia_externa":"M", "avance":0.1057, "fecha_inicio":"2023-11-14", "tipo_deuda":"I", "ahorro_cuota_mensual":298.40695334541124, "ahorro_total":3580.883440144935, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "SERVICIOS", "registro":11, "monto_otorgado":811.0, "cuota":1023.0, "saldo":1023.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":-0.2614, "fecha_inicio":"2009-12-14", "tipo_deuda":"O", "ahorro_cuota_mensual":2045.9999999999982, "ahorro_total":-2045.9999999999982, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "AUTOMOTRIZ", "registro":1, "monto_otorgado":237792.0, "cuota":8219.0, "saldo":78079.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":36.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.6717, "fecha_inicio":"2021-12-18", "tipo_deuda":"I", "ahorro_cuota_mensual":-1010.6680561864159, "ahorro_total":-36384.05002271097, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":59400.0, "cuota":2970.0, "saldo":6481.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.8909, "fecha_inicio":"2023-11-22", "tipo_deuda":"R", "ahorro_cuota_mensual":9450.999999999987, "ahorro_total":-9450.999999999987, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":8, "monto_otorgado":34676.0, "cuota":1159.0, "saldo":17008.0, "tasa_externa":0.2252, "tasa_kubo":0.2, "numero_pagos_otorgado":44.0, "numero_pagos_restante":21.0, "frecuencia_externa":"M", "avance":0.5095, "fecha_inicio":"2022-05-20", "tipo_deuda":"I", "ahorro_cuota_mensual":-18.409014537201756, "ahorro_total":-809.9966396368773, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":7, "monto_otorgado":44627.0, "cuota":1355.0, "saldo":33019.0, "tasa_externa":0.1847, "tasa_kubo":0.2, "numero_pagos_otorgado":46.0, "numero_pagos_restante":33.0, "frecuencia_externa":"M", "avance":0.2601, "fecha_inicio":"2023-03-07", "tipo_deuda":"I", "ahorro_cuota_mensual":-118.4225517298596, "ahorro_total":-5447.437379573542, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":4, "monto_otorgado":57000.0, "cuota":200.0, "saldo":54663.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.041, "fecha_inicio":"2016-10-11", "tipo_deuda":"R", "ahorro_cuota_mensual":54862.99999999989, "ahorro_total":-54862.99999999989, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":236700.0, "cuota":7681.0, "saldo":196294.0, "tasa_externa":0.3058, "tasa_kubo":0.2, "numero_pagos_otorgado":60.0, "numero_pagos_restante":39.0, "frecuencia_externa":"M", "avance":0.1707, "fecha_inicio":"2022-06-29", "tipo_deuda":"I", "ahorro_cuota_mensual":981.0887440786782, "ahorro_total":58865.32464472069, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":9, "monto_otorgado":62969.0, "cuota":1821.0, "saldo":15507.0, "tasa_externa":-1.0, "tasa_kubo":0.2, "numero_pagos_otorgado":45.0, "numero_pagos_restante":10.0, "frecuencia_externa":"M", "avance":0.7537, "fecha_inicio":"2021-04-29", "tipo_deuda":"I", "ahorro_cuota_mensual":-286.8510756114638, "ahorro_total":-12908.29840251587, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}]}]}</t>
   </si>
   <si>
+    <t>monto maximo muy ajustado a las deudas consolidables</t>
+  </si>
+  <si>
     <t>{"Prospecto": 5587133, "monto_maximo_cliente": 120000.0, "cuota_externa_total": 14277.0, "capacidad_maxima_pago": 149878.0, "bursolnum": 7317592, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 5997.726330648386, "monto_max": 120000.0, "cuota_min": 249.09435350839087, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.7554, "comision": 0.046, "proba": 0, "segmento": 26, "tipo_flujo": "Autogestivo", "comprobante_tasa": 0, "comprobante_ingresos": 0, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.4818, 0.4706, 0.4582, 0.4428, 0.4295, 0.3813, 0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.046, 0.0455, 0.0449, 0.0444, 0.0439, 0.0433, 0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "COMUNICACIONES", "registro":4, "monto_otorgado":871.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"M", "avance":1.0, "fecha_inicio":"2016-01-25", "tipo_deuda":"O", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "MICROFINANCIERA", "registro":12, "monto_otorgado":30000.0, "cuota":2027.0, "saldo":21420.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":36.0, "numero_pagos_restante":15.0, "frecuencia_externa":"M", "avance":0.286, "fecha_inicio":"2022-07-12", "tipo_deuda":"I", "ahorro_cuota_mensual":293.0145209518266, "ahorro_total":10548.52275426576, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":11, "monto_otorgado":3030.0, "cuota":1451.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-04-28", "tipo_deuda":"R", "ahorro_cuota_mensual":1451.0, "ahorro_total":-1451.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FINANCIERA", "registro":10, "monto_otorgado":10200.0, "cuota":4148.0, "saldo":3423.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.6644, "fecha_inicio":"2023-07-23", "tipo_deuda":"R", "ahorro_cuota_mensual":7571.000000000007, "ahorro_total":-7571.000000000007, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "FINANCIERA", "registro":9, "monto_otorgado":500.0, "cuota":0.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-09-15", "tipo_deuda":"R", "ahorro_cuota_mensual":0.0, "ahorro_total":-0.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":5, "monto_otorgado":21000.0, "cuota":720.0, "saldo":580.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.9724, "fecha_inicio":"2022-04-11", "tipo_deuda":"R", "ahorro_cuota_mensual":1300.0000000000011, "ahorro_total":-1300.0000000000011, "estatus_tasa":"No calculable", "tipo_revolvencia":"Transactor", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":6, "monto_otorgado":120000.0, "cuota":6950.0, "saldo":87879.0, "tasa_externa":0.6482, "tasa_kubo":0.4818, "numero_pagos_otorgado":96.0, "numero_pagos_restante":14.0, "frecuencia_externa":"S", "avance":0.2677, "fecha_inicio":"2021-06-15", "tipo_deuda":"I", "ahorro_cuota_mensual":652.8720397873758, "ahorro_total":31337.85790979404, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "BANCO", "registro":3, "monto_otorgado":10000.0, "cuota":500.0, "saldo":2163.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7837, "fecha_inicio":"2023-03-24", "tipo_deuda":"R", "ahorro_cuota_mensual":2663.0000000000045, "ahorro_total":-2663.0000000000045, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":2, "monto_otorgado":12000.0, "cuota":1700.0, "saldo":3197.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.7336, "fecha_inicio":"2022-10-26", "tipo_deuda":"R", "ahorro_cuota_mensual":4897.000000000006, "ahorro_total":-4897.000000000006, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":1, "monto_otorgado":15000.0, "cuota":750.0, "saldo":7114.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":0.5257, "fecha_inicio":"2023-03-15", "tipo_deuda":"R", "ahorro_cuota_mensual":7864.0000000000155, "ahorro_total":-7864.0000000000155, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "KUBO FINANCIERO", "registro":8, "monto_otorgado":30000.0, "cuota":3860.0, "saldo":26831.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.1056, "fecha_inicio":"2023-11-27", "tipo_deuda":"I", "ahorro_cuota_mensual":540.3240688517226, "ahorro_total":6483.888826220671, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":7, "monto_otorgado":3000.0, "cuota":3200.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.4818, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2023-04-24", "tipo_deuda":"R", "ahorro_cuota_mensual":3200.0, "ahorro_total":-3200.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
+  </si>
+  <si>
+    <t>todo bien</t>
   </si>
   <si>
     <t>{"Prospecto": 5610632, "monto_maximo_cliente": 500000.0, "cuota_externa_total": 39729.0, "capacidad_maxima_pago": 639036.88, "bursolnum": 7317550, "Oferta Automatico": [{"loan_type": "CON", "sub_loan_type": "CONSOLIDACION_FLEXIBLE" , "cuota_max": 20132.49706217271, "monto_max": 500000.0, "cuota_min": 200.2991210698785, "monto_min": 5000, "plazo_max": 59.0, "plazo_min": 4, "tasa": 0.5668, "comision": 0.0428, "proba": 0, "segmento": 26, "tipo_flujo": "Tradicional", "comprobante_tasa": 1, "comprobante_ingresos": 1, "frecuencia": ["M", "S", "K", "W"] , "tasa_asistida": [0.3617, 0.3337, 0.2914, 0.2622, 0.2306, 0.2], "comisiones": [0.0428, 0.0423, 0.0417, 0.03845, 0.03845, 0.03845], "deudas_buro": [ {"entidad": "KUBO FINANCIERO", "registro":2, "monto_otorgado":100000.0, "cuota":11651.0, "saldo":97858.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":12.0, "numero_pagos_restante":8.0, "frecuencia_externa":"M", "avance":0.0214, "fecha_inicio":"2023-12-05", "tipo_deuda":"I", "ahorro_cuota_mensual":1304.7771529567344, "ahorro_total":15657.325835480813, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}, {"entidad": "FONDOS Y FIDEIC", "registro":3, "monto_otorgado":261262.0, "cuota":13063.0, "saldo":77481.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":40.0, "numero_pagos_restante":6.0, "frecuencia_externa":"Z", "avance":0.7034, "fecha_inicio":"2015-03-19", "tipo_deuda":"R", "ahorro_cuota_mensual":9436.782392573523, "ahorro_total":377471.2957029409, "estatus_tasa":"No calculable", "tipo_revolvencia":"Light Revolver", "deuda_consolidable":0}, {"entidad": "BANCO", "registro":1, "monto_otorgado":506576.0, "cuota":21226.0, "saldo":506576.0, "tasa_externa":0.4529, "tasa_kubo":0.3617, "numero_pagos_otorgado":60.0, "numero_pagos_restante":53.0, "frecuencia_externa":"M", "avance":0.0, "fecha_inicio":"2023-09-11", "tipo_deuda":"I", "ahorro_cuota_mensual":932.654488981043, "ahorro_total":55959.26933886258, "estatus_tasa":"Calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":1}, {"entidad": "TIENDA COMERCIAL", "registro":4, "monto_otorgado":18000.0, "cuota":1.0, "saldo":0.0, "tasa_externa":-1.0, "tasa_kubo":0.3617, "numero_pagos_otorgado":-1.0, "numero_pagos_restante":-1.0, "frecuencia_externa":"Z", "avance":1.0, "fecha_inicio":"2013-02-16", "tipo_deuda":"R", "ahorro_cuota_mensual":1.0, "ahorro_total":-1.0, "estatus_tasa":"No calculable", "tipo_revolvencia":"High Revolver", "deuda_consolidable":0}]}]}</t>
@@ -473,7 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -848,11 +857,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="55.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,196 +869,196 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="3">
-        <v>28837</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="3">
-        <v>39500</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="3">
-        <v>380930</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="3">
-        <v>405226</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>458697</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>458697</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>458697</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>458697</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="3">
-        <v>557483</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="3">
-        <v>659364</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="3">
-        <v>829025</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="3">
-        <v>847726</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="3">
-        <v>920002</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="3">
-        <v>976655</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="3">
-        <v>1177743</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>1302408</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
         <v>1448462</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
         <v>1496214</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
         <v>1550610</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <v>1630602</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
         <v>1784380</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>1848246</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <v>2009039</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
@@ -1057,7 +1066,7 @@
         <v>2090977</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
@@ -1065,7 +1074,7 @@
         <v>2162754</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
@@ -1073,7 +1082,7 @@
         <v>2298632</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
@@ -1081,7 +1090,7 @@
         <v>2311104</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -1089,7 +1098,7 @@
         <v>2372071</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -1097,7 +1106,7 @@
         <v>2612016</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
@@ -1105,7 +1114,7 @@
         <v>2687735</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -1113,7 +1122,7 @@
         <v>2710338</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
@@ -1121,7 +1130,7 @@
         <v>2790904</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
@@ -1129,7 +1138,7 @@
         <v>2878373</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
@@ -1137,7 +1146,7 @@
         <v>2901882</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
@@ -1145,7 +1154,7 @@
         <v>2937559</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
@@ -1153,7 +1162,7 @@
         <v>3073017</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -1161,7 +1170,7 @@
         <v>3159500</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -1169,7 +1178,7 @@
         <v>3284861</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -1177,7 +1186,7 @@
         <v>3312894</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
@@ -1185,7 +1194,7 @@
         <v>3341344</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
@@ -1193,7 +1202,7 @@
         <v>3463619</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -1201,7 +1210,7 @@
         <v>3473842</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
@@ -1209,7 +1218,7 @@
         <v>3549605</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
@@ -1217,7 +1226,7 @@
         <v>3553967</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
@@ -1225,7 +1234,7 @@
         <v>3567378</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
@@ -1233,7 +1242,7 @@
         <v>3589493</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
@@ -1241,7 +1250,7 @@
         <v>3632363</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
@@ -1249,7 +1258,7 @@
         <v>3728149</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
@@ -1257,7 +1266,7 @@
         <v>3730883</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
@@ -1265,7 +1274,7 @@
         <v>3741894</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
@@ -1273,7 +1282,7 @@
         <v>3748714</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
@@ -1281,7 +1290,7 @@
         <v>3786062</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
@@ -1289,7 +1298,7 @@
         <v>3800116</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
@@ -1297,7 +1306,7 @@
         <v>3805773</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
@@ -1305,7 +1314,7 @@
         <v>3868724</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
@@ -1313,7 +1322,7 @@
         <v>3926429</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
@@ -1321,7 +1330,7 @@
         <v>3941195</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
@@ -1329,7 +1338,7 @@
         <v>3987119</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
@@ -1337,7 +1346,7 @@
         <v>4007295</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
@@ -1345,7 +1354,7 @@
         <v>4018492</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
@@ -1353,7 +1362,7 @@
         <v>4039644</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
@@ -1361,7 +1370,7 @@
         <v>4134401</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
@@ -1369,7 +1378,7 @@
         <v>4143061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
@@ -1377,7 +1386,7 @@
         <v>4170086</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
@@ -1385,7 +1394,7 @@
         <v>4206571</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
@@ -1393,7 +1402,7 @@
         <v>4231833</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
@@ -1401,7 +1410,7 @@
         <v>4261012</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
@@ -1409,7 +1418,7 @@
         <v>4287160</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
@@ -1417,7 +1426,7 @@
         <v>4302613</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
@@ -1425,7 +1434,7 @@
         <v>4356609</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
@@ -1433,7 +1442,7 @@
         <v>4389079</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
@@ -1441,7 +1450,7 @@
         <v>4433343</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
@@ -1449,7 +1458,7 @@
         <v>4445474</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
@@ -1457,7 +1466,7 @@
         <v>4450135</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
@@ -1465,7 +1474,7 @@
         <v>4482737</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
@@ -1473,7 +1482,7 @@
         <v>4495647</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
@@ -1481,7 +1490,7 @@
         <v>4551959</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
@@ -1489,7 +1498,7 @@
         <v>4557823</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
@@ -1497,7 +1506,7 @@
         <v>4569317</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
@@ -1505,7 +1514,7 @@
         <v>4569546</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
@@ -1513,7 +1522,7 @@
         <v>4572013</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
@@ -1521,7 +1530,7 @@
         <v>4584137</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
@@ -1529,7 +1538,7 @@
         <v>4596838</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
@@ -1537,7 +1546,7 @@
         <v>4609687</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
@@ -1545,7 +1554,7 @@
         <v>4611310</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
@@ -1553,7 +1562,7 @@
         <v>4620988</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
@@ -1561,7 +1570,7 @@
         <v>4648381</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
@@ -1569,7 +1578,7 @@
         <v>4651445</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
@@ -1577,7 +1586,7 @@
         <v>4672618</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
@@ -1585,7 +1594,7 @@
         <v>4682530</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
@@ -1593,7 +1602,7 @@
         <v>4682600</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
@@ -1601,7 +1610,7 @@
         <v>4691173</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
@@ -1609,7 +1618,7 @@
         <v>4721165</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
@@ -1617,7 +1626,7 @@
         <v>4726077</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
@@ -1625,7 +1634,7 @@
         <v>4733030</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
@@ -1633,7 +1642,7 @@
         <v>4766643</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
@@ -1641,7 +1650,7 @@
         <v>4767970</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
@@ -1649,7 +1658,7 @@
         <v>4803033</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
@@ -1657,7 +1666,7 @@
         <v>4803129</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
@@ -1665,7 +1674,7 @@
         <v>4831217</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
@@ -1673,7 +1682,7 @@
         <v>4881018</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
@@ -1681,7 +1690,7 @@
         <v>4884745</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
@@ -1689,7 +1698,7 @@
         <v>4907839</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
@@ -1697,7 +1706,7 @@
         <v>4916169</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
@@ -1705,7 +1714,7 @@
         <v>4928823</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
@@ -1713,7 +1722,7 @@
         <v>4935313</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
@@ -1721,7 +1730,7 @@
         <v>4940454</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
@@ -1729,7 +1738,7 @@
         <v>4982051</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
@@ -1737,7 +1746,7 @@
         <v>5002691</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
@@ -1745,7 +1754,7 @@
         <v>5037305</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
@@ -1753,7 +1762,7 @@
         <v>5096951</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
@@ -1761,7 +1770,7 @@
         <v>5097565</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
@@ -1769,7 +1778,7 @@
         <v>5104626</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
@@ -1777,7 +1786,7 @@
         <v>5109565</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
@@ -1785,7 +1794,7 @@
         <v>5115747</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
@@ -1793,7 +1802,7 @@
         <v>5133040</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
@@ -1801,7 +1810,7 @@
         <v>5158482</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
@@ -1809,7 +1818,7 @@
         <v>5177117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
@@ -1817,7 +1826,7 @@
         <v>5205463</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
@@ -1825,7 +1834,7 @@
         <v>5206962</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
@@ -1833,7 +1842,7 @@
         <v>5215233</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
@@ -1841,7 +1850,7 @@
         <v>5252137</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
@@ -1849,7 +1858,7 @@
         <v>5267958</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
@@ -1857,7 +1866,7 @@
         <v>5283904</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
@@ -1865,7 +1874,7 @@
         <v>5286466</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
@@ -1873,7 +1882,7 @@
         <v>5286748</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
@@ -1881,7 +1890,7 @@
         <v>5310347</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
@@ -1889,159 +1898,159 @@
         <v>5327026</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="3">
         <v>5361027</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="3">
         <v>5383814</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="3">
         <v>5417924</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="3">
         <v>5446631</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
       <c r="A135" s="3">
         <v>5446631</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
       <c r="A136" s="3">
         <v>5446631</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
       <c r="A137" s="3">
         <v>5446631</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
       <c r="A138" s="3">
         <v>5476222</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
       <c r="A139" s="3">
         <v>5484371</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
       <c r="A140" s="3">
         <v>5511694</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
       <c r="A141" s="3">
         <v>5532709</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
       <c r="A142" s="3">
         <v>5544466</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
       <c r="A143" s="3">
         <v>5547392</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
       <c r="A144" s="3">
         <v>5550621</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
       <c r="A145" s="3">
         <v>5555834</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
       <c r="A146" s="3">
         <v>5556081</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="3">
-        <v>5587133</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+      <c r="A147" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
-      <c r="A148" s="3">
-        <v>5610632</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+      <c r="A148" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+      <c r="A149" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
-      <c r="A149" s="3">
-        <v>5660133</v>
-      </c>
       <c r="B149" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -621,7 +621,7 @@
     <col min="2" max="2" style="6" width="82.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>24059</v>
       </c>
@@ -637,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>189189</v>
       </c>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>230009</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>301784</v>
       </c>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>653012</v>
       </c>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>820117</v>
       </c>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>985053</v>
       </c>
@@ -685,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>1360950</v>
       </c>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>1585349</v>
       </c>
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>1669798</v>
       </c>
@@ -709,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>1764064</v>
       </c>
@@ -717,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>1823294</v>
       </c>
@@ -725,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>2352204</v>
       </c>
@@ -733,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>2371630</v>
       </c>
@@ -741,7 +741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>2417292</v>
       </c>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>2433653</v>
       </c>

--- a/Json_ofertas.xlsx
+++ b/Json_ofertas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats